--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
           <t>2026-02-15 21:14:34</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2026-02-15 21:21:28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -508,6 +513,9 @@
       <c r="I2" t="n">
         <v>619</v>
       </c>
+      <c r="J2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,6 +557,9 @@
       <c r="I3" t="n">
         <v>659</v>
       </c>
+      <c r="J3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -590,6 +601,9 @@
       <c r="I4" t="n">
         <v>659</v>
       </c>
+      <c r="J4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -631,6 +645,9 @@
       <c r="I5" t="n">
         <v>749</v>
       </c>
+      <c r="J5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -672,6 +689,9 @@
       <c r="I6" t="n">
         <v>749</v>
       </c>
+      <c r="J6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -713,6 +733,9 @@
       <c r="I7" t="n">
         <v>809</v>
       </c>
+      <c r="J7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +777,9 @@
       <c r="I8" t="n">
         <v>809</v>
       </c>
+      <c r="J8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -795,6 +821,9 @@
       <c r="I9" t="n">
         <v>809</v>
       </c>
+      <c r="J9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -836,6 +865,9 @@
       <c r="I10" t="n">
         <v>809</v>
       </c>
+      <c r="J10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -877,6 +909,9 @@
       <c r="I11" t="n">
         <v>809</v>
       </c>
+      <c r="J11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -918,6 +953,9 @@
       <c r="I12" t="n">
         <v>849</v>
       </c>
+      <c r="J12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -959,6 +997,9 @@
       <c r="I13" t="n">
         <v>899</v>
       </c>
+      <c r="J13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1000,6 +1041,9 @@
       <c r="I14" t="n">
         <v>899</v>
       </c>
+      <c r="J14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1041,6 +1085,9 @@
       <c r="I15" t="n">
         <v>909</v>
       </c>
+      <c r="J15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1082,6 +1129,9 @@
       <c r="I16" t="n">
         <v>909</v>
       </c>
+      <c r="J16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1123,6 +1173,9 @@
       <c r="I17" t="n">
         <v>909</v>
       </c>
+      <c r="J17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1162,6 +1215,9 @@
         </is>
       </c>
       <c r="I18" t="n">
+        <v>909</v>
+      </c>
+      <c r="J18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1201,6 +1257,9 @@
       <c r="I19" t="n">
         <v>949</v>
       </c>
+      <c r="J19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1242,6 +1301,9 @@
       <c r="I20" t="n">
         <v>969</v>
       </c>
+      <c r="J20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1283,6 +1345,9 @@
       <c r="I21" t="n">
         <v>969</v>
       </c>
+      <c r="J21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1324,6 +1389,9 @@
       <c r="I22" t="n">
         <v>969</v>
       </c>
+      <c r="J22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1365,6 +1433,9 @@
       <c r="I23" t="n">
         <v>969</v>
       </c>
+      <c r="J23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1406,6 +1477,9 @@
       <c r="I24" t="n">
         <v>969</v>
       </c>
+      <c r="J24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1447,6 +1521,9 @@
       <c r="I25" t="n">
         <v>999</v>
       </c>
+      <c r="J25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1488,6 +1565,9 @@
       <c r="I26" t="n">
         <v>999</v>
       </c>
+      <c r="J26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1529,6 +1609,9 @@
       <c r="I27" t="n">
         <v>1039</v>
       </c>
+      <c r="J27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1570,6 +1653,9 @@
       <c r="I28" t="n">
         <v>1039</v>
       </c>
+      <c r="J28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1611,6 +1697,9 @@
       <c r="I29" t="n">
         <v>1079</v>
       </c>
+      <c r="J29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1652,6 +1741,9 @@
       <c r="I30" t="n">
         <v>1079</v>
       </c>
+      <c r="J30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1693,6 +1785,9 @@
       <c r="I31" t="n">
         <v>1079</v>
       </c>
+      <c r="J31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1734,6 +1829,9 @@
       <c r="I32" t="n">
         <v>1079</v>
       </c>
+      <c r="J32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1775,6 +1873,9 @@
       <c r="I33" t="n">
         <v>1099</v>
       </c>
+      <c r="J33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1816,6 +1917,9 @@
       <c r="I34" t="n">
         <v>1099</v>
       </c>
+      <c r="J34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1857,6 +1961,9 @@
       <c r="I35" t="n">
         <v>1099</v>
       </c>
+      <c r="J35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1898,6 +2005,9 @@
       <c r="I36" t="n">
         <v>1199</v>
       </c>
+      <c r="J36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1939,6 +2049,9 @@
       <c r="I37" t="n">
         <v>1219</v>
       </c>
+      <c r="J37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1980,6 +2093,9 @@
       <c r="I38" t="n">
         <v>1219</v>
       </c>
+      <c r="J38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2021,6 +2137,9 @@
       <c r="I39" t="n">
         <v>1219</v>
       </c>
+      <c r="J39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2062,6 +2181,9 @@
       <c r="I40" t="n">
         <v>1219</v>
       </c>
+      <c r="J40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2103,6 +2225,9 @@
       <c r="I41" t="n">
         <v>1219</v>
       </c>
+      <c r="J41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2144,6 +2269,9 @@
       <c r="I42" t="n">
         <v>1229</v>
       </c>
+      <c r="J42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2185,6 +2313,9 @@
       <c r="I43" t="n">
         <v>1249</v>
       </c>
+      <c r="J43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2226,6 +2357,9 @@
       <c r="I44" t="n">
         <v>1249</v>
       </c>
+      <c r="J44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2267,6 +2401,9 @@
       <c r="I45" t="n">
         <v>1329</v>
       </c>
+      <c r="J45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2308,6 +2445,9 @@
       <c r="I46" t="n">
         <v>1329</v>
       </c>
+      <c r="J46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2349,6 +2489,9 @@
       <c r="I47" t="n">
         <v>1329</v>
       </c>
+      <c r="J47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2390,6 +2533,9 @@
       <c r="I48" t="n">
         <v>1329</v>
       </c>
+      <c r="J48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2431,6 +2577,9 @@
       <c r="I49" t="n">
         <v>1329</v>
       </c>
+      <c r="J49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2472,6 +2621,9 @@
       <c r="I50" t="n">
         <v>1329</v>
       </c>
+      <c r="J50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2513,6 +2665,9 @@
       <c r="I51" t="n">
         <v>1329</v>
       </c>
+      <c r="J51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2554,6 +2709,9 @@
       <c r="I52" t="n">
         <v>1349</v>
       </c>
+      <c r="J52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2595,6 +2753,9 @@
       <c r="I53" t="n">
         <v>1479</v>
       </c>
+      <c r="J53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2636,6 +2797,9 @@
       <c r="I54" t="n">
         <v>1479</v>
       </c>
+      <c r="J54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2677,6 +2841,9 @@
       <c r="I55" t="n">
         <v>1479</v>
       </c>
+      <c r="J55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2718,6 +2885,9 @@
       <c r="I56" t="n">
         <v>1579</v>
       </c>
+      <c r="J56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2759,6 +2929,9 @@
       <c r="I57" t="n">
         <v>1579</v>
       </c>
+      <c r="J57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2800,6 +2973,9 @@
       <c r="I58" t="n">
         <v>1579</v>
       </c>
+      <c r="J58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2841,6 +3017,9 @@
       <c r="I59" t="n">
         <v>1579</v>
       </c>
+      <c r="J59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2882,6 +3061,9 @@
       <c r="I60" t="n">
         <v>1579</v>
       </c>
+      <c r="J60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2923,6 +3105,9 @@
       <c r="I61" t="n">
         <v>1579</v>
       </c>
+      <c r="J61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2964,6 +3149,9 @@
       <c r="I62" t="n">
         <v>1579</v>
       </c>
+      <c r="J62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3005,6 +3193,9 @@
       <c r="I63" t="n">
         <v>1729</v>
       </c>
+      <c r="J63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3046,6 +3237,9 @@
       <c r="I64" t="n">
         <v>1729</v>
       </c>
+      <c r="J64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3087,6 +3281,9 @@
       <c r="I65" t="n">
         <v>1729</v>
       </c>
+      <c r="J65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3128,6 +3325,9 @@
       <c r="I66" t="n">
         <v>1829</v>
       </c>
+      <c r="J66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3169,6 +3369,9 @@
       <c r="I67" t="n">
         <v>1829</v>
       </c>
+      <c r="J67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3210,6 +3413,9 @@
       <c r="I68" t="n">
         <v>1829</v>
       </c>
+      <c r="J68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3251,6 +3457,9 @@
       <c r="I69" t="n">
         <v>1979</v>
       </c>
+      <c r="J69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3292,6 +3501,9 @@
       <c r="I70" t="n">
         <v>1979</v>
       </c>
+      <c r="J70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3333,6 +3545,9 @@
       <c r="I71" t="n">
         <v>1979</v>
       </c>
+      <c r="J71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3374,6 +3589,9 @@
       <c r="I72" t="n">
         <v>2479</v>
       </c>
+      <c r="J72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3415,6 +3633,9 @@
       <c r="I73" t="n">
         <v>2479</v>
       </c>
+      <c r="J73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3454,6 +3675,9 @@
         </is>
       </c>
       <c r="I74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="J74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>2026-02-15 21:21:28</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2026-02-15 22:19:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,6 +521,9 @@
       <c r="J2" t="n">
         <v>619</v>
       </c>
+      <c r="K2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +568,9 @@
       <c r="J3" t="n">
         <v>659</v>
       </c>
+      <c r="K3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -604,6 +615,9 @@
       <c r="J4" t="n">
         <v>659</v>
       </c>
+      <c r="K4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,6 +662,9 @@
       <c r="J5" t="n">
         <v>749</v>
       </c>
+      <c r="K5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -692,6 +709,9 @@
       <c r="J6" t="n">
         <v>749</v>
       </c>
+      <c r="K6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +756,9 @@
       <c r="J7" t="n">
         <v>809</v>
       </c>
+      <c r="K7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -780,6 +803,9 @@
       <c r="J8" t="n">
         <v>809</v>
       </c>
+      <c r="K8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -824,6 +850,9 @@
       <c r="J9" t="n">
         <v>809</v>
       </c>
+      <c r="K9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -843,7 +872,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -868,6 +897,9 @@
       <c r="J10" t="n">
         <v>809</v>
       </c>
+      <c r="K10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -912,6 +944,9 @@
       <c r="J11" t="n">
         <v>809</v>
       </c>
+      <c r="K11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -956,6 +991,9 @@
       <c r="J12" t="n">
         <v>849</v>
       </c>
+      <c r="K12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1000,6 +1038,9 @@
       <c r="J13" t="n">
         <v>899</v>
       </c>
+      <c r="K13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1044,6 +1085,9 @@
       <c r="J14" t="n">
         <v>899</v>
       </c>
+      <c r="K14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1088,6 +1132,9 @@
       <c r="J15" t="n">
         <v>909</v>
       </c>
+      <c r="K15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1132,6 +1179,9 @@
       <c r="J16" t="n">
         <v>909</v>
       </c>
+      <c r="K16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1176,6 +1226,9 @@
       <c r="J17" t="n">
         <v>909</v>
       </c>
+      <c r="K17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1218,6 +1271,9 @@
         <v>909</v>
       </c>
       <c r="J18" t="n">
+        <v>909</v>
+      </c>
+      <c r="K18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1260,6 +1316,9 @@
       <c r="J19" t="n">
         <v>949</v>
       </c>
+      <c r="K19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1304,6 +1363,9 @@
       <c r="J20" t="n">
         <v>969</v>
       </c>
+      <c r="K20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1348,6 +1410,9 @@
       <c r="J21" t="n">
         <v>969</v>
       </c>
+      <c r="K21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1392,6 +1457,9 @@
       <c r="J22" t="n">
         <v>969</v>
       </c>
+      <c r="K22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1436,6 +1504,9 @@
       <c r="J23" t="n">
         <v>969</v>
       </c>
+      <c r="K23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1480,6 +1551,9 @@
       <c r="J24" t="n">
         <v>969</v>
       </c>
+      <c r="K24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1524,6 +1598,9 @@
       <c r="J25" t="n">
         <v>999</v>
       </c>
+      <c r="K25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1568,6 +1645,9 @@
       <c r="J26" t="n">
         <v>999</v>
       </c>
+      <c r="K26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1612,6 +1692,9 @@
       <c r="J27" t="n">
         <v>1039</v>
       </c>
+      <c r="K27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1656,6 +1739,9 @@
       <c r="J28" t="n">
         <v>1039</v>
       </c>
+      <c r="K28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1700,6 +1786,9 @@
       <c r="J29" t="n">
         <v>1079</v>
       </c>
+      <c r="K29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1744,6 +1833,9 @@
       <c r="J30" t="n">
         <v>1079</v>
       </c>
+      <c r="K30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1788,6 +1880,9 @@
       <c r="J31" t="n">
         <v>1079</v>
       </c>
+      <c r="K31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1832,6 +1927,9 @@
       <c r="J32" t="n">
         <v>1079</v>
       </c>
+      <c r="K32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1876,6 +1974,9 @@
       <c r="J33" t="n">
         <v>1099</v>
       </c>
+      <c r="K33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1920,6 +2021,9 @@
       <c r="J34" t="n">
         <v>1099</v>
       </c>
+      <c r="K34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1964,6 +2068,9 @@
       <c r="J35" t="n">
         <v>1099</v>
       </c>
+      <c r="K35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2008,6 +2115,9 @@
       <c r="J36" t="n">
         <v>1199</v>
       </c>
+      <c r="K36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2052,6 +2162,9 @@
       <c r="J37" t="n">
         <v>1219</v>
       </c>
+      <c r="K37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2096,6 +2209,9 @@
       <c r="J38" t="n">
         <v>1219</v>
       </c>
+      <c r="K38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2140,6 +2256,9 @@
       <c r="J39" t="n">
         <v>1219</v>
       </c>
+      <c r="K39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2184,6 +2303,9 @@
       <c r="J40" t="n">
         <v>1219</v>
       </c>
+      <c r="K40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2228,6 +2350,9 @@
       <c r="J41" t="n">
         <v>1219</v>
       </c>
+      <c r="K41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2272,6 +2397,9 @@
       <c r="J42" t="n">
         <v>1229</v>
       </c>
+      <c r="K42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2316,6 +2444,9 @@
       <c r="J43" t="n">
         <v>1249</v>
       </c>
+      <c r="K43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2360,6 +2491,9 @@
       <c r="J44" t="n">
         <v>1249</v>
       </c>
+      <c r="K44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2404,6 +2538,9 @@
       <c r="J45" t="n">
         <v>1329</v>
       </c>
+      <c r="K45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2448,6 +2585,9 @@
       <c r="J46" t="n">
         <v>1329</v>
       </c>
+      <c r="K46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2492,6 +2632,9 @@
       <c r="J47" t="n">
         <v>1329</v>
       </c>
+      <c r="K47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2536,6 +2679,9 @@
       <c r="J48" t="n">
         <v>1329</v>
       </c>
+      <c r="K48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2580,6 +2726,9 @@
       <c r="J49" t="n">
         <v>1329</v>
       </c>
+      <c r="K49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2624,6 +2773,9 @@
       <c r="J50" t="n">
         <v>1329</v>
       </c>
+      <c r="K50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2668,6 +2820,9 @@
       <c r="J51" t="n">
         <v>1329</v>
       </c>
+      <c r="K51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2712,6 +2867,9 @@
       <c r="J52" t="n">
         <v>1349</v>
       </c>
+      <c r="K52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2756,6 +2914,9 @@
       <c r="J53" t="n">
         <v>1479</v>
       </c>
+      <c r="K53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2800,6 +2961,9 @@
       <c r="J54" t="n">
         <v>1479</v>
       </c>
+      <c r="K54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2844,6 +3008,9 @@
       <c r="J55" t="n">
         <v>1479</v>
       </c>
+      <c r="K55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2888,6 +3055,9 @@
       <c r="J56" t="n">
         <v>1579</v>
       </c>
+      <c r="K56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2932,6 +3102,9 @@
       <c r="J57" t="n">
         <v>1579</v>
       </c>
+      <c r="K57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2976,6 +3149,9 @@
       <c r="J58" t="n">
         <v>1579</v>
       </c>
+      <c r="K58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3020,6 +3196,9 @@
       <c r="J59" t="n">
         <v>1579</v>
       </c>
+      <c r="K59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3064,6 +3243,9 @@
       <c r="J60" t="n">
         <v>1579</v>
       </c>
+      <c r="K60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3108,6 +3290,9 @@
       <c r="J61" t="n">
         <v>1579</v>
       </c>
+      <c r="K61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3152,6 +3337,9 @@
       <c r="J62" t="n">
         <v>1579</v>
       </c>
+      <c r="K62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3196,6 +3384,9 @@
       <c r="J63" t="n">
         <v>1729</v>
       </c>
+      <c r="K63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3240,6 +3431,9 @@
       <c r="J64" t="n">
         <v>1729</v>
       </c>
+      <c r="K64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3284,6 +3478,9 @@
       <c r="J65" t="n">
         <v>1729</v>
       </c>
+      <c r="K65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3328,6 +3525,9 @@
       <c r="J66" t="n">
         <v>1829</v>
       </c>
+      <c r="K66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3372,6 +3572,9 @@
       <c r="J67" t="n">
         <v>1829</v>
       </c>
+      <c r="K67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3416,6 +3619,9 @@
       <c r="J68" t="n">
         <v>1829</v>
       </c>
+      <c r="K68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3460,6 +3666,9 @@
       <c r="J69" t="n">
         <v>1979</v>
       </c>
+      <c r="K69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3504,6 +3713,9 @@
       <c r="J70" t="n">
         <v>1979</v>
       </c>
+      <c r="K70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3548,6 +3760,9 @@
       <c r="J71" t="n">
         <v>1979</v>
       </c>
+      <c r="K71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3592,6 +3807,9 @@
       <c r="J72" t="n">
         <v>2479</v>
       </c>
+      <c r="K72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3636,6 +3854,9 @@
       <c r="J73" t="n">
         <v>2479</v>
       </c>
+      <c r="K73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3678,6 +3899,9 @@
         <v>2479</v>
       </c>
       <c r="J74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="K74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,11 @@
           <t>2026-02-15 22:19:20</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2026-02-15 23:21:19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -524,6 +529,9 @@
       <c r="K2" t="n">
         <v>619</v>
       </c>
+      <c r="L2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -571,6 +579,9 @@
       <c r="K3" t="n">
         <v>659</v>
       </c>
+      <c r="L3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -618,6 +629,9 @@
       <c r="K4" t="n">
         <v>659</v>
       </c>
+      <c r="L4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -665,6 +679,9 @@
       <c r="K5" t="n">
         <v>749</v>
       </c>
+      <c r="L5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -712,6 +729,9 @@
       <c r="K6" t="n">
         <v>749</v>
       </c>
+      <c r="L6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -759,6 +779,9 @@
       <c r="K7" t="n">
         <v>809</v>
       </c>
+      <c r="L7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -806,6 +829,9 @@
       <c r="K8" t="n">
         <v>809</v>
       </c>
+      <c r="L8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -853,6 +879,9 @@
       <c r="K9" t="n">
         <v>809</v>
       </c>
+      <c r="L9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -900,6 +929,9 @@
       <c r="K10" t="n">
         <v>809</v>
       </c>
+      <c r="L10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -947,6 +979,9 @@
       <c r="K11" t="n">
         <v>809</v>
       </c>
+      <c r="L11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -994,6 +1029,9 @@
       <c r="K12" t="n">
         <v>849</v>
       </c>
+      <c r="L12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1041,6 +1079,9 @@
       <c r="K13" t="n">
         <v>899</v>
       </c>
+      <c r="L13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1088,6 +1129,9 @@
       <c r="K14" t="n">
         <v>899</v>
       </c>
+      <c r="L14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1135,6 +1179,9 @@
       <c r="K15" t="n">
         <v>909</v>
       </c>
+      <c r="L15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1182,6 +1229,9 @@
       <c r="K16" t="n">
         <v>909</v>
       </c>
+      <c r="L16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1229,6 +1279,9 @@
       <c r="K17" t="n">
         <v>909</v>
       </c>
+      <c r="L17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1274,6 +1327,9 @@
         <v>909</v>
       </c>
       <c r="K18" t="n">
+        <v>909</v>
+      </c>
+      <c r="L18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1319,6 +1375,9 @@
       <c r="K19" t="n">
         <v>949</v>
       </c>
+      <c r="L19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1366,6 +1425,9 @@
       <c r="K20" t="n">
         <v>969</v>
       </c>
+      <c r="L20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1413,6 +1475,9 @@
       <c r="K21" t="n">
         <v>969</v>
       </c>
+      <c r="L21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1460,6 +1525,9 @@
       <c r="K22" t="n">
         <v>969</v>
       </c>
+      <c r="L22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1507,6 +1575,9 @@
       <c r="K23" t="n">
         <v>969</v>
       </c>
+      <c r="L23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1554,6 +1625,9 @@
       <c r="K24" t="n">
         <v>969</v>
       </c>
+      <c r="L24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1601,6 +1675,9 @@
       <c r="K25" t="n">
         <v>999</v>
       </c>
+      <c r="L25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1648,6 +1725,9 @@
       <c r="K26" t="n">
         <v>999</v>
       </c>
+      <c r="L26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1695,6 +1775,9 @@
       <c r="K27" t="n">
         <v>1039</v>
       </c>
+      <c r="L27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1742,6 +1825,9 @@
       <c r="K28" t="n">
         <v>1039</v>
       </c>
+      <c r="L28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1789,6 +1875,9 @@
       <c r="K29" t="n">
         <v>1079</v>
       </c>
+      <c r="L29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1836,6 +1925,9 @@
       <c r="K30" t="n">
         <v>1079</v>
       </c>
+      <c r="L30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1883,6 +1975,9 @@
       <c r="K31" t="n">
         <v>1079</v>
       </c>
+      <c r="L31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1930,6 +2025,9 @@
       <c r="K32" t="n">
         <v>1079</v>
       </c>
+      <c r="L32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1977,6 +2075,9 @@
       <c r="K33" t="n">
         <v>1099</v>
       </c>
+      <c r="L33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2024,6 +2125,9 @@
       <c r="K34" t="n">
         <v>1099</v>
       </c>
+      <c r="L34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2071,6 +2175,9 @@
       <c r="K35" t="n">
         <v>1099</v>
       </c>
+      <c r="L35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2118,6 +2225,9 @@
       <c r="K36" t="n">
         <v>1199</v>
       </c>
+      <c r="L36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2165,6 +2275,9 @@
       <c r="K37" t="n">
         <v>1219</v>
       </c>
+      <c r="L37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2212,6 +2325,9 @@
       <c r="K38" t="n">
         <v>1219</v>
       </c>
+      <c r="L38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2259,6 +2375,9 @@
       <c r="K39" t="n">
         <v>1219</v>
       </c>
+      <c r="L39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2306,6 +2425,9 @@
       <c r="K40" t="n">
         <v>1219</v>
       </c>
+      <c r="L40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2353,6 +2475,9 @@
       <c r="K41" t="n">
         <v>1219</v>
       </c>
+      <c r="L41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2400,6 +2525,9 @@
       <c r="K42" t="n">
         <v>1229</v>
       </c>
+      <c r="L42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2447,6 +2575,9 @@
       <c r="K43" t="n">
         <v>1249</v>
       </c>
+      <c r="L43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2494,6 +2625,9 @@
       <c r="K44" t="n">
         <v>1249</v>
       </c>
+      <c r="L44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2541,6 +2675,9 @@
       <c r="K45" t="n">
         <v>1329</v>
       </c>
+      <c r="L45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2588,6 +2725,9 @@
       <c r="K46" t="n">
         <v>1329</v>
       </c>
+      <c r="L46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2635,6 +2775,9 @@
       <c r="K47" t="n">
         <v>1329</v>
       </c>
+      <c r="L47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2682,6 +2825,9 @@
       <c r="K48" t="n">
         <v>1329</v>
       </c>
+      <c r="L48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2729,6 +2875,9 @@
       <c r="K49" t="n">
         <v>1329</v>
       </c>
+      <c r="L49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2776,6 +2925,9 @@
       <c r="K50" t="n">
         <v>1329</v>
       </c>
+      <c r="L50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2823,6 +2975,9 @@
       <c r="K51" t="n">
         <v>1329</v>
       </c>
+      <c r="L51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2870,6 +3025,9 @@
       <c r="K52" t="n">
         <v>1349</v>
       </c>
+      <c r="L52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2917,6 +3075,9 @@
       <c r="K53" t="n">
         <v>1479</v>
       </c>
+      <c r="L53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2964,6 +3125,9 @@
       <c r="K54" t="n">
         <v>1479</v>
       </c>
+      <c r="L54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3011,6 +3175,9 @@
       <c r="K55" t="n">
         <v>1479</v>
       </c>
+      <c r="L55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3058,6 +3225,9 @@
       <c r="K56" t="n">
         <v>1579</v>
       </c>
+      <c r="L56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3105,6 +3275,9 @@
       <c r="K57" t="n">
         <v>1579</v>
       </c>
+      <c r="L57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3152,6 +3325,9 @@
       <c r="K58" t="n">
         <v>1579</v>
       </c>
+      <c r="L58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3199,6 +3375,9 @@
       <c r="K59" t="n">
         <v>1579</v>
       </c>
+      <c r="L59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3246,6 +3425,9 @@
       <c r="K60" t="n">
         <v>1579</v>
       </c>
+      <c r="L60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3293,6 +3475,9 @@
       <c r="K61" t="n">
         <v>1579</v>
       </c>
+      <c r="L61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3340,6 +3525,9 @@
       <c r="K62" t="n">
         <v>1579</v>
       </c>
+      <c r="L62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3387,6 +3575,9 @@
       <c r="K63" t="n">
         <v>1729</v>
       </c>
+      <c r="L63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3434,6 +3625,9 @@
       <c r="K64" t="n">
         <v>1729</v>
       </c>
+      <c r="L64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3481,6 +3675,9 @@
       <c r="K65" t="n">
         <v>1729</v>
       </c>
+      <c r="L65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3528,6 +3725,9 @@
       <c r="K66" t="n">
         <v>1829</v>
       </c>
+      <c r="L66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3575,6 +3775,9 @@
       <c r="K67" t="n">
         <v>1829</v>
       </c>
+      <c r="L67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3622,6 +3825,9 @@
       <c r="K68" t="n">
         <v>1829</v>
       </c>
+      <c r="L68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3669,6 +3875,9 @@
       <c r="K69" t="n">
         <v>1979</v>
       </c>
+      <c r="L69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3716,6 +3925,9 @@
       <c r="K70" t="n">
         <v>1979</v>
       </c>
+      <c r="L70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3763,6 +3975,9 @@
       <c r="K71" t="n">
         <v>1979</v>
       </c>
+      <c r="L71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3810,6 +4025,9 @@
       <c r="K72" t="n">
         <v>2479</v>
       </c>
+      <c r="L72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3857,6 +4075,9 @@
       <c r="K73" t="n">
         <v>2479</v>
       </c>
+      <c r="L73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3902,6 +4123,9 @@
         <v>2479</v>
       </c>
       <c r="K74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="L74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>2026-02-15 23:21:19</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:44:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,6 +537,9 @@
       <c r="L2" t="n">
         <v>619</v>
       </c>
+      <c r="M2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,6 +590,9 @@
       <c r="L3" t="n">
         <v>659</v>
       </c>
+      <c r="M3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -632,6 +643,9 @@
       <c r="L4" t="n">
         <v>659</v>
       </c>
+      <c r="M4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,6 +696,9 @@
       <c r="L5" t="n">
         <v>749</v>
       </c>
+      <c r="M5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -732,6 +749,9 @@
       <c r="L6" t="n">
         <v>749</v>
       </c>
+      <c r="M6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -782,6 +802,9 @@
       <c r="L7" t="n">
         <v>809</v>
       </c>
+      <c r="M7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -832,6 +855,9 @@
       <c r="L8" t="n">
         <v>809</v>
       </c>
+      <c r="M8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -882,6 +908,9 @@
       <c r="L9" t="n">
         <v>809</v>
       </c>
+      <c r="M9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -932,6 +961,9 @@
       <c r="L10" t="n">
         <v>809</v>
       </c>
+      <c r="M10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -982,6 +1014,9 @@
       <c r="L11" t="n">
         <v>809</v>
       </c>
+      <c r="M11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1032,6 +1067,9 @@
       <c r="L12" t="n">
         <v>849</v>
       </c>
+      <c r="M12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1082,6 +1120,9 @@
       <c r="L13" t="n">
         <v>899</v>
       </c>
+      <c r="M13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1132,6 +1173,9 @@
       <c r="L14" t="n">
         <v>899</v>
       </c>
+      <c r="M14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1182,6 +1226,9 @@
       <c r="L15" t="n">
         <v>909</v>
       </c>
+      <c r="M15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1232,6 +1279,9 @@
       <c r="L16" t="n">
         <v>909</v>
       </c>
+      <c r="M16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1282,6 +1332,9 @@
       <c r="L17" t="n">
         <v>909</v>
       </c>
+      <c r="M17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1330,6 +1383,9 @@
         <v>909</v>
       </c>
       <c r="L18" t="n">
+        <v>909</v>
+      </c>
+      <c r="M18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1378,6 +1434,9 @@
       <c r="L19" t="n">
         <v>949</v>
       </c>
+      <c r="M19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1428,6 +1487,9 @@
       <c r="L20" t="n">
         <v>969</v>
       </c>
+      <c r="M20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1478,6 +1540,9 @@
       <c r="L21" t="n">
         <v>969</v>
       </c>
+      <c r="M21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1528,6 +1593,9 @@
       <c r="L22" t="n">
         <v>969</v>
       </c>
+      <c r="M22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1578,6 +1646,9 @@
       <c r="L23" t="n">
         <v>969</v>
       </c>
+      <c r="M23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1628,6 +1699,9 @@
       <c r="L24" t="n">
         <v>969</v>
       </c>
+      <c r="M24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1678,6 +1752,9 @@
       <c r="L25" t="n">
         <v>999</v>
       </c>
+      <c r="M25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1728,6 +1805,9 @@
       <c r="L26" t="n">
         <v>999</v>
       </c>
+      <c r="M26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1778,6 +1858,9 @@
       <c r="L27" t="n">
         <v>1039</v>
       </c>
+      <c r="M27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1828,6 +1911,9 @@
       <c r="L28" t="n">
         <v>1039</v>
       </c>
+      <c r="M28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1878,6 +1964,9 @@
       <c r="L29" t="n">
         <v>1079</v>
       </c>
+      <c r="M29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1928,6 +2017,9 @@
       <c r="L30" t="n">
         <v>1079</v>
       </c>
+      <c r="M30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1978,6 +2070,9 @@
       <c r="L31" t="n">
         <v>1079</v>
       </c>
+      <c r="M31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2028,6 +2123,9 @@
       <c r="L32" t="n">
         <v>1079</v>
       </c>
+      <c r="M32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2078,6 +2176,9 @@
       <c r="L33" t="n">
         <v>1099</v>
       </c>
+      <c r="M33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2128,6 +2229,9 @@
       <c r="L34" t="n">
         <v>1099</v>
       </c>
+      <c r="M34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2178,6 +2282,9 @@
       <c r="L35" t="n">
         <v>1099</v>
       </c>
+      <c r="M35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2228,6 +2335,9 @@
       <c r="L36" t="n">
         <v>1199</v>
       </c>
+      <c r="M36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2278,6 +2388,9 @@
       <c r="L37" t="n">
         <v>1219</v>
       </c>
+      <c r="M37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2328,6 +2441,9 @@
       <c r="L38" t="n">
         <v>1219</v>
       </c>
+      <c r="M38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2378,6 +2494,9 @@
       <c r="L39" t="n">
         <v>1219</v>
       </c>
+      <c r="M39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2428,6 +2547,9 @@
       <c r="L40" t="n">
         <v>1219</v>
       </c>
+      <c r="M40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2478,6 +2600,9 @@
       <c r="L41" t="n">
         <v>1219</v>
       </c>
+      <c r="M41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2528,6 +2653,9 @@
       <c r="L42" t="n">
         <v>1229</v>
       </c>
+      <c r="M42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2578,6 +2706,9 @@
       <c r="L43" t="n">
         <v>1249</v>
       </c>
+      <c r="M43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2628,6 +2759,9 @@
       <c r="L44" t="n">
         <v>1249</v>
       </c>
+      <c r="M44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2678,6 +2812,9 @@
       <c r="L45" t="n">
         <v>1329</v>
       </c>
+      <c r="M45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2728,6 +2865,9 @@
       <c r="L46" t="n">
         <v>1329</v>
       </c>
+      <c r="M46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2778,6 +2918,9 @@
       <c r="L47" t="n">
         <v>1329</v>
       </c>
+      <c r="M47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2828,6 +2971,9 @@
       <c r="L48" t="n">
         <v>1329</v>
       </c>
+      <c r="M48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2878,6 +3024,9 @@
       <c r="L49" t="n">
         <v>1329</v>
       </c>
+      <c r="M49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2928,6 +3077,9 @@
       <c r="L50" t="n">
         <v>1329</v>
       </c>
+      <c r="M50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2978,6 +3130,9 @@
       <c r="L51" t="n">
         <v>1329</v>
       </c>
+      <c r="M51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3028,6 +3183,9 @@
       <c r="L52" t="n">
         <v>1349</v>
       </c>
+      <c r="M52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3078,6 +3236,9 @@
       <c r="L53" t="n">
         <v>1479</v>
       </c>
+      <c r="M53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3128,6 +3289,9 @@
       <c r="L54" t="n">
         <v>1479</v>
       </c>
+      <c r="M54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3178,6 +3342,9 @@
       <c r="L55" t="n">
         <v>1479</v>
       </c>
+      <c r="M55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3228,6 +3395,9 @@
       <c r="L56" t="n">
         <v>1579</v>
       </c>
+      <c r="M56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3278,6 +3448,9 @@
       <c r="L57" t="n">
         <v>1579</v>
       </c>
+      <c r="M57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3328,6 +3501,9 @@
       <c r="L58" t="n">
         <v>1579</v>
       </c>
+      <c r="M58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3378,6 +3554,9 @@
       <c r="L59" t="n">
         <v>1579</v>
       </c>
+      <c r="M59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3428,6 +3607,9 @@
       <c r="L60" t="n">
         <v>1579</v>
       </c>
+      <c r="M60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3478,6 +3660,9 @@
       <c r="L61" t="n">
         <v>1579</v>
       </c>
+      <c r="M61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3528,6 +3713,9 @@
       <c r="L62" t="n">
         <v>1579</v>
       </c>
+      <c r="M62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3578,6 +3766,9 @@
       <c r="L63" t="n">
         <v>1729</v>
       </c>
+      <c r="M63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3628,6 +3819,9 @@
       <c r="L64" t="n">
         <v>1729</v>
       </c>
+      <c r="M64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3678,6 +3872,9 @@
       <c r="L65" t="n">
         <v>1729</v>
       </c>
+      <c r="M65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3728,6 +3925,9 @@
       <c r="L66" t="n">
         <v>1829</v>
       </c>
+      <c r="M66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3778,6 +3978,9 @@
       <c r="L67" t="n">
         <v>1829</v>
       </c>
+      <c r="M67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3828,6 +4031,9 @@
       <c r="L68" t="n">
         <v>1829</v>
       </c>
+      <c r="M68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3878,6 +4084,9 @@
       <c r="L69" t="n">
         <v>1979</v>
       </c>
+      <c r="M69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3928,6 +4137,9 @@
       <c r="L70" t="n">
         <v>1979</v>
       </c>
+      <c r="M70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3978,6 +4190,9 @@
       <c r="L71" t="n">
         <v>1979</v>
       </c>
+      <c r="M71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4028,6 +4243,9 @@
       <c r="L72" t="n">
         <v>2479</v>
       </c>
+      <c r="M72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4078,6 +4296,9 @@
       <c r="L73" t="n">
         <v>2479</v>
       </c>
+      <c r="M73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4126,6 +4347,9 @@
         <v>2479</v>
       </c>
       <c r="L74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="M74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,11 @@
           <t>2026-02-16 01:44:33</t>
         </is>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>2026-02-16 04:21:29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>619</v>
       </c>
+      <c r="N2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -593,6 +601,9 @@
       <c r="M3" t="n">
         <v>659</v>
       </c>
+      <c r="N3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -646,6 +657,9 @@
       <c r="M4" t="n">
         <v>659</v>
       </c>
+      <c r="N4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -699,6 +713,9 @@
       <c r="M5" t="n">
         <v>749</v>
       </c>
+      <c r="N5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -752,6 +769,9 @@
       <c r="M6" t="n">
         <v>749</v>
       </c>
+      <c r="N6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -805,6 +825,9 @@
       <c r="M7" t="n">
         <v>809</v>
       </c>
+      <c r="N7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -858,6 +881,9 @@
       <c r="M8" t="n">
         <v>809</v>
       </c>
+      <c r="N8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -911,6 +937,9 @@
       <c r="M9" t="n">
         <v>809</v>
       </c>
+      <c r="N9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -964,6 +993,9 @@
       <c r="M10" t="n">
         <v>809</v>
       </c>
+      <c r="N10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1017,6 +1049,9 @@
       <c r="M11" t="n">
         <v>809</v>
       </c>
+      <c r="N11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1070,6 +1105,9 @@
       <c r="M12" t="n">
         <v>849</v>
       </c>
+      <c r="N12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1123,6 +1161,9 @@
       <c r="M13" t="n">
         <v>899</v>
       </c>
+      <c r="N13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1176,6 +1217,9 @@
       <c r="M14" t="n">
         <v>899</v>
       </c>
+      <c r="N14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1229,6 +1273,9 @@
       <c r="M15" t="n">
         <v>909</v>
       </c>
+      <c r="N15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1282,6 +1329,9 @@
       <c r="M16" t="n">
         <v>909</v>
       </c>
+      <c r="N16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1335,6 +1385,9 @@
       <c r="M17" t="n">
         <v>909</v>
       </c>
+      <c r="N17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1386,6 +1439,9 @@
         <v>909</v>
       </c>
       <c r="M18" t="n">
+        <v>909</v>
+      </c>
+      <c r="N18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1437,6 +1493,9 @@
       <c r="M19" t="n">
         <v>949</v>
       </c>
+      <c r="N19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1490,6 +1549,9 @@
       <c r="M20" t="n">
         <v>969</v>
       </c>
+      <c r="N20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1543,6 +1605,9 @@
       <c r="M21" t="n">
         <v>969</v>
       </c>
+      <c r="N21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1596,6 +1661,9 @@
       <c r="M22" t="n">
         <v>969</v>
       </c>
+      <c r="N22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1649,6 +1717,9 @@
       <c r="M23" t="n">
         <v>969</v>
       </c>
+      <c r="N23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1702,6 +1773,9 @@
       <c r="M24" t="n">
         <v>969</v>
       </c>
+      <c r="N24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1755,6 +1829,9 @@
       <c r="M25" t="n">
         <v>999</v>
       </c>
+      <c r="N25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1808,6 +1885,9 @@
       <c r="M26" t="n">
         <v>999</v>
       </c>
+      <c r="N26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1861,6 +1941,9 @@
       <c r="M27" t="n">
         <v>1039</v>
       </c>
+      <c r="N27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1914,6 +1997,9 @@
       <c r="M28" t="n">
         <v>1039</v>
       </c>
+      <c r="N28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1967,6 +2053,9 @@
       <c r="M29" t="n">
         <v>1079</v>
       </c>
+      <c r="N29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2020,6 +2109,9 @@
       <c r="M30" t="n">
         <v>1079</v>
       </c>
+      <c r="N30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2073,6 +2165,9 @@
       <c r="M31" t="n">
         <v>1079</v>
       </c>
+      <c r="N31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2126,6 +2221,9 @@
       <c r="M32" t="n">
         <v>1079</v>
       </c>
+      <c r="N32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2179,6 +2277,9 @@
       <c r="M33" t="n">
         <v>1099</v>
       </c>
+      <c r="N33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2232,6 +2333,9 @@
       <c r="M34" t="n">
         <v>1099</v>
       </c>
+      <c r="N34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2285,6 +2389,9 @@
       <c r="M35" t="n">
         <v>1099</v>
       </c>
+      <c r="N35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2338,6 +2445,9 @@
       <c r="M36" t="n">
         <v>1199</v>
       </c>
+      <c r="N36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2391,6 +2501,9 @@
       <c r="M37" t="n">
         <v>1219</v>
       </c>
+      <c r="N37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2444,6 +2557,9 @@
       <c r="M38" t="n">
         <v>1219</v>
       </c>
+      <c r="N38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2497,6 +2613,9 @@
       <c r="M39" t="n">
         <v>1219</v>
       </c>
+      <c r="N39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2550,6 +2669,9 @@
       <c r="M40" t="n">
         <v>1219</v>
       </c>
+      <c r="N40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2603,6 +2725,9 @@
       <c r="M41" t="n">
         <v>1219</v>
       </c>
+      <c r="N41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2656,6 +2781,9 @@
       <c r="M42" t="n">
         <v>1229</v>
       </c>
+      <c r="N42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2709,6 +2837,9 @@
       <c r="M43" t="n">
         <v>1249</v>
       </c>
+      <c r="N43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2762,6 +2893,9 @@
       <c r="M44" t="n">
         <v>1249</v>
       </c>
+      <c r="N44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2815,6 +2949,9 @@
       <c r="M45" t="n">
         <v>1329</v>
       </c>
+      <c r="N45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2868,6 +3005,9 @@
       <c r="M46" t="n">
         <v>1329</v>
       </c>
+      <c r="N46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2921,6 +3061,9 @@
       <c r="M47" t="n">
         <v>1329</v>
       </c>
+      <c r="N47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2974,6 +3117,9 @@
       <c r="M48" t="n">
         <v>1329</v>
       </c>
+      <c r="N48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3027,6 +3173,9 @@
       <c r="M49" t="n">
         <v>1329</v>
       </c>
+      <c r="N49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3080,6 +3229,9 @@
       <c r="M50" t="n">
         <v>1329</v>
       </c>
+      <c r="N50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3133,6 +3285,9 @@
       <c r="M51" t="n">
         <v>1329</v>
       </c>
+      <c r="N51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3186,6 +3341,9 @@
       <c r="M52" t="n">
         <v>1349</v>
       </c>
+      <c r="N52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3239,6 +3397,9 @@
       <c r="M53" t="n">
         <v>1479</v>
       </c>
+      <c r="N53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3292,6 +3453,9 @@
       <c r="M54" t="n">
         <v>1479</v>
       </c>
+      <c r="N54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3345,6 +3509,9 @@
       <c r="M55" t="n">
         <v>1479</v>
       </c>
+      <c r="N55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3398,6 +3565,9 @@
       <c r="M56" t="n">
         <v>1579</v>
       </c>
+      <c r="N56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3451,6 +3621,9 @@
       <c r="M57" t="n">
         <v>1579</v>
       </c>
+      <c r="N57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3504,6 +3677,9 @@
       <c r="M58" t="n">
         <v>1579</v>
       </c>
+      <c r="N58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3557,6 +3733,9 @@
       <c r="M59" t="n">
         <v>1579</v>
       </c>
+      <c r="N59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3610,6 +3789,9 @@
       <c r="M60" t="n">
         <v>1579</v>
       </c>
+      <c r="N60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3663,6 +3845,9 @@
       <c r="M61" t="n">
         <v>1579</v>
       </c>
+      <c r="N61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3716,6 +3901,9 @@
       <c r="M62" t="n">
         <v>1579</v>
       </c>
+      <c r="N62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3769,6 +3957,9 @@
       <c r="M63" t="n">
         <v>1729</v>
       </c>
+      <c r="N63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3822,6 +4013,9 @@
       <c r="M64" t="n">
         <v>1729</v>
       </c>
+      <c r="N64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3875,6 +4069,9 @@
       <c r="M65" t="n">
         <v>1729</v>
       </c>
+      <c r="N65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3928,6 +4125,9 @@
       <c r="M66" t="n">
         <v>1829</v>
       </c>
+      <c r="N66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3981,6 +4181,9 @@
       <c r="M67" t="n">
         <v>1829</v>
       </c>
+      <c r="N67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4034,6 +4237,9 @@
       <c r="M68" t="n">
         <v>1829</v>
       </c>
+      <c r="N68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4087,6 +4293,9 @@
       <c r="M69" t="n">
         <v>1979</v>
       </c>
+      <c r="N69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4140,6 +4349,9 @@
       <c r="M70" t="n">
         <v>1979</v>
       </c>
+      <c r="N70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4193,6 +4405,9 @@
       <c r="M71" t="n">
         <v>1979</v>
       </c>
+      <c r="N71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4246,6 +4461,9 @@
       <c r="M72" t="n">
         <v>2479</v>
       </c>
+      <c r="N72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4299,6 +4517,9 @@
       <c r="M73" t="n">
         <v>2479</v>
       </c>
+      <c r="N73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4350,6 +4571,9 @@
         <v>2479</v>
       </c>
       <c r="M74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="N74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
           <t>2026-02-16 04:21:29</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>2026-02-16 06:03:47</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
       <c r="N2" t="n">
         <v>619</v>
       </c>
+      <c r="O2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -604,6 +612,9 @@
       <c r="N3" t="n">
         <v>659</v>
       </c>
+      <c r="O3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -660,6 +671,9 @@
       <c r="N4" t="n">
         <v>659</v>
       </c>
+      <c r="O4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -716,6 +730,9 @@
       <c r="N5" t="n">
         <v>749</v>
       </c>
+      <c r="O5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -772,6 +789,9 @@
       <c r="N6" t="n">
         <v>749</v>
       </c>
+      <c r="O6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -828,6 +848,9 @@
       <c r="N7" t="n">
         <v>809</v>
       </c>
+      <c r="O7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -884,6 +907,9 @@
       <c r="N8" t="n">
         <v>809</v>
       </c>
+      <c r="O8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -940,6 +966,9 @@
       <c r="N9" t="n">
         <v>809</v>
       </c>
+      <c r="O9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -959,7 +988,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -996,6 +1025,9 @@
       <c r="N10" t="n">
         <v>809</v>
       </c>
+      <c r="O10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1052,6 +1084,9 @@
       <c r="N11" t="n">
         <v>809</v>
       </c>
+      <c r="O11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1108,6 +1143,9 @@
       <c r="N12" t="n">
         <v>849</v>
       </c>
+      <c r="O12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1164,6 +1202,9 @@
       <c r="N13" t="n">
         <v>899</v>
       </c>
+      <c r="O13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1220,6 +1261,9 @@
       <c r="N14" t="n">
         <v>899</v>
       </c>
+      <c r="O14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1276,6 +1320,9 @@
       <c r="N15" t="n">
         <v>909</v>
       </c>
+      <c r="O15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1332,6 +1379,9 @@
       <c r="N16" t="n">
         <v>909</v>
       </c>
+      <c r="O16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1388,6 +1438,9 @@
       <c r="N17" t="n">
         <v>909</v>
       </c>
+      <c r="O17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1442,6 +1495,9 @@
         <v>909</v>
       </c>
       <c r="N18" t="n">
+        <v>909</v>
+      </c>
+      <c r="O18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1496,6 +1552,9 @@
       <c r="N19" t="n">
         <v>949</v>
       </c>
+      <c r="O19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1552,6 +1611,9 @@
       <c r="N20" t="n">
         <v>969</v>
       </c>
+      <c r="O20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1608,6 +1670,9 @@
       <c r="N21" t="n">
         <v>969</v>
       </c>
+      <c r="O21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1664,6 +1729,9 @@
       <c r="N22" t="n">
         <v>969</v>
       </c>
+      <c r="O22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1720,6 +1788,9 @@
       <c r="N23" t="n">
         <v>969</v>
       </c>
+      <c r="O23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1776,6 +1847,9 @@
       <c r="N24" t="n">
         <v>969</v>
       </c>
+      <c r="O24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1832,6 +1906,9 @@
       <c r="N25" t="n">
         <v>999</v>
       </c>
+      <c r="O25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1851,7 +1928,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1888,6 +1965,9 @@
       <c r="N26" t="n">
         <v>999</v>
       </c>
+      <c r="O26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1944,6 +2024,9 @@
       <c r="N27" t="n">
         <v>1039</v>
       </c>
+      <c r="O27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2000,6 +2083,9 @@
       <c r="N28" t="n">
         <v>1039</v>
       </c>
+      <c r="O28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2056,6 +2142,9 @@
       <c r="N29" t="n">
         <v>1079</v>
       </c>
+      <c r="O29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2112,6 +2201,9 @@
       <c r="N30" t="n">
         <v>1079</v>
       </c>
+      <c r="O30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2168,6 +2260,9 @@
       <c r="N31" t="n">
         <v>1079</v>
       </c>
+      <c r="O31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2224,6 +2319,9 @@
       <c r="N32" t="n">
         <v>1079</v>
       </c>
+      <c r="O32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2280,6 +2378,9 @@
       <c r="N33" t="n">
         <v>1099</v>
       </c>
+      <c r="O33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2336,6 +2437,9 @@
       <c r="N34" t="n">
         <v>1099</v>
       </c>
+      <c r="O34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2392,6 +2496,9 @@
       <c r="N35" t="n">
         <v>1099</v>
       </c>
+      <c r="O35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2448,6 +2555,9 @@
       <c r="N36" t="n">
         <v>1199</v>
       </c>
+      <c r="O36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2504,6 +2614,9 @@
       <c r="N37" t="n">
         <v>1219</v>
       </c>
+      <c r="O37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2560,6 +2673,9 @@
       <c r="N38" t="n">
         <v>1219</v>
       </c>
+      <c r="O38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2616,6 +2732,9 @@
       <c r="N39" t="n">
         <v>1219</v>
       </c>
+      <c r="O39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2672,6 +2791,9 @@
       <c r="N40" t="n">
         <v>1219</v>
       </c>
+      <c r="O40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2728,6 +2850,9 @@
       <c r="N41" t="n">
         <v>1219</v>
       </c>
+      <c r="O41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2784,6 +2909,9 @@
       <c r="N42" t="n">
         <v>1229</v>
       </c>
+      <c r="O42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2840,6 +2968,9 @@
       <c r="N43" t="n">
         <v>1249</v>
       </c>
+      <c r="O43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2896,6 +3027,9 @@
       <c r="N44" t="n">
         <v>1249</v>
       </c>
+      <c r="O44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2952,6 +3086,9 @@
       <c r="N45" t="n">
         <v>1329</v>
       </c>
+      <c r="O45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3008,6 +3145,9 @@
       <c r="N46" t="n">
         <v>1329</v>
       </c>
+      <c r="O46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3064,6 +3204,9 @@
       <c r="N47" t="n">
         <v>1329</v>
       </c>
+      <c r="O47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3120,6 +3263,9 @@
       <c r="N48" t="n">
         <v>1329</v>
       </c>
+      <c r="O48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3176,6 +3322,9 @@
       <c r="N49" t="n">
         <v>1329</v>
       </c>
+      <c r="O49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3232,6 +3381,9 @@
       <c r="N50" t="n">
         <v>1329</v>
       </c>
+      <c r="O50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3288,6 +3440,9 @@
       <c r="N51" t="n">
         <v>1329</v>
       </c>
+      <c r="O51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3344,6 +3499,9 @@
       <c r="N52" t="n">
         <v>1349</v>
       </c>
+      <c r="O52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3400,6 +3558,9 @@
       <c r="N53" t="n">
         <v>1479</v>
       </c>
+      <c r="O53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3456,6 +3617,9 @@
       <c r="N54" t="n">
         <v>1479</v>
       </c>
+      <c r="O54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3512,6 +3676,9 @@
       <c r="N55" t="n">
         <v>1479</v>
       </c>
+      <c r="O55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3531,7 +3698,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -3568,6 +3735,9 @@
       <c r="N56" t="n">
         <v>1579</v>
       </c>
+      <c r="O56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3624,6 +3794,9 @@
       <c r="N57" t="n">
         <v>1579</v>
       </c>
+      <c r="O57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3680,6 +3853,9 @@
       <c r="N58" t="n">
         <v>1579</v>
       </c>
+      <c r="O58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3736,6 +3912,9 @@
       <c r="N59" t="n">
         <v>1579</v>
       </c>
+      <c r="O59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3792,6 +3971,9 @@
       <c r="N60" t="n">
         <v>1579</v>
       </c>
+      <c r="O60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3848,6 +4030,9 @@
       <c r="N61" t="n">
         <v>1579</v>
       </c>
+      <c r="O61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3904,6 +4089,9 @@
       <c r="N62" t="n">
         <v>1579</v>
       </c>
+      <c r="O62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3960,6 +4148,9 @@
       <c r="N63" t="n">
         <v>1729</v>
       </c>
+      <c r="O63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3979,7 +4170,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -4016,6 +4207,9 @@
       <c r="N64" t="n">
         <v>1729</v>
       </c>
+      <c r="O64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4072,6 +4266,9 @@
       <c r="N65" t="n">
         <v>1729</v>
       </c>
+      <c r="O65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4128,6 +4325,9 @@
       <c r="N66" t="n">
         <v>1829</v>
       </c>
+      <c r="O66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4184,6 +4384,9 @@
       <c r="N67" t="n">
         <v>1829</v>
       </c>
+      <c r="O67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4240,6 +4443,9 @@
       <c r="N68" t="n">
         <v>1829</v>
       </c>
+      <c r="O68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4296,6 +4502,9 @@
       <c r="N69" t="n">
         <v>1979</v>
       </c>
+      <c r="O69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4305,7 +4514,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4352,6 +4561,9 @@
       <c r="N70" t="n">
         <v>1979</v>
       </c>
+      <c r="O70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4408,6 +4620,9 @@
       <c r="N71" t="n">
         <v>1979</v>
       </c>
+      <c r="O71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4464,6 +4679,9 @@
       <c r="N72" t="n">
         <v>2479</v>
       </c>
+      <c r="O72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4520,6 +4738,9 @@
       <c r="N73" t="n">
         <v>2479</v>
       </c>
+      <c r="O73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4529,7 +4750,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4574,6 +4795,9 @@
         <v>2479</v>
       </c>
       <c r="N74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="O74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,11 @@
           <t>2026-02-16 06:03:47</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>2026-02-16 07:50:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -556,6 +561,9 @@
       <c r="O2" t="n">
         <v>619</v>
       </c>
+      <c r="P2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -615,6 +623,9 @@
       <c r="O3" t="n">
         <v>659</v>
       </c>
+      <c r="P3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -674,6 +685,9 @@
       <c r="O4" t="n">
         <v>659</v>
       </c>
+      <c r="P4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -733,6 +747,9 @@
       <c r="O5" t="n">
         <v>749</v>
       </c>
+      <c r="P5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -792,6 +809,9 @@
       <c r="O6" t="n">
         <v>749</v>
       </c>
+      <c r="P6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -851,6 +871,9 @@
       <c r="O7" t="n">
         <v>809</v>
       </c>
+      <c r="P7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -910,6 +933,9 @@
       <c r="O8" t="n">
         <v>809</v>
       </c>
+      <c r="P8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -969,6 +995,9 @@
       <c r="O9" t="n">
         <v>809</v>
       </c>
+      <c r="P9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1028,6 +1057,9 @@
       <c r="O10" t="n">
         <v>809</v>
       </c>
+      <c r="P10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1087,6 +1119,9 @@
       <c r="O11" t="n">
         <v>809</v>
       </c>
+      <c r="P11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1146,6 +1181,9 @@
       <c r="O12" t="n">
         <v>849</v>
       </c>
+      <c r="P12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1205,6 +1243,9 @@
       <c r="O13" t="n">
         <v>899</v>
       </c>
+      <c r="P13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1264,6 +1305,9 @@
       <c r="O14" t="n">
         <v>899</v>
       </c>
+      <c r="P14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1323,6 +1367,9 @@
       <c r="O15" t="n">
         <v>909</v>
       </c>
+      <c r="P15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1382,6 +1429,9 @@
       <c r="O16" t="n">
         <v>909</v>
       </c>
+      <c r="P16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1441,6 +1491,9 @@
       <c r="O17" t="n">
         <v>909</v>
       </c>
+      <c r="P17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1498,6 +1551,9 @@
         <v>909</v>
       </c>
       <c r="O18" t="n">
+        <v>909</v>
+      </c>
+      <c r="P18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1555,6 +1611,9 @@
       <c r="O19" t="n">
         <v>949</v>
       </c>
+      <c r="P19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1614,6 +1673,9 @@
       <c r="O20" t="n">
         <v>969</v>
       </c>
+      <c r="P20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1673,6 +1735,9 @@
       <c r="O21" t="n">
         <v>969</v>
       </c>
+      <c r="P21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1732,6 +1797,9 @@
       <c r="O22" t="n">
         <v>969</v>
       </c>
+      <c r="P22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1791,6 +1859,9 @@
       <c r="O23" t="n">
         <v>969</v>
       </c>
+      <c r="P23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1850,6 +1921,9 @@
       <c r="O24" t="n">
         <v>969</v>
       </c>
+      <c r="P24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1909,6 +1983,9 @@
       <c r="O25" t="n">
         <v>999</v>
       </c>
+      <c r="P25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1968,6 +2045,9 @@
       <c r="O26" t="n">
         <v>999</v>
       </c>
+      <c r="P26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2027,6 +2107,9 @@
       <c r="O27" t="n">
         <v>1039</v>
       </c>
+      <c r="P27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2086,6 +2169,9 @@
       <c r="O28" t="n">
         <v>1039</v>
       </c>
+      <c r="P28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2145,6 +2231,9 @@
       <c r="O29" t="n">
         <v>1079</v>
       </c>
+      <c r="P29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2204,6 +2293,9 @@
       <c r="O30" t="n">
         <v>1079</v>
       </c>
+      <c r="P30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2263,6 +2355,9 @@
       <c r="O31" t="n">
         <v>1079</v>
       </c>
+      <c r="P31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2322,6 +2417,9 @@
       <c r="O32" t="n">
         <v>1079</v>
       </c>
+      <c r="P32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2381,6 +2479,9 @@
       <c r="O33" t="n">
         <v>1099</v>
       </c>
+      <c r="P33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2440,6 +2541,9 @@
       <c r="O34" t="n">
         <v>1099</v>
       </c>
+      <c r="P34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2499,6 +2603,9 @@
       <c r="O35" t="n">
         <v>1099</v>
       </c>
+      <c r="P35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2558,6 +2665,9 @@
       <c r="O36" t="n">
         <v>1199</v>
       </c>
+      <c r="P36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2617,6 +2727,9 @@
       <c r="O37" t="n">
         <v>1219</v>
       </c>
+      <c r="P37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2676,6 +2789,9 @@
       <c r="O38" t="n">
         <v>1219</v>
       </c>
+      <c r="P38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2735,6 +2851,9 @@
       <c r="O39" t="n">
         <v>1219</v>
       </c>
+      <c r="P39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2794,6 +2913,9 @@
       <c r="O40" t="n">
         <v>1219</v>
       </c>
+      <c r="P40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2853,6 +2975,9 @@
       <c r="O41" t="n">
         <v>1219</v>
       </c>
+      <c r="P41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2912,6 +3037,9 @@
       <c r="O42" t="n">
         <v>1229</v>
       </c>
+      <c r="P42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2971,6 +3099,9 @@
       <c r="O43" t="n">
         <v>1249</v>
       </c>
+      <c r="P43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3030,6 +3161,9 @@
       <c r="O44" t="n">
         <v>1249</v>
       </c>
+      <c r="P44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3089,6 +3223,9 @@
       <c r="O45" t="n">
         <v>1329</v>
       </c>
+      <c r="P45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3148,6 +3285,9 @@
       <c r="O46" t="n">
         <v>1329</v>
       </c>
+      <c r="P46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3207,6 +3347,9 @@
       <c r="O47" t="n">
         <v>1329</v>
       </c>
+      <c r="P47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3266,6 +3409,9 @@
       <c r="O48" t="n">
         <v>1329</v>
       </c>
+      <c r="P48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3325,6 +3471,9 @@
       <c r="O49" t="n">
         <v>1329</v>
       </c>
+      <c r="P49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3384,6 +3533,9 @@
       <c r="O50" t="n">
         <v>1329</v>
       </c>
+      <c r="P50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3443,6 +3595,9 @@
       <c r="O51" t="n">
         <v>1329</v>
       </c>
+      <c r="P51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3502,6 +3657,9 @@
       <c r="O52" t="n">
         <v>1349</v>
       </c>
+      <c r="P52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3561,6 +3719,9 @@
       <c r="O53" t="n">
         <v>1479</v>
       </c>
+      <c r="P53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3620,6 +3781,9 @@
       <c r="O54" t="n">
         <v>1479</v>
       </c>
+      <c r="P54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3679,6 +3843,9 @@
       <c r="O55" t="n">
         <v>1479</v>
       </c>
+      <c r="P55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3738,6 +3905,9 @@
       <c r="O56" t="n">
         <v>1579</v>
       </c>
+      <c r="P56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3797,6 +3967,9 @@
       <c r="O57" t="n">
         <v>1579</v>
       </c>
+      <c r="P57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3856,6 +4029,9 @@
       <c r="O58" t="n">
         <v>1579</v>
       </c>
+      <c r="P58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3915,6 +4091,9 @@
       <c r="O59" t="n">
         <v>1579</v>
       </c>
+      <c r="P59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3974,6 +4153,9 @@
       <c r="O60" t="n">
         <v>1579</v>
       </c>
+      <c r="P60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4033,6 +4215,9 @@
       <c r="O61" t="n">
         <v>1579</v>
       </c>
+      <c r="P61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4092,6 +4277,9 @@
       <c r="O62" t="n">
         <v>1579</v>
       </c>
+      <c r="P62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4151,6 +4339,9 @@
       <c r="O63" t="n">
         <v>1729</v>
       </c>
+      <c r="P63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4210,6 +4401,9 @@
       <c r="O64" t="n">
         <v>1729</v>
       </c>
+      <c r="P64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4269,6 +4463,9 @@
       <c r="O65" t="n">
         <v>1729</v>
       </c>
+      <c r="P65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4328,6 +4525,9 @@
       <c r="O66" t="n">
         <v>1829</v>
       </c>
+      <c r="P66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4387,6 +4587,9 @@
       <c r="O67" t="n">
         <v>1829</v>
       </c>
+      <c r="P67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4446,6 +4649,9 @@
       <c r="O68" t="n">
         <v>1829</v>
       </c>
+      <c r="P68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4505,6 +4711,9 @@
       <c r="O69" t="n">
         <v>1979</v>
       </c>
+      <c r="P69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4564,6 +4773,9 @@
       <c r="O70" t="n">
         <v>1979</v>
       </c>
+      <c r="P70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4623,6 +4835,9 @@
       <c r="O71" t="n">
         <v>1979</v>
       </c>
+      <c r="P71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4682,6 +4897,9 @@
       <c r="O72" t="n">
         <v>2479</v>
       </c>
+      <c r="P72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4741,6 +4959,9 @@
       <c r="O73" t="n">
         <v>2479</v>
       </c>
+      <c r="P73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4798,6 +5019,9 @@
         <v>2479</v>
       </c>
       <c r="O74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="P74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,11 @@
           <t>2026-02-16 07:50:53</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>2026-02-16 08:40:40</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -564,6 +569,9 @@
       <c r="P2" t="n">
         <v>619</v>
       </c>
+      <c r="Q2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -626,6 +634,9 @@
       <c r="P3" t="n">
         <v>659</v>
       </c>
+      <c r="Q3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -688,6 +699,9 @@
       <c r="P4" t="n">
         <v>659</v>
       </c>
+      <c r="Q4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -750,6 +764,9 @@
       <c r="P5" t="n">
         <v>749</v>
       </c>
+      <c r="Q5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -812,6 +829,9 @@
       <c r="P6" t="n">
         <v>749</v>
       </c>
+      <c r="Q6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -874,6 +894,9 @@
       <c r="P7" t="n">
         <v>809</v>
       </c>
+      <c r="Q7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -936,6 +959,9 @@
       <c r="P8" t="n">
         <v>809</v>
       </c>
+      <c r="Q8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -998,6 +1024,9 @@
       <c r="P9" t="n">
         <v>809</v>
       </c>
+      <c r="Q9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1060,6 +1089,9 @@
       <c r="P10" t="n">
         <v>809</v>
       </c>
+      <c r="Q10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1122,6 +1154,9 @@
       <c r="P11" t="n">
         <v>809</v>
       </c>
+      <c r="Q11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1184,6 +1219,9 @@
       <c r="P12" t="n">
         <v>849</v>
       </c>
+      <c r="Q12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1246,6 +1284,9 @@
       <c r="P13" t="n">
         <v>899</v>
       </c>
+      <c r="Q13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1308,6 +1349,9 @@
       <c r="P14" t="n">
         <v>899</v>
       </c>
+      <c r="Q14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1370,6 +1414,9 @@
       <c r="P15" t="n">
         <v>909</v>
       </c>
+      <c r="Q15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1432,6 +1479,9 @@
       <c r="P16" t="n">
         <v>909</v>
       </c>
+      <c r="Q16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1494,6 +1544,9 @@
       <c r="P17" t="n">
         <v>909</v>
       </c>
+      <c r="Q17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1554,6 +1607,9 @@
         <v>909</v>
       </c>
       <c r="P18" t="n">
+        <v>909</v>
+      </c>
+      <c r="Q18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1614,6 +1670,9 @@
       <c r="P19" t="n">
         <v>949</v>
       </c>
+      <c r="Q19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1676,6 +1735,9 @@
       <c r="P20" t="n">
         <v>969</v>
       </c>
+      <c r="Q20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1738,6 +1800,9 @@
       <c r="P21" t="n">
         <v>969</v>
       </c>
+      <c r="Q21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1800,6 +1865,9 @@
       <c r="P22" t="n">
         <v>969</v>
       </c>
+      <c r="Q22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1862,6 +1930,9 @@
       <c r="P23" t="n">
         <v>969</v>
       </c>
+      <c r="Q23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1924,6 +1995,9 @@
       <c r="P24" t="n">
         <v>969</v>
       </c>
+      <c r="Q24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1986,6 +2060,9 @@
       <c r="P25" t="n">
         <v>999</v>
       </c>
+      <c r="Q25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2048,6 +2125,9 @@
       <c r="P26" t="n">
         <v>999</v>
       </c>
+      <c r="Q26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2110,6 +2190,9 @@
       <c r="P27" t="n">
         <v>1039</v>
       </c>
+      <c r="Q27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2172,6 +2255,9 @@
       <c r="P28" t="n">
         <v>1039</v>
       </c>
+      <c r="Q28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2234,6 +2320,9 @@
       <c r="P29" t="n">
         <v>1079</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2296,6 +2385,9 @@
       <c r="P30" t="n">
         <v>1079</v>
       </c>
+      <c r="Q30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2358,6 +2450,9 @@
       <c r="P31" t="n">
         <v>1079</v>
       </c>
+      <c r="Q31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2420,6 +2515,9 @@
       <c r="P32" t="n">
         <v>1079</v>
       </c>
+      <c r="Q32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2482,6 +2580,9 @@
       <c r="P33" t="n">
         <v>1099</v>
       </c>
+      <c r="Q33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2544,6 +2645,9 @@
       <c r="P34" t="n">
         <v>1099</v>
       </c>
+      <c r="Q34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2606,6 +2710,9 @@
       <c r="P35" t="n">
         <v>1099</v>
       </c>
+      <c r="Q35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2668,6 +2775,9 @@
       <c r="P36" t="n">
         <v>1199</v>
       </c>
+      <c r="Q36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2687,7 +2797,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2730,6 +2840,9 @@
       <c r="P37" t="n">
         <v>1219</v>
       </c>
+      <c r="Q37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2792,6 +2905,9 @@
       <c r="P38" t="n">
         <v>1219</v>
       </c>
+      <c r="Q38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2854,6 +2970,9 @@
       <c r="P39" t="n">
         <v>1219</v>
       </c>
+      <c r="Q39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2916,6 +3035,9 @@
       <c r="P40" t="n">
         <v>1219</v>
       </c>
+      <c r="Q40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2978,6 +3100,9 @@
       <c r="P41" t="n">
         <v>1219</v>
       </c>
+      <c r="Q41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3040,6 +3165,9 @@
       <c r="P42" t="n">
         <v>1229</v>
       </c>
+      <c r="Q42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3102,6 +3230,9 @@
       <c r="P43" t="n">
         <v>1249</v>
       </c>
+      <c r="Q43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3164,6 +3295,9 @@
       <c r="P44" t="n">
         <v>1249</v>
       </c>
+      <c r="Q44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3226,6 +3360,9 @@
       <c r="P45" t="n">
         <v>1329</v>
       </c>
+      <c r="Q45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3288,6 +3425,9 @@
       <c r="P46" t="n">
         <v>1329</v>
       </c>
+      <c r="Q46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3350,6 +3490,9 @@
       <c r="P47" t="n">
         <v>1329</v>
       </c>
+      <c r="Q47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3412,6 +3555,9 @@
       <c r="P48" t="n">
         <v>1329</v>
       </c>
+      <c r="Q48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3474,6 +3620,9 @@
       <c r="P49" t="n">
         <v>1329</v>
       </c>
+      <c r="Q49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3536,6 +3685,9 @@
       <c r="P50" t="n">
         <v>1329</v>
       </c>
+      <c r="Q50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3598,6 +3750,9 @@
       <c r="P51" t="n">
         <v>1329</v>
       </c>
+      <c r="Q51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3660,6 +3815,9 @@
       <c r="P52" t="n">
         <v>1349</v>
       </c>
+      <c r="Q52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3722,6 +3880,9 @@
       <c r="P53" t="n">
         <v>1479</v>
       </c>
+      <c r="Q53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3784,6 +3945,9 @@
       <c r="P54" t="n">
         <v>1479</v>
       </c>
+      <c r="Q54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3846,6 +4010,9 @@
       <c r="P55" t="n">
         <v>1479</v>
       </c>
+      <c r="Q55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3908,6 +4075,9 @@
       <c r="P56" t="n">
         <v>1579</v>
       </c>
+      <c r="Q56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3970,6 +4140,9 @@
       <c r="P57" t="n">
         <v>1579</v>
       </c>
+      <c r="Q57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4032,6 +4205,9 @@
       <c r="P58" t="n">
         <v>1579</v>
       </c>
+      <c r="Q58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4094,6 +4270,9 @@
       <c r="P59" t="n">
         <v>1579</v>
       </c>
+      <c r="Q59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4156,6 +4335,9 @@
       <c r="P60" t="n">
         <v>1579</v>
       </c>
+      <c r="Q60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4218,6 +4400,9 @@
       <c r="P61" t="n">
         <v>1579</v>
       </c>
+      <c r="Q61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4280,6 +4465,9 @@
       <c r="P62" t="n">
         <v>1579</v>
       </c>
+      <c r="Q62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4342,6 +4530,9 @@
       <c r="P63" t="n">
         <v>1729</v>
       </c>
+      <c r="Q63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4404,6 +4595,9 @@
       <c r="P64" t="n">
         <v>1729</v>
       </c>
+      <c r="Q64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4466,6 +4660,9 @@
       <c r="P65" t="n">
         <v>1729</v>
       </c>
+      <c r="Q65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4528,6 +4725,9 @@
       <c r="P66" t="n">
         <v>1829</v>
       </c>
+      <c r="Q66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4590,6 +4790,9 @@
       <c r="P67" t="n">
         <v>1829</v>
       </c>
+      <c r="Q67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4652,6 +4855,9 @@
       <c r="P68" t="n">
         <v>1829</v>
       </c>
+      <c r="Q68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4714,6 +4920,9 @@
       <c r="P69" t="n">
         <v>1979</v>
       </c>
+      <c r="Q69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4776,6 +4985,9 @@
       <c r="P70" t="n">
         <v>1979</v>
       </c>
+      <c r="Q70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4838,6 +5050,9 @@
       <c r="P71" t="n">
         <v>1979</v>
       </c>
+      <c r="Q71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4900,6 +5115,9 @@
       <c r="P72" t="n">
         <v>2479</v>
       </c>
+      <c r="Q72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4962,6 +5180,9 @@
       <c r="P73" t="n">
         <v>2479</v>
       </c>
+      <c r="Q73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5022,6 +5243,9 @@
         <v>2479</v>
       </c>
       <c r="P74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="Q74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,11 @@
           <t>2026-02-16 08:40:40</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2026-02-16 09:47:42</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,6 +577,9 @@
       <c r="Q2" t="n">
         <v>619</v>
       </c>
+      <c r="R2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -637,6 +645,9 @@
       <c r="Q3" t="n">
         <v>659</v>
       </c>
+      <c r="R3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -702,6 +713,9 @@
       <c r="Q4" t="n">
         <v>659</v>
       </c>
+      <c r="R4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -767,6 +781,9 @@
       <c r="Q5" t="n">
         <v>749</v>
       </c>
+      <c r="R5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -832,6 +849,9 @@
       <c r="Q6" t="n">
         <v>749</v>
       </c>
+      <c r="R6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -897,6 +917,9 @@
       <c r="Q7" t="n">
         <v>809</v>
       </c>
+      <c r="R7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -962,6 +985,9 @@
       <c r="Q8" t="n">
         <v>809</v>
       </c>
+      <c r="R8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1027,6 +1053,9 @@
       <c r="Q9" t="n">
         <v>809</v>
       </c>
+      <c r="R9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1092,6 +1121,9 @@
       <c r="Q10" t="n">
         <v>809</v>
       </c>
+      <c r="R10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1157,6 +1189,9 @@
       <c r="Q11" t="n">
         <v>809</v>
       </c>
+      <c r="R11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1222,6 +1257,9 @@
       <c r="Q12" t="n">
         <v>849</v>
       </c>
+      <c r="R12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1287,6 +1325,9 @@
       <c r="Q13" t="n">
         <v>899</v>
       </c>
+      <c r="R13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1352,6 +1393,9 @@
       <c r="Q14" t="n">
         <v>899</v>
       </c>
+      <c r="R14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1417,6 +1461,9 @@
       <c r="Q15" t="n">
         <v>909</v>
       </c>
+      <c r="R15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1482,6 +1529,9 @@
       <c r="Q16" t="n">
         <v>909</v>
       </c>
+      <c r="R16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1547,6 +1597,9 @@
       <c r="Q17" t="n">
         <v>909</v>
       </c>
+      <c r="R17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1610,6 +1663,9 @@
         <v>909</v>
       </c>
       <c r="Q18" t="n">
+        <v>909</v>
+      </c>
+      <c r="R18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1673,6 +1729,9 @@
       <c r="Q19" t="n">
         <v>949</v>
       </c>
+      <c r="R19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1738,6 +1797,9 @@
       <c r="Q20" t="n">
         <v>969</v>
       </c>
+      <c r="R20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1803,6 +1865,9 @@
       <c r="Q21" t="n">
         <v>969</v>
       </c>
+      <c r="R21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1868,6 +1933,9 @@
       <c r="Q22" t="n">
         <v>969</v>
       </c>
+      <c r="R22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1933,6 +2001,9 @@
       <c r="Q23" t="n">
         <v>969</v>
       </c>
+      <c r="R23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1998,6 +2069,9 @@
       <c r="Q24" t="n">
         <v>969</v>
       </c>
+      <c r="R24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2063,6 +2137,9 @@
       <c r="Q25" t="n">
         <v>999</v>
       </c>
+      <c r="R25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2128,6 +2205,9 @@
       <c r="Q26" t="n">
         <v>999</v>
       </c>
+      <c r="R26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2193,6 +2273,9 @@
       <c r="Q27" t="n">
         <v>1039</v>
       </c>
+      <c r="R27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2258,6 +2341,9 @@
       <c r="Q28" t="n">
         <v>1039</v>
       </c>
+      <c r="R28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2323,6 +2409,9 @@
       <c r="Q29" t="n">
         <v>1079</v>
       </c>
+      <c r="R29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2388,6 +2477,9 @@
       <c r="Q30" t="n">
         <v>1079</v>
       </c>
+      <c r="R30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2453,6 +2545,9 @@
       <c r="Q31" t="n">
         <v>1079</v>
       </c>
+      <c r="R31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2518,6 +2613,9 @@
       <c r="Q32" t="n">
         <v>1079</v>
       </c>
+      <c r="R32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2583,6 +2681,9 @@
       <c r="Q33" t="n">
         <v>1099</v>
       </c>
+      <c r="R33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2648,6 +2749,9 @@
       <c r="Q34" t="n">
         <v>1099</v>
       </c>
+      <c r="R34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2713,6 +2817,9 @@
       <c r="Q35" t="n">
         <v>1099</v>
       </c>
+      <c r="R35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2778,6 +2885,9 @@
       <c r="Q36" t="n">
         <v>1199</v>
       </c>
+      <c r="R36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2797,7 +2907,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2843,6 +2953,9 @@
       <c r="Q37" t="n">
         <v>1219</v>
       </c>
+      <c r="R37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2908,6 +3021,9 @@
       <c r="Q38" t="n">
         <v>1219</v>
       </c>
+      <c r="R38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2973,6 +3089,9 @@
       <c r="Q39" t="n">
         <v>1219</v>
       </c>
+      <c r="R39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3038,6 +3157,9 @@
       <c r="Q40" t="n">
         <v>1219</v>
       </c>
+      <c r="R40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3103,6 +3225,9 @@
       <c r="Q41" t="n">
         <v>1219</v>
       </c>
+      <c r="R41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3168,6 +3293,9 @@
       <c r="Q42" t="n">
         <v>1229</v>
       </c>
+      <c r="R42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3233,6 +3361,9 @@
       <c r="Q43" t="n">
         <v>1249</v>
       </c>
+      <c r="R43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3298,6 +3429,9 @@
       <c r="Q44" t="n">
         <v>1249</v>
       </c>
+      <c r="R44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3363,6 +3497,9 @@
       <c r="Q45" t="n">
         <v>1329</v>
       </c>
+      <c r="R45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3428,6 +3565,9 @@
       <c r="Q46" t="n">
         <v>1329</v>
       </c>
+      <c r="R46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3493,6 +3633,9 @@
       <c r="Q47" t="n">
         <v>1329</v>
       </c>
+      <c r="R47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3558,6 +3701,9 @@
       <c r="Q48" t="n">
         <v>1329</v>
       </c>
+      <c r="R48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3623,6 +3769,9 @@
       <c r="Q49" t="n">
         <v>1329</v>
       </c>
+      <c r="R49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3688,6 +3837,9 @@
       <c r="Q50" t="n">
         <v>1329</v>
       </c>
+      <c r="R50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3753,6 +3905,9 @@
       <c r="Q51" t="n">
         <v>1329</v>
       </c>
+      <c r="R51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3818,6 +3973,9 @@
       <c r="Q52" t="n">
         <v>1349</v>
       </c>
+      <c r="R52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3883,6 +4041,9 @@
       <c r="Q53" t="n">
         <v>1479</v>
       </c>
+      <c r="R53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3948,6 +4109,9 @@
       <c r="Q54" t="n">
         <v>1479</v>
       </c>
+      <c r="R54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4013,6 +4177,9 @@
       <c r="Q55" t="n">
         <v>1479</v>
       </c>
+      <c r="R55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4078,6 +4245,9 @@
       <c r="Q56" t="n">
         <v>1579</v>
       </c>
+      <c r="R56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4143,6 +4313,9 @@
       <c r="Q57" t="n">
         <v>1579</v>
       </c>
+      <c r="R57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4208,6 +4381,9 @@
       <c r="Q58" t="n">
         <v>1579</v>
       </c>
+      <c r="R58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4273,6 +4449,9 @@
       <c r="Q59" t="n">
         <v>1579</v>
       </c>
+      <c r="R59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4338,6 +4517,9 @@
       <c r="Q60" t="n">
         <v>1579</v>
       </c>
+      <c r="R60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4403,6 +4585,9 @@
       <c r="Q61" t="n">
         <v>1579</v>
       </c>
+      <c r="R61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4468,6 +4653,9 @@
       <c r="Q62" t="n">
         <v>1579</v>
       </c>
+      <c r="R62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4533,6 +4721,9 @@
       <c r="Q63" t="n">
         <v>1729</v>
       </c>
+      <c r="R63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4598,6 +4789,9 @@
       <c r="Q64" t="n">
         <v>1729</v>
       </c>
+      <c r="R64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4617,7 +4811,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -4663,6 +4857,9 @@
       <c r="Q65" t="n">
         <v>1729</v>
       </c>
+      <c r="R65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4728,6 +4925,9 @@
       <c r="Q66" t="n">
         <v>1829</v>
       </c>
+      <c r="R66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4793,6 +4993,9 @@
       <c r="Q67" t="n">
         <v>1829</v>
       </c>
+      <c r="R67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4858,6 +5061,9 @@
       <c r="Q68" t="n">
         <v>1829</v>
       </c>
+      <c r="R68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4923,6 +5129,9 @@
       <c r="Q69" t="n">
         <v>1979</v>
       </c>
+      <c r="R69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4988,6 +5197,9 @@
       <c r="Q70" t="n">
         <v>1979</v>
       </c>
+      <c r="R70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5053,6 +5265,9 @@
       <c r="Q71" t="n">
         <v>1979</v>
       </c>
+      <c r="R71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5118,6 +5333,9 @@
       <c r="Q72" t="n">
         <v>2479</v>
       </c>
+      <c r="R72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5183,6 +5401,9 @@
       <c r="Q73" t="n">
         <v>2479</v>
       </c>
+      <c r="R73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5246,6 +5467,9 @@
         <v>2479</v>
       </c>
       <c r="Q74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="R74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,11 @@
           <t>2026-02-16 09:47:42</t>
         </is>
       </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2026-02-16 10:44:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -580,6 +585,9 @@
       <c r="R2" t="n">
         <v>619</v>
       </c>
+      <c r="S2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -648,6 +656,9 @@
       <c r="R3" t="n">
         <v>659</v>
       </c>
+      <c r="S3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -716,6 +727,9 @@
       <c r="R4" t="n">
         <v>659</v>
       </c>
+      <c r="S4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -784,6 +798,9 @@
       <c r="R5" t="n">
         <v>749</v>
       </c>
+      <c r="S5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -852,6 +869,9 @@
       <c r="R6" t="n">
         <v>749</v>
       </c>
+      <c r="S6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -920,6 +940,9 @@
       <c r="R7" t="n">
         <v>809</v>
       </c>
+      <c r="S7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -988,6 +1011,9 @@
       <c r="R8" t="n">
         <v>809</v>
       </c>
+      <c r="S8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1056,6 +1082,9 @@
       <c r="R9" t="n">
         <v>809</v>
       </c>
+      <c r="S9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1124,6 +1153,9 @@
       <c r="R10" t="n">
         <v>809</v>
       </c>
+      <c r="S10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1192,6 +1224,9 @@
       <c r="R11" t="n">
         <v>809</v>
       </c>
+      <c r="S11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1260,6 +1295,9 @@
       <c r="R12" t="n">
         <v>849</v>
       </c>
+      <c r="S12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1328,6 +1366,9 @@
       <c r="R13" t="n">
         <v>899</v>
       </c>
+      <c r="S13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1396,6 +1437,9 @@
       <c r="R14" t="n">
         <v>899</v>
       </c>
+      <c r="S14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1464,6 +1508,9 @@
       <c r="R15" t="n">
         <v>909</v>
       </c>
+      <c r="S15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1532,6 +1579,9 @@
       <c r="R16" t="n">
         <v>909</v>
       </c>
+      <c r="S16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1600,6 +1650,9 @@
       <c r="R17" t="n">
         <v>909</v>
       </c>
+      <c r="S17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1666,6 +1719,9 @@
         <v>909</v>
       </c>
       <c r="R18" t="n">
+        <v>909</v>
+      </c>
+      <c r="S18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1732,6 +1788,9 @@
       <c r="R19" t="n">
         <v>949</v>
       </c>
+      <c r="S19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1751,7 +1810,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (17/02/2026)</t>
+          <t>En stock sous 7 jours (18/02/2026)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1800,6 +1859,9 @@
       <c r="R20" t="n">
         <v>969</v>
       </c>
+      <c r="S20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1868,6 +1930,9 @@
       <c r="R21" t="n">
         <v>969</v>
       </c>
+      <c r="S21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1936,6 +2001,9 @@
       <c r="R22" t="n">
         <v>969</v>
       </c>
+      <c r="S22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2004,6 +2072,9 @@
       <c r="R23" t="n">
         <v>969</v>
       </c>
+      <c r="S23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2072,6 +2143,9 @@
       <c r="R24" t="n">
         <v>969</v>
       </c>
+      <c r="S24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2140,6 +2214,9 @@
       <c r="R25" t="n">
         <v>999</v>
       </c>
+      <c r="S25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2208,6 +2285,9 @@
       <c r="R26" t="n">
         <v>999</v>
       </c>
+      <c r="S26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2276,6 +2356,9 @@
       <c r="R27" t="n">
         <v>1039</v>
       </c>
+      <c r="S27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2344,6 +2427,9 @@
       <c r="R28" t="n">
         <v>1039</v>
       </c>
+      <c r="S28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2412,6 +2498,9 @@
       <c r="R29" t="n">
         <v>1079</v>
       </c>
+      <c r="S29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2480,6 +2569,9 @@
       <c r="R30" t="n">
         <v>1079</v>
       </c>
+      <c r="S30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2548,6 +2640,9 @@
       <c r="R31" t="n">
         <v>1079</v>
       </c>
+      <c r="S31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2616,6 +2711,9 @@
       <c r="R32" t="n">
         <v>1079</v>
       </c>
+      <c r="S32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2684,6 +2782,9 @@
       <c r="R33" t="n">
         <v>1099</v>
       </c>
+      <c r="S33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2752,6 +2853,9 @@
       <c r="R34" t="n">
         <v>1099</v>
       </c>
+      <c r="S34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2820,6 +2924,9 @@
       <c r="R35" t="n">
         <v>1099</v>
       </c>
+      <c r="S35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2888,6 +2995,9 @@
       <c r="R36" t="n">
         <v>1199</v>
       </c>
+      <c r="S36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2956,6 +3066,9 @@
       <c r="R37" t="n">
         <v>1219</v>
       </c>
+      <c r="S37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3024,6 +3137,9 @@
       <c r="R38" t="n">
         <v>1219</v>
       </c>
+      <c r="S38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3092,6 +3208,9 @@
       <c r="R39" t="n">
         <v>1219</v>
       </c>
+      <c r="S39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3160,6 +3279,9 @@
       <c r="R40" t="n">
         <v>1219</v>
       </c>
+      <c r="S40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3228,6 +3350,9 @@
       <c r="R41" t="n">
         <v>1219</v>
       </c>
+      <c r="S41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3296,6 +3421,9 @@
       <c r="R42" t="n">
         <v>1229</v>
       </c>
+      <c r="S42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3364,6 +3492,9 @@
       <c r="R43" t="n">
         <v>1249</v>
       </c>
+      <c r="S43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3432,6 +3563,9 @@
       <c r="R44" t="n">
         <v>1249</v>
       </c>
+      <c r="S44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3500,6 +3634,9 @@
       <c r="R45" t="n">
         <v>1329</v>
       </c>
+      <c r="S45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3568,6 +3705,9 @@
       <c r="R46" t="n">
         <v>1329</v>
       </c>
+      <c r="S46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3636,6 +3776,9 @@
       <c r="R47" t="n">
         <v>1329</v>
       </c>
+      <c r="S47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3704,6 +3847,9 @@
       <c r="R48" t="n">
         <v>1329</v>
       </c>
+      <c r="S48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3772,6 +3918,9 @@
       <c r="R49" t="n">
         <v>1329</v>
       </c>
+      <c r="S49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3840,6 +3989,9 @@
       <c r="R50" t="n">
         <v>1329</v>
       </c>
+      <c r="S50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3908,6 +4060,9 @@
       <c r="R51" t="n">
         <v>1329</v>
       </c>
+      <c r="S51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3976,6 +4131,9 @@
       <c r="R52" t="n">
         <v>1349</v>
       </c>
+      <c r="S52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4044,6 +4202,9 @@
       <c r="R53" t="n">
         <v>1479</v>
       </c>
+      <c r="S53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4112,6 +4273,9 @@
       <c r="R54" t="n">
         <v>1479</v>
       </c>
+      <c r="S54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4180,6 +4344,9 @@
       <c r="R55" t="n">
         <v>1479</v>
       </c>
+      <c r="S55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4248,6 +4415,9 @@
       <c r="R56" t="n">
         <v>1579</v>
       </c>
+      <c r="S56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4316,6 +4486,9 @@
       <c r="R57" t="n">
         <v>1579</v>
       </c>
+      <c r="S57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4384,6 +4557,9 @@
       <c r="R58" t="n">
         <v>1579</v>
       </c>
+      <c r="S58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4452,6 +4628,9 @@
       <c r="R59" t="n">
         <v>1579</v>
       </c>
+      <c r="S59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4520,6 +4699,9 @@
       <c r="R60" t="n">
         <v>1579</v>
       </c>
+      <c r="S60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4588,6 +4770,9 @@
       <c r="R61" t="n">
         <v>1579</v>
       </c>
+      <c r="S61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4656,6 +4841,9 @@
       <c r="R62" t="n">
         <v>1579</v>
       </c>
+      <c r="S62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4724,6 +4912,9 @@
       <c r="R63" t="n">
         <v>1729</v>
       </c>
+      <c r="S63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4792,6 +4983,9 @@
       <c r="R64" t="n">
         <v>1729</v>
       </c>
+      <c r="S64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4860,6 +5054,9 @@
       <c r="R65" t="n">
         <v>1729</v>
       </c>
+      <c r="S65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4928,6 +5125,9 @@
       <c r="R66" t="n">
         <v>1829</v>
       </c>
+      <c r="S66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4996,6 +5196,9 @@
       <c r="R67" t="n">
         <v>1829</v>
       </c>
+      <c r="S67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5064,6 +5267,9 @@
       <c r="R68" t="n">
         <v>1829</v>
       </c>
+      <c r="S68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5132,6 +5338,9 @@
       <c r="R69" t="n">
         <v>1979</v>
       </c>
+      <c r="S69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5200,6 +5409,9 @@
       <c r="R70" t="n">
         <v>1979</v>
       </c>
+      <c r="S70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5268,6 +5480,9 @@
       <c r="R71" t="n">
         <v>1979</v>
       </c>
+      <c r="S71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5336,6 +5551,9 @@
       <c r="R72" t="n">
         <v>2479</v>
       </c>
+      <c r="S72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5404,6 +5622,9 @@
       <c r="R73" t="n">
         <v>2479</v>
       </c>
+      <c r="S73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5470,6 +5691,9 @@
         <v>2479</v>
       </c>
       <c r="R74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="S74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,11 @@
           <t>2026-02-16 10:44:16</t>
         </is>
       </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>2026-02-16 11:37:17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -588,6 +593,9 @@
       <c r="S2" t="n">
         <v>619</v>
       </c>
+      <c r="T2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -659,6 +667,9 @@
       <c r="S3" t="n">
         <v>659</v>
       </c>
+      <c r="T3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -730,6 +741,9 @@
       <c r="S4" t="n">
         <v>659</v>
       </c>
+      <c r="T4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -801,6 +815,9 @@
       <c r="S5" t="n">
         <v>749</v>
       </c>
+      <c r="T5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -872,6 +889,9 @@
       <c r="S6" t="n">
         <v>749</v>
       </c>
+      <c r="T6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -943,6 +963,9 @@
       <c r="S7" t="n">
         <v>809</v>
       </c>
+      <c r="T7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1014,6 +1037,9 @@
       <c r="S8" t="n">
         <v>809</v>
       </c>
+      <c r="T8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1085,6 +1111,9 @@
       <c r="S9" t="n">
         <v>809</v>
       </c>
+      <c r="T9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1104,7 +1133,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1156,6 +1185,9 @@
       <c r="S10" t="n">
         <v>809</v>
       </c>
+      <c r="T10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1227,6 +1259,9 @@
       <c r="S11" t="n">
         <v>809</v>
       </c>
+      <c r="T11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1333,9 @@
       <c r="S12" t="n">
         <v>849</v>
       </c>
+      <c r="T12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1369,6 +1407,9 @@
       <c r="S13" t="n">
         <v>899</v>
       </c>
+      <c r="T13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1440,6 +1481,9 @@
       <c r="S14" t="n">
         <v>899</v>
       </c>
+      <c r="T14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1511,6 +1555,9 @@
       <c r="S15" t="n">
         <v>909</v>
       </c>
+      <c r="T15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1582,6 +1629,9 @@
       <c r="S16" t="n">
         <v>909</v>
       </c>
+      <c r="T16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1653,6 +1703,9 @@
       <c r="S17" t="n">
         <v>909</v>
       </c>
+      <c r="T17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1722,6 +1775,9 @@
         <v>909</v>
       </c>
       <c r="S18" t="n">
+        <v>909</v>
+      </c>
+      <c r="T18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1791,6 +1847,9 @@
       <c r="S19" t="n">
         <v>949</v>
       </c>
+      <c r="T19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1862,6 +1921,9 @@
       <c r="S20" t="n">
         <v>969</v>
       </c>
+      <c r="T20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1933,6 +1995,9 @@
       <c r="S21" t="n">
         <v>969</v>
       </c>
+      <c r="T21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1952,7 +2017,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>En stock dans 7/15 jours</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2004,6 +2069,9 @@
       <c r="S22" t="n">
         <v>969</v>
       </c>
+      <c r="T22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2075,6 +2143,9 @@
       <c r="S23" t="n">
         <v>969</v>
       </c>
+      <c r="T23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2146,6 +2217,9 @@
       <c r="S24" t="n">
         <v>969</v>
       </c>
+      <c r="T24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2217,6 +2291,9 @@
       <c r="S25" t="n">
         <v>999</v>
       </c>
+      <c r="T25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2288,6 +2365,9 @@
       <c r="S26" t="n">
         <v>999</v>
       </c>
+      <c r="T26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2359,6 +2439,9 @@
       <c r="S27" t="n">
         <v>1039</v>
       </c>
+      <c r="T27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2430,6 +2513,9 @@
       <c r="S28" t="n">
         <v>1039</v>
       </c>
+      <c r="T28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2501,6 +2587,9 @@
       <c r="S29" t="n">
         <v>1079</v>
       </c>
+      <c r="T29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2572,6 +2661,9 @@
       <c r="S30" t="n">
         <v>1079</v>
       </c>
+      <c r="T30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2643,6 +2735,9 @@
       <c r="S31" t="n">
         <v>1079</v>
       </c>
+      <c r="T31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2714,6 +2809,9 @@
       <c r="S32" t="n">
         <v>1079</v>
       </c>
+      <c r="T32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2785,6 +2883,9 @@
       <c r="S33" t="n">
         <v>1099</v>
       </c>
+      <c r="T33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2856,6 +2957,9 @@
       <c r="S34" t="n">
         <v>1099</v>
       </c>
+      <c r="T34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2927,6 +3031,9 @@
       <c r="S35" t="n">
         <v>1099</v>
       </c>
+      <c r="T35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2998,6 +3105,9 @@
       <c r="S36" t="n">
         <v>1199</v>
       </c>
+      <c r="T36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3069,6 +3179,9 @@
       <c r="S37" t="n">
         <v>1219</v>
       </c>
+      <c r="T37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3140,6 +3253,9 @@
       <c r="S38" t="n">
         <v>1219</v>
       </c>
+      <c r="T38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3211,6 +3327,9 @@
       <c r="S39" t="n">
         <v>1219</v>
       </c>
+      <c r="T39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3282,6 +3401,9 @@
       <c r="S40" t="n">
         <v>1219</v>
       </c>
+      <c r="T40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3353,6 +3475,9 @@
       <c r="S41" t="n">
         <v>1219</v>
       </c>
+      <c r="T41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3424,6 +3549,9 @@
       <c r="S42" t="n">
         <v>1229</v>
       </c>
+      <c r="T42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3495,6 +3623,9 @@
       <c r="S43" t="n">
         <v>1249</v>
       </c>
+      <c r="T43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3566,6 +3697,9 @@
       <c r="S44" t="n">
         <v>1249</v>
       </c>
+      <c r="T44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3637,6 +3771,9 @@
       <c r="S45" t="n">
         <v>1329</v>
       </c>
+      <c r="T45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3708,6 +3845,9 @@
       <c r="S46" t="n">
         <v>1329</v>
       </c>
+      <c r="T46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3779,6 +3919,9 @@
       <c r="S47" t="n">
         <v>1329</v>
       </c>
+      <c r="T47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3850,6 +3993,9 @@
       <c r="S48" t="n">
         <v>1329</v>
       </c>
+      <c r="T48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3921,6 +4067,9 @@
       <c r="S49" t="n">
         <v>1329</v>
       </c>
+      <c r="T49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3992,6 +4141,9 @@
       <c r="S50" t="n">
         <v>1329</v>
       </c>
+      <c r="T50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4063,6 +4215,9 @@
       <c r="S51" t="n">
         <v>1329</v>
       </c>
+      <c r="T51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4134,6 +4289,9 @@
       <c r="S52" t="n">
         <v>1349</v>
       </c>
+      <c r="T52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4153,7 +4311,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -4205,6 +4363,9 @@
       <c r="S53" t="n">
         <v>1479</v>
       </c>
+      <c r="T53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4276,6 +4437,9 @@
       <c r="S54" t="n">
         <v>1479</v>
       </c>
+      <c r="T54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4347,6 +4511,9 @@
       <c r="S55" t="n">
         <v>1479</v>
       </c>
+      <c r="T55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4418,6 +4585,9 @@
       <c r="S56" t="n">
         <v>1579</v>
       </c>
+      <c r="T56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4489,6 +4659,9 @@
       <c r="S57" t="n">
         <v>1579</v>
       </c>
+      <c r="T57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4560,6 +4733,9 @@
       <c r="S58" t="n">
         <v>1579</v>
       </c>
+      <c r="T58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4631,6 +4807,9 @@
       <c r="S59" t="n">
         <v>1579</v>
       </c>
+      <c r="T59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4702,6 +4881,9 @@
       <c r="S60" t="n">
         <v>1579</v>
       </c>
+      <c r="T60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4773,6 +4955,9 @@
       <c r="S61" t="n">
         <v>1579</v>
       </c>
+      <c r="T61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4844,6 +5029,9 @@
       <c r="S62" t="n">
         <v>1579</v>
       </c>
+      <c r="T62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4915,6 +5103,9 @@
       <c r="S63" t="n">
         <v>1729</v>
       </c>
+      <c r="T63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4986,6 +5177,9 @@
       <c r="S64" t="n">
         <v>1729</v>
       </c>
+      <c r="T64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5057,6 +5251,9 @@
       <c r="S65" t="n">
         <v>1729</v>
       </c>
+      <c r="T65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5128,6 +5325,9 @@
       <c r="S66" t="n">
         <v>1829</v>
       </c>
+      <c r="T66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5199,6 +5399,9 @@
       <c r="S67" t="n">
         <v>1829</v>
       </c>
+      <c r="T67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5270,6 +5473,9 @@
       <c r="S68" t="n">
         <v>1829</v>
       </c>
+      <c r="T68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5341,6 +5547,9 @@
       <c r="S69" t="n">
         <v>1979</v>
       </c>
+      <c r="T69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5412,6 +5621,9 @@
       <c r="S70" t="n">
         <v>1979</v>
       </c>
+      <c r="T70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5483,6 +5695,9 @@
       <c r="S71" t="n">
         <v>1979</v>
       </c>
+      <c r="T71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5554,6 +5769,9 @@
       <c r="S72" t="n">
         <v>2479</v>
       </c>
+      <c r="T72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5625,6 +5843,9 @@
       <c r="S73" t="n">
         <v>2479</v>
       </c>
+      <c r="T73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5694,6 +5915,9 @@
         <v>2479</v>
       </c>
       <c r="S74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="T74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,11 @@
           <t>2026-02-16 11:37:17</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>2026-02-16 12:51:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -596,6 +601,9 @@
       <c r="T2" t="n">
         <v>619</v>
       </c>
+      <c r="U2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -670,6 +678,9 @@
       <c r="T3" t="n">
         <v>659</v>
       </c>
+      <c r="U3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -744,6 +755,9 @@
       <c r="T4" t="n">
         <v>659</v>
       </c>
+      <c r="U4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -763,7 +777,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (17/02/2026)</t>
+          <t>En stock sous 7 jours (18/02/2026)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -818,6 +832,9 @@
       <c r="T5" t="n">
         <v>749</v>
       </c>
+      <c r="U5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -892,6 +909,9 @@
       <c r="T6" t="n">
         <v>749</v>
       </c>
+      <c r="U6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -966,6 +986,9 @@
       <c r="T7" t="n">
         <v>809</v>
       </c>
+      <c r="U7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1040,6 +1063,9 @@
       <c r="T8" t="n">
         <v>809</v>
       </c>
+      <c r="U8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1114,6 +1140,9 @@
       <c r="T9" t="n">
         <v>809</v>
       </c>
+      <c r="U9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1188,6 +1217,9 @@
       <c r="T10" t="n">
         <v>809</v>
       </c>
+      <c r="U10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1262,6 +1294,9 @@
       <c r="T11" t="n">
         <v>809</v>
       </c>
+      <c r="U11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1336,6 +1371,9 @@
       <c r="T12" t="n">
         <v>849</v>
       </c>
+      <c r="U12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1410,6 +1448,9 @@
       <c r="T13" t="n">
         <v>899</v>
       </c>
+      <c r="U13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1484,6 +1525,9 @@
       <c r="T14" t="n">
         <v>899</v>
       </c>
+      <c r="U14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1558,6 +1602,9 @@
       <c r="T15" t="n">
         <v>909</v>
       </c>
+      <c r="U15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1632,6 +1679,9 @@
       <c r="T16" t="n">
         <v>909</v>
       </c>
+      <c r="U16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1651,7 +1701,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (17/02/2026)</t>
+          <t>En stock sous 7 jours (18/02/2026)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1706,6 +1756,9 @@
       <c r="T17" t="n">
         <v>909</v>
       </c>
+      <c r="U17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1778,6 +1831,9 @@
         <v>909</v>
       </c>
       <c r="T18" t="n">
+        <v>909</v>
+      </c>
+      <c r="U18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1850,6 +1906,9 @@
       <c r="T19" t="n">
         <v>949</v>
       </c>
+      <c r="U19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1924,6 +1983,9 @@
       <c r="T20" t="n">
         <v>969</v>
       </c>
+      <c r="U20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1998,6 +2060,9 @@
       <c r="T21" t="n">
         <v>969</v>
       </c>
+      <c r="U21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2072,6 +2137,9 @@
       <c r="T22" t="n">
         <v>969</v>
       </c>
+      <c r="U22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2146,6 +2214,9 @@
       <c r="T23" t="n">
         <v>969</v>
       </c>
+      <c r="U23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2220,6 +2291,9 @@
       <c r="T24" t="n">
         <v>969</v>
       </c>
+      <c r="U24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2294,6 +2368,9 @@
       <c r="T25" t="n">
         <v>999</v>
       </c>
+      <c r="U25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2368,6 +2445,9 @@
       <c r="T26" t="n">
         <v>999</v>
       </c>
+      <c r="U26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2442,6 +2522,9 @@
       <c r="T27" t="n">
         <v>1039</v>
       </c>
+      <c r="U27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2516,6 +2599,9 @@
       <c r="T28" t="n">
         <v>1039</v>
       </c>
+      <c r="U28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2590,6 +2676,9 @@
       <c r="T29" t="n">
         <v>1079</v>
       </c>
+      <c r="U29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2664,6 +2753,9 @@
       <c r="T30" t="n">
         <v>1079</v>
       </c>
+      <c r="U30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2738,6 +2830,9 @@
       <c r="T31" t="n">
         <v>1079</v>
       </c>
+      <c r="U31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2812,6 +2907,9 @@
       <c r="T32" t="n">
         <v>1079</v>
       </c>
+      <c r="U32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2886,6 +2984,9 @@
       <c r="T33" t="n">
         <v>1099</v>
       </c>
+      <c r="U33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2960,6 +3061,9 @@
       <c r="T34" t="n">
         <v>1099</v>
       </c>
+      <c r="U34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3034,6 +3138,9 @@
       <c r="T35" t="n">
         <v>1099</v>
       </c>
+      <c r="U35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3108,6 +3215,9 @@
       <c r="T36" t="n">
         <v>1199</v>
       </c>
+      <c r="U36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3182,6 +3292,9 @@
       <c r="T37" t="n">
         <v>1219</v>
       </c>
+      <c r="U37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3256,6 +3369,9 @@
       <c r="T38" t="n">
         <v>1219</v>
       </c>
+      <c r="U38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3330,6 +3446,9 @@
       <c r="T39" t="n">
         <v>1219</v>
       </c>
+      <c r="U39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3404,6 +3523,9 @@
       <c r="T40" t="n">
         <v>1219</v>
       </c>
+      <c r="U40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3478,6 +3600,9 @@
       <c r="T41" t="n">
         <v>1219</v>
       </c>
+      <c r="U41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3552,6 +3677,9 @@
       <c r="T42" t="n">
         <v>1229</v>
       </c>
+      <c r="U42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3626,6 +3754,9 @@
       <c r="T43" t="n">
         <v>1249</v>
       </c>
+      <c r="U43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3700,6 +3831,9 @@
       <c r="T44" t="n">
         <v>1249</v>
       </c>
+      <c r="U44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3774,6 +3908,9 @@
       <c r="T45" t="n">
         <v>1329</v>
       </c>
+      <c r="U45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3848,6 +3985,9 @@
       <c r="T46" t="n">
         <v>1329</v>
       </c>
+      <c r="U46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3922,6 +4062,9 @@
       <c r="T47" t="n">
         <v>1329</v>
       </c>
+      <c r="U47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3996,6 +4139,9 @@
       <c r="T48" t="n">
         <v>1329</v>
       </c>
+      <c r="U48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4070,6 +4216,9 @@
       <c r="T49" t="n">
         <v>1329</v>
       </c>
+      <c r="U49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4144,6 +4293,9 @@
       <c r="T50" t="n">
         <v>1329</v>
       </c>
+      <c r="U50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4218,6 +4370,9 @@
       <c r="T51" t="n">
         <v>1329</v>
       </c>
+      <c r="U51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4292,6 +4447,9 @@
       <c r="T52" t="n">
         <v>1349</v>
       </c>
+      <c r="U52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4366,6 +4524,9 @@
       <c r="T53" t="n">
         <v>1479</v>
       </c>
+      <c r="U53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4440,6 +4601,9 @@
       <c r="T54" t="n">
         <v>1479</v>
       </c>
+      <c r="U54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4514,6 +4678,9 @@
       <c r="T55" t="n">
         <v>1479</v>
       </c>
+      <c r="U55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4588,6 +4755,9 @@
       <c r="T56" t="n">
         <v>1579</v>
       </c>
+      <c r="U56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4662,6 +4832,9 @@
       <c r="T57" t="n">
         <v>1579</v>
       </c>
+      <c r="U57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4736,6 +4909,9 @@
       <c r="T58" t="n">
         <v>1579</v>
       </c>
+      <c r="U58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4810,6 +4986,9 @@
       <c r="T59" t="n">
         <v>1579</v>
       </c>
+      <c r="U59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4884,6 +5063,9 @@
       <c r="T60" t="n">
         <v>1579</v>
       </c>
+      <c r="U60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4958,6 +5140,9 @@
       <c r="T61" t="n">
         <v>1579</v>
       </c>
+      <c r="U61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5032,6 +5217,9 @@
       <c r="T62" t="n">
         <v>1579</v>
       </c>
+      <c r="U62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5106,6 +5294,9 @@
       <c r="T63" t="n">
         <v>1729</v>
       </c>
+      <c r="U63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5180,6 +5371,9 @@
       <c r="T64" t="n">
         <v>1729</v>
       </c>
+      <c r="U64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5254,6 +5448,9 @@
       <c r="T65" t="n">
         <v>1729</v>
       </c>
+      <c r="U65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5328,6 +5525,9 @@
       <c r="T66" t="n">
         <v>1829</v>
       </c>
+      <c r="U66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5402,6 +5602,9 @@
       <c r="T67" t="n">
         <v>1829</v>
       </c>
+      <c r="U67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5476,6 +5679,9 @@
       <c r="T68" t="n">
         <v>1829</v>
       </c>
+      <c r="U68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5550,6 +5756,9 @@
       <c r="T69" t="n">
         <v>1979</v>
       </c>
+      <c r="U69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5624,6 +5833,9 @@
       <c r="T70" t="n">
         <v>1979</v>
       </c>
+      <c r="U70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5698,6 +5910,9 @@
       <c r="T71" t="n">
         <v>1979</v>
       </c>
+      <c r="U71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5772,6 +5987,9 @@
       <c r="T72" t="n">
         <v>2479</v>
       </c>
+      <c r="U72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5846,6 +6064,9 @@
       <c r="T73" t="n">
         <v>2479</v>
       </c>
+      <c r="U73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5918,6 +6139,9 @@
         <v>2479</v>
       </c>
       <c r="T74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="U74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,11 @@
           <t>2026-02-16 12:51:20</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2026-02-16 14:03:28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -604,6 +609,9 @@
       <c r="U2" t="n">
         <v>619</v>
       </c>
+      <c r="V2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -681,6 +689,9 @@
       <c r="U3" t="n">
         <v>659</v>
       </c>
+      <c r="V3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -758,6 +769,9 @@
       <c r="U4" t="n">
         <v>659</v>
       </c>
+      <c r="V4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -835,6 +849,9 @@
       <c r="U5" t="n">
         <v>749</v>
       </c>
+      <c r="V5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -912,6 +929,9 @@
       <c r="U6" t="n">
         <v>749</v>
       </c>
+      <c r="V6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -989,6 +1009,9 @@
       <c r="U7" t="n">
         <v>809</v>
       </c>
+      <c r="V7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1066,6 +1089,9 @@
       <c r="U8" t="n">
         <v>809</v>
       </c>
+      <c r="V8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1143,6 +1169,9 @@
       <c r="U9" t="n">
         <v>809</v>
       </c>
+      <c r="V9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1220,6 +1249,9 @@
       <c r="U10" t="n">
         <v>809</v>
       </c>
+      <c r="V10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1297,6 +1329,9 @@
       <c r="U11" t="n">
         <v>809</v>
       </c>
+      <c r="V11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1374,6 +1409,9 @@
       <c r="U12" t="n">
         <v>849</v>
       </c>
+      <c r="V12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1451,6 +1489,9 @@
       <c r="U13" t="n">
         <v>899</v>
       </c>
+      <c r="V13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1528,6 +1569,9 @@
       <c r="U14" t="n">
         <v>899</v>
       </c>
+      <c r="V14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1605,6 +1649,9 @@
       <c r="U15" t="n">
         <v>909</v>
       </c>
+      <c r="V15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1682,6 +1729,9 @@
       <c r="U16" t="n">
         <v>909</v>
       </c>
+      <c r="V16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1759,6 +1809,9 @@
       <c r="U17" t="n">
         <v>909</v>
       </c>
+      <c r="V17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1834,6 +1887,9 @@
         <v>909</v>
       </c>
       <c r="U18" t="n">
+        <v>909</v>
+      </c>
+      <c r="V18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1909,6 +1965,9 @@
       <c r="U19" t="n">
         <v>949</v>
       </c>
+      <c r="V19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1986,6 +2045,9 @@
       <c r="U20" t="n">
         <v>969</v>
       </c>
+      <c r="V20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2063,6 +2125,9 @@
       <c r="U21" t="n">
         <v>969</v>
       </c>
+      <c r="V21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2140,6 +2205,9 @@
       <c r="U22" t="n">
         <v>969</v>
       </c>
+      <c r="V22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2217,6 +2285,9 @@
       <c r="U23" t="n">
         <v>969</v>
       </c>
+      <c r="V23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2294,6 +2365,9 @@
       <c r="U24" t="n">
         <v>969</v>
       </c>
+      <c r="V24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2371,6 +2445,9 @@
       <c r="U25" t="n">
         <v>999</v>
       </c>
+      <c r="V25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2448,6 +2525,9 @@
       <c r="U26" t="n">
         <v>999</v>
       </c>
+      <c r="V26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2525,6 +2605,9 @@
       <c r="U27" t="n">
         <v>1039</v>
       </c>
+      <c r="V27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2602,6 +2685,9 @@
       <c r="U28" t="n">
         <v>1039</v>
       </c>
+      <c r="V28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2679,6 +2765,9 @@
       <c r="U29" t="n">
         <v>1079</v>
       </c>
+      <c r="V29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2756,6 +2845,9 @@
       <c r="U30" t="n">
         <v>1079</v>
       </c>
+      <c r="V30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2833,6 +2925,9 @@
       <c r="U31" t="n">
         <v>1079</v>
       </c>
+      <c r="V31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2910,6 +3005,9 @@
       <c r="U32" t="n">
         <v>1079</v>
       </c>
+      <c r="V32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2987,6 +3085,9 @@
       <c r="U33" t="n">
         <v>1099</v>
       </c>
+      <c r="V33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3064,6 +3165,9 @@
       <c r="U34" t="n">
         <v>1099</v>
       </c>
+      <c r="V34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3141,6 +3245,9 @@
       <c r="U35" t="n">
         <v>1099</v>
       </c>
+      <c r="V35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3218,6 +3325,9 @@
       <c r="U36" t="n">
         <v>1199</v>
       </c>
+      <c r="V36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3237,7 +3347,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -3295,6 +3405,9 @@
       <c r="U37" t="n">
         <v>1219</v>
       </c>
+      <c r="V37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3372,6 +3485,9 @@
       <c r="U38" t="n">
         <v>1219</v>
       </c>
+      <c r="V38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3449,6 +3565,9 @@
       <c r="U39" t="n">
         <v>1219</v>
       </c>
+      <c r="V39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3526,6 +3645,9 @@
       <c r="U40" t="n">
         <v>1219</v>
       </c>
+      <c r="V40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3603,6 +3725,9 @@
       <c r="U41" t="n">
         <v>1219</v>
       </c>
+      <c r="V41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3680,6 +3805,9 @@
       <c r="U42" t="n">
         <v>1229</v>
       </c>
+      <c r="V42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3757,6 +3885,9 @@
       <c r="U43" t="n">
         <v>1249</v>
       </c>
+      <c r="V43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3834,6 +3965,9 @@
       <c r="U44" t="n">
         <v>1249</v>
       </c>
+      <c r="V44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3911,6 +4045,9 @@
       <c r="U45" t="n">
         <v>1329</v>
       </c>
+      <c r="V45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3988,6 +4125,9 @@
       <c r="U46" t="n">
         <v>1329</v>
       </c>
+      <c r="V46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4065,6 +4205,9 @@
       <c r="U47" t="n">
         <v>1329</v>
       </c>
+      <c r="V47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4142,6 +4285,9 @@
       <c r="U48" t="n">
         <v>1329</v>
       </c>
+      <c r="V48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4219,6 +4365,9 @@
       <c r="U49" t="n">
         <v>1329</v>
       </c>
+      <c r="V49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4296,6 +4445,9 @@
       <c r="U50" t="n">
         <v>1329</v>
       </c>
+      <c r="V50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4373,6 +4525,9 @@
       <c r="U51" t="n">
         <v>1329</v>
       </c>
+      <c r="V51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4450,6 +4605,9 @@
       <c r="U52" t="n">
         <v>1349</v>
       </c>
+      <c r="V52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4527,6 +4685,9 @@
       <c r="U53" t="n">
         <v>1479</v>
       </c>
+      <c r="V53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4604,6 +4765,9 @@
       <c r="U54" t="n">
         <v>1479</v>
       </c>
+      <c r="V54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4681,6 +4845,9 @@
       <c r="U55" t="n">
         <v>1479</v>
       </c>
+      <c r="V55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4700,7 +4867,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -4758,6 +4925,9 @@
       <c r="U56" t="n">
         <v>1579</v>
       </c>
+      <c r="V56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4835,6 +5005,9 @@
       <c r="U57" t="n">
         <v>1579</v>
       </c>
+      <c r="V57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4912,6 +5085,9 @@
       <c r="U58" t="n">
         <v>1579</v>
       </c>
+      <c r="V58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4989,6 +5165,9 @@
       <c r="U59" t="n">
         <v>1579</v>
       </c>
+      <c r="V59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5066,6 +5245,9 @@
       <c r="U60" t="n">
         <v>1579</v>
       </c>
+      <c r="V60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5143,6 +5325,9 @@
       <c r="U61" t="n">
         <v>1579</v>
       </c>
+      <c r="V61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5220,6 +5405,9 @@
       <c r="U62" t="n">
         <v>1579</v>
       </c>
+      <c r="V62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5297,6 +5485,9 @@
       <c r="U63" t="n">
         <v>1729</v>
       </c>
+      <c r="V63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5316,7 +5507,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -5374,6 +5565,9 @@
       <c r="U64" t="n">
         <v>1729</v>
       </c>
+      <c r="V64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5451,6 +5645,9 @@
       <c r="U65" t="n">
         <v>1729</v>
       </c>
+      <c r="V65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5528,6 +5725,9 @@
       <c r="U66" t="n">
         <v>1829</v>
       </c>
+      <c r="V66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5605,6 +5805,9 @@
       <c r="U67" t="n">
         <v>1829</v>
       </c>
+      <c r="V67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5682,6 +5885,9 @@
       <c r="U68" t="n">
         <v>1829</v>
       </c>
+      <c r="V68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5759,6 +5965,9 @@
       <c r="U69" t="n">
         <v>1979</v>
       </c>
+      <c r="V69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5836,6 +6045,9 @@
       <c r="U70" t="n">
         <v>1979</v>
       </c>
+      <c r="V70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5913,6 +6125,9 @@
       <c r="U71" t="n">
         <v>1979</v>
       </c>
+      <c r="V71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5990,6 +6205,9 @@
       <c r="U72" t="n">
         <v>2479</v>
       </c>
+      <c r="V72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6067,6 +6285,9 @@
       <c r="U73" t="n">
         <v>2479</v>
       </c>
+      <c r="V73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6142,6 +6363,9 @@
         <v>2479</v>
       </c>
       <c r="U74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="V74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>2026-02-16 14:03:28</t>
         </is>
       </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2026-02-16 15:37:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -612,6 +617,9 @@
       <c r="V2" t="n">
         <v>619</v>
       </c>
+      <c r="W2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -692,6 +700,9 @@
       <c r="V3" t="n">
         <v>659</v>
       </c>
+      <c r="W3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -772,6 +783,9 @@
       <c r="V4" t="n">
         <v>659</v>
       </c>
+      <c r="W4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -852,6 +866,9 @@
       <c r="V5" t="n">
         <v>749</v>
       </c>
+      <c r="W5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -932,6 +949,9 @@
       <c r="V6" t="n">
         <v>749</v>
       </c>
+      <c r="W6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1012,6 +1032,9 @@
       <c r="V7" t="n">
         <v>809</v>
       </c>
+      <c r="W7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1092,6 +1115,9 @@
       <c r="V8" t="n">
         <v>809</v>
       </c>
+      <c r="W8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1172,6 +1198,9 @@
       <c r="V9" t="n">
         <v>809</v>
       </c>
+      <c r="W9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1252,6 +1281,9 @@
       <c r="V10" t="n">
         <v>809</v>
       </c>
+      <c r="W10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1332,6 +1364,9 @@
       <c r="V11" t="n">
         <v>809</v>
       </c>
+      <c r="W11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1412,6 +1447,9 @@
       <c r="V12" t="n">
         <v>849</v>
       </c>
+      <c r="W12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1492,6 +1530,9 @@
       <c r="V13" t="n">
         <v>899</v>
       </c>
+      <c r="W13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1572,6 +1613,9 @@
       <c r="V14" t="n">
         <v>899</v>
       </c>
+      <c r="W14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1652,6 +1696,9 @@
       <c r="V15" t="n">
         <v>909</v>
       </c>
+      <c r="W15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1732,6 +1779,9 @@
       <c r="V16" t="n">
         <v>909</v>
       </c>
+      <c r="W16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1812,6 +1862,9 @@
       <c r="V17" t="n">
         <v>909</v>
       </c>
+      <c r="W17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1890,6 +1943,9 @@
         <v>909</v>
       </c>
       <c r="V18" t="n">
+        <v>909</v>
+      </c>
+      <c r="W18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -1968,6 +2024,9 @@
       <c r="V19" t="n">
         <v>949</v>
       </c>
+      <c r="W19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2048,6 +2107,9 @@
       <c r="V20" t="n">
         <v>969</v>
       </c>
+      <c r="W20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2128,6 +2190,9 @@
       <c r="V21" t="n">
         <v>969</v>
       </c>
+      <c r="W21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2208,6 +2273,9 @@
       <c r="V22" t="n">
         <v>969</v>
       </c>
+      <c r="W22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2288,6 +2356,9 @@
       <c r="V23" t="n">
         <v>969</v>
       </c>
+      <c r="W23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2368,6 +2439,9 @@
       <c r="V24" t="n">
         <v>969</v>
       </c>
+      <c r="W24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2448,6 +2522,9 @@
       <c r="V25" t="n">
         <v>999</v>
       </c>
+      <c r="W25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2528,6 +2605,9 @@
       <c r="V26" t="n">
         <v>999</v>
       </c>
+      <c r="W26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2608,6 +2688,9 @@
       <c r="V27" t="n">
         <v>1039</v>
       </c>
+      <c r="W27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2688,6 +2771,9 @@
       <c r="V28" t="n">
         <v>1039</v>
       </c>
+      <c r="W28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2768,6 +2854,9 @@
       <c r="V29" t="n">
         <v>1079</v>
       </c>
+      <c r="W29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2848,6 +2937,9 @@
       <c r="V30" t="n">
         <v>1079</v>
       </c>
+      <c r="W30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2928,6 +3020,9 @@
       <c r="V31" t="n">
         <v>1079</v>
       </c>
+      <c r="W31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3008,6 +3103,9 @@
       <c r="V32" t="n">
         <v>1079</v>
       </c>
+      <c r="W32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3088,6 +3186,9 @@
       <c r="V33" t="n">
         <v>1099</v>
       </c>
+      <c r="W33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3168,6 +3269,9 @@
       <c r="V34" t="n">
         <v>1099</v>
       </c>
+      <c r="W34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3248,6 +3352,9 @@
       <c r="V35" t="n">
         <v>1099</v>
       </c>
+      <c r="W35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3328,6 +3435,9 @@
       <c r="V36" t="n">
         <v>1199</v>
       </c>
+      <c r="W36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3408,6 +3518,9 @@
       <c r="V37" t="n">
         <v>1219</v>
       </c>
+      <c r="W37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3488,6 +3601,9 @@
       <c r="V38" t="n">
         <v>1219</v>
       </c>
+      <c r="W38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3568,6 +3684,9 @@
       <c r="V39" t="n">
         <v>1219</v>
       </c>
+      <c r="W39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3648,6 +3767,9 @@
       <c r="V40" t="n">
         <v>1219</v>
       </c>
+      <c r="W40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3728,6 +3850,9 @@
       <c r="V41" t="n">
         <v>1219</v>
       </c>
+      <c r="W41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3808,6 +3933,9 @@
       <c r="V42" t="n">
         <v>1229</v>
       </c>
+      <c r="W42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3888,6 +4016,9 @@
       <c r="V43" t="n">
         <v>1249</v>
       </c>
+      <c r="W43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3968,6 +4099,9 @@
       <c r="V44" t="n">
         <v>1249</v>
       </c>
+      <c r="W44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4048,6 +4182,9 @@
       <c r="V45" t="n">
         <v>1329</v>
       </c>
+      <c r="W45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4128,6 +4265,9 @@
       <c r="V46" t="n">
         <v>1329</v>
       </c>
+      <c r="W46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4208,6 +4348,9 @@
       <c r="V47" t="n">
         <v>1329</v>
       </c>
+      <c r="W47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4288,6 +4431,9 @@
       <c r="V48" t="n">
         <v>1329</v>
       </c>
+      <c r="W48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4368,6 +4514,9 @@
       <c r="V49" t="n">
         <v>1329</v>
       </c>
+      <c r="W49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4448,6 +4597,9 @@
       <c r="V50" t="n">
         <v>1329</v>
       </c>
+      <c r="W50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4528,6 +4680,9 @@
       <c r="V51" t="n">
         <v>1329</v>
       </c>
+      <c r="W51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4608,6 +4763,9 @@
       <c r="V52" t="n">
         <v>1349</v>
       </c>
+      <c r="W52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4688,6 +4846,9 @@
       <c r="V53" t="n">
         <v>1479</v>
       </c>
+      <c r="W53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4768,6 +4929,9 @@
       <c r="V54" t="n">
         <v>1479</v>
       </c>
+      <c r="W54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4848,6 +5012,9 @@
       <c r="V55" t="n">
         <v>1479</v>
       </c>
+      <c r="W55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4928,6 +5095,9 @@
       <c r="V56" t="n">
         <v>1579</v>
       </c>
+      <c r="W56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5008,6 +5178,9 @@
       <c r="V57" t="n">
         <v>1579</v>
       </c>
+      <c r="W57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5088,6 +5261,9 @@
       <c r="V58" t="n">
         <v>1579</v>
       </c>
+      <c r="W58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5168,6 +5344,9 @@
       <c r="V59" t="n">
         <v>1579</v>
       </c>
+      <c r="W59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5248,6 +5427,9 @@
       <c r="V60" t="n">
         <v>1579</v>
       </c>
+      <c r="W60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5328,6 +5510,9 @@
       <c r="V61" t="n">
         <v>1579</v>
       </c>
+      <c r="W61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5408,6 +5593,9 @@
       <c r="V62" t="n">
         <v>1579</v>
       </c>
+      <c r="W62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5488,6 +5676,9 @@
       <c r="V63" t="n">
         <v>1729</v>
       </c>
+      <c r="W63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5568,6 +5759,9 @@
       <c r="V64" t="n">
         <v>1729</v>
       </c>
+      <c r="W64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5648,6 +5842,9 @@
       <c r="V65" t="n">
         <v>1729</v>
       </c>
+      <c r="W65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5728,6 +5925,9 @@
       <c r="V66" t="n">
         <v>1829</v>
       </c>
+      <c r="W66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5808,6 +6008,9 @@
       <c r="V67" t="n">
         <v>1829</v>
       </c>
+      <c r="W67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5888,6 +6091,9 @@
       <c r="V68" t="n">
         <v>1829</v>
       </c>
+      <c r="W68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5968,6 +6174,9 @@
       <c r="V69" t="n">
         <v>1979</v>
       </c>
+      <c r="W69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6048,6 +6257,9 @@
       <c r="V70" t="n">
         <v>1979</v>
       </c>
+      <c r="W70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6128,6 +6340,9 @@
       <c r="V71" t="n">
         <v>1979</v>
       </c>
+      <c r="W71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6208,6 +6423,9 @@
       <c r="V72" t="n">
         <v>2479</v>
       </c>
+      <c r="W72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6288,6 +6506,9 @@
       <c r="V73" t="n">
         <v>2479</v>
       </c>
+      <c r="W73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6366,6 +6587,9 @@
         <v>2479</v>
       </c>
       <c r="V74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="W74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W74"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,11 @@
           <t>2026-02-16 15:37:06</t>
         </is>
       </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>2026-02-16 16:37:39</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -556,7 +561,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -620,6 +625,9 @@
       <c r="W2" t="n">
         <v>619</v>
       </c>
+      <c r="X2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -703,6 +711,9 @@
       <c r="W3" t="n">
         <v>659</v>
       </c>
+      <c r="X3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -786,6 +797,9 @@
       <c r="W4" t="n">
         <v>659</v>
       </c>
+      <c r="X4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -869,6 +883,9 @@
       <c r="W5" t="n">
         <v>749</v>
       </c>
+      <c r="X5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -952,6 +969,9 @@
       <c r="W6" t="n">
         <v>749</v>
       </c>
+      <c r="X6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1035,6 +1055,9 @@
       <c r="W7" t="n">
         <v>809</v>
       </c>
+      <c r="X7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1118,6 +1141,9 @@
       <c r="W8" t="n">
         <v>809</v>
       </c>
+      <c r="X8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1201,6 +1227,9 @@
       <c r="W9" t="n">
         <v>809</v>
       </c>
+      <c r="X9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1284,6 +1313,9 @@
       <c r="W10" t="n">
         <v>809</v>
       </c>
+      <c r="X10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1367,6 +1399,9 @@
       <c r="W11" t="n">
         <v>809</v>
       </c>
+      <c r="X11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1450,6 +1485,9 @@
       <c r="W12" t="n">
         <v>849</v>
       </c>
+      <c r="X12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1533,6 +1571,9 @@
       <c r="W13" t="n">
         <v>899</v>
       </c>
+      <c r="X13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1616,6 +1657,9 @@
       <c r="W14" t="n">
         <v>899</v>
       </c>
+      <c r="X14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1699,6 +1743,9 @@
       <c r="W15" t="n">
         <v>909</v>
       </c>
+      <c r="X15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1782,6 +1829,9 @@
       <c r="W16" t="n">
         <v>909</v>
       </c>
+      <c r="X16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1865,6 +1915,9 @@
       <c r="W17" t="n">
         <v>909</v>
       </c>
+      <c r="X17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1946,6 +1999,9 @@
         <v>909</v>
       </c>
       <c r="W18" t="n">
+        <v>909</v>
+      </c>
+      <c r="X18" t="n">
         <v>909</v>
       </c>
     </row>
@@ -2027,6 +2083,9 @@
       <c r="W19" t="n">
         <v>949</v>
       </c>
+      <c r="X19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2110,6 +2169,9 @@
       <c r="W20" t="n">
         <v>969</v>
       </c>
+      <c r="X20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2193,6 +2255,9 @@
       <c r="W21" t="n">
         <v>969</v>
       </c>
+      <c r="X21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2276,6 +2341,9 @@
       <c r="W22" t="n">
         <v>969</v>
       </c>
+      <c r="X22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2359,6 +2427,9 @@
       <c r="W23" t="n">
         <v>969</v>
       </c>
+      <c r="X23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2442,6 +2513,9 @@
       <c r="W24" t="n">
         <v>969</v>
       </c>
+      <c r="X24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2525,6 +2599,9 @@
       <c r="W25" t="n">
         <v>999</v>
       </c>
+      <c r="X25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2608,6 +2685,9 @@
       <c r="W26" t="n">
         <v>999</v>
       </c>
+      <c r="X26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2691,6 +2771,9 @@
       <c r="W27" t="n">
         <v>1039</v>
       </c>
+      <c r="X27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2774,6 +2857,9 @@
       <c r="W28" t="n">
         <v>1039</v>
       </c>
+      <c r="X28" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2857,6 +2943,9 @@
       <c r="W29" t="n">
         <v>1079</v>
       </c>
+      <c r="X29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2940,6 +3029,9 @@
       <c r="W30" t="n">
         <v>1079</v>
       </c>
+      <c r="X30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3023,6 +3115,9 @@
       <c r="W31" t="n">
         <v>1079</v>
       </c>
+      <c r="X31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3106,6 +3201,9 @@
       <c r="W32" t="n">
         <v>1079</v>
       </c>
+      <c r="X32" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3189,6 +3287,9 @@
       <c r="W33" t="n">
         <v>1099</v>
       </c>
+      <c r="X33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3272,6 +3373,9 @@
       <c r="W34" t="n">
         <v>1099</v>
       </c>
+      <c r="X34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3355,6 +3459,9 @@
       <c r="W35" t="n">
         <v>1099</v>
       </c>
+      <c r="X35" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3438,6 +3545,9 @@
       <c r="W36" t="n">
         <v>1199</v>
       </c>
+      <c r="X36" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3521,6 +3631,9 @@
       <c r="W37" t="n">
         <v>1219</v>
       </c>
+      <c r="X37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3604,6 +3717,9 @@
       <c r="W38" t="n">
         <v>1219</v>
       </c>
+      <c r="X38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3687,6 +3803,9 @@
       <c r="W39" t="n">
         <v>1219</v>
       </c>
+      <c r="X39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3770,6 +3889,9 @@
       <c r="W40" t="n">
         <v>1219</v>
       </c>
+      <c r="X40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3853,6 +3975,9 @@
       <c r="W41" t="n">
         <v>1219</v>
       </c>
+      <c r="X41" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3936,6 +4061,9 @@
       <c r="W42" t="n">
         <v>1229</v>
       </c>
+      <c r="X42" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4019,6 +4147,9 @@
       <c r="W43" t="n">
         <v>1249</v>
       </c>
+      <c r="X43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4102,6 +4233,9 @@
       <c r="W44" t="n">
         <v>1249</v>
       </c>
+      <c r="X44" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4185,6 +4319,9 @@
       <c r="W45" t="n">
         <v>1329</v>
       </c>
+      <c r="X45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4268,6 +4405,9 @@
       <c r="W46" t="n">
         <v>1329</v>
       </c>
+      <c r="X46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4351,6 +4491,9 @@
       <c r="W47" t="n">
         <v>1329</v>
       </c>
+      <c r="X47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4434,6 +4577,9 @@
       <c r="W48" t="n">
         <v>1329</v>
       </c>
+      <c r="X48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4517,6 +4663,9 @@
       <c r="W49" t="n">
         <v>1329</v>
       </c>
+      <c r="X49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4600,6 +4749,9 @@
       <c r="W50" t="n">
         <v>1329</v>
       </c>
+      <c r="X50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4683,6 +4835,9 @@
       <c r="W51" t="n">
         <v>1329</v>
       </c>
+      <c r="X51" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4766,6 +4921,9 @@
       <c r="W52" t="n">
         <v>1349</v>
       </c>
+      <c r="X52" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4849,6 +5007,9 @@
       <c r="W53" t="n">
         <v>1479</v>
       </c>
+      <c r="X53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4932,6 +5093,9 @@
       <c r="W54" t="n">
         <v>1479</v>
       </c>
+      <c r="X54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5015,6 +5179,9 @@
       <c r="W55" t="n">
         <v>1479</v>
       </c>
+      <c r="X55" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5098,6 +5265,9 @@
       <c r="W56" t="n">
         <v>1579</v>
       </c>
+      <c r="X56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5181,6 +5351,9 @@
       <c r="W57" t="n">
         <v>1579</v>
       </c>
+      <c r="X57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5264,6 +5437,9 @@
       <c r="W58" t="n">
         <v>1579</v>
       </c>
+      <c r="X58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5347,6 +5523,9 @@
       <c r="W59" t="n">
         <v>1579</v>
       </c>
+      <c r="X59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5430,6 +5609,9 @@
       <c r="W60" t="n">
         <v>1579</v>
       </c>
+      <c r="X60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5513,6 +5695,9 @@
       <c r="W61" t="n">
         <v>1579</v>
       </c>
+      <c r="X61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5596,6 +5781,9 @@
       <c r="W62" t="n">
         <v>1579</v>
       </c>
+      <c r="X62" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5679,6 +5867,9 @@
       <c r="W63" t="n">
         <v>1729</v>
       </c>
+      <c r="X63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5762,6 +5953,9 @@
       <c r="W64" t="n">
         <v>1729</v>
       </c>
+      <c r="X64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5781,7 +5975,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -5845,6 +6039,9 @@
       <c r="W65" t="n">
         <v>1729</v>
       </c>
+      <c r="X65" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5928,6 +6125,9 @@
       <c r="W66" t="n">
         <v>1829</v>
       </c>
+      <c r="X66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6011,6 +6211,9 @@
       <c r="W67" t="n">
         <v>1829</v>
       </c>
+      <c r="X67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6094,6 +6297,9 @@
       <c r="W68" t="n">
         <v>1829</v>
       </c>
+      <c r="X68" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6177,6 +6383,9 @@
       <c r="W69" t="n">
         <v>1979</v>
       </c>
+      <c r="X69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6260,6 +6469,9 @@
       <c r="W70" t="n">
         <v>1979</v>
       </c>
+      <c r="X70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6343,6 +6555,9 @@
       <c r="W71" t="n">
         <v>1979</v>
       </c>
+      <c r="X71" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6426,6 +6641,9 @@
       <c r="W72" t="n">
         <v>2479</v>
       </c>
+      <c r="X72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6509,6 +6727,9 @@
       <c r="W73" t="n">
         <v>2479</v>
       </c>
+      <c r="X73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6590,6 +6811,9 @@
         <v>2479</v>
       </c>
       <c r="W74" t="n">
+        <v>2479</v>
+      </c>
+      <c r="X74" t="n">
         <v>2479</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,16 +542,21 @@
           <t>2026-02-16 16:37:39</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2026-02-16 17:35:03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PB00668659</t>
+          <t>PB00570856</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 128 Go Blanc</t>
+          <t>Apple iPhone 15 128 Go Noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -561,14 +566,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -577,67 +582,70 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668659.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="J2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="L2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="M2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="N2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="O2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="P2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="Q2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="R2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="S2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="T2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="U2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="V2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="W2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="X2" t="n">
-        <v>619</v>
+        <v>659</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PB00570856</t>
+          <t>PB00570857</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Noir</t>
+          <t>Apple iPhone 15 128 Go Rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -663,7 +671,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -714,16 +722,19 @@
       <c r="X3" t="n">
         <v>659</v>
       </c>
+      <c r="Y3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PB00570857</t>
+          <t>PB00668661</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Rose</t>
+          <t>Apple iPhone 16e 256 Go Blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -733,14 +744,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (18/02/2026)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -749,67 +760,70 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668661.html</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="K4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="L4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="M4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="N4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="O4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="P4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="Q4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="R4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="S4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="T4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="U4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="V4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="W4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="X4" t="n">
-        <v>659</v>
+        <v>749</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PB00668661</t>
+          <t>PB00668660</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 256 Go Blanc</t>
+          <t>Apple iPhone 16e 256 Go Noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -819,7 +833,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (18/02/2026)</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -835,7 +849,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668661.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668660.html</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -886,16 +900,19 @@
       <c r="X5" t="n">
         <v>749</v>
       </c>
+      <c r="Y5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PB00668660</t>
+          <t>PB00642659</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 256 Go Noir</t>
+          <t>Apple iPhone 16 128 Go Blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -905,14 +922,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -921,67 +938,70 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668660.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642659.html</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="J6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="L6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="M6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="N6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="O6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="P6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="Q6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="R6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="S6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="T6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="U6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="V6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="W6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="X6" t="n">
-        <v>749</v>
+        <v>809</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PB00642659</t>
+          <t>PB00642660</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Blanc</t>
+          <t>Apple iPhone 16 128 Go Noir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1007,7 +1027,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642659.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642660.html</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1056,18 +1076,21 @@
         <v>809</v>
       </c>
       <c r="X7" t="n">
+        <v>809</v>
+      </c>
+      <c r="Y7" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PB00642660</t>
+          <t>PB00642657</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Noir</t>
+          <t>Apple iPhone 16 128 Go Outremer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1093,7 +1116,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642660.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642657.html</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1142,18 +1165,21 @@
         <v>809</v>
       </c>
       <c r="X8" t="n">
+        <v>809</v>
+      </c>
+      <c r="Y8" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PB00642657</t>
+          <t>PB00642658</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Outremer</t>
+          <t>Apple iPhone 16 128 Go Rose</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1163,7 +1189,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1179,7 +1205,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642657.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642658.html</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1228,18 +1254,21 @@
         <v>809</v>
       </c>
       <c r="X9" t="n">
+        <v>809</v>
+      </c>
+      <c r="Y9" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PB00642658</t>
+          <t>PB00642656</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Rose</t>
+          <t>Apple iPhone 16 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1249,7 +1278,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1265,7 +1294,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642658.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642656.html</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1314,18 +1343,21 @@
         <v>809</v>
       </c>
       <c r="X10" t="n">
+        <v>809</v>
+      </c>
+      <c r="Y10" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PB00642656</t>
+          <t>PB00570863</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Sarcelle</t>
+          <t>Apple iPhone 15 256 Go Jaune</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1342,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1351,67 +1383,70 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642656.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570863.html</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="J11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="K11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="L11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="M11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="N11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="O11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="P11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="Q11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="R11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="S11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="T11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="U11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="V11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="W11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="X11" t="n">
-        <v>809</v>
+        <v>849</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>849</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PB00570863</t>
+          <t>PB00516137</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 256 Go Jaune</t>
+          <t>Apple iPhone 14 512 Go (PRODUCT)RED</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1428,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1437,67 +1472,70 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570863.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516137.html</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="J12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="K12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="L12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="M12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="N12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="O12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="P12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="Q12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="R12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="S12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="T12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="U12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="V12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="W12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="X12" t="n">
-        <v>849</v>
+        <v>899</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PB00516137</t>
+          <t>PB00516141</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 512 Go (PRODUCT)RED</t>
+          <t>Apple iPhone 14 512 Go Lumière Stellaire</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1523,7 +1561,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516137.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516141.html</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1574,16 +1612,19 @@
       <c r="X13" t="n">
         <v>899</v>
       </c>
+      <c r="Y13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PB00516141</t>
+          <t>PB00642644</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 512 Go Lumière Stellaire</t>
+          <t>Apple iPhone 16 Plus 128 Go Noir</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1593,14 +1634,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1609,67 +1650,70 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516141.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642644.html</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="J14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="K14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="L14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="M14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="N14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="O14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="P14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="Q14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="R14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="S14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="T14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="U14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="V14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="W14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="X14" t="n">
-        <v>899</v>
+        <v>909</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PB00642644</t>
+          <t>PB00642641</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Noir</t>
+          <t>Apple iPhone 16 Plus 128 Go Outremer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1679,7 +1723,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1695,7 +1739,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642644.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642641.html</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1746,16 +1790,19 @@
       <c r="X15" t="n">
         <v>909</v>
       </c>
+      <c r="Y15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PB00642641</t>
+          <t>PB00642642</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Outremer</t>
+          <t>Apple iPhone 16 Plus 128 Go Rose</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1765,7 +1812,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (18/02/2026)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1781,7 +1828,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642641.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1832,16 +1879,19 @@
       <c r="X16" t="n">
         <v>909</v>
       </c>
+      <c r="Y16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PB00642642</t>
+          <t>PB00642640</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Rose</t>
+          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1851,7 +1901,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (18/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1867,7 +1917,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1918,16 +1968,19 @@
       <c r="X17" t="n">
         <v>909</v>
       </c>
+      <c r="Y17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PB00642640</t>
+          <t>PB00516161</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
+          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1940,80 +1993,79 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>40</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="J18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="K18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="L18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="M18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="N18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="O18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="P18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="Q18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="R18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="S18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="T18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="U18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="V18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="W18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="X18" t="n">
-        <v>909</v>
+        <v>949</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>949</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PB00516161</t>
+          <t>PB00702806</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
+          <t>Apple iPhone 17 256 Go Blanc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2023,79 +2075,86 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>En stock sous 7 jours (18/02/2026)</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24</v>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="J19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="K19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="L19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="M19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="N19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="O19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="P19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="Q19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="R19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="S19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="T19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="U19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="V19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="W19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="X19" t="n">
-        <v>949</v>
+        <v>969</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PB00702806</t>
+          <t>PB00702808</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Blanc</t>
+          <t>Apple iPhone 17 256 Go Brume</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2105,7 +2164,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (18/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2121,7 +2180,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -2170,18 +2229,21 @@
         <v>969</v>
       </c>
       <c r="X20" t="n">
+        <v>969</v>
+      </c>
+      <c r="Y20" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PB00702808</t>
+          <t>PB00702809</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Brume</t>
+          <t>Apple iPhone 17 256 Go Lavande</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2191,7 +2253,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2207,7 +2269,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2256,18 +2318,21 @@
         <v>969</v>
       </c>
       <c r="X21" t="n">
+        <v>969</v>
+      </c>
+      <c r="Y21" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PB00702809</t>
+          <t>PB00702804</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Lavande</t>
+          <t>Apple iPhone 17 256 Go Noir</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2277,7 +2342,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2293,7 +2358,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2342,18 +2407,21 @@
         <v>969</v>
       </c>
       <c r="X22" t="n">
+        <v>969</v>
+      </c>
+      <c r="Y22" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PB00702804</t>
+          <t>PB00702811</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Noir</t>
+          <t>Apple iPhone 17 256 Go Sauge</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2363,7 +2431,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2379,7 +2447,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2428,18 +2496,21 @@
         <v>969</v>
       </c>
       <c r="X23" t="n">
+        <v>969</v>
+      </c>
+      <c r="Y23" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PB00702811</t>
+          <t>PB00668663</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Sauge</t>
+          <t>Apple iPhone 16e 512 Go Blanc</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2449,14 +2520,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2465,67 +2536,70 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="J24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="K24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="L24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="M24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="N24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="O24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="P24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="Q24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="R24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="S24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="T24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="U24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="V24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="W24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="X24" t="n">
-        <v>969</v>
+        <v>999</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00668663</t>
+          <t>PB00668662</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Blanc</t>
+          <t>Apple iPhone 16e 512 Go Noir</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2535,7 +2609,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -2551,7 +2625,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2602,16 +2676,19 @@
       <c r="X25" t="n">
         <v>999</v>
       </c>
+      <c r="Y25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00668662</t>
+          <t>PB00642638</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Noir</t>
+          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2621,14 +2698,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2637,67 +2714,70 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="J26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="K26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="L26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="M26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="N26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="O26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="P26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Q26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="R26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="S26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="T26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="U26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="V26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="W26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="X26" t="n">
-        <v>999</v>
+        <v>1039</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1039</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00642638</t>
+          <t>PB00642639</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
+          <t>Apple iPhone 16 Plus 256 Go Noir</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2723,7 +2803,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2774,16 +2854,19 @@
       <c r="X27" t="n">
         <v>1039</v>
       </c>
+      <c r="Y27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00642639</t>
+          <t>PB00702797</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Noir</t>
+          <t>Apple iPhone Air 256 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2793,14 +2876,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2809,67 +2892,70 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="J28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="K28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="L28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="M28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="N28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="O28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="P28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Q28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="R28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="S28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="T28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="U28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="V28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="W28" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="X28" t="n">
-        <v>1039</v>
+        <v>1079</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PB00702797</t>
+          <t>PB00702807</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Blanc nuage</t>
+          <t>Apple iPhone Air 256 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2895,7 +2981,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2946,16 +3032,19 @@
       <c r="X29" t="n">
         <v>1079</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00702807</t>
+          <t>PB00702792</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Bleu ciel</t>
+          <t>Apple iPhone Air 256 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2981,7 +3070,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -3032,16 +3121,19 @@
       <c r="X30" t="n">
         <v>1079</v>
       </c>
+      <c r="Y30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00702792</t>
+          <t>PB00702801</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Noir sidéral</t>
+          <t>Apple iPhone Air 256 Go Or clair</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3051,7 +3143,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -3067,7 +3159,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -3118,16 +3210,19 @@
       <c r="X31" t="n">
         <v>1079</v>
       </c>
+      <c r="Y31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00702801</t>
+          <t>PB00570868</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Or clair</t>
+          <t>Apple iPhone 15 512 Go Jaune</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3137,14 +3232,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3153,67 +3248,70 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="J32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="K32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="L32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="M32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="N32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="O32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="P32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Q32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="R32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="S32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="T32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="U32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="V32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="W32" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="X32" t="n">
-        <v>1079</v>
+        <v>1099</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00570868</t>
+          <t>PB00570867</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Jaune</t>
+          <t>Apple iPhone 15 512 Go Rose</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3239,7 +3337,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3290,16 +3388,19 @@
       <c r="X33" t="n">
         <v>1099</v>
       </c>
+      <c r="Y33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00570867</t>
+          <t>PB00570870</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Rose</t>
+          <t>Apple iPhone 15 512 Go Vert</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3325,7 +3426,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3376,16 +3477,19 @@
       <c r="X34" t="n">
         <v>1099</v>
       </c>
+      <c r="Y34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00570870</t>
+          <t>PB00516186</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Vert</t>
+          <t>Apple iPhone 14 Pro 1 To Or</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3402,7 +3506,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3411,67 +3515,70 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="J35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="K35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="L35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="M35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="N35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="O35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="P35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Q35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="R35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="S35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="T35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="U35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="V35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="W35" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="X35" t="n">
-        <v>1099</v>
+        <v>1199</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00516186</t>
+          <t>PB00702815</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro 1 To Or</t>
+          <t>Apple iPhone 17 512 Go Blanc</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3481,14 +3588,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3497,67 +3604,70 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="J36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="K36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="L36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="M36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="N36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="O36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="P36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Q36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="R36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="S36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="T36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="U36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="V36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="W36" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="X36" t="n">
-        <v>1199</v>
+        <v>1219</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00702815</t>
+          <t>PB00702816</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Blanc</t>
+          <t>Apple iPhone 17 512 Go Brume</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3567,7 +3677,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -3583,7 +3693,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3632,18 +3742,21 @@
         <v>1219</v>
       </c>
       <c r="X37" t="n">
+        <v>1219</v>
+      </c>
+      <c r="Y37" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00702816</t>
+          <t>PB00702817</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Brume</t>
+          <t>Apple iPhone 17 512 Go Lavande</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3653,7 +3766,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -3669,7 +3782,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3718,18 +3831,21 @@
         <v>1219</v>
       </c>
       <c r="X38" t="n">
+        <v>1219</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00702817</t>
+          <t>PB00702813</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Lavande</t>
+          <t>Apple iPhone 17 512 Go Noir</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3755,7 +3871,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3804,18 +3920,21 @@
         <v>1219</v>
       </c>
       <c r="X39" t="n">
+        <v>1219</v>
+      </c>
+      <c r="Y39" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00702813</t>
+          <t>PB00702818</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Noir</t>
+          <t>Apple iPhone 17 512 Go Sauge</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3825,7 +3944,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -3841,7 +3960,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3890,18 +4009,21 @@
         <v>1219</v>
       </c>
       <c r="X40" t="n">
+        <v>1219</v>
+      </c>
+      <c r="Y40" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00702818</t>
+          <t>PB00570890</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Sauge</t>
+          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3918,7 +4040,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3927,67 +4049,70 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="J41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="K41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="L41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="M41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="N41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="O41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="P41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Q41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="R41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="S41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="T41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="U41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="V41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="W41" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="X41" t="n">
-        <v>1219</v>
+        <v>1229</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00570890</t>
+          <t>PB00642649</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
+          <t>Apple iPhone 16 512 Go Blanc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4004,7 +4129,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4013,67 +4138,70 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="J42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="K42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="L42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="M42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="N42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="O42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="P42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="R42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="S42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="T42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="U42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="V42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="W42" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="X42" t="n">
-        <v>1229</v>
+        <v>1249</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00642649</t>
+          <t>PB00642648</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Blanc</t>
+          <t>Apple iPhone 16 512 Go Rose</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4099,7 +4227,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -4150,16 +4278,19 @@
       <c r="X43" t="n">
         <v>1249</v>
       </c>
+      <c r="Y43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00642648</t>
+          <t>PB00702819</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Rose</t>
+          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4176,7 +4307,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4185,67 +4316,70 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="J44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="K44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="L44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="M44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="N44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="O44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="P44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Q44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="R44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="S44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="T44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="U44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="V44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="W44" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="X44" t="n">
-        <v>1249</v>
+        <v>1329</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00702819</t>
+          <t>PB00702822</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4271,7 +4405,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -4320,18 +4454,21 @@
         <v>1329</v>
       </c>
       <c r="X45" t="n">
+        <v>1329</v>
+      </c>
+      <c r="Y45" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00702822</t>
+          <t>PB00702820</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4357,7 +4494,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -4406,18 +4543,21 @@
         <v>1329</v>
       </c>
       <c r="X46" t="n">
+        <v>1329</v>
+      </c>
+      <c r="Y46" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00702820</t>
+          <t>PB00702798</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 512 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4434,7 +4574,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4443,7 +4583,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -4492,18 +4632,21 @@
         <v>1329</v>
       </c>
       <c r="X47" t="n">
+        <v>1329</v>
+      </c>
+      <c r="Y47" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00702798</t>
+          <t>PB00702810</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Blanc nuage</t>
+          <t>Apple iPhone Air 512 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4529,7 +4672,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4578,18 +4721,21 @@
         <v>1329</v>
       </c>
       <c r="X48" t="n">
+        <v>1329</v>
+      </c>
+      <c r="Y48" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00702810</t>
+          <t>PB00702793</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Bleu ciel</t>
+          <t>Apple iPhone Air 512 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4615,7 +4761,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4664,18 +4810,21 @@
         <v>1329</v>
       </c>
       <c r="X49" t="n">
+        <v>1329</v>
+      </c>
+      <c r="Y49" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00702793</t>
+          <t>PB00702802</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Noir sidéral</t>
+          <t>Apple iPhone Air 512 Go Or clair</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4701,7 +4850,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4750,18 +4899,21 @@
         <v>1329</v>
       </c>
       <c r="X50" t="n">
+        <v>1329</v>
+      </c>
+      <c r="Y50" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00702802</t>
+          <t>PB00642633</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Or clair</t>
+          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4778,7 +4930,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4787,67 +4939,70 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="J51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="K51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="L51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="M51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="N51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="O51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="P51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Q51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="R51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="S51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="T51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="U51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="V51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="W51" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="X51" t="n">
-        <v>1329</v>
+        <v>1349</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00642633</t>
+          <t>PB00702830</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4857,14 +5012,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4873,67 +5028,70 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="J52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="K52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="L52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="M52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="N52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="O52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="P52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Q52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="R52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="S52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="T52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="U52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="V52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="W52" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="X52" t="n">
-        <v>1349</v>
+        <v>1479</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1479</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00702830</t>
+          <t>PB00702832</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4943,7 +5101,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -4959,7 +5117,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -5010,16 +5168,19 @@
       <c r="X53" t="n">
         <v>1479</v>
       </c>
+      <c r="Y53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00702832</t>
+          <t>PB00702831</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5029,7 +5190,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -5045,7 +5206,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -5096,16 +5257,19 @@
       <c r="X54" t="n">
         <v>1479</v>
       </c>
+      <c r="Y54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00702831</t>
+          <t>PB00702823</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5131,67 +5295,70 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="J55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="K55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="L55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="M55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="N55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="O55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="P55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Q55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="R55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="S55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="T55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="U55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="V55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="W55" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="X55" t="n">
-        <v>1479</v>
+        <v>1579</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00702823</t>
+          <t>PB00702825</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5217,7 +5384,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -5266,18 +5433,21 @@
         <v>1579</v>
       </c>
       <c r="X56" t="n">
+        <v>1579</v>
+      </c>
+      <c r="Y56" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00702825</t>
+          <t>PB00702824</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5287,7 +5457,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -5303,7 +5473,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -5352,18 +5522,21 @@
         <v>1579</v>
       </c>
       <c r="X57" t="n">
+        <v>1579</v>
+      </c>
+      <c r="Y57" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00702824</t>
+          <t>PB00702799</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 1 To Blanc nuage</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5380,7 +5553,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5389,7 +5562,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -5438,18 +5611,21 @@
         <v>1579</v>
       </c>
       <c r="X58" t="n">
+        <v>1579</v>
+      </c>
+      <c r="Y58" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00702799</t>
+          <t>PB00702812</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Blanc nuage</t>
+          <t>Apple iPhone Air 1 To Bleu ciel</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5475,7 +5651,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -5524,18 +5700,21 @@
         <v>1579</v>
       </c>
       <c r="X59" t="n">
+        <v>1579</v>
+      </c>
+      <c r="Y59" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00702812</t>
+          <t>PB00702794</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Bleu ciel</t>
+          <t>Apple iPhone Air 1 To Noir sidéral</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5545,7 +5724,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -5561,7 +5740,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -5610,18 +5789,21 @@
         <v>1579</v>
       </c>
       <c r="X60" t="n">
+        <v>1579</v>
+      </c>
+      <c r="Y60" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00702794</t>
+          <t>PB00702805</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Noir sidéral</t>
+          <t>Apple iPhone Air 1 To Or clair</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5631,7 +5813,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -5647,7 +5829,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5696,18 +5878,21 @@
         <v>1579</v>
       </c>
       <c r="X61" t="n">
+        <v>1579</v>
+      </c>
+      <c r="Y61" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00702805</t>
+          <t>PB00702833</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Or clair</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5717,14 +5902,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5733,67 +5918,70 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="J62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="K62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="L62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="M62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="N62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="O62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="P62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Q62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="R62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="S62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="T62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="U62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="V62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="W62" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="X62" t="n">
-        <v>1579</v>
+        <v>1729</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1729</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00702833</t>
+          <t>PB00702835</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5819,7 +6007,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5870,16 +6058,19 @@
       <c r="X63" t="n">
         <v>1729</v>
       </c>
+      <c r="Y63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00702835</t>
+          <t>PB00702834</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5905,7 +6096,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5956,16 +6147,19 @@
       <c r="X64" t="n">
         <v>1729</v>
       </c>
+      <c r="Y64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00702834</t>
+          <t>PB00702826</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 1 To Argent</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5991,67 +6185,70 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="J65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="K65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="L65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="M65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="N65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="O65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="P65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Q65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="R65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="S65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="T65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="U65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="V65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="W65" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="X65" t="n">
-        <v>1729</v>
+        <v>1829</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00702826</t>
+          <t>PB00702828</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Argent</t>
+          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6077,7 +6274,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -6128,16 +6325,19 @@
       <c r="X66" t="n">
         <v>1829</v>
       </c>
+      <c r="Y66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00702828</t>
+          <t>PB00702827</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6163,7 +6363,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -6214,16 +6414,19 @@
       <c r="X67" t="n">
         <v>1829</v>
       </c>
+      <c r="Y67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00702827</t>
+          <t>PB00702836</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6249,67 +6452,70 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="J68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="K68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="L68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="M68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="N68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="O68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="P68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Q68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="R68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="S68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="T68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="U68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="V68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="W68" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="X68" t="n">
-        <v>1829</v>
+        <v>1979</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1979</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00702836</t>
+          <t>PB00702838</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6335,7 +6541,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -6386,16 +6592,19 @@
       <c r="X69" t="n">
         <v>1979</v>
       </c>
+      <c r="Y69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00702838</t>
+          <t>PB00702837</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6421,7 +6630,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -6472,16 +6681,19 @@
       <c r="X70" t="n">
         <v>1979</v>
       </c>
+      <c r="Y70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00702837</t>
+          <t>PB00702839</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6507,67 +6719,70 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="J71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="K71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="L71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="M71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="N71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="O71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="P71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Q71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="R71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="S71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="T71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="U71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="V71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="W71" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="X71" t="n">
-        <v>1979</v>
+        <v>2479</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2479</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00702839</t>
+          <t>PB00702841</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
+          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6593,7 +6808,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -6644,16 +6859,19 @@
       <c r="X72" t="n">
         <v>2479</v>
       </c>
+      <c r="Y72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00702841</t>
+          <t>PB00702840</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -6679,7 +6897,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -6730,16 +6948,19 @@
       <c r="X73" t="n">
         <v>2479</v>
       </c>
+      <c r="Y73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00702840</t>
+          <t>PB00668659</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
+          <t>Apple iPhone 16e 128 Go Blanc</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -6749,14 +6970,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -6765,57 +6986,58 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668659.html</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="J74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="K74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="L74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="M74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="N74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="O74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="P74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="Q74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="R74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="S74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="T74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="U74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="V74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="W74" t="n">
-        <v>2479</v>
+        <v>619</v>
       </c>
       <c r="X74" t="n">
-        <v>2479</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="Y74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,11 @@
           <t>2026-02-16 17:35:03</t>
         </is>
       </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>2026-02-16 18:36:15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -636,6 +641,9 @@
       <c r="Y2" t="n">
         <v>659</v>
       </c>
+      <c r="Z2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -725,6 +733,9 @@
       <c r="Y3" t="n">
         <v>659</v>
       </c>
+      <c r="Z3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -814,6 +825,9 @@
       <c r="Y4" t="n">
         <v>749</v>
       </c>
+      <c r="Z4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -903,6 +917,9 @@
       <c r="Y5" t="n">
         <v>749</v>
       </c>
+      <c r="Z5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -992,6 +1009,9 @@
       <c r="Y6" t="n">
         <v>809</v>
       </c>
+      <c r="Z6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1081,6 +1101,9 @@
       <c r="Y7" t="n">
         <v>809</v>
       </c>
+      <c r="Z7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1170,6 +1193,9 @@
       <c r="Y8" t="n">
         <v>809</v>
       </c>
+      <c r="Z8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1259,6 +1285,9 @@
       <c r="Y9" t="n">
         <v>809</v>
       </c>
+      <c r="Z9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1348,6 +1377,9 @@
       <c r="Y10" t="n">
         <v>809</v>
       </c>
+      <c r="Z10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1437,6 +1469,9 @@
       <c r="Y11" t="n">
         <v>849</v>
       </c>
+      <c r="Z11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1526,6 +1561,9 @@
       <c r="Y12" t="n">
         <v>899</v>
       </c>
+      <c r="Z12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1615,6 +1653,9 @@
       <c r="Y13" t="n">
         <v>899</v>
       </c>
+      <c r="Z13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1704,6 +1745,9 @@
       <c r="Y14" t="n">
         <v>909</v>
       </c>
+      <c r="Z14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1793,6 +1837,9 @@
       <c r="Y15" t="n">
         <v>909</v>
       </c>
+      <c r="Z15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1882,6 +1929,9 @@
       <c r="Y16" t="n">
         <v>909</v>
       </c>
+      <c r="Z16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1969,6 +2019,9 @@
         <v>909</v>
       </c>
       <c r="Y17" t="n">
+        <v>909</v>
+      </c>
+      <c r="Z17" t="n">
         <v>909</v>
       </c>
     </row>
@@ -2056,6 +2109,9 @@
       <c r="Y18" t="n">
         <v>949</v>
       </c>
+      <c r="Z18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2145,6 +2201,9 @@
       <c r="Y19" t="n">
         <v>969</v>
       </c>
+      <c r="Z19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2234,6 +2293,9 @@
       <c r="Y20" t="n">
         <v>969</v>
       </c>
+      <c r="Z20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2323,6 +2385,9 @@
       <c r="Y21" t="n">
         <v>969</v>
       </c>
+      <c r="Z21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2412,6 +2477,9 @@
       <c r="Y22" t="n">
         <v>969</v>
       </c>
+      <c r="Z22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2501,6 +2569,9 @@
       <c r="Y23" t="n">
         <v>969</v>
       </c>
+      <c r="Z23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2590,6 +2661,9 @@
       <c r="Y24" t="n">
         <v>999</v>
       </c>
+      <c r="Z24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2679,6 +2753,9 @@
       <c r="Y25" t="n">
         <v>999</v>
       </c>
+      <c r="Z25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2768,6 +2845,9 @@
       <c r="Y26" t="n">
         <v>1039</v>
       </c>
+      <c r="Z26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2857,6 +2937,9 @@
       <c r="Y27" t="n">
         <v>1039</v>
       </c>
+      <c r="Z27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2946,6 +3029,9 @@
       <c r="Y28" t="n">
         <v>1079</v>
       </c>
+      <c r="Z28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3035,6 +3121,9 @@
       <c r="Y29" t="n">
         <v>1079</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3054,7 +3143,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -3124,6 +3213,9 @@
       <c r="Y30" t="n">
         <v>1079</v>
       </c>
+      <c r="Z30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3213,6 +3305,9 @@
       <c r="Y31" t="n">
         <v>1079</v>
       </c>
+      <c r="Z31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3302,6 +3397,9 @@
       <c r="Y32" t="n">
         <v>1099</v>
       </c>
+      <c r="Z32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3391,6 +3489,9 @@
       <c r="Y33" t="n">
         <v>1099</v>
       </c>
+      <c r="Z33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3480,6 +3581,9 @@
       <c r="Y34" t="n">
         <v>1099</v>
       </c>
+      <c r="Z34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3569,6 +3673,9 @@
       <c r="Y35" t="n">
         <v>1199</v>
       </c>
+      <c r="Z35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3658,6 +3765,9 @@
       <c r="Y36" t="n">
         <v>1219</v>
       </c>
+      <c r="Z36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3747,6 +3857,9 @@
       <c r="Y37" t="n">
         <v>1219</v>
       </c>
+      <c r="Z37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3836,6 +3949,9 @@
       <c r="Y38" t="n">
         <v>1219</v>
       </c>
+      <c r="Z38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3925,6 +4041,9 @@
       <c r="Y39" t="n">
         <v>1219</v>
       </c>
+      <c r="Z39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4014,6 +4133,9 @@
       <c r="Y40" t="n">
         <v>1219</v>
       </c>
+      <c r="Z40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4103,6 +4225,9 @@
       <c r="Y41" t="n">
         <v>1229</v>
       </c>
+      <c r="Z41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4192,6 +4317,9 @@
       <c r="Y42" t="n">
         <v>1249</v>
       </c>
+      <c r="Z42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4281,6 +4409,9 @@
       <c r="Y43" t="n">
         <v>1249</v>
       </c>
+      <c r="Z43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4370,6 +4501,9 @@
       <c r="Y44" t="n">
         <v>1329</v>
       </c>
+      <c r="Z44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4459,6 +4593,9 @@
       <c r="Y45" t="n">
         <v>1329</v>
       </c>
+      <c r="Z45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4548,6 +4685,9 @@
       <c r="Y46" t="n">
         <v>1329</v>
       </c>
+      <c r="Z46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4637,6 +4777,9 @@
       <c r="Y47" t="n">
         <v>1329</v>
       </c>
+      <c r="Z47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4726,6 +4869,9 @@
       <c r="Y48" t="n">
         <v>1329</v>
       </c>
+      <c r="Z48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4815,6 +4961,9 @@
       <c r="Y49" t="n">
         <v>1329</v>
       </c>
+      <c r="Z49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4904,6 +5053,9 @@
       <c r="Y50" t="n">
         <v>1329</v>
       </c>
+      <c r="Z50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4993,6 +5145,9 @@
       <c r="Y51" t="n">
         <v>1349</v>
       </c>
+      <c r="Z51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5082,6 +5237,9 @@
       <c r="Y52" t="n">
         <v>1479</v>
       </c>
+      <c r="Z52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5171,6 +5329,9 @@
       <c r="Y53" t="n">
         <v>1479</v>
       </c>
+      <c r="Z53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5260,6 +5421,9 @@
       <c r="Y54" t="n">
         <v>1479</v>
       </c>
+      <c r="Z54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5349,6 +5513,9 @@
       <c r="Y55" t="n">
         <v>1579</v>
       </c>
+      <c r="Z55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5438,6 +5605,9 @@
       <c r="Y56" t="n">
         <v>1579</v>
       </c>
+      <c r="Z56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5527,6 +5697,9 @@
       <c r="Y57" t="n">
         <v>1579</v>
       </c>
+      <c r="Z57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5616,6 +5789,9 @@
       <c r="Y58" t="n">
         <v>1579</v>
       </c>
+      <c r="Z58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5705,6 +5881,9 @@
       <c r="Y59" t="n">
         <v>1579</v>
       </c>
+      <c r="Z59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5794,6 +5973,9 @@
       <c r="Y60" t="n">
         <v>1579</v>
       </c>
+      <c r="Z60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5883,6 +6065,9 @@
       <c r="Y61" t="n">
         <v>1579</v>
       </c>
+      <c r="Z61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5972,6 +6157,9 @@
       <c r="Y62" t="n">
         <v>1729</v>
       </c>
+      <c r="Z62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6061,6 +6249,9 @@
       <c r="Y63" t="n">
         <v>1729</v>
       </c>
+      <c r="Z63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6150,6 +6341,9 @@
       <c r="Y64" t="n">
         <v>1729</v>
       </c>
+      <c r="Z64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6239,6 +6433,9 @@
       <c r="Y65" t="n">
         <v>1829</v>
       </c>
+      <c r="Z65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6328,6 +6525,9 @@
       <c r="Y66" t="n">
         <v>1829</v>
       </c>
+      <c r="Z66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6417,6 +6617,9 @@
       <c r="Y67" t="n">
         <v>1829</v>
       </c>
+      <c r="Z67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6506,6 +6709,9 @@
       <c r="Y68" t="n">
         <v>1979</v>
       </c>
+      <c r="Z68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6595,6 +6801,9 @@
       <c r="Y69" t="n">
         <v>1979</v>
       </c>
+      <c r="Z69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6684,6 +6893,9 @@
       <c r="Y70" t="n">
         <v>1979</v>
       </c>
+      <c r="Z70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6773,6 +6985,9 @@
       <c r="Y71" t="n">
         <v>2479</v>
       </c>
+      <c r="Z71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6862,6 +7077,9 @@
       <c r="Y72" t="n">
         <v>2479</v>
       </c>
+      <c r="Z72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6951,6 +7169,9 @@
       <c r="Y73" t="n">
         <v>2479</v>
       </c>
+      <c r="Z73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7038,6 +7259,7 @@
         <v>619</v>
       </c>
       <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,11 @@
           <t>2026-02-16 18:36:15</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>2026-02-16 19:30:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -644,6 +649,9 @@
       <c r="Z2" t="n">
         <v>659</v>
       </c>
+      <c r="AA2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -736,6 +744,9 @@
       <c r="Z3" t="n">
         <v>659</v>
       </c>
+      <c r="AA3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -828,6 +839,9 @@
       <c r="Z4" t="n">
         <v>749</v>
       </c>
+      <c r="AA4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -920,6 +934,9 @@
       <c r="Z5" t="n">
         <v>749</v>
       </c>
+      <c r="AA5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1012,6 +1029,9 @@
       <c r="Z6" t="n">
         <v>809</v>
       </c>
+      <c r="AA6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1104,6 +1124,9 @@
       <c r="Z7" t="n">
         <v>809</v>
       </c>
+      <c r="AA7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1196,6 +1219,9 @@
       <c r="Z8" t="n">
         <v>809</v>
       </c>
+      <c r="AA8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1288,6 +1314,9 @@
       <c r="Z9" t="n">
         <v>809</v>
       </c>
+      <c r="AA9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1380,6 +1409,9 @@
       <c r="Z10" t="n">
         <v>809</v>
       </c>
+      <c r="AA10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1472,6 +1504,9 @@
       <c r="Z11" t="n">
         <v>849</v>
       </c>
+      <c r="AA11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1564,6 +1599,9 @@
       <c r="Z12" t="n">
         <v>899</v>
       </c>
+      <c r="AA12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1656,6 +1694,9 @@
       <c r="Z13" t="n">
         <v>899</v>
       </c>
+      <c r="AA13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1748,6 +1789,9 @@
       <c r="Z14" t="n">
         <v>909</v>
       </c>
+      <c r="AA14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1840,6 +1884,9 @@
       <c r="Z15" t="n">
         <v>909</v>
       </c>
+      <c r="AA15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1932,6 +1979,9 @@
       <c r="Z16" t="n">
         <v>909</v>
       </c>
+      <c r="AA16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2024,6 +2074,9 @@
       <c r="Z17" t="n">
         <v>909</v>
       </c>
+      <c r="AA17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2112,6 +2165,9 @@
       <c r="Z18" t="n">
         <v>949</v>
       </c>
+      <c r="AA18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2204,6 +2260,9 @@
       <c r="Z19" t="n">
         <v>969</v>
       </c>
+      <c r="AA19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2296,6 +2355,9 @@
       <c r="Z20" t="n">
         <v>969</v>
       </c>
+      <c r="AA20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2388,6 +2450,9 @@
       <c r="Z21" t="n">
         <v>969</v>
       </c>
+      <c r="AA21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2480,6 +2545,9 @@
       <c r="Z22" t="n">
         <v>969</v>
       </c>
+      <c r="AA22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2572,6 +2640,9 @@
       <c r="Z23" t="n">
         <v>969</v>
       </c>
+      <c r="AA23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2664,6 +2735,9 @@
       <c r="Z24" t="n">
         <v>999</v>
       </c>
+      <c r="AA24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2756,6 +2830,9 @@
       <c r="Z25" t="n">
         <v>999</v>
       </c>
+      <c r="AA25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2848,6 +2925,9 @@
       <c r="Z26" t="n">
         <v>1039</v>
       </c>
+      <c r="AA26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2940,6 +3020,9 @@
       <c r="Z27" t="n">
         <v>1039</v>
       </c>
+      <c r="AA27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3032,6 +3115,9 @@
       <c r="Z28" t="n">
         <v>1079</v>
       </c>
+      <c r="AA28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3124,6 +3210,9 @@
       <c r="Z29" t="n">
         <v>1079</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3216,6 +3305,9 @@
       <c r="Z30" t="n">
         <v>1079</v>
       </c>
+      <c r="AA30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3308,6 +3400,9 @@
       <c r="Z31" t="n">
         <v>1079</v>
       </c>
+      <c r="AA31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3400,6 +3495,9 @@
       <c r="Z32" t="n">
         <v>1099</v>
       </c>
+      <c r="AA32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3492,6 +3590,9 @@
       <c r="Z33" t="n">
         <v>1099</v>
       </c>
+      <c r="AA33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3584,6 +3685,9 @@
       <c r="Z34" t="n">
         <v>1099</v>
       </c>
+      <c r="AA34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3676,6 +3780,9 @@
       <c r="Z35" t="n">
         <v>1199</v>
       </c>
+      <c r="AA35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3768,6 +3875,9 @@
       <c r="Z36" t="n">
         <v>1219</v>
       </c>
+      <c r="AA36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3860,6 +3970,9 @@
       <c r="Z37" t="n">
         <v>1219</v>
       </c>
+      <c r="AA37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3952,6 +4065,9 @@
       <c r="Z38" t="n">
         <v>1219</v>
       </c>
+      <c r="AA38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4044,6 +4160,9 @@
       <c r="Z39" t="n">
         <v>1219</v>
       </c>
+      <c r="AA39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4136,6 +4255,9 @@
       <c r="Z40" t="n">
         <v>1219</v>
       </c>
+      <c r="AA40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4228,6 +4350,9 @@
       <c r="Z41" t="n">
         <v>1229</v>
       </c>
+      <c r="AA41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4320,6 +4445,9 @@
       <c r="Z42" t="n">
         <v>1249</v>
       </c>
+      <c r="AA42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4412,6 +4540,9 @@
       <c r="Z43" t="n">
         <v>1249</v>
       </c>
+      <c r="AA43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4504,6 +4635,9 @@
       <c r="Z44" t="n">
         <v>1329</v>
       </c>
+      <c r="AA44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4596,6 +4730,9 @@
       <c r="Z45" t="n">
         <v>1329</v>
       </c>
+      <c r="AA45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4688,6 +4825,9 @@
       <c r="Z46" t="n">
         <v>1329</v>
       </c>
+      <c r="AA46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4780,6 +4920,9 @@
       <c r="Z47" t="n">
         <v>1329</v>
       </c>
+      <c r="AA47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4872,6 +5015,9 @@
       <c r="Z48" t="n">
         <v>1329</v>
       </c>
+      <c r="AA48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4964,6 +5110,9 @@
       <c r="Z49" t="n">
         <v>1329</v>
       </c>
+      <c r="AA49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5056,6 +5205,9 @@
       <c r="Z50" t="n">
         <v>1329</v>
       </c>
+      <c r="AA50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5148,6 +5300,9 @@
       <c r="Z51" t="n">
         <v>1349</v>
       </c>
+      <c r="AA51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5240,6 +5395,9 @@
       <c r="Z52" t="n">
         <v>1479</v>
       </c>
+      <c r="AA52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5332,6 +5490,9 @@
       <c r="Z53" t="n">
         <v>1479</v>
       </c>
+      <c r="AA53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5424,6 +5585,9 @@
       <c r="Z54" t="n">
         <v>1479</v>
       </c>
+      <c r="AA54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5516,6 +5680,9 @@
       <c r="Z55" t="n">
         <v>1579</v>
       </c>
+      <c r="AA55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5608,6 +5775,9 @@
       <c r="Z56" t="n">
         <v>1579</v>
       </c>
+      <c r="AA56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5700,6 +5870,9 @@
       <c r="Z57" t="n">
         <v>1579</v>
       </c>
+      <c r="AA57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5792,6 +5965,9 @@
       <c r="Z58" t="n">
         <v>1579</v>
       </c>
+      <c r="AA58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5884,6 +6060,9 @@
       <c r="Z59" t="n">
         <v>1579</v>
       </c>
+      <c r="AA59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5976,6 +6155,9 @@
       <c r="Z60" t="n">
         <v>1579</v>
       </c>
+      <c r="AA60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6068,6 +6250,9 @@
       <c r="Z61" t="n">
         <v>1579</v>
       </c>
+      <c r="AA61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6160,6 +6345,9 @@
       <c r="Z62" t="n">
         <v>1729</v>
       </c>
+      <c r="AA62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6252,6 +6440,9 @@
       <c r="Z63" t="n">
         <v>1729</v>
       </c>
+      <c r="AA63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6344,6 +6535,9 @@
       <c r="Z64" t="n">
         <v>1729</v>
       </c>
+      <c r="AA64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6436,6 +6630,9 @@
       <c r="Z65" t="n">
         <v>1829</v>
       </c>
+      <c r="AA65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6528,6 +6725,9 @@
       <c r="Z66" t="n">
         <v>1829</v>
       </c>
+      <c r="AA66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6620,6 +6820,9 @@
       <c r="Z67" t="n">
         <v>1829</v>
       </c>
+      <c r="AA67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6712,6 +6915,9 @@
       <c r="Z68" t="n">
         <v>1979</v>
       </c>
+      <c r="AA68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6804,6 +7010,9 @@
       <c r="Z69" t="n">
         <v>1979</v>
       </c>
+      <c r="AA69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6896,6 +7105,9 @@
       <c r="Z70" t="n">
         <v>1979</v>
       </c>
+      <c r="AA70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6988,6 +7200,9 @@
       <c r="Z71" t="n">
         <v>2479</v>
       </c>
+      <c r="AA71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7080,6 +7295,9 @@
       <c r="Z72" t="n">
         <v>2479</v>
       </c>
+      <c r="AA72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7172,6 +7390,9 @@
       <c r="Z73" t="n">
         <v>2479</v>
       </c>
+      <c r="AA73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7260,6 +7481,7 @@
       </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,11 @@
           <t>2026-02-16 19:30:23</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>2026-02-16 20:24:31</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -652,6 +657,9 @@
       <c r="AA2" t="n">
         <v>659</v>
       </c>
+      <c r="AB2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -747,6 +755,9 @@
       <c r="AA3" t="n">
         <v>659</v>
       </c>
+      <c r="AB3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -842,6 +853,9 @@
       <c r="AA4" t="n">
         <v>749</v>
       </c>
+      <c r="AB4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -937,6 +951,9 @@
       <c r="AA5" t="n">
         <v>749</v>
       </c>
+      <c r="AB5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1032,6 +1049,9 @@
       <c r="AA6" t="n">
         <v>809</v>
       </c>
+      <c r="AB6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1127,6 +1147,9 @@
       <c r="AA7" t="n">
         <v>809</v>
       </c>
+      <c r="AB7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1222,6 +1245,9 @@
       <c r="AA8" t="n">
         <v>809</v>
       </c>
+      <c r="AB8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1317,6 +1343,9 @@
       <c r="AA9" t="n">
         <v>809</v>
       </c>
+      <c r="AB9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1412,6 +1441,9 @@
       <c r="AA10" t="n">
         <v>809</v>
       </c>
+      <c r="AB10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1507,6 +1539,9 @@
       <c r="AA11" t="n">
         <v>849</v>
       </c>
+      <c r="AB11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1602,6 +1637,9 @@
       <c r="AA12" t="n">
         <v>899</v>
       </c>
+      <c r="AB12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1697,6 +1735,9 @@
       <c r="AA13" t="n">
         <v>899</v>
       </c>
+      <c r="AB13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1792,6 +1833,9 @@
       <c r="AA14" t="n">
         <v>909</v>
       </c>
+      <c r="AB14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1887,6 +1931,9 @@
       <c r="AA15" t="n">
         <v>909</v>
       </c>
+      <c r="AB15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1982,6 +2029,9 @@
       <c r="AA16" t="n">
         <v>909</v>
       </c>
+      <c r="AB16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2077,6 +2127,9 @@
       <c r="AA17" t="n">
         <v>909</v>
       </c>
+      <c r="AB17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2168,6 +2221,9 @@
       <c r="AA18" t="n">
         <v>949</v>
       </c>
+      <c r="AB18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2263,6 +2319,9 @@
       <c r="AA19" t="n">
         <v>969</v>
       </c>
+      <c r="AB19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2358,6 +2417,9 @@
       <c r="AA20" t="n">
         <v>969</v>
       </c>
+      <c r="AB20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2453,6 +2515,9 @@
       <c r="AA21" t="n">
         <v>969</v>
       </c>
+      <c r="AB21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2548,6 +2613,9 @@
       <c r="AA22" t="n">
         <v>969</v>
       </c>
+      <c r="AB22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2643,6 +2711,9 @@
       <c r="AA23" t="n">
         <v>969</v>
       </c>
+      <c r="AB23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2738,6 +2809,9 @@
       <c r="AA24" t="n">
         <v>999</v>
       </c>
+      <c r="AB24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2833,6 +2907,9 @@
       <c r="AA25" t="n">
         <v>999</v>
       </c>
+      <c r="AB25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2928,6 +3005,9 @@
       <c r="AA26" t="n">
         <v>1039</v>
       </c>
+      <c r="AB26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3023,6 +3103,9 @@
       <c r="AA27" t="n">
         <v>1039</v>
       </c>
+      <c r="AB27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3118,6 +3201,9 @@
       <c r="AA28" t="n">
         <v>1079</v>
       </c>
+      <c r="AB28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3213,6 +3299,9 @@
       <c r="AA29" t="n">
         <v>1079</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3308,6 +3397,9 @@
       <c r="AA30" t="n">
         <v>1079</v>
       </c>
+      <c r="AB30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3403,6 +3495,9 @@
       <c r="AA31" t="n">
         <v>1079</v>
       </c>
+      <c r="AB31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3498,6 +3593,9 @@
       <c r="AA32" t="n">
         <v>1099</v>
       </c>
+      <c r="AB32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3593,6 +3691,9 @@
       <c r="AA33" t="n">
         <v>1099</v>
       </c>
+      <c r="AB33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3688,6 +3789,9 @@
       <c r="AA34" t="n">
         <v>1099</v>
       </c>
+      <c r="AB34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3783,6 +3887,9 @@
       <c r="AA35" t="n">
         <v>1199</v>
       </c>
+      <c r="AB35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3878,6 +3985,9 @@
       <c r="AA36" t="n">
         <v>1219</v>
       </c>
+      <c r="AB36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3973,6 +4083,9 @@
       <c r="AA37" t="n">
         <v>1219</v>
       </c>
+      <c r="AB37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4068,6 +4181,9 @@
       <c r="AA38" t="n">
         <v>1219</v>
       </c>
+      <c r="AB38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4163,6 +4279,9 @@
       <c r="AA39" t="n">
         <v>1219</v>
       </c>
+      <c r="AB39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4258,6 +4377,9 @@
       <c r="AA40" t="n">
         <v>1219</v>
       </c>
+      <c r="AB40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4353,6 +4475,9 @@
       <c r="AA41" t="n">
         <v>1229</v>
       </c>
+      <c r="AB41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4448,6 +4573,9 @@
       <c r="AA42" t="n">
         <v>1249</v>
       </c>
+      <c r="AB42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4543,6 +4671,9 @@
       <c r="AA43" t="n">
         <v>1249</v>
       </c>
+      <c r="AB43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4638,6 +4769,9 @@
       <c r="AA44" t="n">
         <v>1329</v>
       </c>
+      <c r="AB44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4733,6 +4867,9 @@
       <c r="AA45" t="n">
         <v>1329</v>
       </c>
+      <c r="AB45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4828,6 +4965,9 @@
       <c r="AA46" t="n">
         <v>1329</v>
       </c>
+      <c r="AB46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4923,6 +5063,9 @@
       <c r="AA47" t="n">
         <v>1329</v>
       </c>
+      <c r="AB47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5018,6 +5161,9 @@
       <c r="AA48" t="n">
         <v>1329</v>
       </c>
+      <c r="AB48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5113,6 +5259,9 @@
       <c r="AA49" t="n">
         <v>1329</v>
       </c>
+      <c r="AB49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5208,6 +5357,9 @@
       <c r="AA50" t="n">
         <v>1329</v>
       </c>
+      <c r="AB50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5303,6 +5455,9 @@
       <c r="AA51" t="n">
         <v>1349</v>
       </c>
+      <c r="AB51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5398,6 +5553,9 @@
       <c r="AA52" t="n">
         <v>1479</v>
       </c>
+      <c r="AB52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5493,6 +5651,9 @@
       <c r="AA53" t="n">
         <v>1479</v>
       </c>
+      <c r="AB53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5588,6 +5749,9 @@
       <c r="AA54" t="n">
         <v>1479</v>
       </c>
+      <c r="AB54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5683,6 +5847,9 @@
       <c r="AA55" t="n">
         <v>1579</v>
       </c>
+      <c r="AB55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5778,6 +5945,9 @@
       <c r="AA56" t="n">
         <v>1579</v>
       </c>
+      <c r="AB56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5873,6 +6043,9 @@
       <c r="AA57" t="n">
         <v>1579</v>
       </c>
+      <c r="AB57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5968,6 +6141,9 @@
       <c r="AA58" t="n">
         <v>1579</v>
       </c>
+      <c r="AB58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6063,6 +6239,9 @@
       <c r="AA59" t="n">
         <v>1579</v>
       </c>
+      <c r="AB59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6158,6 +6337,9 @@
       <c r="AA60" t="n">
         <v>1579</v>
       </c>
+      <c r="AB60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6253,6 +6435,9 @@
       <c r="AA61" t="n">
         <v>1579</v>
       </c>
+      <c r="AB61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6348,6 +6533,9 @@
       <c r="AA62" t="n">
         <v>1729</v>
       </c>
+      <c r="AB62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6443,6 +6631,9 @@
       <c r="AA63" t="n">
         <v>1729</v>
       </c>
+      <c r="AB63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6538,6 +6729,9 @@
       <c r="AA64" t="n">
         <v>1729</v>
       </c>
+      <c r="AB64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6633,6 +6827,9 @@
       <c r="AA65" t="n">
         <v>1829</v>
       </c>
+      <c r="AB65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6728,6 +6925,9 @@
       <c r="AA66" t="n">
         <v>1829</v>
       </c>
+      <c r="AB66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6823,6 +7023,9 @@
       <c r="AA67" t="n">
         <v>1829</v>
       </c>
+      <c r="AB67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6918,6 +7121,9 @@
       <c r="AA68" t="n">
         <v>1979</v>
       </c>
+      <c r="AB68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7013,6 +7219,9 @@
       <c r="AA69" t="n">
         <v>1979</v>
       </c>
+      <c r="AB69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7108,6 +7317,9 @@
       <c r="AA70" t="n">
         <v>1979</v>
       </c>
+      <c r="AB70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7203,6 +7415,9 @@
       <c r="AA71" t="n">
         <v>2479</v>
       </c>
+      <c r="AB71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7298,6 +7513,9 @@
       <c r="AA72" t="n">
         <v>2479</v>
       </c>
+      <c r="AB72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7393,6 +7611,9 @@
       <c r="AA73" t="n">
         <v>2479</v>
       </c>
+      <c r="AB73" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7482,6 +7703,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB74"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,11 @@
           <t>2026-02-16 20:24:31</t>
         </is>
       </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>2026-02-16 21:24:55</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -660,6 +665,9 @@
       <c r="AB2" t="n">
         <v>659</v>
       </c>
+      <c r="AC2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -758,6 +766,9 @@
       <c r="AB3" t="n">
         <v>659</v>
       </c>
+      <c r="AC3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -856,6 +867,9 @@
       <c r="AB4" t="n">
         <v>749</v>
       </c>
+      <c r="AC4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -954,6 +968,9 @@
       <c r="AB5" t="n">
         <v>749</v>
       </c>
+      <c r="AC5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1052,6 +1069,9 @@
       <c r="AB6" t="n">
         <v>809</v>
       </c>
+      <c r="AC6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1150,6 +1170,9 @@
       <c r="AB7" t="n">
         <v>809</v>
       </c>
+      <c r="AC7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1248,6 +1271,9 @@
       <c r="AB8" t="n">
         <v>809</v>
       </c>
+      <c r="AC8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1346,6 +1372,9 @@
       <c r="AB9" t="n">
         <v>809</v>
       </c>
+      <c r="AC9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1444,6 +1473,9 @@
       <c r="AB10" t="n">
         <v>809</v>
       </c>
+      <c r="AC10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1542,6 +1574,9 @@
       <c r="AB11" t="n">
         <v>849</v>
       </c>
+      <c r="AC11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1640,6 +1675,9 @@
       <c r="AB12" t="n">
         <v>899</v>
       </c>
+      <c r="AC12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1738,6 +1776,9 @@
       <c r="AB13" t="n">
         <v>899</v>
       </c>
+      <c r="AC13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1836,6 +1877,9 @@
       <c r="AB14" t="n">
         <v>909</v>
       </c>
+      <c r="AC14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1934,6 +1978,9 @@
       <c r="AB15" t="n">
         <v>909</v>
       </c>
+      <c r="AC15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2032,6 +2079,9 @@
       <c r="AB16" t="n">
         <v>909</v>
       </c>
+      <c r="AC16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2130,6 +2180,9 @@
       <c r="AB17" t="n">
         <v>909</v>
       </c>
+      <c r="AC17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2224,6 +2277,9 @@
       <c r="AB18" t="n">
         <v>949</v>
       </c>
+      <c r="AC18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2322,6 +2378,9 @@
       <c r="AB19" t="n">
         <v>969</v>
       </c>
+      <c r="AC19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2420,6 +2479,9 @@
       <c r="AB20" t="n">
         <v>969</v>
       </c>
+      <c r="AC20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2518,6 +2580,9 @@
       <c r="AB21" t="n">
         <v>969</v>
       </c>
+      <c r="AC21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2616,6 +2681,9 @@
       <c r="AB22" t="n">
         <v>969</v>
       </c>
+      <c r="AC22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2714,6 +2782,9 @@
       <c r="AB23" t="n">
         <v>969</v>
       </c>
+      <c r="AC23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2812,6 +2883,9 @@
       <c r="AB24" t="n">
         <v>999</v>
       </c>
+      <c r="AC24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2910,6 +2984,9 @@
       <c r="AB25" t="n">
         <v>999</v>
       </c>
+      <c r="AC25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3008,6 +3085,9 @@
       <c r="AB26" t="n">
         <v>1039</v>
       </c>
+      <c r="AC26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3106,6 +3186,9 @@
       <c r="AB27" t="n">
         <v>1039</v>
       </c>
+      <c r="AC27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3204,6 +3287,9 @@
       <c r="AB28" t="n">
         <v>1079</v>
       </c>
+      <c r="AC28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3302,6 +3388,9 @@
       <c r="AB29" t="n">
         <v>1079</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3400,6 +3489,9 @@
       <c r="AB30" t="n">
         <v>1079</v>
       </c>
+      <c r="AC30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3498,6 +3590,9 @@
       <c r="AB31" t="n">
         <v>1079</v>
       </c>
+      <c r="AC31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3596,6 +3691,9 @@
       <c r="AB32" t="n">
         <v>1099</v>
       </c>
+      <c r="AC32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3694,6 +3792,9 @@
       <c r="AB33" t="n">
         <v>1099</v>
       </c>
+      <c r="AC33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3792,6 +3893,9 @@
       <c r="AB34" t="n">
         <v>1099</v>
       </c>
+      <c r="AC34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3890,6 +3994,9 @@
       <c r="AB35" t="n">
         <v>1199</v>
       </c>
+      <c r="AC35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3988,6 +4095,9 @@
       <c r="AB36" t="n">
         <v>1219</v>
       </c>
+      <c r="AC36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4086,6 +4196,9 @@
       <c r="AB37" t="n">
         <v>1219</v>
       </c>
+      <c r="AC37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4184,6 +4297,9 @@
       <c r="AB38" t="n">
         <v>1219</v>
       </c>
+      <c r="AC38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4282,6 +4398,9 @@
       <c r="AB39" t="n">
         <v>1219</v>
       </c>
+      <c r="AC39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4380,6 +4499,9 @@
       <c r="AB40" t="n">
         <v>1219</v>
       </c>
+      <c r="AC40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4478,6 +4600,9 @@
       <c r="AB41" t="n">
         <v>1229</v>
       </c>
+      <c r="AC41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4576,6 +4701,9 @@
       <c r="AB42" t="n">
         <v>1249</v>
       </c>
+      <c r="AC42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4674,6 +4802,9 @@
       <c r="AB43" t="n">
         <v>1249</v>
       </c>
+      <c r="AC43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4772,6 +4903,9 @@
       <c r="AB44" t="n">
         <v>1329</v>
       </c>
+      <c r="AC44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4870,6 +5004,9 @@
       <c r="AB45" t="n">
         <v>1329</v>
       </c>
+      <c r="AC45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4968,6 +5105,9 @@
       <c r="AB46" t="n">
         <v>1329</v>
       </c>
+      <c r="AC46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5066,6 +5206,9 @@
       <c r="AB47" t="n">
         <v>1329</v>
       </c>
+      <c r="AC47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5164,6 +5307,9 @@
       <c r="AB48" t="n">
         <v>1329</v>
       </c>
+      <c r="AC48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5262,6 +5408,9 @@
       <c r="AB49" t="n">
         <v>1329</v>
       </c>
+      <c r="AC49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5360,6 +5509,9 @@
       <c r="AB50" t="n">
         <v>1329</v>
       </c>
+      <c r="AC50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5458,6 +5610,9 @@
       <c r="AB51" t="n">
         <v>1349</v>
       </c>
+      <c r="AC51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5556,6 +5711,9 @@
       <c r="AB52" t="n">
         <v>1479</v>
       </c>
+      <c r="AC52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5654,6 +5812,9 @@
       <c r="AB53" t="n">
         <v>1479</v>
       </c>
+      <c r="AC53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5752,6 +5913,9 @@
       <c r="AB54" t="n">
         <v>1479</v>
       </c>
+      <c r="AC54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5850,6 +6014,9 @@
       <c r="AB55" t="n">
         <v>1579</v>
       </c>
+      <c r="AC55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5948,6 +6115,9 @@
       <c r="AB56" t="n">
         <v>1579</v>
       </c>
+      <c r="AC56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6046,6 +6216,9 @@
       <c r="AB57" t="n">
         <v>1579</v>
       </c>
+      <c r="AC57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6144,6 +6317,9 @@
       <c r="AB58" t="n">
         <v>1579</v>
       </c>
+      <c r="AC58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6242,6 +6418,9 @@
       <c r="AB59" t="n">
         <v>1579</v>
       </c>
+      <c r="AC59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6340,6 +6519,9 @@
       <c r="AB60" t="n">
         <v>1579</v>
       </c>
+      <c r="AC60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6438,6 +6620,9 @@
       <c r="AB61" t="n">
         <v>1579</v>
       </c>
+      <c r="AC61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6536,6 +6721,9 @@
       <c r="AB62" t="n">
         <v>1729</v>
       </c>
+      <c r="AC62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6634,6 +6822,9 @@
       <c r="AB63" t="n">
         <v>1729</v>
       </c>
+      <c r="AC63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6732,6 +6923,9 @@
       <c r="AB64" t="n">
         <v>1729</v>
       </c>
+      <c r="AC64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6830,6 +7024,9 @@
       <c r="AB65" t="n">
         <v>1829</v>
       </c>
+      <c r="AC65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6928,6 +7125,9 @@
       <c r="AB66" t="n">
         <v>1829</v>
       </c>
+      <c r="AC66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7026,6 +7226,9 @@
       <c r="AB67" t="n">
         <v>1829</v>
       </c>
+      <c r="AC67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7124,6 +7327,9 @@
       <c r="AB68" t="n">
         <v>1979</v>
       </c>
+      <c r="AC68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7222,6 +7428,9 @@
       <c r="AB69" t="n">
         <v>1979</v>
       </c>
+      <c r="AC69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7320,6 +7529,9 @@
       <c r="AB70" t="n">
         <v>1979</v>
       </c>
+      <c r="AC70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7418,6 +7630,9 @@
       <c r="AB71" t="n">
         <v>2479</v>
       </c>
+      <c r="AC71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7516,6 +7731,9 @@
       <c r="AB72" t="n">
         <v>2479</v>
       </c>
+      <c r="AC72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7612,6 +7830,9 @@
         <v>2479</v>
       </c>
       <c r="AB73" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AC73" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -7704,6 +7925,7 @@
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,11 @@
           <t>2026-02-16 21:24:55</t>
         </is>
       </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>2026-02-16 22:22:29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -668,6 +673,9 @@
       <c r="AC2" t="n">
         <v>659</v>
       </c>
+      <c r="AD2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -769,6 +777,9 @@
       <c r="AC3" t="n">
         <v>659</v>
       </c>
+      <c r="AD3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -870,6 +881,9 @@
       <c r="AC4" t="n">
         <v>749</v>
       </c>
+      <c r="AD4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -971,6 +985,9 @@
       <c r="AC5" t="n">
         <v>749</v>
       </c>
+      <c r="AD5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1072,6 +1089,9 @@
       <c r="AC6" t="n">
         <v>809</v>
       </c>
+      <c r="AD6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1173,6 +1193,9 @@
       <c r="AC7" t="n">
         <v>809</v>
       </c>
+      <c r="AD7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1274,6 +1297,9 @@
       <c r="AC8" t="n">
         <v>809</v>
       </c>
+      <c r="AD8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1375,6 +1401,9 @@
       <c r="AC9" t="n">
         <v>809</v>
       </c>
+      <c r="AD9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1476,6 +1505,9 @@
       <c r="AC10" t="n">
         <v>809</v>
       </c>
+      <c r="AD10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1577,6 +1609,9 @@
       <c r="AC11" t="n">
         <v>849</v>
       </c>
+      <c r="AD11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1678,6 +1713,9 @@
       <c r="AC12" t="n">
         <v>899</v>
       </c>
+      <c r="AD12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1779,6 +1817,9 @@
       <c r="AC13" t="n">
         <v>899</v>
       </c>
+      <c r="AD13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1880,6 +1921,9 @@
       <c r="AC14" t="n">
         <v>909</v>
       </c>
+      <c r="AD14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1981,6 +2025,9 @@
       <c r="AC15" t="n">
         <v>909</v>
       </c>
+      <c r="AD15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2082,6 +2129,9 @@
       <c r="AC16" t="n">
         <v>909</v>
       </c>
+      <c r="AD16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2183,6 +2233,9 @@
       <c r="AC17" t="n">
         <v>909</v>
       </c>
+      <c r="AD17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2280,6 +2333,9 @@
       <c r="AC18" t="n">
         <v>949</v>
       </c>
+      <c r="AD18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2381,6 +2437,9 @@
       <c r="AC19" t="n">
         <v>969</v>
       </c>
+      <c r="AD19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2482,6 +2541,9 @@
       <c r="AC20" t="n">
         <v>969</v>
       </c>
+      <c r="AD20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2583,6 +2645,9 @@
       <c r="AC21" t="n">
         <v>969</v>
       </c>
+      <c r="AD21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2684,6 +2749,9 @@
       <c r="AC22" t="n">
         <v>969</v>
       </c>
+      <c r="AD22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2785,6 +2853,9 @@
       <c r="AC23" t="n">
         <v>969</v>
       </c>
+      <c r="AD23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2886,6 +2957,9 @@
       <c r="AC24" t="n">
         <v>999</v>
       </c>
+      <c r="AD24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2987,6 +3061,9 @@
       <c r="AC25" t="n">
         <v>999</v>
       </c>
+      <c r="AD25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3088,6 +3165,9 @@
       <c r="AC26" t="n">
         <v>1039</v>
       </c>
+      <c r="AD26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3189,6 +3269,9 @@
       <c r="AC27" t="n">
         <v>1039</v>
       </c>
+      <c r="AD27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3290,6 +3373,9 @@
       <c r="AC28" t="n">
         <v>1079</v>
       </c>
+      <c r="AD28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3391,6 +3477,9 @@
       <c r="AC29" t="n">
         <v>1079</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3492,6 +3581,9 @@
       <c r="AC30" t="n">
         <v>1079</v>
       </c>
+      <c r="AD30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3593,6 +3685,9 @@
       <c r="AC31" t="n">
         <v>1079</v>
       </c>
+      <c r="AD31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3694,6 +3789,9 @@
       <c r="AC32" t="n">
         <v>1099</v>
       </c>
+      <c r="AD32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3795,6 +3893,9 @@
       <c r="AC33" t="n">
         <v>1099</v>
       </c>
+      <c r="AD33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3896,6 +3997,9 @@
       <c r="AC34" t="n">
         <v>1099</v>
       </c>
+      <c r="AD34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3997,6 +4101,9 @@
       <c r="AC35" t="n">
         <v>1199</v>
       </c>
+      <c r="AD35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4098,6 +4205,9 @@
       <c r="AC36" t="n">
         <v>1219</v>
       </c>
+      <c r="AD36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4199,6 +4309,9 @@
       <c r="AC37" t="n">
         <v>1219</v>
       </c>
+      <c r="AD37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4300,6 +4413,9 @@
       <c r="AC38" t="n">
         <v>1219</v>
       </c>
+      <c r="AD38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4401,6 +4517,9 @@
       <c r="AC39" t="n">
         <v>1219</v>
       </c>
+      <c r="AD39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4502,6 +4621,9 @@
       <c r="AC40" t="n">
         <v>1219</v>
       </c>
+      <c r="AD40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4603,6 +4725,9 @@
       <c r="AC41" t="n">
         <v>1229</v>
       </c>
+      <c r="AD41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4704,6 +4829,9 @@
       <c r="AC42" t="n">
         <v>1249</v>
       </c>
+      <c r="AD42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4805,6 +4933,9 @@
       <c r="AC43" t="n">
         <v>1249</v>
       </c>
+      <c r="AD43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4906,6 +5037,9 @@
       <c r="AC44" t="n">
         <v>1329</v>
       </c>
+      <c r="AD44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5007,6 +5141,9 @@
       <c r="AC45" t="n">
         <v>1329</v>
       </c>
+      <c r="AD45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5108,6 +5245,9 @@
       <c r="AC46" t="n">
         <v>1329</v>
       </c>
+      <c r="AD46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5209,6 +5349,9 @@
       <c r="AC47" t="n">
         <v>1329</v>
       </c>
+      <c r="AD47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5310,6 +5453,9 @@
       <c r="AC48" t="n">
         <v>1329</v>
       </c>
+      <c r="AD48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5411,6 +5557,9 @@
       <c r="AC49" t="n">
         <v>1329</v>
       </c>
+      <c r="AD49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5512,6 +5661,9 @@
       <c r="AC50" t="n">
         <v>1329</v>
       </c>
+      <c r="AD50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5613,6 +5765,9 @@
       <c r="AC51" t="n">
         <v>1349</v>
       </c>
+      <c r="AD51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5714,6 +5869,9 @@
       <c r="AC52" t="n">
         <v>1479</v>
       </c>
+      <c r="AD52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5815,6 +5973,9 @@
       <c r="AC53" t="n">
         <v>1479</v>
       </c>
+      <c r="AD53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5916,6 +6077,9 @@
       <c r="AC54" t="n">
         <v>1479</v>
       </c>
+      <c r="AD54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6017,6 +6181,9 @@
       <c r="AC55" t="n">
         <v>1579</v>
       </c>
+      <c r="AD55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6118,6 +6285,9 @@
       <c r="AC56" t="n">
         <v>1579</v>
       </c>
+      <c r="AD56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6219,6 +6389,9 @@
       <c r="AC57" t="n">
         <v>1579</v>
       </c>
+      <c r="AD57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6320,6 +6493,9 @@
       <c r="AC58" t="n">
         <v>1579</v>
       </c>
+      <c r="AD58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6421,6 +6597,9 @@
       <c r="AC59" t="n">
         <v>1579</v>
       </c>
+      <c r="AD59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6522,6 +6701,9 @@
       <c r="AC60" t="n">
         <v>1579</v>
       </c>
+      <c r="AD60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6623,6 +6805,9 @@
       <c r="AC61" t="n">
         <v>1579</v>
       </c>
+      <c r="AD61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6724,6 +6909,9 @@
       <c r="AC62" t="n">
         <v>1729</v>
       </c>
+      <c r="AD62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6825,6 +7013,9 @@
       <c r="AC63" t="n">
         <v>1729</v>
       </c>
+      <c r="AD63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6926,6 +7117,9 @@
       <c r="AC64" t="n">
         <v>1729</v>
       </c>
+      <c r="AD64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7027,6 +7221,9 @@
       <c r="AC65" t="n">
         <v>1829</v>
       </c>
+      <c r="AD65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7128,6 +7325,9 @@
       <c r="AC66" t="n">
         <v>1829</v>
       </c>
+      <c r="AD66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7229,6 +7429,9 @@
       <c r="AC67" t="n">
         <v>1829</v>
       </c>
+      <c r="AD67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7330,6 +7533,9 @@
       <c r="AC68" t="n">
         <v>1979</v>
       </c>
+      <c r="AD68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7431,6 +7637,9 @@
       <c r="AC69" t="n">
         <v>1979</v>
       </c>
+      <c r="AD69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7532,6 +7741,9 @@
       <c r="AC70" t="n">
         <v>1979</v>
       </c>
+      <c r="AD70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7633,6 +7845,9 @@
       <c r="AC71" t="n">
         <v>2479</v>
       </c>
+      <c r="AD71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7734,6 +7949,9 @@
       <c r="AC72" t="n">
         <v>2479</v>
       </c>
+      <c r="AD72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7833,6 +8051,9 @@
         <v>2479</v>
       </c>
       <c r="AC73" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AD73" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -7926,6 +8147,7 @@
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,11 @@
           <t>2026-02-16 22:22:29</t>
         </is>
       </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>2026-02-16 23:25:13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -676,6 +681,9 @@
       <c r="AD2" t="n">
         <v>659</v>
       </c>
+      <c r="AE2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -780,6 +788,9 @@
       <c r="AD3" t="n">
         <v>659</v>
       </c>
+      <c r="AE3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -884,6 +895,9 @@
       <c r="AD4" t="n">
         <v>749</v>
       </c>
+      <c r="AE4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -988,6 +1002,9 @@
       <c r="AD5" t="n">
         <v>749</v>
       </c>
+      <c r="AE5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1092,6 +1109,9 @@
       <c r="AD6" t="n">
         <v>809</v>
       </c>
+      <c r="AE6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1196,6 +1216,9 @@
       <c r="AD7" t="n">
         <v>809</v>
       </c>
+      <c r="AE7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1300,6 +1323,9 @@
       <c r="AD8" t="n">
         <v>809</v>
       </c>
+      <c r="AE8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1404,6 +1430,9 @@
       <c r="AD9" t="n">
         <v>809</v>
       </c>
+      <c r="AE9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1508,6 +1537,9 @@
       <c r="AD10" t="n">
         <v>809</v>
       </c>
+      <c r="AE10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1612,6 +1644,9 @@
       <c r="AD11" t="n">
         <v>849</v>
       </c>
+      <c r="AE11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1716,6 +1751,9 @@
       <c r="AD12" t="n">
         <v>899</v>
       </c>
+      <c r="AE12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1820,6 +1858,9 @@
       <c r="AD13" t="n">
         <v>899</v>
       </c>
+      <c r="AE13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1924,6 +1965,9 @@
       <c r="AD14" t="n">
         <v>909</v>
       </c>
+      <c r="AE14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2028,6 +2072,9 @@
       <c r="AD15" t="n">
         <v>909</v>
       </c>
+      <c r="AE15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2132,6 +2179,9 @@
       <c r="AD16" t="n">
         <v>909</v>
       </c>
+      <c r="AE16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2236,6 +2286,9 @@
       <c r="AD17" t="n">
         <v>909</v>
       </c>
+      <c r="AE17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2336,6 +2389,9 @@
       <c r="AD18" t="n">
         <v>949</v>
       </c>
+      <c r="AE18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2440,6 +2496,9 @@
       <c r="AD19" t="n">
         <v>969</v>
       </c>
+      <c r="AE19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2544,6 +2603,9 @@
       <c r="AD20" t="n">
         <v>969</v>
       </c>
+      <c r="AE20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2648,6 +2710,9 @@
       <c r="AD21" t="n">
         <v>969</v>
       </c>
+      <c r="AE21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2752,6 +2817,9 @@
       <c r="AD22" t="n">
         <v>969</v>
       </c>
+      <c r="AE22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2856,6 +2924,9 @@
       <c r="AD23" t="n">
         <v>969</v>
       </c>
+      <c r="AE23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2960,6 +3031,9 @@
       <c r="AD24" t="n">
         <v>999</v>
       </c>
+      <c r="AE24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3064,6 +3138,9 @@
       <c r="AD25" t="n">
         <v>999</v>
       </c>
+      <c r="AE25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3168,6 +3245,9 @@
       <c r="AD26" t="n">
         <v>1039</v>
       </c>
+      <c r="AE26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3272,6 +3352,9 @@
       <c r="AD27" t="n">
         <v>1039</v>
       </c>
+      <c r="AE27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3376,6 +3459,9 @@
       <c r="AD28" t="n">
         <v>1079</v>
       </c>
+      <c r="AE28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3480,6 +3566,9 @@
       <c r="AD29" t="n">
         <v>1079</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3584,6 +3673,9 @@
       <c r="AD30" t="n">
         <v>1079</v>
       </c>
+      <c r="AE30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3688,6 +3780,9 @@
       <c r="AD31" t="n">
         <v>1079</v>
       </c>
+      <c r="AE31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3792,6 +3887,9 @@
       <c r="AD32" t="n">
         <v>1099</v>
       </c>
+      <c r="AE32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3896,6 +3994,9 @@
       <c r="AD33" t="n">
         <v>1099</v>
       </c>
+      <c r="AE33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4000,6 +4101,9 @@
       <c r="AD34" t="n">
         <v>1099</v>
       </c>
+      <c r="AE34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4104,6 +4208,9 @@
       <c r="AD35" t="n">
         <v>1199</v>
       </c>
+      <c r="AE35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4208,6 +4315,9 @@
       <c r="AD36" t="n">
         <v>1219</v>
       </c>
+      <c r="AE36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4312,6 +4422,9 @@
       <c r="AD37" t="n">
         <v>1219</v>
       </c>
+      <c r="AE37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4416,6 +4529,9 @@
       <c r="AD38" t="n">
         <v>1219</v>
       </c>
+      <c r="AE38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4520,6 +4636,9 @@
       <c r="AD39" t="n">
         <v>1219</v>
       </c>
+      <c r="AE39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4624,6 +4743,9 @@
       <c r="AD40" t="n">
         <v>1219</v>
       </c>
+      <c r="AE40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4728,6 +4850,9 @@
       <c r="AD41" t="n">
         <v>1229</v>
       </c>
+      <c r="AE41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4832,6 +4957,9 @@
       <c r="AD42" t="n">
         <v>1249</v>
       </c>
+      <c r="AE42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4936,6 +5064,9 @@
       <c r="AD43" t="n">
         <v>1249</v>
       </c>
+      <c r="AE43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5040,6 +5171,9 @@
       <c r="AD44" t="n">
         <v>1329</v>
       </c>
+      <c r="AE44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5144,6 +5278,9 @@
       <c r="AD45" t="n">
         <v>1329</v>
       </c>
+      <c r="AE45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5248,6 +5385,9 @@
       <c r="AD46" t="n">
         <v>1329</v>
       </c>
+      <c r="AE46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5352,6 +5492,9 @@
       <c r="AD47" t="n">
         <v>1329</v>
       </c>
+      <c r="AE47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5456,6 +5599,9 @@
       <c r="AD48" t="n">
         <v>1329</v>
       </c>
+      <c r="AE48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5560,6 +5706,9 @@
       <c r="AD49" t="n">
         <v>1329</v>
       </c>
+      <c r="AE49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5664,6 +5813,9 @@
       <c r="AD50" t="n">
         <v>1329</v>
       </c>
+      <c r="AE50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5768,6 +5920,9 @@
       <c r="AD51" t="n">
         <v>1349</v>
       </c>
+      <c r="AE51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5872,6 +6027,9 @@
       <c r="AD52" t="n">
         <v>1479</v>
       </c>
+      <c r="AE52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5976,6 +6134,9 @@
       <c r="AD53" t="n">
         <v>1479</v>
       </c>
+      <c r="AE53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6080,6 +6241,9 @@
       <c r="AD54" t="n">
         <v>1479</v>
       </c>
+      <c r="AE54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6184,6 +6348,9 @@
       <c r="AD55" t="n">
         <v>1579</v>
       </c>
+      <c r="AE55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6288,6 +6455,9 @@
       <c r="AD56" t="n">
         <v>1579</v>
       </c>
+      <c r="AE56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6392,6 +6562,9 @@
       <c r="AD57" t="n">
         <v>1579</v>
       </c>
+      <c r="AE57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6496,6 +6669,9 @@
       <c r="AD58" t="n">
         <v>1579</v>
       </c>
+      <c r="AE58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6600,6 +6776,9 @@
       <c r="AD59" t="n">
         <v>1579</v>
       </c>
+      <c r="AE59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6704,6 +6883,9 @@
       <c r="AD60" t="n">
         <v>1579</v>
       </c>
+      <c r="AE60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6808,6 +6990,9 @@
       <c r="AD61" t="n">
         <v>1579</v>
       </c>
+      <c r="AE61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6912,6 +7097,9 @@
       <c r="AD62" t="n">
         <v>1729</v>
       </c>
+      <c r="AE62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7016,6 +7204,9 @@
       <c r="AD63" t="n">
         <v>1729</v>
       </c>
+      <c r="AE63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7120,6 +7311,9 @@
       <c r="AD64" t="n">
         <v>1729</v>
       </c>
+      <c r="AE64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7224,6 +7418,9 @@
       <c r="AD65" t="n">
         <v>1829</v>
       </c>
+      <c r="AE65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7328,6 +7525,9 @@
       <c r="AD66" t="n">
         <v>1829</v>
       </c>
+      <c r="AE66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7432,6 +7632,9 @@
       <c r="AD67" t="n">
         <v>1829</v>
       </c>
+      <c r="AE67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7536,6 +7739,9 @@
       <c r="AD68" t="n">
         <v>1979</v>
       </c>
+      <c r="AE68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7640,6 +7846,9 @@
       <c r="AD69" t="n">
         <v>1979</v>
       </c>
+      <c r="AE69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7744,6 +7953,9 @@
       <c r="AD70" t="n">
         <v>1979</v>
       </c>
+      <c r="AE70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7848,6 +8060,9 @@
       <c r="AD71" t="n">
         <v>2479</v>
       </c>
+      <c r="AE71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7952,6 +8167,9 @@
       <c r="AD72" t="n">
         <v>2479</v>
       </c>
+      <c r="AE72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8054,6 +8272,9 @@
         <v>2479</v>
       </c>
       <c r="AD73" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AE73" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -8148,6 +8369,7 @@
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,11 @@
           <t>2026-02-16 23:25:13</t>
         </is>
       </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>2026-02-17 01:31:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -684,6 +689,9 @@
       <c r="AE2" t="n">
         <v>659</v>
       </c>
+      <c r="AF2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -791,6 +799,9 @@
       <c r="AE3" t="n">
         <v>659</v>
       </c>
+      <c r="AF3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +909,9 @@
       <c r="AE4" t="n">
         <v>749</v>
       </c>
+      <c r="AF4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1005,6 +1019,9 @@
       <c r="AE5" t="n">
         <v>749</v>
       </c>
+      <c r="AF5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1112,6 +1129,9 @@
       <c r="AE6" t="n">
         <v>809</v>
       </c>
+      <c r="AF6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1219,6 +1239,9 @@
       <c r="AE7" t="n">
         <v>809</v>
       </c>
+      <c r="AF7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1326,6 +1349,9 @@
       <c r="AE8" t="n">
         <v>809</v>
       </c>
+      <c r="AF8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1433,6 +1459,9 @@
       <c r="AE9" t="n">
         <v>809</v>
       </c>
+      <c r="AF9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1540,6 +1569,9 @@
       <c r="AE10" t="n">
         <v>809</v>
       </c>
+      <c r="AF10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1647,6 +1679,9 @@
       <c r="AE11" t="n">
         <v>849</v>
       </c>
+      <c r="AF11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1754,6 +1789,9 @@
       <c r="AE12" t="n">
         <v>899</v>
       </c>
+      <c r="AF12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1861,6 +1899,9 @@
       <c r="AE13" t="n">
         <v>899</v>
       </c>
+      <c r="AF13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1968,6 +2009,9 @@
       <c r="AE14" t="n">
         <v>909</v>
       </c>
+      <c r="AF14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2075,6 +2119,9 @@
       <c r="AE15" t="n">
         <v>909</v>
       </c>
+      <c r="AF15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2182,6 +2229,9 @@
       <c r="AE16" t="n">
         <v>909</v>
       </c>
+      <c r="AF16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2289,6 +2339,9 @@
       <c r="AE17" t="n">
         <v>909</v>
       </c>
+      <c r="AF17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2392,6 +2445,9 @@
       <c r="AE18" t="n">
         <v>949</v>
       </c>
+      <c r="AF18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2499,6 +2555,9 @@
       <c r="AE19" t="n">
         <v>969</v>
       </c>
+      <c r="AF19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2606,6 +2665,9 @@
       <c r="AE20" t="n">
         <v>969</v>
       </c>
+      <c r="AF20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2713,6 +2775,9 @@
       <c r="AE21" t="n">
         <v>969</v>
       </c>
+      <c r="AF21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2820,6 +2885,9 @@
       <c r="AE22" t="n">
         <v>969</v>
       </c>
+      <c r="AF22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2927,6 +2995,9 @@
       <c r="AE23" t="n">
         <v>969</v>
       </c>
+      <c r="AF23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3034,6 +3105,9 @@
       <c r="AE24" t="n">
         <v>999</v>
       </c>
+      <c r="AF24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3141,6 +3215,9 @@
       <c r="AE25" t="n">
         <v>999</v>
       </c>
+      <c r="AF25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3248,6 +3325,9 @@
       <c r="AE26" t="n">
         <v>1039</v>
       </c>
+      <c r="AF26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3355,6 +3435,9 @@
       <c r="AE27" t="n">
         <v>1039</v>
       </c>
+      <c r="AF27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3462,6 +3545,9 @@
       <c r="AE28" t="n">
         <v>1079</v>
       </c>
+      <c r="AF28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3569,6 +3655,9 @@
       <c r="AE29" t="n">
         <v>1079</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3676,6 +3765,9 @@
       <c r="AE30" t="n">
         <v>1079</v>
       </c>
+      <c r="AF30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3783,6 +3875,9 @@
       <c r="AE31" t="n">
         <v>1079</v>
       </c>
+      <c r="AF31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3890,6 +3985,9 @@
       <c r="AE32" t="n">
         <v>1099</v>
       </c>
+      <c r="AF32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3997,6 +4095,9 @@
       <c r="AE33" t="n">
         <v>1099</v>
       </c>
+      <c r="AF33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4104,6 +4205,9 @@
       <c r="AE34" t="n">
         <v>1099</v>
       </c>
+      <c r="AF34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4211,6 +4315,9 @@
       <c r="AE35" t="n">
         <v>1199</v>
       </c>
+      <c r="AF35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4318,6 +4425,9 @@
       <c r="AE36" t="n">
         <v>1219</v>
       </c>
+      <c r="AF36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4425,6 +4535,9 @@
       <c r="AE37" t="n">
         <v>1219</v>
       </c>
+      <c r="AF37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4532,6 +4645,9 @@
       <c r="AE38" t="n">
         <v>1219</v>
       </c>
+      <c r="AF38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4639,6 +4755,9 @@
       <c r="AE39" t="n">
         <v>1219</v>
       </c>
+      <c r="AF39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4746,6 +4865,9 @@
       <c r="AE40" t="n">
         <v>1219</v>
       </c>
+      <c r="AF40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4853,6 +4975,9 @@
       <c r="AE41" t="n">
         <v>1229</v>
       </c>
+      <c r="AF41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4960,6 +5085,9 @@
       <c r="AE42" t="n">
         <v>1249</v>
       </c>
+      <c r="AF42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5067,6 +5195,9 @@
       <c r="AE43" t="n">
         <v>1249</v>
       </c>
+      <c r="AF43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5174,6 +5305,9 @@
       <c r="AE44" t="n">
         <v>1329</v>
       </c>
+      <c r="AF44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5281,6 +5415,9 @@
       <c r="AE45" t="n">
         <v>1329</v>
       </c>
+      <c r="AF45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5388,6 +5525,9 @@
       <c r="AE46" t="n">
         <v>1329</v>
       </c>
+      <c r="AF46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5495,6 +5635,9 @@
       <c r="AE47" t="n">
         <v>1329</v>
       </c>
+      <c r="AF47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5602,6 +5745,9 @@
       <c r="AE48" t="n">
         <v>1329</v>
       </c>
+      <c r="AF48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5709,6 +5855,9 @@
       <c r="AE49" t="n">
         <v>1329</v>
       </c>
+      <c r="AF49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5816,6 +5965,9 @@
       <c r="AE50" t="n">
         <v>1329</v>
       </c>
+      <c r="AF50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5923,6 +6075,9 @@
       <c r="AE51" t="n">
         <v>1349</v>
       </c>
+      <c r="AF51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6030,6 +6185,9 @@
       <c r="AE52" t="n">
         <v>1479</v>
       </c>
+      <c r="AF52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6137,6 +6295,9 @@
       <c r="AE53" t="n">
         <v>1479</v>
       </c>
+      <c r="AF53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6244,6 +6405,9 @@
       <c r="AE54" t="n">
         <v>1479</v>
       </c>
+      <c r="AF54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6351,6 +6515,9 @@
       <c r="AE55" t="n">
         <v>1579</v>
       </c>
+      <c r="AF55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6458,6 +6625,9 @@
       <c r="AE56" t="n">
         <v>1579</v>
       </c>
+      <c r="AF56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6565,6 +6735,9 @@
       <c r="AE57" t="n">
         <v>1579</v>
       </c>
+      <c r="AF57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6672,6 +6845,9 @@
       <c r="AE58" t="n">
         <v>1579</v>
       </c>
+      <c r="AF58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6779,6 +6955,9 @@
       <c r="AE59" t="n">
         <v>1579</v>
       </c>
+      <c r="AF59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6886,6 +7065,9 @@
       <c r="AE60" t="n">
         <v>1579</v>
       </c>
+      <c r="AF60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6993,6 +7175,9 @@
       <c r="AE61" t="n">
         <v>1579</v>
       </c>
+      <c r="AF61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7100,6 +7285,9 @@
       <c r="AE62" t="n">
         <v>1729</v>
       </c>
+      <c r="AF62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7207,6 +7395,9 @@
       <c r="AE63" t="n">
         <v>1729</v>
       </c>
+      <c r="AF63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7314,6 +7505,9 @@
       <c r="AE64" t="n">
         <v>1729</v>
       </c>
+      <c r="AF64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7421,6 +7615,9 @@
       <c r="AE65" t="n">
         <v>1829</v>
       </c>
+      <c r="AF65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7528,6 +7725,9 @@
       <c r="AE66" t="n">
         <v>1829</v>
       </c>
+      <c r="AF66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7635,6 +7835,9 @@
       <c r="AE67" t="n">
         <v>1829</v>
       </c>
+      <c r="AF67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7742,6 +7945,9 @@
       <c r="AE68" t="n">
         <v>1979</v>
       </c>
+      <c r="AF68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7849,6 +8055,9 @@
       <c r="AE69" t="n">
         <v>1979</v>
       </c>
+      <c r="AF69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7956,6 +8165,9 @@
       <c r="AE70" t="n">
         <v>1979</v>
       </c>
+      <c r="AF70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8063,6 +8275,9 @@
       <c r="AE71" t="n">
         <v>2479</v>
       </c>
+      <c r="AF71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8170,6 +8385,9 @@
       <c r="AE72" t="n">
         <v>2479</v>
       </c>
+      <c r="AF72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8275,6 +8493,9 @@
         <v>2479</v>
       </c>
       <c r="AE73" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AF73" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -8370,6 +8591,7 @@
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AG74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,6 +582,11 @@
           <t>2026-02-17 01:31:01</t>
         </is>
       </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>2026-02-17 04:14:59</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +697,9 @@
       <c r="AF2" t="n">
         <v>659</v>
       </c>
+      <c r="AG2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -802,6 +810,9 @@
       <c r="AF3" t="n">
         <v>659</v>
       </c>
+      <c r="AG3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -912,6 +923,9 @@
       <c r="AF4" t="n">
         <v>749</v>
       </c>
+      <c r="AG4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1022,6 +1036,9 @@
       <c r="AF5" t="n">
         <v>749</v>
       </c>
+      <c r="AG5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1132,6 +1149,9 @@
       <c r="AF6" t="n">
         <v>809</v>
       </c>
+      <c r="AG6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1242,6 +1262,9 @@
       <c r="AF7" t="n">
         <v>809</v>
       </c>
+      <c r="AG7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1352,6 +1375,9 @@
       <c r="AF8" t="n">
         <v>809</v>
       </c>
+      <c r="AG8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1462,6 +1488,9 @@
       <c r="AF9" t="n">
         <v>809</v>
       </c>
+      <c r="AG9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1572,6 +1601,9 @@
       <c r="AF10" t="n">
         <v>809</v>
       </c>
+      <c r="AG10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1682,6 +1714,9 @@
       <c r="AF11" t="n">
         <v>849</v>
       </c>
+      <c r="AG11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1792,6 +1827,9 @@
       <c r="AF12" t="n">
         <v>899</v>
       </c>
+      <c r="AG12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1902,6 +1940,9 @@
       <c r="AF13" t="n">
         <v>899</v>
       </c>
+      <c r="AG13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2012,6 +2053,9 @@
       <c r="AF14" t="n">
         <v>909</v>
       </c>
+      <c r="AG14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2122,6 +2166,9 @@
       <c r="AF15" t="n">
         <v>909</v>
       </c>
+      <c r="AG15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2232,6 +2279,9 @@
       <c r="AF16" t="n">
         <v>909</v>
       </c>
+      <c r="AG16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2342,6 +2392,9 @@
       <c r="AF17" t="n">
         <v>909</v>
       </c>
+      <c r="AG17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2448,6 +2501,9 @@
       <c r="AF18" t="n">
         <v>949</v>
       </c>
+      <c r="AG18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2558,6 +2614,9 @@
       <c r="AF19" t="n">
         <v>969</v>
       </c>
+      <c r="AG19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2668,6 +2727,9 @@
       <c r="AF20" t="n">
         <v>969</v>
       </c>
+      <c r="AG20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2778,6 +2840,9 @@
       <c r="AF21" t="n">
         <v>969</v>
       </c>
+      <c r="AG21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2888,6 +2953,9 @@
       <c r="AF22" t="n">
         <v>969</v>
       </c>
+      <c r="AG22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2998,6 +3066,9 @@
       <c r="AF23" t="n">
         <v>969</v>
       </c>
+      <c r="AG23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3108,6 +3179,9 @@
       <c r="AF24" t="n">
         <v>999</v>
       </c>
+      <c r="AG24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3218,6 +3292,9 @@
       <c r="AF25" t="n">
         <v>999</v>
       </c>
+      <c r="AG25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3328,6 +3405,9 @@
       <c r="AF26" t="n">
         <v>1039</v>
       </c>
+      <c r="AG26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3438,6 +3518,9 @@
       <c r="AF27" t="n">
         <v>1039</v>
       </c>
+      <c r="AG27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3548,6 +3631,9 @@
       <c r="AF28" t="n">
         <v>1079</v>
       </c>
+      <c r="AG28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3658,6 +3744,9 @@
       <c r="AF29" t="n">
         <v>1079</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3768,6 +3857,9 @@
       <c r="AF30" t="n">
         <v>1079</v>
       </c>
+      <c r="AG30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3878,6 +3970,9 @@
       <c r="AF31" t="n">
         <v>1079</v>
       </c>
+      <c r="AG31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3988,6 +4083,9 @@
       <c r="AF32" t="n">
         <v>1099</v>
       </c>
+      <c r="AG32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4098,6 +4196,9 @@
       <c r="AF33" t="n">
         <v>1099</v>
       </c>
+      <c r="AG33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4208,6 +4309,9 @@
       <c r="AF34" t="n">
         <v>1099</v>
       </c>
+      <c r="AG34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4318,6 +4422,9 @@
       <c r="AF35" t="n">
         <v>1199</v>
       </c>
+      <c r="AG35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4428,6 +4535,9 @@
       <c r="AF36" t="n">
         <v>1219</v>
       </c>
+      <c r="AG36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4538,6 +4648,9 @@
       <c r="AF37" t="n">
         <v>1219</v>
       </c>
+      <c r="AG37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4648,6 +4761,9 @@
       <c r="AF38" t="n">
         <v>1219</v>
       </c>
+      <c r="AG38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4758,6 +4874,9 @@
       <c r="AF39" t="n">
         <v>1219</v>
       </c>
+      <c r="AG39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4868,6 +4987,9 @@
       <c r="AF40" t="n">
         <v>1219</v>
       </c>
+      <c r="AG40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4978,6 +5100,9 @@
       <c r="AF41" t="n">
         <v>1229</v>
       </c>
+      <c r="AG41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5088,6 +5213,9 @@
       <c r="AF42" t="n">
         <v>1249</v>
       </c>
+      <c r="AG42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5198,6 +5326,9 @@
       <c r="AF43" t="n">
         <v>1249</v>
       </c>
+      <c r="AG43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5308,6 +5439,9 @@
       <c r="AF44" t="n">
         <v>1329</v>
       </c>
+      <c r="AG44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5418,6 +5552,9 @@
       <c r="AF45" t="n">
         <v>1329</v>
       </c>
+      <c r="AG45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5528,6 +5665,9 @@
       <c r="AF46" t="n">
         <v>1329</v>
       </c>
+      <c r="AG46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5638,6 +5778,9 @@
       <c r="AF47" t="n">
         <v>1329</v>
       </c>
+      <c r="AG47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5748,6 +5891,9 @@
       <c r="AF48" t="n">
         <v>1329</v>
       </c>
+      <c r="AG48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5858,6 +6004,9 @@
       <c r="AF49" t="n">
         <v>1329</v>
       </c>
+      <c r="AG49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5968,6 +6117,9 @@
       <c r="AF50" t="n">
         <v>1329</v>
       </c>
+      <c r="AG50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6078,6 +6230,9 @@
       <c r="AF51" t="n">
         <v>1349</v>
       </c>
+      <c r="AG51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6188,6 +6343,9 @@
       <c r="AF52" t="n">
         <v>1479</v>
       </c>
+      <c r="AG52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6298,6 +6456,9 @@
       <c r="AF53" t="n">
         <v>1479</v>
       </c>
+      <c r="AG53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6408,6 +6569,9 @@
       <c r="AF54" t="n">
         <v>1479</v>
       </c>
+      <c r="AG54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6518,6 +6682,9 @@
       <c r="AF55" t="n">
         <v>1579</v>
       </c>
+      <c r="AG55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6628,6 +6795,9 @@
       <c r="AF56" t="n">
         <v>1579</v>
       </c>
+      <c r="AG56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6738,6 +6908,9 @@
       <c r="AF57" t="n">
         <v>1579</v>
       </c>
+      <c r="AG57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6848,6 +7021,9 @@
       <c r="AF58" t="n">
         <v>1579</v>
       </c>
+      <c r="AG58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6958,6 +7134,9 @@
       <c r="AF59" t="n">
         <v>1579</v>
       </c>
+      <c r="AG59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7068,6 +7247,9 @@
       <c r="AF60" t="n">
         <v>1579</v>
       </c>
+      <c r="AG60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7178,6 +7360,9 @@
       <c r="AF61" t="n">
         <v>1579</v>
       </c>
+      <c r="AG61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7288,6 +7473,9 @@
       <c r="AF62" t="n">
         <v>1729</v>
       </c>
+      <c r="AG62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7398,6 +7586,9 @@
       <c r="AF63" t="n">
         <v>1729</v>
       </c>
+      <c r="AG63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7508,6 +7699,9 @@
       <c r="AF64" t="n">
         <v>1729</v>
       </c>
+      <c r="AG64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7618,6 +7812,9 @@
       <c r="AF65" t="n">
         <v>1829</v>
       </c>
+      <c r="AG65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7728,6 +7925,9 @@
       <c r="AF66" t="n">
         <v>1829</v>
       </c>
+      <c r="AG66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7838,6 +8038,9 @@
       <c r="AF67" t="n">
         <v>1829</v>
       </c>
+      <c r="AG67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7948,6 +8151,9 @@
       <c r="AF68" t="n">
         <v>1979</v>
       </c>
+      <c r="AG68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8058,6 +8264,9 @@
       <c r="AF69" t="n">
         <v>1979</v>
       </c>
+      <c r="AG69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8168,6 +8377,9 @@
       <c r="AF70" t="n">
         <v>1979</v>
       </c>
+      <c r="AG70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8278,6 +8490,9 @@
       <c r="AF71" t="n">
         <v>2479</v>
       </c>
+      <c r="AG71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8388,6 +8603,9 @@
       <c r="AF72" t="n">
         <v>2479</v>
       </c>
+      <c r="AG72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8496,6 +8714,9 @@
         <v>2479</v>
       </c>
       <c r="AF73" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AG73" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -8592,6 +8813,7 @@
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG74"/>
+  <dimension ref="A1:AH74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,11 @@
           <t>2026-02-17 04:14:59</t>
         </is>
       </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>2026-02-17 05:55:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -700,6 +705,9 @@
       <c r="AG2" t="n">
         <v>659</v>
       </c>
+      <c r="AH2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -813,6 +821,9 @@
       <c r="AG3" t="n">
         <v>659</v>
       </c>
+      <c r="AH3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -926,6 +937,9 @@
       <c r="AG4" t="n">
         <v>749</v>
       </c>
+      <c r="AH4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1039,6 +1053,9 @@
       <c r="AG5" t="n">
         <v>749</v>
       </c>
+      <c r="AH5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1152,6 +1169,9 @@
       <c r="AG6" t="n">
         <v>809</v>
       </c>
+      <c r="AH6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1265,6 +1285,9 @@
       <c r="AG7" t="n">
         <v>809</v>
       </c>
+      <c r="AH7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1378,6 +1401,9 @@
       <c r="AG8" t="n">
         <v>809</v>
       </c>
+      <c r="AH8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1491,6 +1517,9 @@
       <c r="AG9" t="n">
         <v>809</v>
       </c>
+      <c r="AH9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1604,6 +1633,9 @@
       <c r="AG10" t="n">
         <v>809</v>
       </c>
+      <c r="AH10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1717,6 +1749,9 @@
       <c r="AG11" t="n">
         <v>849</v>
       </c>
+      <c r="AH11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1830,6 +1865,9 @@
       <c r="AG12" t="n">
         <v>899</v>
       </c>
+      <c r="AH12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1943,6 +1981,9 @@
       <c r="AG13" t="n">
         <v>899</v>
       </c>
+      <c r="AH13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2056,6 +2097,9 @@
       <c r="AG14" t="n">
         <v>909</v>
       </c>
+      <c r="AH14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2169,6 +2213,9 @@
       <c r="AG15" t="n">
         <v>909</v>
       </c>
+      <c r="AH15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2282,6 +2329,9 @@
       <c r="AG16" t="n">
         <v>909</v>
       </c>
+      <c r="AH16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2395,6 +2445,9 @@
       <c r="AG17" t="n">
         <v>909</v>
       </c>
+      <c r="AH17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2504,6 +2557,9 @@
       <c r="AG18" t="n">
         <v>949</v>
       </c>
+      <c r="AH18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2617,6 +2673,9 @@
       <c r="AG19" t="n">
         <v>969</v>
       </c>
+      <c r="AH19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2730,6 +2789,9 @@
       <c r="AG20" t="n">
         <v>969</v>
       </c>
+      <c r="AH20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2843,6 +2905,9 @@
       <c r="AG21" t="n">
         <v>969</v>
       </c>
+      <c r="AH21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2956,6 +3021,9 @@
       <c r="AG22" t="n">
         <v>969</v>
       </c>
+      <c r="AH22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3069,6 +3137,9 @@
       <c r="AG23" t="n">
         <v>969</v>
       </c>
+      <c r="AH23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3182,6 +3253,9 @@
       <c r="AG24" t="n">
         <v>999</v>
       </c>
+      <c r="AH24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3295,6 +3369,9 @@
       <c r="AG25" t="n">
         <v>999</v>
       </c>
+      <c r="AH25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3408,6 +3485,9 @@
       <c r="AG26" t="n">
         <v>1039</v>
       </c>
+      <c r="AH26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3521,6 +3601,9 @@
       <c r="AG27" t="n">
         <v>1039</v>
       </c>
+      <c r="AH27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3634,6 +3717,9 @@
       <c r="AG28" t="n">
         <v>1079</v>
       </c>
+      <c r="AH28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3747,6 +3833,9 @@
       <c r="AG29" t="n">
         <v>1079</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3860,6 +3949,9 @@
       <c r="AG30" t="n">
         <v>1079</v>
       </c>
+      <c r="AH30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3973,6 +4065,9 @@
       <c r="AG31" t="n">
         <v>1079</v>
       </c>
+      <c r="AH31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4086,6 +4181,9 @@
       <c r="AG32" t="n">
         <v>1099</v>
       </c>
+      <c r="AH32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4199,6 +4297,9 @@
       <c r="AG33" t="n">
         <v>1099</v>
       </c>
+      <c r="AH33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4312,6 +4413,9 @@
       <c r="AG34" t="n">
         <v>1099</v>
       </c>
+      <c r="AH34" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4425,6 +4529,9 @@
       <c r="AG35" t="n">
         <v>1199</v>
       </c>
+      <c r="AH35" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4538,6 +4645,9 @@
       <c r="AG36" t="n">
         <v>1219</v>
       </c>
+      <c r="AH36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4651,6 +4761,9 @@
       <c r="AG37" t="n">
         <v>1219</v>
       </c>
+      <c r="AH37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4764,6 +4877,9 @@
       <c r="AG38" t="n">
         <v>1219</v>
       </c>
+      <c r="AH38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4877,6 +4993,9 @@
       <c r="AG39" t="n">
         <v>1219</v>
       </c>
+      <c r="AH39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4990,6 +5109,9 @@
       <c r="AG40" t="n">
         <v>1219</v>
       </c>
+      <c r="AH40" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5103,6 +5225,9 @@
       <c r="AG41" t="n">
         <v>1229</v>
       </c>
+      <c r="AH41" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5216,6 +5341,9 @@
       <c r="AG42" t="n">
         <v>1249</v>
       </c>
+      <c r="AH42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5329,6 +5457,9 @@
       <c r="AG43" t="n">
         <v>1249</v>
       </c>
+      <c r="AH43" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5442,6 +5573,9 @@
       <c r="AG44" t="n">
         <v>1329</v>
       </c>
+      <c r="AH44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5555,6 +5689,9 @@
       <c r="AG45" t="n">
         <v>1329</v>
       </c>
+      <c r="AH45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5668,6 +5805,9 @@
       <c r="AG46" t="n">
         <v>1329</v>
       </c>
+      <c r="AH46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5781,6 +5921,9 @@
       <c r="AG47" t="n">
         <v>1329</v>
       </c>
+      <c r="AH47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5894,6 +6037,9 @@
       <c r="AG48" t="n">
         <v>1329</v>
       </c>
+      <c r="AH48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6007,6 +6153,9 @@
       <c r="AG49" t="n">
         <v>1329</v>
       </c>
+      <c r="AH49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6120,6 +6269,9 @@
       <c r="AG50" t="n">
         <v>1329</v>
       </c>
+      <c r="AH50" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6233,6 +6385,9 @@
       <c r="AG51" t="n">
         <v>1349</v>
       </c>
+      <c r="AH51" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6346,6 +6501,9 @@
       <c r="AG52" t="n">
         <v>1479</v>
       </c>
+      <c r="AH52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6459,6 +6617,9 @@
       <c r="AG53" t="n">
         <v>1479</v>
       </c>
+      <c r="AH53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6572,6 +6733,9 @@
       <c r="AG54" t="n">
         <v>1479</v>
       </c>
+      <c r="AH54" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6685,6 +6849,9 @@
       <c r="AG55" t="n">
         <v>1579</v>
       </c>
+      <c r="AH55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6798,6 +6965,9 @@
       <c r="AG56" t="n">
         <v>1579</v>
       </c>
+      <c r="AH56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6911,6 +7081,9 @@
       <c r="AG57" t="n">
         <v>1579</v>
       </c>
+      <c r="AH57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7024,6 +7197,9 @@
       <c r="AG58" t="n">
         <v>1579</v>
       </c>
+      <c r="AH58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7137,6 +7313,9 @@
       <c r="AG59" t="n">
         <v>1579</v>
       </c>
+      <c r="AH59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7250,6 +7429,9 @@
       <c r="AG60" t="n">
         <v>1579</v>
       </c>
+      <c r="AH60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7363,6 +7545,9 @@
       <c r="AG61" t="n">
         <v>1579</v>
       </c>
+      <c r="AH61" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7476,6 +7661,9 @@
       <c r="AG62" t="n">
         <v>1729</v>
       </c>
+      <c r="AH62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7495,7 +7683,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -7587,6 +7775,9 @@
         <v>1729</v>
       </c>
       <c r="AG63" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AH63" t="n">
         <v>1729</v>
       </c>
     </row>
@@ -7702,6 +7893,9 @@
       <c r="AG64" t="n">
         <v>1729</v>
       </c>
+      <c r="AH64" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7815,6 +8009,9 @@
       <c r="AG65" t="n">
         <v>1829</v>
       </c>
+      <c r="AH65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7928,6 +8125,9 @@
       <c r="AG66" t="n">
         <v>1829</v>
       </c>
+      <c r="AH66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8041,6 +8241,9 @@
       <c r="AG67" t="n">
         <v>1829</v>
       </c>
+      <c r="AH67" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8154,6 +8357,9 @@
       <c r="AG68" t="n">
         <v>1979</v>
       </c>
+      <c r="AH68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8267,6 +8473,9 @@
       <c r="AG69" t="n">
         <v>1979</v>
       </c>
+      <c r="AH69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8380,6 +8589,9 @@
       <c r="AG70" t="n">
         <v>1979</v>
       </c>
+      <c r="AH70" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8493,6 +8705,9 @@
       <c r="AG71" t="n">
         <v>2479</v>
       </c>
+      <c r="AH71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8606,6 +8821,9 @@
       <c r="AG72" t="n">
         <v>2479</v>
       </c>
+      <c r="AH72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8717,6 +8935,9 @@
         <v>2479</v>
       </c>
       <c r="AG73" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AH73" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -8814,6 +9035,7 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,6 +592,11 @@
           <t>2026-02-17 05:55:16</t>
         </is>
       </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>2026-02-17 06:52:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -708,6 +713,9 @@
       <c r="AH2" t="n">
         <v>659</v>
       </c>
+      <c r="AI2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -824,6 +832,9 @@
       <c r="AH3" t="n">
         <v>659</v>
       </c>
+      <c r="AI3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -940,6 +951,9 @@
       <c r="AH4" t="n">
         <v>749</v>
       </c>
+      <c r="AI4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1056,6 +1070,9 @@
       <c r="AH5" t="n">
         <v>749</v>
       </c>
+      <c r="AI5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1172,6 +1189,9 @@
       <c r="AH6" t="n">
         <v>809</v>
       </c>
+      <c r="AI6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1288,6 +1308,9 @@
       <c r="AH7" t="n">
         <v>809</v>
       </c>
+      <c r="AI7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1404,6 +1427,9 @@
       <c r="AH8" t="n">
         <v>809</v>
       </c>
+      <c r="AI8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1520,6 +1546,9 @@
       <c r="AH9" t="n">
         <v>809</v>
       </c>
+      <c r="AI9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1636,6 +1665,9 @@
       <c r="AH10" t="n">
         <v>809</v>
       </c>
+      <c r="AI10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1752,6 +1784,9 @@
       <c r="AH11" t="n">
         <v>849</v>
       </c>
+      <c r="AI11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1868,6 +1903,9 @@
       <c r="AH12" t="n">
         <v>899</v>
       </c>
+      <c r="AI12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1984,6 +2022,9 @@
       <c r="AH13" t="n">
         <v>899</v>
       </c>
+      <c r="AI13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2100,6 +2141,9 @@
       <c r="AH14" t="n">
         <v>909</v>
       </c>
+      <c r="AI14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2216,6 +2260,9 @@
       <c r="AH15" t="n">
         <v>909</v>
       </c>
+      <c r="AI15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2332,6 +2379,9 @@
       <c r="AH16" t="n">
         <v>909</v>
       </c>
+      <c r="AI16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2448,6 +2498,9 @@
       <c r="AH17" t="n">
         <v>909</v>
       </c>
+      <c r="AI17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2560,6 +2613,9 @@
       <c r="AH18" t="n">
         <v>949</v>
       </c>
+      <c r="AI18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2676,6 +2732,9 @@
       <c r="AH19" t="n">
         <v>969</v>
       </c>
+      <c r="AI19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2792,6 +2851,9 @@
       <c r="AH20" t="n">
         <v>969</v>
       </c>
+      <c r="AI20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2908,6 +2970,9 @@
       <c r="AH21" t="n">
         <v>969</v>
       </c>
+      <c r="AI21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3024,6 +3089,9 @@
       <c r="AH22" t="n">
         <v>969</v>
       </c>
+      <c r="AI22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3140,6 +3208,9 @@
       <c r="AH23" t="n">
         <v>969</v>
       </c>
+      <c r="AI23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3256,6 +3327,9 @@
       <c r="AH24" t="n">
         <v>999</v>
       </c>
+      <c r="AI24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3372,6 +3446,9 @@
       <c r="AH25" t="n">
         <v>999</v>
       </c>
+      <c r="AI25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3488,16 +3565,19 @@
       <c r="AH26" t="n">
         <v>1039</v>
       </c>
+      <c r="AI26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00642639</t>
+          <t>PB00702797</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Noir</t>
+          <t>Apple iPhone Air 256 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3507,14 +3587,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3523,97 +3603,100 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="J27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="K27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="L27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="M27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="N27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="O27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="P27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Q27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="R27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="S27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="T27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="U27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="V27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="W27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="X27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Y27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Z27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AA27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AB27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AC27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AD27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AE27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AF27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AG27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AH27" t="n">
-        <v>1039</v>
+        <v>1079</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1079</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00702797</t>
+          <t>PB00702807</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Blanc nuage</t>
+          <t>Apple iPhone Air 256 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3639,7 +3722,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -3718,18 +3801,21 @@
         <v>1079</v>
       </c>
       <c r="AH28" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AI28" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PB00702807</t>
+          <t>PB00702792</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Bleu ciel</t>
+          <t>Apple iPhone Air 256 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3739,7 +3825,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -3755,7 +3841,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -3834,18 +3920,21 @@
         <v>1079</v>
       </c>
       <c r="AH29" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AI29" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00702792</t>
+          <t>PB00702801</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Noir sidéral</t>
+          <t>Apple iPhone Air 256 Go Or clair</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3855,7 +3944,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -3871,7 +3960,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -3950,18 +4039,21 @@
         <v>1079</v>
       </c>
       <c r="AH30" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AI30" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00702801</t>
+          <t>PB00570868</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Or clair</t>
+          <t>Apple iPhone 15 512 Go Jaune</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3971,14 +4063,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -3987,97 +4079,100 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="J31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="K31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="L31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="M31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="N31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="O31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="P31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Q31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="R31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="S31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="T31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="U31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="V31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="W31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="X31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Y31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Z31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AA31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AB31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AC31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AD31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AE31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AF31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AG31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AH31" t="n">
-        <v>1079</v>
+        <v>1099</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00570868</t>
+          <t>PB00570867</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Jaune</t>
+          <t>Apple iPhone 15 512 Go Rose</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4103,7 +4198,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -4182,18 +4277,21 @@
         <v>1099</v>
       </c>
       <c r="AH32" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AI32" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00570867</t>
+          <t>PB00570870</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Rose</t>
+          <t>Apple iPhone 15 512 Go Vert</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4219,7 +4317,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -4298,18 +4396,21 @@
         <v>1099</v>
       </c>
       <c r="AH33" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AI33" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00570870</t>
+          <t>PB00516186</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Vert</t>
+          <t>Apple iPhone 14 Pro 1 To Or</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4326,7 +4427,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4335,97 +4436,100 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="J34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="K34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="L34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="M34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="N34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="O34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="P34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Q34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="R34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="S34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="T34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="U34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="V34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="W34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="X34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Z34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AA34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AB34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AC34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AD34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AE34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AF34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AG34" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AH34" t="n">
-        <v>1099</v>
+        <v>1199</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00516186</t>
+          <t>PB00702815</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro 1 To Or</t>
+          <t>Apple iPhone 17 512 Go Blanc</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4435,14 +4539,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4451,97 +4555,100 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="J35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="K35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="L35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="M35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="N35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="O35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="P35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Q35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="R35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="S35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="T35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="U35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="V35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="W35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="X35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Y35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Z35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AA35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AB35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AC35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AD35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AE35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AF35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AG35" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AH35" t="n">
-        <v>1199</v>
+        <v>1219</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00702815</t>
+          <t>PB00702816</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Blanc</t>
+          <t>Apple iPhone 17 512 Go Brume</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4551,7 +4658,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -4567,7 +4674,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -4646,18 +4753,21 @@
         <v>1219</v>
       </c>
       <c r="AH36" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AI36" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00702816</t>
+          <t>PB00702817</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Brume</t>
+          <t>Apple iPhone 17 512 Go Lavande</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4667,7 +4777,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -4683,7 +4793,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -4762,18 +4872,21 @@
         <v>1219</v>
       </c>
       <c r="AH37" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AI37" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00702817</t>
+          <t>PB00702813</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Lavande</t>
+          <t>Apple iPhone 17 512 Go Noir</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4799,7 +4912,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -4878,18 +4991,21 @@
         <v>1219</v>
       </c>
       <c r="AH38" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AI38" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00702813</t>
+          <t>PB00702818</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Noir</t>
+          <t>Apple iPhone 17 512 Go Sauge</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4899,7 +5015,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -4915,7 +5031,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -4994,18 +5110,21 @@
         <v>1219</v>
       </c>
       <c r="AH39" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AI39" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00702818</t>
+          <t>PB00570890</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Sauge</t>
+          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5022,7 +5141,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -5031,97 +5150,100 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="J40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="K40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="L40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="M40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="N40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="O40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="P40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="R40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="S40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="T40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="U40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="V40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="W40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="X40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Y40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Z40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AA40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AB40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AC40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AD40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AE40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AF40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AG40" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AH40" t="n">
-        <v>1219</v>
+        <v>1229</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00570890</t>
+          <t>PB00642649</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
+          <t>Apple iPhone 16 512 Go Blanc</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5138,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -5147,97 +5269,100 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="J41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="K41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="L41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="M41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="N41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="O41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="P41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Q41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="R41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="S41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="T41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="U41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="V41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="W41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="X41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Y41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Z41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AA41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AB41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AC41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AD41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AE41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AF41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AG41" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AH41" t="n">
-        <v>1229</v>
+        <v>1249</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00642649</t>
+          <t>PB00642648</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Blanc</t>
+          <t>Apple iPhone 16 512 Go Rose</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5263,7 +5388,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -5342,18 +5467,21 @@
         <v>1249</v>
       </c>
       <c r="AH42" t="n">
+        <v>1249</v>
+      </c>
+      <c r="AI42" t="n">
         <v>1249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00642648</t>
+          <t>PB00702819</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Rose</t>
+          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5370,7 +5498,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5379,97 +5507,100 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="J43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="K43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="L43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="M43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="N43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="O43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="P43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Q43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="R43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="S43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="T43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="U43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="V43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="W43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="X43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Y43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Z43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AA43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AB43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AC43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AD43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AE43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AF43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AG43" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AH43" t="n">
-        <v>1249</v>
+        <v>1329</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00702819</t>
+          <t>PB00702822</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5495,7 +5626,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -5574,18 +5705,21 @@
         <v>1329</v>
       </c>
       <c r="AH44" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AI44" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00702822</t>
+          <t>PB00702820</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5611,7 +5745,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -5690,18 +5824,21 @@
         <v>1329</v>
       </c>
       <c r="AH45" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AI45" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00702820</t>
+          <t>PB00702798</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 512 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5718,7 +5855,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5727,7 +5864,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -5806,18 +5943,21 @@
         <v>1329</v>
       </c>
       <c r="AH46" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AI46" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00702798</t>
+          <t>PB00702810</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Blanc nuage</t>
+          <t>Apple iPhone Air 512 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5843,7 +5983,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -5922,18 +6062,21 @@
         <v>1329</v>
       </c>
       <c r="AH47" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AI47" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00702810</t>
+          <t>PB00702793</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Bleu ciel</t>
+          <t>Apple iPhone Air 512 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5959,7 +6102,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -6038,18 +6181,21 @@
         <v>1329</v>
       </c>
       <c r="AH48" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AI48" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00702793</t>
+          <t>PB00702802</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Noir sidéral</t>
+          <t>Apple iPhone Air 512 Go Or clair</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6075,7 +6221,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -6154,18 +6300,21 @@
         <v>1329</v>
       </c>
       <c r="AH49" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AI49" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00702802</t>
+          <t>PB00642633</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Or clair</t>
+          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6182,7 +6331,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -6191,97 +6340,100 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="J50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="K50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="L50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="M50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="N50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="O50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="P50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Q50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="R50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="S50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="T50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="U50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="V50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="W50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="X50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Y50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Z50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AA50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AB50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AC50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AD50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AE50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AF50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AG50" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AH50" t="n">
-        <v>1329</v>
+        <v>1349</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00642633</t>
+          <t>PB00702830</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6291,14 +6443,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -6307,97 +6459,100 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="J51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="K51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="L51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="M51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="N51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="O51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="P51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Q51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="R51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="S51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="T51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="U51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="V51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="W51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="X51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Y51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Z51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AA51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AB51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AC51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AD51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AE51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AF51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AG51" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AH51" t="n">
-        <v>1349</v>
+        <v>1479</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00702830</t>
+          <t>PB00702832</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6407,7 +6562,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -6423,7 +6578,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -6502,18 +6657,21 @@
         <v>1479</v>
       </c>
       <c r="AH52" t="n">
+        <v>1479</v>
+      </c>
+      <c r="AI52" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00702832</t>
+          <t>PB00702831</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6523,7 +6681,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -6539,7 +6697,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -6618,18 +6776,21 @@
         <v>1479</v>
       </c>
       <c r="AH53" t="n">
+        <v>1479</v>
+      </c>
+      <c r="AI53" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00702831</t>
+          <t>PB00702823</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6655,97 +6816,100 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="J54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="K54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="L54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="M54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="N54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="O54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="P54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Q54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="R54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="S54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="T54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="U54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="V54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="W54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="X54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Y54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Z54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AA54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AB54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AC54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AD54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AE54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AF54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AG54" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AH54" t="n">
-        <v>1479</v>
+        <v>1579</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00702823</t>
+          <t>PB00702825</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6771,7 +6935,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -6850,18 +7014,21 @@
         <v>1579</v>
       </c>
       <c r="AH55" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AI55" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00702825</t>
+          <t>PB00702824</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6871,7 +7038,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -6887,7 +7054,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -6966,18 +7133,21 @@
         <v>1579</v>
       </c>
       <c r="AH56" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AI56" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00702824</t>
+          <t>PB00702799</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 1 To Blanc nuage</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6994,7 +7164,7 @@
         <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -7003,7 +7173,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -7082,18 +7252,21 @@
         <v>1579</v>
       </c>
       <c r="AH57" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AI57" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00702799</t>
+          <t>PB00702812</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Blanc nuage</t>
+          <t>Apple iPhone Air 1 To Bleu ciel</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7119,7 +7292,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -7198,18 +7371,21 @@
         <v>1579</v>
       </c>
       <c r="AH58" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AI58" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00702812</t>
+          <t>PB00702794</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Bleu ciel</t>
+          <t>Apple iPhone Air 1 To Noir sidéral</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7219,7 +7395,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -7235,7 +7411,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -7314,18 +7490,21 @@
         <v>1579</v>
       </c>
       <c r="AH59" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AI59" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00702794</t>
+          <t>PB00702805</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Noir sidéral</t>
+          <t>Apple iPhone Air 1 To Or clair</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7335,7 +7514,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -7351,7 +7530,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -7430,18 +7609,21 @@
         <v>1579</v>
       </c>
       <c r="AH60" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AI60" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00702805</t>
+          <t>PB00702833</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Or clair</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7451,14 +7633,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -7467,97 +7649,100 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="J61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="K61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="L61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="M61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="N61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="O61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="P61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Q61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="R61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="S61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="T61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="U61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="V61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="W61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="X61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Y61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Z61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AA61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AB61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AC61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AD61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AE61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AF61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AG61" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AH61" t="n">
-        <v>1579</v>
+        <v>1729</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1729</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00702833</t>
+          <t>PB00702835</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7567,7 +7752,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -7583,7 +7768,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -7662,18 +7847,21 @@
         <v>1729</v>
       </c>
       <c r="AH62" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AI62" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00702835</t>
+          <t>PB00702834</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7683,7 +7871,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -7699,7 +7887,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -7778,18 +7966,21 @@
         <v>1729</v>
       </c>
       <c r="AH63" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AI63" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00702834</t>
+          <t>PB00702826</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 1 To Argent</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7815,97 +8006,100 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="J64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="K64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="L64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="M64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="N64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="O64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="P64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Q64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="R64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="S64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="T64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="U64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="V64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="W64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="X64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Y64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Z64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AA64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AB64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AC64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AD64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AE64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AF64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AG64" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AH64" t="n">
-        <v>1729</v>
+        <v>1829</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00702826</t>
+          <t>PB00702828</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Argent</t>
+          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7931,7 +8125,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -8010,18 +8204,21 @@
         <v>1829</v>
       </c>
       <c r="AH65" t="n">
+        <v>1829</v>
+      </c>
+      <c r="AI65" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00702828</t>
+          <t>PB00702827</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8047,7 +8244,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -8126,18 +8323,21 @@
         <v>1829</v>
       </c>
       <c r="AH66" t="n">
+        <v>1829</v>
+      </c>
+      <c r="AI66" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00702827</t>
+          <t>PB00702836</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8163,97 +8363,100 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="J67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="K67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="L67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="M67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="N67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="O67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="P67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Q67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="R67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="S67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="T67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="U67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="V67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="W67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="X67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Y67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Z67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AA67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AB67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AC67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AD67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AE67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AF67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AG67" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AH67" t="n">
-        <v>1829</v>
+        <v>1979</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1979</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00702836</t>
+          <t>PB00702838</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8279,7 +8482,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -8358,18 +8561,21 @@
         <v>1979</v>
       </c>
       <c r="AH68" t="n">
+        <v>1979</v>
+      </c>
+      <c r="AI68" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00702838</t>
+          <t>PB00702837</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8395,7 +8601,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -8474,18 +8680,21 @@
         <v>1979</v>
       </c>
       <c r="AH69" t="n">
+        <v>1979</v>
+      </c>
+      <c r="AI69" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00702837</t>
+          <t>PB00702839</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8511,97 +8720,100 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="J70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="K70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="L70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="M70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="N70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="O70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="P70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Q70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="R70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="S70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="T70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="U70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="V70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="W70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="X70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Y70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Z70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AA70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AB70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AC70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AD70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AE70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AF70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AG70" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AH70" t="n">
-        <v>1979</v>
+        <v>2479</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00702839</t>
+          <t>PB00702841</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
+          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8627,7 +8839,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -8706,18 +8918,21 @@
         <v>2479</v>
       </c>
       <c r="AH71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AI71" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00702841</t>
+          <t>PB00702840</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8743,7 +8958,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -8822,18 +9037,21 @@
         <v>2479</v>
       </c>
       <c r="AH72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AI72" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00702840</t>
+          <t>PB00642639</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
+          <t>Apple iPhone 16 Plus 256 Go Noir</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8843,14 +9061,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -8859,87 +9077,88 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="J73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="K73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="L73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="M73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="N73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="O73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="P73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="Q73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="R73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="S73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="T73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="U73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="V73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="W73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="X73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="Y73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="Z73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="AA73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="AB73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="AC73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="AD73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="AE73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="AF73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="AG73" t="n">
-        <v>2479</v>
+        <v>1039</v>
       </c>
       <c r="AH73" t="n">
-        <v>2479</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="AI73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9036,6 +9255,7 @@
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI74"/>
+  <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,11 @@
           <t>2026-02-17 06:52:50</t>
         </is>
       </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>2026-02-17 07:46:56</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -716,6 +721,9 @@
       <c r="AI2" t="n">
         <v>659</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -835,6 +843,9 @@
       <c r="AI3" t="n">
         <v>659</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -954,6 +965,9 @@
       <c r="AI4" t="n">
         <v>749</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1073,6 +1087,9 @@
       <c r="AI5" t="n">
         <v>749</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1192,6 +1209,9 @@
       <c r="AI6" t="n">
         <v>809</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1311,6 +1331,9 @@
       <c r="AI7" t="n">
         <v>809</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1430,6 +1453,9 @@
       <c r="AI8" t="n">
         <v>809</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1549,6 +1575,9 @@
       <c r="AI9" t="n">
         <v>809</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1668,6 +1697,9 @@
       <c r="AI10" t="n">
         <v>809</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1787,6 +1819,9 @@
       <c r="AI11" t="n">
         <v>849</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1906,6 +1941,9 @@
       <c r="AI12" t="n">
         <v>899</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2025,6 +2063,9 @@
       <c r="AI13" t="n">
         <v>899</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2144,6 +2185,9 @@
       <c r="AI14" t="n">
         <v>909</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2263,6 +2307,9 @@
       <c r="AI15" t="n">
         <v>909</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2382,6 +2429,9 @@
       <c r="AI16" t="n">
         <v>909</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2501,6 +2551,9 @@
       <c r="AI17" t="n">
         <v>909</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2616,6 +2669,9 @@
       <c r="AI18" t="n">
         <v>949</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2735,6 +2791,9 @@
       <c r="AI19" t="n">
         <v>969</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2854,6 +2913,9 @@
       <c r="AI20" t="n">
         <v>969</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2973,6 +3035,9 @@
       <c r="AI21" t="n">
         <v>969</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3092,6 +3157,9 @@
       <c r="AI22" t="n">
         <v>969</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3211,6 +3279,9 @@
       <c r="AI23" t="n">
         <v>969</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3330,6 +3401,9 @@
       <c r="AI24" t="n">
         <v>999</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3449,6 +3523,9 @@
       <c r="AI25" t="n">
         <v>999</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3568,6 +3645,9 @@
       <c r="AI26" t="n">
         <v>1039</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3687,6 +3767,9 @@
       <c r="AI27" t="n">
         <v>1079</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3806,6 +3889,9 @@
       <c r="AI28" t="n">
         <v>1079</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3925,6 +4011,9 @@
       <c r="AI29" t="n">
         <v>1079</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4044,6 +4133,9 @@
       <c r="AI30" t="n">
         <v>1079</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4163,6 +4255,9 @@
       <c r="AI31" t="n">
         <v>1099</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4282,6 +4377,9 @@
       <c r="AI32" t="n">
         <v>1099</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4401,6 +4499,9 @@
       <c r="AI33" t="n">
         <v>1099</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4520,6 +4621,9 @@
       <c r="AI34" t="n">
         <v>1199</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4639,6 +4743,9 @@
       <c r="AI35" t="n">
         <v>1219</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4758,6 +4865,9 @@
       <c r="AI36" t="n">
         <v>1219</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4877,6 +4987,9 @@
       <c r="AI37" t="n">
         <v>1219</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4996,6 +5109,9 @@
       <c r="AI38" t="n">
         <v>1219</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5115,6 +5231,9 @@
       <c r="AI39" t="n">
         <v>1219</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5234,6 +5353,9 @@
       <c r="AI40" t="n">
         <v>1229</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5353,6 +5475,9 @@
       <c r="AI41" t="n">
         <v>1249</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5472,6 +5597,9 @@
       <c r="AI42" t="n">
         <v>1249</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5591,6 +5719,9 @@
       <c r="AI43" t="n">
         <v>1329</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5710,6 +5841,9 @@
       <c r="AI44" t="n">
         <v>1329</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5829,6 +5963,9 @@
       <c r="AI45" t="n">
         <v>1329</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5948,6 +6085,9 @@
       <c r="AI46" t="n">
         <v>1329</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6067,6 +6207,9 @@
       <c r="AI47" t="n">
         <v>1329</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6186,6 +6329,9 @@
       <c r="AI48" t="n">
         <v>1329</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6305,6 +6451,9 @@
       <c r="AI49" t="n">
         <v>1329</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6424,6 +6573,9 @@
       <c r="AI50" t="n">
         <v>1349</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6543,6 +6695,9 @@
       <c r="AI51" t="n">
         <v>1479</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6662,6 +6817,9 @@
       <c r="AI52" t="n">
         <v>1479</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6781,6 +6939,9 @@
       <c r="AI53" t="n">
         <v>1479</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6900,6 +7061,9 @@
       <c r="AI54" t="n">
         <v>1579</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7019,6 +7183,9 @@
       <c r="AI55" t="n">
         <v>1579</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7138,6 +7305,9 @@
       <c r="AI56" t="n">
         <v>1579</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7257,6 +7427,9 @@
       <c r="AI57" t="n">
         <v>1579</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7376,6 +7549,9 @@
       <c r="AI58" t="n">
         <v>1579</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7495,6 +7671,9 @@
       <c r="AI59" t="n">
         <v>1579</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7614,6 +7793,9 @@
       <c r="AI60" t="n">
         <v>1579</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7733,6 +7915,9 @@
       <c r="AI61" t="n">
         <v>1729</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7852,6 +8037,9 @@
       <c r="AI62" t="n">
         <v>1729</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7971,6 +8159,9 @@
       <c r="AI63" t="n">
         <v>1729</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8090,6 +8281,9 @@
       <c r="AI64" t="n">
         <v>1829</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8209,6 +8403,9 @@
       <c r="AI65" t="n">
         <v>1829</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8328,6 +8525,9 @@
       <c r="AI66" t="n">
         <v>1829</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8447,6 +8647,9 @@
       <c r="AI67" t="n">
         <v>1979</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8566,6 +8769,9 @@
       <c r="AI68" t="n">
         <v>1979</v>
       </c>
+      <c r="AJ68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8685,6 +8891,9 @@
       <c r="AI69" t="n">
         <v>1979</v>
       </c>
+      <c r="AJ69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8804,6 +9013,9 @@
       <c r="AI70" t="n">
         <v>2479</v>
       </c>
+      <c r="AJ70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8923,6 +9135,9 @@
       <c r="AI71" t="n">
         <v>2479</v>
       </c>
+      <c r="AJ71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9042,6 +9257,9 @@
       <c r="AI72" t="n">
         <v>2479</v>
       </c>
+      <c r="AJ72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9159,6 +9377,7 @@
         <v>1039</v>
       </c>
       <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9256,6 +9475,7 @@
       <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ74"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,11 @@
           <t>2026-02-17 07:46:56</t>
         </is>
       </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2026-02-17 09:43:07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -724,6 +729,9 @@
       <c r="AJ2" t="n">
         <v>659</v>
       </c>
+      <c r="AK2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -846,6 +854,9 @@
       <c r="AJ3" t="n">
         <v>659</v>
       </c>
+      <c r="AK3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -968,6 +979,9 @@
       <c r="AJ4" t="n">
         <v>749</v>
       </c>
+      <c r="AK4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1090,6 +1104,9 @@
       <c r="AJ5" t="n">
         <v>749</v>
       </c>
+      <c r="AK5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1212,6 +1229,9 @@
       <c r="AJ6" t="n">
         <v>809</v>
       </c>
+      <c r="AK6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1334,6 +1354,9 @@
       <c r="AJ7" t="n">
         <v>809</v>
       </c>
+      <c r="AK7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1456,6 +1479,9 @@
       <c r="AJ8" t="n">
         <v>809</v>
       </c>
+      <c r="AK8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1578,6 +1604,9 @@
       <c r="AJ9" t="n">
         <v>809</v>
       </c>
+      <c r="AK9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1700,6 +1729,9 @@
       <c r="AJ10" t="n">
         <v>809</v>
       </c>
+      <c r="AK10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1822,6 +1854,9 @@
       <c r="AJ11" t="n">
         <v>849</v>
       </c>
+      <c r="AK11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1944,6 +1979,9 @@
       <c r="AJ12" t="n">
         <v>899</v>
       </c>
+      <c r="AK12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2066,6 +2104,9 @@
       <c r="AJ13" t="n">
         <v>899</v>
       </c>
+      <c r="AK13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2188,6 +2229,9 @@
       <c r="AJ14" t="n">
         <v>909</v>
       </c>
+      <c r="AK14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2310,6 +2354,9 @@
       <c r="AJ15" t="n">
         <v>909</v>
       </c>
+      <c r="AK15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2432,6 +2479,9 @@
       <c r="AJ16" t="n">
         <v>909</v>
       </c>
+      <c r="AK16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2554,6 +2604,9 @@
       <c r="AJ17" t="n">
         <v>909</v>
       </c>
+      <c r="AK17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2672,6 +2725,9 @@
       <c r="AJ18" t="n">
         <v>949</v>
       </c>
+      <c r="AK18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2794,6 +2850,9 @@
       <c r="AJ19" t="n">
         <v>969</v>
       </c>
+      <c r="AK19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2916,6 +2975,9 @@
       <c r="AJ20" t="n">
         <v>969</v>
       </c>
+      <c r="AK20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3038,6 +3100,9 @@
       <c r="AJ21" t="n">
         <v>969</v>
       </c>
+      <c r="AK21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3160,6 +3225,9 @@
       <c r="AJ22" t="n">
         <v>969</v>
       </c>
+      <c r="AK22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3282,6 +3350,9 @@
       <c r="AJ23" t="n">
         <v>969</v>
       </c>
+      <c r="AK23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3404,6 +3475,9 @@
       <c r="AJ24" t="n">
         <v>999</v>
       </c>
+      <c r="AK24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3526,6 +3600,9 @@
       <c r="AJ25" t="n">
         <v>999</v>
       </c>
+      <c r="AK25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3648,6 +3725,9 @@
       <c r="AJ26" t="n">
         <v>1039</v>
       </c>
+      <c r="AK26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3770,6 +3850,9 @@
       <c r="AJ27" t="n">
         <v>1079</v>
       </c>
+      <c r="AK27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3892,6 +3975,9 @@
       <c r="AJ28" t="n">
         <v>1079</v>
       </c>
+      <c r="AK28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4014,6 +4100,9 @@
       <c r="AJ29" t="n">
         <v>1079</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4136,6 +4225,9 @@
       <c r="AJ30" t="n">
         <v>1079</v>
       </c>
+      <c r="AK30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4258,6 +4350,9 @@
       <c r="AJ31" t="n">
         <v>1099</v>
       </c>
+      <c r="AK31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4380,6 +4475,9 @@
       <c r="AJ32" t="n">
         <v>1099</v>
       </c>
+      <c r="AK32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4502,6 +4600,9 @@
       <c r="AJ33" t="n">
         <v>1099</v>
       </c>
+      <c r="AK33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4624,6 +4725,9 @@
       <c r="AJ34" t="n">
         <v>1199</v>
       </c>
+      <c r="AK34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4746,6 +4850,9 @@
       <c r="AJ35" t="n">
         <v>1219</v>
       </c>
+      <c r="AK35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4868,6 +4975,9 @@
       <c r="AJ36" t="n">
         <v>1219</v>
       </c>
+      <c r="AK36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4990,6 +5100,9 @@
       <c r="AJ37" t="n">
         <v>1219</v>
       </c>
+      <c r="AK37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5112,6 +5225,9 @@
       <c r="AJ38" t="n">
         <v>1219</v>
       </c>
+      <c r="AK38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5234,6 +5350,9 @@
       <c r="AJ39" t="n">
         <v>1219</v>
       </c>
+      <c r="AK39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5356,6 +5475,9 @@
       <c r="AJ40" t="n">
         <v>1229</v>
       </c>
+      <c r="AK40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5478,6 +5600,9 @@
       <c r="AJ41" t="n">
         <v>1249</v>
       </c>
+      <c r="AK41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5600,6 +5725,9 @@
       <c r="AJ42" t="n">
         <v>1249</v>
       </c>
+      <c r="AK42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5722,6 +5850,9 @@
       <c r="AJ43" t="n">
         <v>1329</v>
       </c>
+      <c r="AK43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5844,6 +5975,9 @@
       <c r="AJ44" t="n">
         <v>1329</v>
       </c>
+      <c r="AK44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5966,6 +6100,9 @@
       <c r="AJ45" t="n">
         <v>1329</v>
       </c>
+      <c r="AK45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6088,6 +6225,9 @@
       <c r="AJ46" t="n">
         <v>1329</v>
       </c>
+      <c r="AK46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6210,6 +6350,9 @@
       <c r="AJ47" t="n">
         <v>1329</v>
       </c>
+      <c r="AK47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6332,6 +6475,9 @@
       <c r="AJ48" t="n">
         <v>1329</v>
       </c>
+      <c r="AK48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6454,6 +6600,9 @@
       <c r="AJ49" t="n">
         <v>1329</v>
       </c>
+      <c r="AK49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6576,6 +6725,9 @@
       <c r="AJ50" t="n">
         <v>1349</v>
       </c>
+      <c r="AK50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6698,6 +6850,9 @@
       <c r="AJ51" t="n">
         <v>1479</v>
       </c>
+      <c r="AK51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6820,6 +6975,9 @@
       <c r="AJ52" t="n">
         <v>1479</v>
       </c>
+      <c r="AK52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6942,6 +7100,9 @@
       <c r="AJ53" t="n">
         <v>1479</v>
       </c>
+      <c r="AK53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7064,6 +7225,9 @@
       <c r="AJ54" t="n">
         <v>1579</v>
       </c>
+      <c r="AK54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7186,6 +7350,9 @@
       <c r="AJ55" t="n">
         <v>1579</v>
       </c>
+      <c r="AK55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7308,6 +7475,9 @@
       <c r="AJ56" t="n">
         <v>1579</v>
       </c>
+      <c r="AK56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7430,6 +7600,9 @@
       <c r="AJ57" t="n">
         <v>1579</v>
       </c>
+      <c r="AK57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7552,6 +7725,9 @@
       <c r="AJ58" t="n">
         <v>1579</v>
       </c>
+      <c r="AK58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7674,6 +7850,9 @@
       <c r="AJ59" t="n">
         <v>1579</v>
       </c>
+      <c r="AK59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7796,6 +7975,9 @@
       <c r="AJ60" t="n">
         <v>1579</v>
       </c>
+      <c r="AK60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7918,6 +8100,9 @@
       <c r="AJ61" t="n">
         <v>1729</v>
       </c>
+      <c r="AK61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7937,7 +8122,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -8038,6 +8223,9 @@
         <v>1729</v>
       </c>
       <c r="AJ62" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AK62" t="n">
         <v>1729</v>
       </c>
     </row>
@@ -8162,6 +8350,9 @@
       <c r="AJ63" t="n">
         <v>1729</v>
       </c>
+      <c r="AK63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8284,6 +8475,9 @@
       <c r="AJ64" t="n">
         <v>1829</v>
       </c>
+      <c r="AK64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8406,6 +8600,9 @@
       <c r="AJ65" t="n">
         <v>1829</v>
       </c>
+      <c r="AK65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8528,6 +8725,9 @@
       <c r="AJ66" t="n">
         <v>1829</v>
       </c>
+      <c r="AK66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8650,6 +8850,9 @@
       <c r="AJ67" t="n">
         <v>1979</v>
       </c>
+      <c r="AK67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8772,6 +8975,9 @@
       <c r="AJ68" t="n">
         <v>1979</v>
       </c>
+      <c r="AK68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8894,6 +9100,9 @@
       <c r="AJ69" t="n">
         <v>1979</v>
       </c>
+      <c r="AK69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9016,6 +9225,9 @@
       <c r="AJ70" t="n">
         <v>2479</v>
       </c>
+      <c r="AK70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9138,6 +9350,9 @@
       <c r="AJ71" t="n">
         <v>2479</v>
       </c>
+      <c r="AK71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9260,6 +9475,9 @@
       <c r="AJ72" t="n">
         <v>2479</v>
       </c>
+      <c r="AK72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9378,6 +9596,7 @@
       </c>
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9476,6 +9695,7 @@
       <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AL74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +607,11 @@
           <t>2026-02-17 09:43:07</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2026-02-17 10:40:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AK2" t="n">
         <v>659</v>
       </c>
+      <c r="AL2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -857,6 +865,9 @@
       <c r="AK3" t="n">
         <v>659</v>
       </c>
+      <c r="AL3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -982,6 +993,9 @@
       <c r="AK4" t="n">
         <v>749</v>
       </c>
+      <c r="AL4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1107,6 +1121,9 @@
       <c r="AK5" t="n">
         <v>749</v>
       </c>
+      <c r="AL5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1232,6 +1249,9 @@
       <c r="AK6" t="n">
         <v>809</v>
       </c>
+      <c r="AL6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1357,6 +1377,9 @@
       <c r="AK7" t="n">
         <v>809</v>
       </c>
+      <c r="AL7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1482,6 +1505,9 @@
       <c r="AK8" t="n">
         <v>809</v>
       </c>
+      <c r="AL8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1607,6 +1633,9 @@
       <c r="AK9" t="n">
         <v>809</v>
       </c>
+      <c r="AL9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1732,6 +1761,9 @@
       <c r="AK10" t="n">
         <v>809</v>
       </c>
+      <c r="AL10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1857,6 +1889,9 @@
       <c r="AK11" t="n">
         <v>849</v>
       </c>
+      <c r="AL11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1982,6 +2017,9 @@
       <c r="AK12" t="n">
         <v>899</v>
       </c>
+      <c r="AL12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2107,6 +2145,9 @@
       <c r="AK13" t="n">
         <v>899</v>
       </c>
+      <c r="AL13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2232,6 +2273,9 @@
       <c r="AK14" t="n">
         <v>909</v>
       </c>
+      <c r="AL14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2357,6 +2401,9 @@
       <c r="AK15" t="n">
         <v>909</v>
       </c>
+      <c r="AL15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2482,6 +2529,9 @@
       <c r="AK16" t="n">
         <v>909</v>
       </c>
+      <c r="AL16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2607,6 +2657,9 @@
       <c r="AK17" t="n">
         <v>909</v>
       </c>
+      <c r="AL17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2728,6 +2781,9 @@
       <c r="AK18" t="n">
         <v>949</v>
       </c>
+      <c r="AL18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2747,7 +2803,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (18/02/2026)</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2851,6 +2907,9 @@
         <v>969</v>
       </c>
       <c r="AK19" t="n">
+        <v>969</v>
+      </c>
+      <c r="AL19" t="n">
         <v>969</v>
       </c>
     </row>
@@ -2978,6 +3037,9 @@
       <c r="AK20" t="n">
         <v>969</v>
       </c>
+      <c r="AL20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3103,6 +3165,9 @@
       <c r="AK21" t="n">
         <v>969</v>
       </c>
+      <c r="AL21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3228,6 +3293,9 @@
       <c r="AK22" t="n">
         <v>969</v>
       </c>
+      <c r="AL22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3353,6 +3421,9 @@
       <c r="AK23" t="n">
         <v>969</v>
       </c>
+      <c r="AL23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3478,6 +3549,9 @@
       <c r="AK24" t="n">
         <v>999</v>
       </c>
+      <c r="AL24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3603,6 +3677,9 @@
       <c r="AK25" t="n">
         <v>999</v>
       </c>
+      <c r="AL25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3728,6 +3805,9 @@
       <c r="AK26" t="n">
         <v>1039</v>
       </c>
+      <c r="AL26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3853,6 +3933,9 @@
       <c r="AK27" t="n">
         <v>1079</v>
       </c>
+      <c r="AL27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3978,6 +4061,9 @@
       <c r="AK28" t="n">
         <v>1079</v>
       </c>
+      <c r="AL28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4103,6 +4189,9 @@
       <c r="AK29" t="n">
         <v>1079</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4122,7 +4211,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -4226,6 +4315,9 @@
         <v>1079</v>
       </c>
       <c r="AK30" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AL30" t="n">
         <v>1079</v>
       </c>
     </row>
@@ -4353,6 +4445,9 @@
       <c r="AK31" t="n">
         <v>1099</v>
       </c>
+      <c r="AL31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4478,6 +4573,9 @@
       <c r="AK32" t="n">
         <v>1099</v>
       </c>
+      <c r="AL32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4603,6 +4701,9 @@
       <c r="AK33" t="n">
         <v>1099</v>
       </c>
+      <c r="AL33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4728,6 +4829,9 @@
       <c r="AK34" t="n">
         <v>1199</v>
       </c>
+      <c r="AL34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4853,6 +4957,9 @@
       <c r="AK35" t="n">
         <v>1219</v>
       </c>
+      <c r="AL35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4978,6 +5085,9 @@
       <c r="AK36" t="n">
         <v>1219</v>
       </c>
+      <c r="AL36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5103,6 +5213,9 @@
       <c r="AK37" t="n">
         <v>1219</v>
       </c>
+      <c r="AL37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5228,6 +5341,9 @@
       <c r="AK38" t="n">
         <v>1219</v>
       </c>
+      <c r="AL38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5353,6 +5469,9 @@
       <c r="AK39" t="n">
         <v>1219</v>
       </c>
+      <c r="AL39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5478,6 +5597,9 @@
       <c r="AK40" t="n">
         <v>1229</v>
       </c>
+      <c r="AL40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5603,6 +5725,9 @@
       <c r="AK41" t="n">
         <v>1249</v>
       </c>
+      <c r="AL41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5728,6 +5853,9 @@
       <c r="AK42" t="n">
         <v>1249</v>
       </c>
+      <c r="AL42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5853,6 +5981,9 @@
       <c r="AK43" t="n">
         <v>1329</v>
       </c>
+      <c r="AL43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5978,6 +6109,9 @@
       <c r="AK44" t="n">
         <v>1329</v>
       </c>
+      <c r="AL44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6103,6 +6237,9 @@
       <c r="AK45" t="n">
         <v>1329</v>
       </c>
+      <c r="AL45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6228,6 +6365,9 @@
       <c r="AK46" t="n">
         <v>1329</v>
       </c>
+      <c r="AL46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6353,6 +6493,9 @@
       <c r="AK47" t="n">
         <v>1329</v>
       </c>
+      <c r="AL47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6478,6 +6621,9 @@
       <c r="AK48" t="n">
         <v>1329</v>
       </c>
+      <c r="AL48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6603,6 +6749,9 @@
       <c r="AK49" t="n">
         <v>1329</v>
       </c>
+      <c r="AL49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6728,6 +6877,9 @@
       <c r="AK50" t="n">
         <v>1349</v>
       </c>
+      <c r="AL50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6853,6 +7005,9 @@
       <c r="AK51" t="n">
         <v>1479</v>
       </c>
+      <c r="AL51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6978,6 +7133,9 @@
       <c r="AK52" t="n">
         <v>1479</v>
       </c>
+      <c r="AL52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7103,6 +7261,9 @@
       <c r="AK53" t="n">
         <v>1479</v>
       </c>
+      <c r="AL53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7228,6 +7389,9 @@
       <c r="AK54" t="n">
         <v>1579</v>
       </c>
+      <c r="AL54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7353,6 +7517,9 @@
       <c r="AK55" t="n">
         <v>1579</v>
       </c>
+      <c r="AL55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7478,6 +7645,9 @@
       <c r="AK56" t="n">
         <v>1579</v>
       </c>
+      <c r="AL56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7603,6 +7773,9 @@
       <c r="AK57" t="n">
         <v>1579</v>
       </c>
+      <c r="AL57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7728,6 +7901,9 @@
       <c r="AK58" t="n">
         <v>1579</v>
       </c>
+      <c r="AL58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7853,6 +8029,9 @@
       <c r="AK59" t="n">
         <v>1579</v>
       </c>
+      <c r="AL59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7978,6 +8157,9 @@
       <c r="AK60" t="n">
         <v>1579</v>
       </c>
+      <c r="AL60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8103,6 +8285,9 @@
       <c r="AK61" t="n">
         <v>1729</v>
       </c>
+      <c r="AL61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8228,6 +8413,9 @@
       <c r="AK62" t="n">
         <v>1729</v>
       </c>
+      <c r="AL62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8353,6 +8541,9 @@
       <c r="AK63" t="n">
         <v>1729</v>
       </c>
+      <c r="AL63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8478,6 +8669,9 @@
       <c r="AK64" t="n">
         <v>1829</v>
       </c>
+      <c r="AL64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8603,6 +8797,9 @@
       <c r="AK65" t="n">
         <v>1829</v>
       </c>
+      <c r="AL65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8728,6 +8925,9 @@
       <c r="AK66" t="n">
         <v>1829</v>
       </c>
+      <c r="AL66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8853,6 +9053,9 @@
       <c r="AK67" t="n">
         <v>1979</v>
       </c>
+      <c r="AL67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8978,6 +9181,9 @@
       <c r="AK68" t="n">
         <v>1979</v>
       </c>
+      <c r="AL68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9103,6 +9309,9 @@
       <c r="AK69" t="n">
         <v>1979</v>
       </c>
+      <c r="AL69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9228,6 +9437,9 @@
       <c r="AK70" t="n">
         <v>2479</v>
       </c>
+      <c r="AL70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9353,6 +9565,9 @@
       <c r="AK71" t="n">
         <v>2479</v>
       </c>
+      <c r="AL71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9478,6 +9693,9 @@
       <c r="AK72" t="n">
         <v>2479</v>
       </c>
+      <c r="AL72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9597,6 +9815,7 @@
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9696,6 +9915,7 @@
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL74"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,11 @@
           <t>2026-02-17 10:40:20</t>
         </is>
       </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>2026-02-17 11:36:34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AL2" t="n">
         <v>659</v>
       </c>
+      <c r="AM2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -868,6 +876,9 @@
       <c r="AL3" t="n">
         <v>659</v>
       </c>
+      <c r="AM3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -996,6 +1007,9 @@
       <c r="AL4" t="n">
         <v>749</v>
       </c>
+      <c r="AM4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1124,6 +1138,9 @@
       <c r="AL5" t="n">
         <v>749</v>
       </c>
+      <c r="AM5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1252,6 +1269,9 @@
       <c r="AL6" t="n">
         <v>809</v>
       </c>
+      <c r="AM6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1380,6 +1400,9 @@
       <c r="AL7" t="n">
         <v>809</v>
       </c>
+      <c r="AM7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1508,6 +1531,9 @@
       <c r="AL8" t="n">
         <v>809</v>
       </c>
+      <c r="AM8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1636,6 +1662,9 @@
       <c r="AL9" t="n">
         <v>809</v>
       </c>
+      <c r="AM9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1764,6 +1793,9 @@
       <c r="AL10" t="n">
         <v>809</v>
       </c>
+      <c r="AM10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1892,6 +1924,9 @@
       <c r="AL11" t="n">
         <v>849</v>
       </c>
+      <c r="AM11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2020,6 +2055,9 @@
       <c r="AL12" t="n">
         <v>899</v>
       </c>
+      <c r="AM12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2148,6 +2186,9 @@
       <c r="AL13" t="n">
         <v>899</v>
       </c>
+      <c r="AM13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2276,6 +2317,9 @@
       <c r="AL14" t="n">
         <v>909</v>
       </c>
+      <c r="AM14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2404,6 +2448,9 @@
       <c r="AL15" t="n">
         <v>909</v>
       </c>
+      <c r="AM15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2532,6 +2579,9 @@
       <c r="AL16" t="n">
         <v>909</v>
       </c>
+      <c r="AM16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2660,6 +2710,9 @@
       <c r="AL17" t="n">
         <v>909</v>
       </c>
+      <c r="AM17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2784,6 +2837,9 @@
       <c r="AL18" t="n">
         <v>949</v>
       </c>
+      <c r="AM18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2912,6 +2968,9 @@
       <c r="AL19" t="n">
         <v>969</v>
       </c>
+      <c r="AM19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3040,6 +3099,9 @@
       <c r="AL20" t="n">
         <v>969</v>
       </c>
+      <c r="AM20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3168,6 +3230,9 @@
       <c r="AL21" t="n">
         <v>969</v>
       </c>
+      <c r="AM21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3296,6 +3361,9 @@
       <c r="AL22" t="n">
         <v>969</v>
       </c>
+      <c r="AM22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3424,6 +3492,9 @@
       <c r="AL23" t="n">
         <v>969</v>
       </c>
+      <c r="AM23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3552,6 +3623,9 @@
       <c r="AL24" t="n">
         <v>999</v>
       </c>
+      <c r="AM24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3680,6 +3754,9 @@
       <c r="AL25" t="n">
         <v>999</v>
       </c>
+      <c r="AM25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3808,6 +3885,9 @@
       <c r="AL26" t="n">
         <v>1039</v>
       </c>
+      <c r="AM26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3936,6 +4016,9 @@
       <c r="AL27" t="n">
         <v>1079</v>
       </c>
+      <c r="AM27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4064,6 +4147,9 @@
       <c r="AL28" t="n">
         <v>1079</v>
       </c>
+      <c r="AM28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4192,6 +4278,9 @@
       <c r="AL29" t="n">
         <v>1079</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4320,6 +4409,9 @@
       <c r="AL30" t="n">
         <v>1079</v>
       </c>
+      <c r="AM30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4448,6 +4540,9 @@
       <c r="AL31" t="n">
         <v>1099</v>
       </c>
+      <c r="AM31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4576,6 +4671,9 @@
       <c r="AL32" t="n">
         <v>1099</v>
       </c>
+      <c r="AM32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4704,6 +4802,9 @@
       <c r="AL33" t="n">
         <v>1099</v>
       </c>
+      <c r="AM33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4832,6 +4933,9 @@
       <c r="AL34" t="n">
         <v>1199</v>
       </c>
+      <c r="AM34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4960,6 +5064,9 @@
       <c r="AL35" t="n">
         <v>1219</v>
       </c>
+      <c r="AM35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5088,6 +5195,9 @@
       <c r="AL36" t="n">
         <v>1219</v>
       </c>
+      <c r="AM36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5216,6 +5326,9 @@
       <c r="AL37" t="n">
         <v>1219</v>
       </c>
+      <c r="AM37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5344,6 +5457,9 @@
       <c r="AL38" t="n">
         <v>1219</v>
       </c>
+      <c r="AM38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5472,6 +5588,9 @@
       <c r="AL39" t="n">
         <v>1219</v>
       </c>
+      <c r="AM39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5600,6 +5719,9 @@
       <c r="AL40" t="n">
         <v>1229</v>
       </c>
+      <c r="AM40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5728,6 +5850,9 @@
       <c r="AL41" t="n">
         <v>1249</v>
       </c>
+      <c r="AM41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5856,6 +5981,9 @@
       <c r="AL42" t="n">
         <v>1249</v>
       </c>
+      <c r="AM42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5984,6 +6112,9 @@
       <c r="AL43" t="n">
         <v>1329</v>
       </c>
+      <c r="AM43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6112,6 +6243,9 @@
       <c r="AL44" t="n">
         <v>1329</v>
       </c>
+      <c r="AM44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6240,6 +6374,9 @@
       <c r="AL45" t="n">
         <v>1329</v>
       </c>
+      <c r="AM45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6368,6 +6505,9 @@
       <c r="AL46" t="n">
         <v>1329</v>
       </c>
+      <c r="AM46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6496,6 +6636,9 @@
       <c r="AL47" t="n">
         <v>1329</v>
       </c>
+      <c r="AM47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6624,6 +6767,9 @@
       <c r="AL48" t="n">
         <v>1329</v>
       </c>
+      <c r="AM48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6752,6 +6898,9 @@
       <c r="AL49" t="n">
         <v>1329</v>
       </c>
+      <c r="AM49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6880,6 +7029,9 @@
       <c r="AL50" t="n">
         <v>1349</v>
       </c>
+      <c r="AM50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7008,6 +7160,9 @@
       <c r="AL51" t="n">
         <v>1479</v>
       </c>
+      <c r="AM51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7136,6 +7291,9 @@
       <c r="AL52" t="n">
         <v>1479</v>
       </c>
+      <c r="AM52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7264,6 +7422,9 @@
       <c r="AL53" t="n">
         <v>1479</v>
       </c>
+      <c r="AM53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7392,6 +7553,9 @@
       <c r="AL54" t="n">
         <v>1579</v>
       </c>
+      <c r="AM54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7520,6 +7684,9 @@
       <c r="AL55" t="n">
         <v>1579</v>
       </c>
+      <c r="AM55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7648,6 +7815,9 @@
       <c r="AL56" t="n">
         <v>1579</v>
       </c>
+      <c r="AM56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7776,6 +7946,9 @@
       <c r="AL57" t="n">
         <v>1579</v>
       </c>
+      <c r="AM57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7904,6 +8077,9 @@
       <c r="AL58" t="n">
         <v>1579</v>
       </c>
+      <c r="AM58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8032,6 +8208,9 @@
       <c r="AL59" t="n">
         <v>1579</v>
       </c>
+      <c r="AM59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8160,6 +8339,9 @@
       <c r="AL60" t="n">
         <v>1579</v>
       </c>
+      <c r="AM60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8288,6 +8470,9 @@
       <c r="AL61" t="n">
         <v>1729</v>
       </c>
+      <c r="AM61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8416,6 +8601,9 @@
       <c r="AL62" t="n">
         <v>1729</v>
       </c>
+      <c r="AM62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8544,6 +8732,9 @@
       <c r="AL63" t="n">
         <v>1729</v>
       </c>
+      <c r="AM63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8672,6 +8863,9 @@
       <c r="AL64" t="n">
         <v>1829</v>
       </c>
+      <c r="AM64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8800,6 +8994,9 @@
       <c r="AL65" t="n">
         <v>1829</v>
       </c>
+      <c r="AM65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8928,6 +9125,9 @@
       <c r="AL66" t="n">
         <v>1829</v>
       </c>
+      <c r="AM66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9056,6 +9256,9 @@
       <c r="AL67" t="n">
         <v>1979</v>
       </c>
+      <c r="AM67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9184,6 +9387,9 @@
       <c r="AL68" t="n">
         <v>1979</v>
       </c>
+      <c r="AM68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9312,6 +9518,9 @@
       <c r="AL69" t="n">
         <v>1979</v>
       </c>
+      <c r="AM69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9440,6 +9649,9 @@
       <c r="AL70" t="n">
         <v>2479</v>
       </c>
+      <c r="AM70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9568,6 +9780,9 @@
       <c r="AL71" t="n">
         <v>2479</v>
       </c>
+      <c r="AM71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9694,6 +9909,9 @@
         <v>2479</v>
       </c>
       <c r="AL72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AM72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -9816,6 +10034,7 @@
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9916,6 +10135,7 @@
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +617,11 @@
           <t>2026-02-17 11:36:34</t>
         </is>
       </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>2026-02-17 12:51:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AM2" t="n">
         <v>659</v>
       </c>
+      <c r="AN2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -879,6 +887,9 @@
       <c r="AM3" t="n">
         <v>659</v>
       </c>
+      <c r="AN3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,7 +909,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (18/02/2026)</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1008,6 +1019,9 @@
         <v>749</v>
       </c>
       <c r="AM4" t="n">
+        <v>749</v>
+      </c>
+      <c r="AN4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1141,6 +1155,9 @@
       <c r="AM5" t="n">
         <v>749</v>
       </c>
+      <c r="AN5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1272,6 +1289,9 @@
       <c r="AM6" t="n">
         <v>809</v>
       </c>
+      <c r="AN6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1403,6 +1423,9 @@
       <c r="AM7" t="n">
         <v>809</v>
       </c>
+      <c r="AN7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1534,6 +1557,9 @@
       <c r="AM8" t="n">
         <v>809</v>
       </c>
+      <c r="AN8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1665,6 +1691,9 @@
       <c r="AM9" t="n">
         <v>809</v>
       </c>
+      <c r="AN9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1796,6 +1825,9 @@
       <c r="AM10" t="n">
         <v>809</v>
       </c>
+      <c r="AN10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1927,6 +1959,9 @@
       <c r="AM11" t="n">
         <v>849</v>
       </c>
+      <c r="AN11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2058,6 +2093,9 @@
       <c r="AM12" t="n">
         <v>899</v>
       </c>
+      <c r="AN12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2189,6 +2227,9 @@
       <c r="AM13" t="n">
         <v>899</v>
       </c>
+      <c r="AN13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2320,6 +2361,9 @@
       <c r="AM14" t="n">
         <v>909</v>
       </c>
+      <c r="AN14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2451,6 +2495,9 @@
       <c r="AM15" t="n">
         <v>909</v>
       </c>
+      <c r="AN15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2470,7 +2517,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (18/02/2026)</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2580,6 +2627,9 @@
         <v>909</v>
       </c>
       <c r="AM16" t="n">
+        <v>909</v>
+      </c>
+      <c r="AN16" t="n">
         <v>909</v>
       </c>
     </row>
@@ -2713,6 +2763,9 @@
       <c r="AM17" t="n">
         <v>909</v>
       </c>
+      <c r="AN17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2840,6 +2893,9 @@
       <c r="AM18" t="n">
         <v>949</v>
       </c>
+      <c r="AN18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2971,6 +3027,9 @@
       <c r="AM19" t="n">
         <v>969</v>
       </c>
+      <c r="AN19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3102,6 +3161,9 @@
       <c r="AM20" t="n">
         <v>969</v>
       </c>
+      <c r="AN20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3233,6 +3295,9 @@
       <c r="AM21" t="n">
         <v>969</v>
       </c>
+      <c r="AN21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3364,6 +3429,9 @@
       <c r="AM22" t="n">
         <v>969</v>
       </c>
+      <c r="AN22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3495,6 +3563,9 @@
       <c r="AM23" t="n">
         <v>969</v>
       </c>
+      <c r="AN23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3626,6 +3697,9 @@
       <c r="AM24" t="n">
         <v>999</v>
       </c>
+      <c r="AN24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3757,6 +3831,9 @@
       <c r="AM25" t="n">
         <v>999</v>
       </c>
+      <c r="AN25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3888,6 +3965,9 @@
       <c r="AM26" t="n">
         <v>1039</v>
       </c>
+      <c r="AN26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4019,6 +4099,9 @@
       <c r="AM27" t="n">
         <v>1079</v>
       </c>
+      <c r="AN27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4150,6 +4233,9 @@
       <c r="AM28" t="n">
         <v>1079</v>
       </c>
+      <c r="AN28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4281,6 +4367,9 @@
       <c r="AM29" t="n">
         <v>1079</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4412,6 +4501,9 @@
       <c r="AM30" t="n">
         <v>1079</v>
       </c>
+      <c r="AN30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4543,6 +4635,9 @@
       <c r="AM31" t="n">
         <v>1099</v>
       </c>
+      <c r="AN31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4674,6 +4769,9 @@
       <c r="AM32" t="n">
         <v>1099</v>
       </c>
+      <c r="AN32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4805,6 +4903,9 @@
       <c r="AM33" t="n">
         <v>1099</v>
       </c>
+      <c r="AN33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4936,6 +5037,9 @@
       <c r="AM34" t="n">
         <v>1199</v>
       </c>
+      <c r="AN34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5067,6 +5171,9 @@
       <c r="AM35" t="n">
         <v>1219</v>
       </c>
+      <c r="AN35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5198,6 +5305,9 @@
       <c r="AM36" t="n">
         <v>1219</v>
       </c>
+      <c r="AN36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5329,6 +5439,9 @@
       <c r="AM37" t="n">
         <v>1219</v>
       </c>
+      <c r="AN37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5460,6 +5573,9 @@
       <c r="AM38" t="n">
         <v>1219</v>
       </c>
+      <c r="AN38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5591,6 +5707,9 @@
       <c r="AM39" t="n">
         <v>1219</v>
       </c>
+      <c r="AN39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5722,6 +5841,9 @@
       <c r="AM40" t="n">
         <v>1229</v>
       </c>
+      <c r="AN40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5853,6 +5975,9 @@
       <c r="AM41" t="n">
         <v>1249</v>
       </c>
+      <c r="AN41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5984,6 +6109,9 @@
       <c r="AM42" t="n">
         <v>1249</v>
       </c>
+      <c r="AN42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6115,6 +6243,9 @@
       <c r="AM43" t="n">
         <v>1329</v>
       </c>
+      <c r="AN43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6246,6 +6377,9 @@
       <c r="AM44" t="n">
         <v>1329</v>
       </c>
+      <c r="AN44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6377,6 +6511,9 @@
       <c r="AM45" t="n">
         <v>1329</v>
       </c>
+      <c r="AN45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6508,6 +6645,9 @@
       <c r="AM46" t="n">
         <v>1329</v>
       </c>
+      <c r="AN46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6639,6 +6779,9 @@
       <c r="AM47" t="n">
         <v>1329</v>
       </c>
+      <c r="AN47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6770,6 +6913,9 @@
       <c r="AM48" t="n">
         <v>1329</v>
       </c>
+      <c r="AN48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6901,6 +7047,9 @@
       <c r="AM49" t="n">
         <v>1329</v>
       </c>
+      <c r="AN49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7032,6 +7181,9 @@
       <c r="AM50" t="n">
         <v>1349</v>
       </c>
+      <c r="AN50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7163,6 +7315,9 @@
       <c r="AM51" t="n">
         <v>1479</v>
       </c>
+      <c r="AN51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7294,6 +7449,9 @@
       <c r="AM52" t="n">
         <v>1479</v>
       </c>
+      <c r="AN52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7425,6 +7583,9 @@
       <c r="AM53" t="n">
         <v>1479</v>
       </c>
+      <c r="AN53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7556,6 +7717,9 @@
       <c r="AM54" t="n">
         <v>1579</v>
       </c>
+      <c r="AN54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7687,6 +7851,9 @@
       <c r="AM55" t="n">
         <v>1579</v>
       </c>
+      <c r="AN55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7818,6 +7985,9 @@
       <c r="AM56" t="n">
         <v>1579</v>
       </c>
+      <c r="AN56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7949,6 +8119,9 @@
       <c r="AM57" t="n">
         <v>1579</v>
       </c>
+      <c r="AN57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8080,6 +8253,9 @@
       <c r="AM58" t="n">
         <v>1579</v>
       </c>
+      <c r="AN58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8211,6 +8387,9 @@
       <c r="AM59" t="n">
         <v>1579</v>
       </c>
+      <c r="AN59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8342,6 +8521,9 @@
       <c r="AM60" t="n">
         <v>1579</v>
       </c>
+      <c r="AN60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8473,6 +8655,9 @@
       <c r="AM61" t="n">
         <v>1729</v>
       </c>
+      <c r="AN61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8604,6 +8789,9 @@
       <c r="AM62" t="n">
         <v>1729</v>
       </c>
+      <c r="AN62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8735,6 +8923,9 @@
       <c r="AM63" t="n">
         <v>1729</v>
       </c>
+      <c r="AN63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8866,6 +9057,9 @@
       <c r="AM64" t="n">
         <v>1829</v>
       </c>
+      <c r="AN64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8997,6 +9191,9 @@
       <c r="AM65" t="n">
         <v>1829</v>
       </c>
+      <c r="AN65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9128,6 +9325,9 @@
       <c r="AM66" t="n">
         <v>1829</v>
       </c>
+      <c r="AN66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9259,6 +9459,9 @@
       <c r="AM67" t="n">
         <v>1979</v>
       </c>
+      <c r="AN67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9390,6 +9593,9 @@
       <c r="AM68" t="n">
         <v>1979</v>
       </c>
+      <c r="AN68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9521,6 +9727,9 @@
       <c r="AM69" t="n">
         <v>1979</v>
       </c>
+      <c r="AN69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9652,6 +9861,9 @@
       <c r="AM70" t="n">
         <v>2479</v>
       </c>
+      <c r="AN70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9783,6 +9995,9 @@
       <c r="AM71" t="n">
         <v>2479</v>
       </c>
+      <c r="AN71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9912,6 +10127,9 @@
         <v>2479</v>
       </c>
       <c r="AM72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AN72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -10035,6 +10253,7 @@
       <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10136,6 +10355,7 @@
       <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +622,11 @@
           <t>2026-02-17 12:51:18</t>
         </is>
       </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>2026-02-17 14:04:54</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -756,6 +761,9 @@
       <c r="AN2" t="n">
         <v>659</v>
       </c>
+      <c r="AO2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -890,6 +898,9 @@
       <c r="AN3" t="n">
         <v>659</v>
       </c>
+      <c r="AO3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1024,6 +1035,9 @@
       <c r="AN4" t="n">
         <v>749</v>
       </c>
+      <c r="AO4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1158,6 +1172,9 @@
       <c r="AN5" t="n">
         <v>749</v>
       </c>
+      <c r="AO5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1292,6 +1309,9 @@
       <c r="AN6" t="n">
         <v>809</v>
       </c>
+      <c r="AO6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1426,6 +1446,9 @@
       <c r="AN7" t="n">
         <v>809</v>
       </c>
+      <c r="AO7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1560,6 +1583,9 @@
       <c r="AN8" t="n">
         <v>809</v>
       </c>
+      <c r="AO8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1694,6 +1720,9 @@
       <c r="AN9" t="n">
         <v>809</v>
       </c>
+      <c r="AO9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1828,6 +1857,9 @@
       <c r="AN10" t="n">
         <v>809</v>
       </c>
+      <c r="AO10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1962,6 +1994,9 @@
       <c r="AN11" t="n">
         <v>849</v>
       </c>
+      <c r="AO11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2096,6 +2131,9 @@
       <c r="AN12" t="n">
         <v>899</v>
       </c>
+      <c r="AO12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2230,6 +2268,9 @@
       <c r="AN13" t="n">
         <v>899</v>
       </c>
+      <c r="AO13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2364,6 +2405,9 @@
       <c r="AN14" t="n">
         <v>909</v>
       </c>
+      <c r="AO14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2498,6 +2542,9 @@
       <c r="AN15" t="n">
         <v>909</v>
       </c>
+      <c r="AO15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2632,6 +2679,9 @@
       <c r="AN16" t="n">
         <v>909</v>
       </c>
+      <c r="AO16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2766,6 +2816,9 @@
       <c r="AN17" t="n">
         <v>909</v>
       </c>
+      <c r="AO17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2896,6 +2949,9 @@
       <c r="AN18" t="n">
         <v>949</v>
       </c>
+      <c r="AO18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3030,6 +3086,9 @@
       <c r="AN19" t="n">
         <v>969</v>
       </c>
+      <c r="AO19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3164,6 +3223,9 @@
       <c r="AN20" t="n">
         <v>969</v>
       </c>
+      <c r="AO20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3298,6 +3360,9 @@
       <c r="AN21" t="n">
         <v>969</v>
       </c>
+      <c r="AO21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3432,6 +3497,9 @@
       <c r="AN22" t="n">
         <v>969</v>
       </c>
+      <c r="AO22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3566,6 +3634,9 @@
       <c r="AN23" t="n">
         <v>969</v>
       </c>
+      <c r="AO23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3700,6 +3771,9 @@
       <c r="AN24" t="n">
         <v>999</v>
       </c>
+      <c r="AO24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3834,6 +3908,9 @@
       <c r="AN25" t="n">
         <v>999</v>
       </c>
+      <c r="AO25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3968,6 +4045,9 @@
       <c r="AN26" t="n">
         <v>1039</v>
       </c>
+      <c r="AO26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4102,6 +4182,9 @@
       <c r="AN27" t="n">
         <v>1079</v>
       </c>
+      <c r="AO27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4236,6 +4319,9 @@
       <c r="AN28" t="n">
         <v>1079</v>
       </c>
+      <c r="AO28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4370,6 +4456,9 @@
       <c r="AN29" t="n">
         <v>1079</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4504,6 +4593,9 @@
       <c r="AN30" t="n">
         <v>1079</v>
       </c>
+      <c r="AO30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4638,6 +4730,9 @@
       <c r="AN31" t="n">
         <v>1099</v>
       </c>
+      <c r="AO31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4772,6 +4867,9 @@
       <c r="AN32" t="n">
         <v>1099</v>
       </c>
+      <c r="AO32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4906,6 +5004,9 @@
       <c r="AN33" t="n">
         <v>1099</v>
       </c>
+      <c r="AO33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5040,6 +5141,9 @@
       <c r="AN34" t="n">
         <v>1199</v>
       </c>
+      <c r="AO34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5174,6 +5278,9 @@
       <c r="AN35" t="n">
         <v>1219</v>
       </c>
+      <c r="AO35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5308,6 +5415,9 @@
       <c r="AN36" t="n">
         <v>1219</v>
       </c>
+      <c r="AO36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5327,7 +5437,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -5440,6 +5550,9 @@
         <v>1219</v>
       </c>
       <c r="AN37" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AO37" t="n">
         <v>1219</v>
       </c>
     </row>
@@ -5461,7 +5574,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -5574,6 +5687,9 @@
         <v>1219</v>
       </c>
       <c r="AN38" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AO38" t="n">
         <v>1219</v>
       </c>
     </row>
@@ -5710,6 +5826,9 @@
       <c r="AN39" t="n">
         <v>1219</v>
       </c>
+      <c r="AO39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5844,6 +5963,9 @@
       <c r="AN40" t="n">
         <v>1229</v>
       </c>
+      <c r="AO40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5978,6 +6100,9 @@
       <c r="AN41" t="n">
         <v>1249</v>
       </c>
+      <c r="AO41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6112,6 +6237,9 @@
       <c r="AN42" t="n">
         <v>1249</v>
       </c>
+      <c r="AO42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6246,6 +6374,9 @@
       <c r="AN43" t="n">
         <v>1329</v>
       </c>
+      <c r="AO43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6380,6 +6511,9 @@
       <c r="AN44" t="n">
         <v>1329</v>
       </c>
+      <c r="AO44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6514,6 +6648,9 @@
       <c r="AN45" t="n">
         <v>1329</v>
       </c>
+      <c r="AO45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6648,6 +6785,9 @@
       <c r="AN46" t="n">
         <v>1329</v>
       </c>
+      <c r="AO46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6782,6 +6922,9 @@
       <c r="AN47" t="n">
         <v>1329</v>
       </c>
+      <c r="AO47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6916,6 +7059,9 @@
       <c r="AN48" t="n">
         <v>1329</v>
       </c>
+      <c r="AO48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7050,6 +7196,9 @@
       <c r="AN49" t="n">
         <v>1329</v>
       </c>
+      <c r="AO49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7184,6 +7333,9 @@
       <c r="AN50" t="n">
         <v>1349</v>
       </c>
+      <c r="AO50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7318,6 +7470,9 @@
       <c r="AN51" t="n">
         <v>1479</v>
       </c>
+      <c r="AO51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7452,6 +7607,9 @@
       <c r="AN52" t="n">
         <v>1479</v>
       </c>
+      <c r="AO52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7586,6 +7744,9 @@
       <c r="AN53" t="n">
         <v>1479</v>
       </c>
+      <c r="AO53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7720,6 +7881,9 @@
       <c r="AN54" t="n">
         <v>1579</v>
       </c>
+      <c r="AO54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7854,6 +8018,9 @@
       <c r="AN55" t="n">
         <v>1579</v>
       </c>
+      <c r="AO55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7988,6 +8155,9 @@
       <c r="AN56" t="n">
         <v>1579</v>
       </c>
+      <c r="AO56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8122,6 +8292,9 @@
       <c r="AN57" t="n">
         <v>1579</v>
       </c>
+      <c r="AO57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8256,6 +8429,9 @@
       <c r="AN58" t="n">
         <v>1579</v>
       </c>
+      <c r="AO58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8390,6 +8566,9 @@
       <c r="AN59" t="n">
         <v>1579</v>
       </c>
+      <c r="AO59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8524,6 +8703,9 @@
       <c r="AN60" t="n">
         <v>1579</v>
       </c>
+      <c r="AO60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8658,6 +8840,9 @@
       <c r="AN61" t="n">
         <v>1729</v>
       </c>
+      <c r="AO61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8792,6 +8977,9 @@
       <c r="AN62" t="n">
         <v>1729</v>
       </c>
+      <c r="AO62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8926,6 +9114,9 @@
       <c r="AN63" t="n">
         <v>1729</v>
       </c>
+      <c r="AO63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9060,6 +9251,9 @@
       <c r="AN64" t="n">
         <v>1829</v>
       </c>
+      <c r="AO64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9194,6 +9388,9 @@
       <c r="AN65" t="n">
         <v>1829</v>
       </c>
+      <c r="AO65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9328,6 +9525,9 @@
       <c r="AN66" t="n">
         <v>1829</v>
       </c>
+      <c r="AO66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9462,6 +9662,9 @@
       <c r="AN67" t="n">
         <v>1979</v>
       </c>
+      <c r="AO67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9596,6 +9799,9 @@
       <c r="AN68" t="n">
         <v>1979</v>
       </c>
+      <c r="AO68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9730,6 +9936,9 @@
       <c r="AN69" t="n">
         <v>1979</v>
       </c>
+      <c r="AO69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9864,6 +10073,9 @@
       <c r="AN70" t="n">
         <v>2479</v>
       </c>
+      <c r="AO70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9998,6 +10210,9 @@
       <c r="AN71" t="n">
         <v>2479</v>
       </c>
+      <c r="AO71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10130,6 +10345,9 @@
         <v>2479</v>
       </c>
       <c r="AN72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AO72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -10254,6 +10472,7 @@
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10356,6 +10575,7 @@
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr"/>
+      <c r="AO74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AP74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,11 @@
           <t>2026-02-17 14:04:54</t>
         </is>
       </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>2026-02-17 15:47:10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -764,6 +769,9 @@
       <c r="AO2" t="n">
         <v>659</v>
       </c>
+      <c r="AP2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -901,6 +909,9 @@
       <c r="AO3" t="n">
         <v>659</v>
       </c>
+      <c r="AP3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1038,6 +1049,9 @@
       <c r="AO4" t="n">
         <v>749</v>
       </c>
+      <c r="AP4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1175,6 +1189,9 @@
       <c r="AO5" t="n">
         <v>749</v>
       </c>
+      <c r="AP5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1312,6 +1329,9 @@
       <c r="AO6" t="n">
         <v>809</v>
       </c>
+      <c r="AP6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1449,6 +1469,9 @@
       <c r="AO7" t="n">
         <v>809</v>
       </c>
+      <c r="AP7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1586,6 +1609,9 @@
       <c r="AO8" t="n">
         <v>809</v>
       </c>
+      <c r="AP8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1723,6 +1749,9 @@
       <c r="AO9" t="n">
         <v>809</v>
       </c>
+      <c r="AP9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1860,6 +1889,9 @@
       <c r="AO10" t="n">
         <v>809</v>
       </c>
+      <c r="AP10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1997,6 +2029,9 @@
       <c r="AO11" t="n">
         <v>849</v>
       </c>
+      <c r="AP11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2134,6 +2169,9 @@
       <c r="AO12" t="n">
         <v>899</v>
       </c>
+      <c r="AP12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2271,6 +2309,9 @@
       <c r="AO13" t="n">
         <v>899</v>
       </c>
+      <c r="AP13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2408,6 +2449,9 @@
       <c r="AO14" t="n">
         <v>909</v>
       </c>
+      <c r="AP14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2545,6 +2589,9 @@
       <c r="AO15" t="n">
         <v>909</v>
       </c>
+      <c r="AP15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2682,6 +2729,9 @@
       <c r="AO16" t="n">
         <v>909</v>
       </c>
+      <c r="AP16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2819,6 +2869,9 @@
       <c r="AO17" t="n">
         <v>909</v>
       </c>
+      <c r="AP17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2952,6 +3005,9 @@
       <c r="AO18" t="n">
         <v>949</v>
       </c>
+      <c r="AP18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2971,7 +3027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -3087,6 +3143,9 @@
         <v>969</v>
       </c>
       <c r="AO19" t="n">
+        <v>969</v>
+      </c>
+      <c r="AP19" t="n">
         <v>969</v>
       </c>
     </row>
@@ -3226,6 +3285,9 @@
       <c r="AO20" t="n">
         <v>969</v>
       </c>
+      <c r="AP20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3245,7 +3307,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -3361,6 +3423,9 @@
         <v>969</v>
       </c>
       <c r="AO21" t="n">
+        <v>969</v>
+      </c>
+      <c r="AP21" t="n">
         <v>969</v>
       </c>
     </row>
@@ -3382,7 +3447,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -3498,6 +3563,9 @@
         <v>969</v>
       </c>
       <c r="AO22" t="n">
+        <v>969</v>
+      </c>
+      <c r="AP22" t="n">
         <v>969</v>
       </c>
     </row>
@@ -3637,6 +3705,9 @@
       <c r="AO23" t="n">
         <v>969</v>
       </c>
+      <c r="AP23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3774,6 +3845,9 @@
       <c r="AO24" t="n">
         <v>999</v>
       </c>
+      <c r="AP24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3911,6 +3985,9 @@
       <c r="AO25" t="n">
         <v>999</v>
       </c>
+      <c r="AP25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4048,6 +4125,9 @@
       <c r="AO26" t="n">
         <v>1039</v>
       </c>
+      <c r="AP26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4185,6 +4265,9 @@
       <c r="AO27" t="n">
         <v>1079</v>
       </c>
+      <c r="AP27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4322,6 +4405,9 @@
       <c r="AO28" t="n">
         <v>1079</v>
       </c>
+      <c r="AP28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4459,6 +4545,9 @@
       <c r="AO29" t="n">
         <v>1079</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4596,6 +4685,9 @@
       <c r="AO30" t="n">
         <v>1079</v>
       </c>
+      <c r="AP30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4733,16 +4825,19 @@
       <c r="AO31" t="n">
         <v>1099</v>
       </c>
+      <c r="AP31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00570867</t>
+          <t>PB00570870</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Rose</t>
+          <t>Apple iPhone 15 512 Go Vert</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4768,7 +4863,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -4868,18 +4963,21 @@
         <v>1099</v>
       </c>
       <c r="AO32" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AP32" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00570870</t>
+          <t>PB00516186</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Vert</t>
+          <t>Apple iPhone 14 Pro 1 To Or</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4896,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4905,118 +5003,121 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="J33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="K33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="L33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="M33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="N33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="O33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="P33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Q33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="R33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="S33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="T33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="U33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="V33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="W33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="X33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Y33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Z33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AA33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AB33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AC33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AD33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AE33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AF33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AG33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AH33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AI33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AK33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AL33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AM33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AN33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AO33" t="n">
-        <v>1099</v>
+        <v>1199</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00516186</t>
+          <t>PB00702815</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro 1 To Or</t>
+          <t>Apple iPhone 17 512 Go Blanc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5026,14 +5127,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -5042,118 +5143,121 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="J34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="K34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="L34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="M34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="N34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="O34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="P34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Q34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="R34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="S34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="T34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="U34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="V34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="W34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="X34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Z34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AA34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AB34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AC34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AD34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AE34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AF34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AG34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AH34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AI34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AK34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AL34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AM34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AN34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AO34" t="n">
-        <v>1199</v>
+        <v>1219</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00702815</t>
+          <t>PB00702816</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Blanc</t>
+          <t>Apple iPhone 17 512 Go Brume</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5163,7 +5267,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -5179,7 +5283,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -5279,18 +5383,21 @@
         <v>1219</v>
       </c>
       <c r="AO35" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AP35" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00702816</t>
+          <t>PB00702817</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Brume</t>
+          <t>Apple iPhone 17 512 Go Lavande</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5300,7 +5407,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (18/02/2026)</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -5316,7 +5423,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -5416,18 +5523,21 @@
         <v>1219</v>
       </c>
       <c r="AO36" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AP36" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00702817</t>
+          <t>PB00702813</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Lavande</t>
+          <t>Apple iPhone 17 512 Go Noir</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5453,7 +5563,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -5553,18 +5663,21 @@
         <v>1219</v>
       </c>
       <c r="AO37" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AP37" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00702813</t>
+          <t>PB00702818</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Noir</t>
+          <t>Apple iPhone 17 512 Go Sauge</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5574,7 +5687,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -5590,7 +5703,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -5690,18 +5803,21 @@
         <v>1219</v>
       </c>
       <c r="AO38" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AP38" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00702818</t>
+          <t>PB00570890</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Sauge</t>
+          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5718,7 +5834,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -5727,118 +5843,121 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="J39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="K39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="L39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="M39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="N39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="O39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="P39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Q39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="R39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="S39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="T39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="U39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="V39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="W39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="X39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Y39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Z39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AA39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AB39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AC39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AD39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AE39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AF39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AG39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AH39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AI39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AK39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AL39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AM39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AN39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AO39" t="n">
-        <v>1219</v>
+        <v>1229</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00570890</t>
+          <t>PB00642649</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
+          <t>Apple iPhone 16 512 Go Blanc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5855,7 +5974,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -5864,118 +5983,121 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="J40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="K40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="L40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="M40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="N40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="O40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="P40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Q40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="R40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="S40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="T40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="U40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="V40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="W40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="X40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Y40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Z40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AA40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AB40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AC40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AD40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AE40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AF40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AG40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AH40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AI40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AK40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AL40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AM40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AN40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AO40" t="n">
-        <v>1229</v>
+        <v>1249</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00642649</t>
+          <t>PB00642648</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Blanc</t>
+          <t>Apple iPhone 16 512 Go Rose</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6001,7 +6123,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -6101,18 +6223,21 @@
         <v>1249</v>
       </c>
       <c r="AO41" t="n">
+        <v>1249</v>
+      </c>
+      <c r="AP41" t="n">
         <v>1249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00642648</t>
+          <t>PB00702819</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Rose</t>
+          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6129,7 +6254,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -6138,118 +6263,121 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="J42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="K42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="L42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="M42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="N42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="O42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="P42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Q42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="R42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="S42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="T42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="U42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="V42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="W42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="X42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Y42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Z42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AA42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AB42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AC42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AD42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AE42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AF42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AG42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AH42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AI42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AK42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AL42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AM42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AN42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AO42" t="n">
-        <v>1249</v>
+        <v>1329</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00702819</t>
+          <t>PB00702822</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6275,7 +6403,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -6375,18 +6503,21 @@
         <v>1329</v>
       </c>
       <c r="AO43" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AP43" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00702822</t>
+          <t>PB00702820</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6412,7 +6543,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -6512,18 +6643,21 @@
         <v>1329</v>
       </c>
       <c r="AO44" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AP44" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00702820</t>
+          <t>PB00702798</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 512 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6540,7 +6674,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -6549,7 +6683,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -6649,18 +6783,21 @@
         <v>1329</v>
       </c>
       <c r="AO45" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AP45" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00702798</t>
+          <t>PB00702810</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Blanc nuage</t>
+          <t>Apple iPhone Air 512 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6686,7 +6823,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -6786,18 +6923,21 @@
         <v>1329</v>
       </c>
       <c r="AO46" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AP46" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00702810</t>
+          <t>PB00702793</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Bleu ciel</t>
+          <t>Apple iPhone Air 512 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6823,7 +6963,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -6923,18 +7063,21 @@
         <v>1329</v>
       </c>
       <c r="AO47" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AP47" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00702793</t>
+          <t>PB00702802</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Noir sidéral</t>
+          <t>Apple iPhone Air 512 Go Or clair</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6960,7 +7103,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -7060,18 +7203,21 @@
         <v>1329</v>
       </c>
       <c r="AO48" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AP48" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00702802</t>
+          <t>PB00642633</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Or clair</t>
+          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7088,7 +7234,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -7097,118 +7243,121 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="J49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="K49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="L49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="M49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="N49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="O49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="P49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Q49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="R49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="S49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="T49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="U49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="V49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="W49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="X49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Y49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Z49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AA49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AB49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AC49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AD49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AE49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AF49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AG49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AH49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AI49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AK49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AL49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AM49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AN49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AO49" t="n">
-        <v>1329</v>
+        <v>1349</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00642633</t>
+          <t>PB00702830</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7218,14 +7367,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -7234,118 +7383,121 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="J50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="K50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="L50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="M50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="N50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="O50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="P50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Q50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="R50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="S50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="T50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="U50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="V50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="W50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="X50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Y50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Z50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AA50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AB50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AC50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AD50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AE50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AF50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AG50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AH50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AI50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AK50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AL50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AM50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AN50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AO50" t="n">
-        <v>1349</v>
+        <v>1479</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00702830</t>
+          <t>PB00702832</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7355,7 +7507,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -7371,7 +7523,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -7471,18 +7623,21 @@
         <v>1479</v>
       </c>
       <c r="AO51" t="n">
+        <v>1479</v>
+      </c>
+      <c r="AP51" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00702832</t>
+          <t>PB00702831</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7492,7 +7647,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -7508,7 +7663,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -7608,18 +7763,21 @@
         <v>1479</v>
       </c>
       <c r="AO52" t="n">
+        <v>1479</v>
+      </c>
+      <c r="AP52" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00702831</t>
+          <t>PB00702823</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7645,118 +7803,121 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="J53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="K53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="L53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="M53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="N53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="O53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="P53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Q53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="R53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="S53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="T53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="U53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="V53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="W53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="X53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Y53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Z53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AA53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AB53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AC53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AD53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AE53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AF53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AG53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AH53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AI53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AK53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AL53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AM53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AN53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AO53" t="n">
-        <v>1479</v>
+        <v>1579</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1579</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00702823</t>
+          <t>PB00702825</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7782,7 +7943,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -7882,18 +8043,21 @@
         <v>1579</v>
       </c>
       <c r="AO54" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AP54" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00702825</t>
+          <t>PB00702824</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7903,7 +8067,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -7919,7 +8083,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -8019,18 +8183,21 @@
         <v>1579</v>
       </c>
       <c r="AO55" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AP55" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00702824</t>
+          <t>PB00702799</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 1 To Blanc nuage</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8047,7 +8214,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -8056,7 +8223,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -8156,18 +8323,21 @@
         <v>1579</v>
       </c>
       <c r="AO56" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AP56" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00702799</t>
+          <t>PB00702812</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Blanc nuage</t>
+          <t>Apple iPhone Air 1 To Bleu ciel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8193,7 +8363,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -8293,18 +8463,21 @@
         <v>1579</v>
       </c>
       <c r="AO57" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AP57" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00702812</t>
+          <t>PB00702794</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Bleu ciel</t>
+          <t>Apple iPhone Air 1 To Noir sidéral</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8314,7 +8487,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -8330,7 +8503,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -8430,18 +8603,21 @@
         <v>1579</v>
       </c>
       <c r="AO58" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AP58" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00702794</t>
+          <t>PB00702805</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Noir sidéral</t>
+          <t>Apple iPhone Air 1 To Or clair</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8451,7 +8627,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -8467,7 +8643,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -8567,18 +8743,21 @@
         <v>1579</v>
       </c>
       <c r="AO59" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AP59" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00702805</t>
+          <t>PB00702833</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Or clair</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8588,14 +8767,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -8604,118 +8783,121 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="J60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="K60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="L60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="M60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="N60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="O60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="P60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Q60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="R60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="S60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="T60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="U60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="V60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="W60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="X60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Y60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Z60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AA60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AB60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AC60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AD60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AE60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AF60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AG60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AH60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AI60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AK60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AL60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AM60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AN60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AO60" t="n">
-        <v>1579</v>
+        <v>1729</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1729</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00702833</t>
+          <t>PB00702835</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8741,7 +8923,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -8841,18 +9023,21 @@
         <v>1729</v>
       </c>
       <c r="AO61" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AP61" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00702835</t>
+          <t>PB00702834</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8878,7 +9063,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -8978,18 +9163,21 @@
         <v>1729</v>
       </c>
       <c r="AO62" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AP62" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00702834</t>
+          <t>PB00702826</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 1 To Argent</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9015,118 +9203,121 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="J63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="K63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="L63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="M63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="N63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="O63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="P63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Q63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="R63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="S63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="T63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="U63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="V63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="W63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="X63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Y63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Z63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AA63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AB63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AC63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AD63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AE63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AF63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AG63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AH63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AI63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AK63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AL63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AM63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AN63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AO63" t="n">
-        <v>1729</v>
+        <v>1829</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00702826</t>
+          <t>PB00702828</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Argent</t>
+          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9152,7 +9343,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -9252,18 +9443,21 @@
         <v>1829</v>
       </c>
       <c r="AO64" t="n">
+        <v>1829</v>
+      </c>
+      <c r="AP64" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00702828</t>
+          <t>PB00702827</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9289,7 +9483,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -9389,18 +9583,21 @@
         <v>1829</v>
       </c>
       <c r="AO65" t="n">
+        <v>1829</v>
+      </c>
+      <c r="AP65" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00702827</t>
+          <t>PB00702836</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9426,118 +9623,121 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="J66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="K66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="L66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="M66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="N66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="O66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="P66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Q66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="R66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="S66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="T66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="U66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="V66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="W66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="X66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Y66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Z66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AA66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AB66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AC66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AD66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AE66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AF66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AG66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AH66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AI66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AK66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AL66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AM66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AN66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AO66" t="n">
-        <v>1829</v>
+        <v>1979</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1979</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00702836</t>
+          <t>PB00702838</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9563,7 +9763,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -9663,18 +9863,21 @@
         <v>1979</v>
       </c>
       <c r="AO67" t="n">
+        <v>1979</v>
+      </c>
+      <c r="AP67" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00702838</t>
+          <t>PB00702837</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9700,7 +9903,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -9800,18 +10003,21 @@
         <v>1979</v>
       </c>
       <c r="AO68" t="n">
+        <v>1979</v>
+      </c>
+      <c r="AP68" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00702837</t>
+          <t>PB00702839</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9837,118 +10043,121 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="J69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="K69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="L69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="M69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="N69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="O69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="P69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Q69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="R69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="S69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="T69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="U69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="V69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="W69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="X69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Y69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Z69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AA69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AB69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AC69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AD69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AE69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AF69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AG69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AH69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AI69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AK69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AL69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AM69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AN69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AO69" t="n">
-        <v>1979</v>
+        <v>2479</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00702839</t>
+          <t>PB00702841</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
+          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9974,7 +10183,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -10074,18 +10283,21 @@
         <v>2479</v>
       </c>
       <c r="AO70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AP70" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00702841</t>
+          <t>PB00702840</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10111,7 +10323,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -10211,18 +10423,21 @@
         <v>2479</v>
       </c>
       <c r="AO71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AP71" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00702840</t>
+          <t>PB00570867</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
+          <t>Apple iPhone 15 512 Go Rose</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -10232,14 +10447,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -10248,108 +10463,109 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="J72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="K72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="L72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="M72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="N72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="O72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="P72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Q72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="R72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="S72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="T72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="U72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="V72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="W72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="X72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Y72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Z72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AA72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AB72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AC72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AD72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AE72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AF72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AG72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AH72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AI72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AK72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AL72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AM72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AN72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AO72" t="n">
-        <v>2479</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="AP72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10473,6 +10689,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10576,6 +10793,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
+      <c r="AP74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP74"/>
+  <dimension ref="A1:AQ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,11 @@
           <t>2026-02-17 15:47:10</t>
         </is>
       </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>2026-02-17 16:52:00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -772,6 +777,9 @@
       <c r="AP2" t="n">
         <v>659</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -912,6 +920,9 @@
       <c r="AP3" t="n">
         <v>659</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1052,6 +1063,9 @@
       <c r="AP4" t="n">
         <v>749</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1192,6 +1206,9 @@
       <c r="AP5" t="n">
         <v>749</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1332,6 +1349,9 @@
       <c r="AP6" t="n">
         <v>809</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1472,6 +1492,9 @@
       <c r="AP7" t="n">
         <v>809</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1612,6 +1635,9 @@
       <c r="AP8" t="n">
         <v>809</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1752,6 +1778,9 @@
       <c r="AP9" t="n">
         <v>809</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1892,6 +1921,9 @@
       <c r="AP10" t="n">
         <v>809</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2032,6 +2064,9 @@
       <c r="AP11" t="n">
         <v>849</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2172,6 +2207,9 @@
       <c r="AP12" t="n">
         <v>899</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2312,6 +2350,9 @@
       <c r="AP13" t="n">
         <v>899</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2452,6 +2493,9 @@
       <c r="AP14" t="n">
         <v>909</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2592,6 +2636,9 @@
       <c r="AP15" t="n">
         <v>909</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2732,6 +2779,9 @@
       <c r="AP16" t="n">
         <v>909</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2872,6 +2922,9 @@
       <c r="AP17" t="n">
         <v>909</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3008,6 +3061,9 @@
       <c r="AP18" t="n">
         <v>949</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3148,6 +3204,9 @@
       <c r="AP19" t="n">
         <v>969</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3288,6 +3347,9 @@
       <c r="AP20" t="n">
         <v>969</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3428,6 +3490,9 @@
       <c r="AP21" t="n">
         <v>969</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3568,6 +3633,9 @@
       <c r="AP22" t="n">
         <v>969</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3708,6 +3776,9 @@
       <c r="AP23" t="n">
         <v>969</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3848,6 +3919,9 @@
       <c r="AP24" t="n">
         <v>999</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3988,6 +4062,9 @@
       <c r="AP25" t="n">
         <v>999</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4128,6 +4205,9 @@
       <c r="AP26" t="n">
         <v>1039</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4268,6 +4348,9 @@
       <c r="AP27" t="n">
         <v>1079</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4408,6 +4491,9 @@
       <c r="AP28" t="n">
         <v>1079</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4548,6 +4634,9 @@
       <c r="AP29" t="n">
         <v>1079</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4688,6 +4777,9 @@
       <c r="AP30" t="n">
         <v>1079</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4828,6 +4920,9 @@
       <c r="AP31" t="n">
         <v>1099</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4968,6 +5063,9 @@
       <c r="AP32" t="n">
         <v>1099</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5108,6 +5206,9 @@
       <c r="AP33" t="n">
         <v>1199</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5248,6 +5349,9 @@
       <c r="AP34" t="n">
         <v>1219</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5388,6 +5492,9 @@
       <c r="AP35" t="n">
         <v>1219</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5407,7 +5514,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (18/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -5526,6 +5633,9 @@
         <v>1219</v>
       </c>
       <c r="AP36" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AQ36" t="n">
         <v>1219</v>
       </c>
     </row>
@@ -5668,6 +5778,9 @@
       <c r="AP37" t="n">
         <v>1219</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5808,6 +5921,9 @@
       <c r="AP38" t="n">
         <v>1219</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5948,6 +6064,9 @@
       <c r="AP39" t="n">
         <v>1229</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6088,6 +6207,9 @@
       <c r="AP40" t="n">
         <v>1249</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6228,6 +6350,9 @@
       <c r="AP41" t="n">
         <v>1249</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6368,6 +6493,9 @@
       <c r="AP42" t="n">
         <v>1329</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6508,6 +6636,9 @@
       <c r="AP43" t="n">
         <v>1329</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6648,6 +6779,9 @@
       <c r="AP44" t="n">
         <v>1329</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6788,6 +6922,9 @@
       <c r="AP45" t="n">
         <v>1329</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6928,6 +7065,9 @@
       <c r="AP46" t="n">
         <v>1329</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7068,6 +7208,9 @@
       <c r="AP47" t="n">
         <v>1329</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7208,6 +7351,9 @@
       <c r="AP48" t="n">
         <v>1329</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7348,6 +7494,9 @@
       <c r="AP49" t="n">
         <v>1349</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7488,6 +7637,9 @@
       <c r="AP50" t="n">
         <v>1479</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7628,6 +7780,9 @@
       <c r="AP51" t="n">
         <v>1479</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7768,6 +7923,9 @@
       <c r="AP52" t="n">
         <v>1479</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7908,6 +8066,9 @@
       <c r="AP53" t="n">
         <v>1579</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8048,6 +8209,9 @@
       <c r="AP54" t="n">
         <v>1579</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8188,6 +8352,9 @@
       <c r="AP55" t="n">
         <v>1579</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8328,6 +8495,9 @@
       <c r="AP56" t="n">
         <v>1579</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8468,6 +8638,9 @@
       <c r="AP57" t="n">
         <v>1579</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8608,6 +8781,9 @@
       <c r="AP58" t="n">
         <v>1579</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8748,6 +8924,9 @@
       <c r="AP59" t="n">
         <v>1579</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8888,6 +9067,9 @@
       <c r="AP60" t="n">
         <v>1729</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9028,6 +9210,9 @@
       <c r="AP61" t="n">
         <v>1729</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9168,6 +9353,9 @@
       <c r="AP62" t="n">
         <v>1729</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9308,6 +9496,9 @@
       <c r="AP63" t="n">
         <v>1829</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9448,6 +9639,9 @@
       <c r="AP64" t="n">
         <v>1829</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9588,6 +9782,9 @@
       <c r="AP65" t="n">
         <v>1829</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9728,6 +9925,9 @@
       <c r="AP66" t="n">
         <v>1979</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9868,6 +10068,9 @@
       <c r="AP67" t="n">
         <v>1979</v>
       </c>
+      <c r="AQ67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10008,6 +10211,9 @@
       <c r="AP68" t="n">
         <v>1979</v>
       </c>
+      <c r="AQ68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10148,6 +10354,9 @@
       <c r="AP69" t="n">
         <v>2479</v>
       </c>
+      <c r="AQ69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10288,6 +10497,9 @@
       <c r="AP70" t="n">
         <v>2479</v>
       </c>
+      <c r="AQ70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10428,6 +10640,9 @@
       <c r="AP71" t="n">
         <v>2479</v>
       </c>
+      <c r="AQ71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10566,6 +10781,7 @@
         <v>1099</v>
       </c>
       <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10690,6 +10906,7 @@
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10794,6 +11011,7 @@
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
+      <c r="AQ74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ74"/>
+  <dimension ref="A1:AR74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,16 +637,21 @@
           <t>2026-02-17 16:52:00</t>
         </is>
       </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>2026-02-17 17:53:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PB00570856</t>
+          <t>PB00668659</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Noir</t>
+          <t>Apple iPhone 16e 128 Go Blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -656,14 +661,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -672,124 +677,89 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668659.html</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="J2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="K2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="L2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="M2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="N2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="O2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="P2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="Q2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="R2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="S2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="T2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="U2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="V2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="W2" t="n">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="X2" t="n">
-        <v>659</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>659</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>659</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>659</v>
+        <v>619</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="n">
+        <v>619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PB00570857</t>
+          <t>PB00570856</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Rose</t>
+          <t>Apple iPhone 15 128 Go Noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -815,7 +785,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -921,18 +891,21 @@
         <v>659</v>
       </c>
       <c r="AQ3" t="n">
+        <v>659</v>
+      </c>
+      <c r="AR3" t="n">
         <v>659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PB00668661</t>
+          <t>PB00570857</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 256 Go Blanc</t>
+          <t>Apple iPhone 15 128 Go Rose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -942,14 +915,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -958,124 +931,127 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668661.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="J4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="K4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="L4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="M4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="N4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="O4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="P4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="Q4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="R4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="S4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="T4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="U4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="V4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="W4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="X4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="Y4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="Z4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AA4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AB4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AC4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AD4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AE4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AF4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AG4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AH4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AI4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AJ4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AK4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AL4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AM4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AN4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AO4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AP4" t="n">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="AQ4" t="n">
-        <v>749</v>
+        <v>659</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>659</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PB00668660</t>
+          <t>PB00668661</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 256 Go Noir</t>
+          <t>Apple iPhone 16e 256 Go Blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1085,7 +1061,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1101,7 +1077,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668660.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668661.html</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -1207,18 +1183,21 @@
         <v>749</v>
       </c>
       <c r="AQ5" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR5" t="n">
         <v>749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PB00642659</t>
+          <t>PB00668660</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Blanc</t>
+          <t>Apple iPhone 16e 256 Go Noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1228,14 +1207,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1244,124 +1223,127 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642659.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668660.html</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="J6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="L6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="M6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="N6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="O6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="P6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="Q6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="R6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="S6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="T6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="U6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="V6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="W6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="X6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="Y6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="Z6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AA6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AB6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AC6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AD6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AE6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AF6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AG6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AH6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AI6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AJ6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AK6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AL6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AM6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AN6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AO6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AP6" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AQ6" t="n">
-        <v>809</v>
+        <v>749</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PB00642660</t>
+          <t>PB00642659</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Noir</t>
+          <t>Apple iPhone 16 128 Go Blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1387,7 +1369,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642660.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642659.html</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1493,18 +1475,21 @@
         <v>809</v>
       </c>
       <c r="AQ7" t="n">
+        <v>809</v>
+      </c>
+      <c r="AR7" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PB00642657</t>
+          <t>PB00642660</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Outremer</t>
+          <t>Apple iPhone 16 128 Go Noir</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1530,7 +1515,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642657.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642660.html</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1636,18 +1621,21 @@
         <v>809</v>
       </c>
       <c r="AQ8" t="n">
+        <v>809</v>
+      </c>
+      <c r="AR8" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PB00642658</t>
+          <t>PB00642657</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Rose</t>
+          <t>Apple iPhone 16 128 Go Outremer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1657,7 +1645,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1673,7 +1661,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642658.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642657.html</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1779,18 +1767,21 @@
         <v>809</v>
       </c>
       <c r="AQ9" t="n">
+        <v>809</v>
+      </c>
+      <c r="AR9" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PB00642656</t>
+          <t>PB00642658</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Sarcelle</t>
+          <t>Apple iPhone 16 128 Go Rose</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1800,7 +1791,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1816,7 +1807,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642656.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642658.html</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1922,18 +1913,21 @@
         <v>809</v>
       </c>
       <c r="AQ10" t="n">
+        <v>809</v>
+      </c>
+      <c r="AR10" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PB00570863</t>
+          <t>PB00642656</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 256 Go Jaune</t>
+          <t>Apple iPhone 16 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1950,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1959,124 +1953,127 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570863.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642656.html</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="J11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="K11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="L11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="M11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="N11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="O11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="P11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="Q11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="R11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="S11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="T11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="U11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="V11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="W11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="X11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="Y11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="Z11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AA11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AB11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AC11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AD11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AE11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AF11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AG11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AH11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AI11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AJ11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AK11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AL11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AM11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AN11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AO11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AP11" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AQ11" t="n">
-        <v>849</v>
+        <v>809</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>809</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PB00516137</t>
+          <t>PB00570863</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 512 Go (PRODUCT)RED</t>
+          <t>Apple iPhone 15 256 Go Jaune</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2093,7 +2090,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2102,124 +2099,127 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516137.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570863.html</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="J12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="K12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="L12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="M12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="N12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="O12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="P12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="Q12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="R12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="S12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="T12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="U12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="V12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="W12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="X12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="Y12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="Z12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AA12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AB12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AC12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AD12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AE12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AF12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AG12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AH12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AI12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AJ12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AK12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AL12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AM12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AN12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AO12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AP12" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AQ12" t="n">
-        <v>899</v>
+        <v>849</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PB00516141</t>
+          <t>PB00516137</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 512 Go Lumière Stellaire</t>
+          <t>Apple iPhone 14 512 Go (PRODUCT)RED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516141.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516137.html</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -2351,18 +2351,21 @@
         <v>899</v>
       </c>
       <c r="AQ13" t="n">
+        <v>899</v>
+      </c>
+      <c r="AR13" t="n">
         <v>899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PB00642644</t>
+          <t>PB00516141</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Noir</t>
+          <t>Apple iPhone 14 512 Go Lumière Stellaire</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2372,14 +2375,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2388,124 +2391,127 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642644.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516141.html</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="J14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="K14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="L14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="M14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="N14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="O14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="P14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="Q14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="R14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="S14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="T14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="U14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="V14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="W14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="X14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="Y14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="Z14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AA14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AB14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AC14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AD14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AE14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AF14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AG14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AH14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AI14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AJ14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AK14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AL14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AM14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AN14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AO14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AP14" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AQ14" t="n">
-        <v>909</v>
+        <v>899</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>899</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PB00642641</t>
+          <t>PB00642644</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Outremer</t>
+          <t>Apple iPhone 16 Plus 128 Go Noir</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2515,7 +2521,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -2531,7 +2537,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642641.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642644.html</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -2637,18 +2643,21 @@
         <v>909</v>
       </c>
       <c r="AQ15" t="n">
+        <v>909</v>
+      </c>
+      <c r="AR15" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PB00642642</t>
+          <t>PB00642641</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Rose</t>
+          <t>Apple iPhone 16 Plus 128 Go Outremer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2658,7 +2667,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2674,7 +2683,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642641.html</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -2780,18 +2789,21 @@
         <v>909</v>
       </c>
       <c r="AQ16" t="n">
+        <v>909</v>
+      </c>
+      <c r="AR16" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PB00642640</t>
+          <t>PB00642642</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
+          <t>Apple iPhone 16 Plus 128 Go Rose</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2801,7 +2813,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -2817,7 +2829,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -2923,18 +2935,21 @@
         <v>909</v>
       </c>
       <c r="AQ17" t="n">
+        <v>909</v>
+      </c>
+      <c r="AR17" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PB00516161</t>
+          <t>PB00642640</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
+          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2947,133 +2962,140 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40</v>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="J18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="K18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="L18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="M18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="N18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="O18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="P18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="Q18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="R18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="S18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="T18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="U18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="V18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="W18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="X18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="Y18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="Z18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AA18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AB18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AC18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AD18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AE18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AF18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AG18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AH18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AI18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AJ18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AK18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AL18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AM18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AN18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AO18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AP18" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AQ18" t="n">
-        <v>949</v>
+        <v>909</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>909</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PB00702806</t>
+          <t>PB00516161</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Blanc</t>
+          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3086,137 +3108,136 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>24</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="J19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="K19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="L19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="M19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="N19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="O19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="P19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="Q19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="R19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="S19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="T19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="U19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="V19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="W19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="X19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="Y19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="Z19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AA19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AB19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AC19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AD19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AE19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AF19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AG19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AH19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AI19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AJ19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AK19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AL19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AM19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AN19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AO19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AP19" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AQ19" t="n">
-        <v>969</v>
+        <v>949</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>949</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PB00702808</t>
+          <t>PB00702806</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Brume</t>
+          <t>Apple iPhone 17 256 Go Blanc</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3242,7 +3263,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -3348,18 +3369,21 @@
         <v>969</v>
       </c>
       <c r="AQ20" t="n">
+        <v>969</v>
+      </c>
+      <c r="AR20" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PB00702809</t>
+          <t>PB00702808</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Lavande</t>
+          <t>Apple iPhone 17 256 Go Brume</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3385,7 +3409,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -3491,18 +3515,21 @@
         <v>969</v>
       </c>
       <c r="AQ21" t="n">
+        <v>969</v>
+      </c>
+      <c r="AR21" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PB00702804</t>
+          <t>PB00702809</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Noir</t>
+          <t>Apple iPhone 17 256 Go Lavande</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3528,7 +3555,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -3634,18 +3661,21 @@
         <v>969</v>
       </c>
       <c r="AQ22" t="n">
+        <v>969</v>
+      </c>
+      <c r="AR22" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PB00702811</t>
+          <t>PB00702804</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Sauge</t>
+          <t>Apple iPhone 17 256 Go Noir</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3671,7 +3701,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -3777,18 +3807,21 @@
         <v>969</v>
       </c>
       <c r="AQ23" t="n">
+        <v>969</v>
+      </c>
+      <c r="AR23" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PB00668663</t>
+          <t>PB00702811</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Blanc</t>
+          <t>Apple iPhone 17 256 Go Sauge</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3798,14 +3831,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3814,124 +3847,127 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="J24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="K24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="L24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="M24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="N24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="O24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="P24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="Q24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="R24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="S24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="T24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="U24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="V24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="W24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="X24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="Y24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="Z24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AA24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AB24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AC24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AD24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AE24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AF24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AG24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AH24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AI24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AJ24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AK24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AL24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AM24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AN24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AO24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AP24" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AQ24" t="n">
-        <v>999</v>
+        <v>969</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00668662</t>
+          <t>PB00668663</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Noir</t>
+          <t>Apple iPhone 16e 512 Go Blanc</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3941,7 +3977,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -3957,7 +3993,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -4063,18 +4099,21 @@
         <v>999</v>
       </c>
       <c r="AQ25" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR25" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00642638</t>
+          <t>PB00668662</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
+          <t>Apple iPhone 16e 512 Go Noir</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4084,14 +4123,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4100,124 +4139,127 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="J26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="K26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="L26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="M26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="N26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="O26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="P26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="Q26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="R26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="S26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="T26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="U26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="V26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="W26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="X26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="Y26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="Z26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AA26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AB26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AC26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AD26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AE26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AF26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AG26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AH26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AI26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AK26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AL26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AM26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AN26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AO26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AP26" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1039</v>
+        <v>999</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00702797</t>
+          <t>PB00642638</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Blanc nuage</t>
+          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4227,14 +4269,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4243,124 +4285,127 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="J27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="K27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="L27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="M27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="N27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="O27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="P27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Q27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="R27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="S27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="T27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="U27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="V27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="W27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="X27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Y27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Z27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AA27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AB27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AC27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AD27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AE27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AF27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AG27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AH27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AI27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AK27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AL27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AM27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AN27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AO27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AP27" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1079</v>
+        <v>1039</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1039</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00702807</t>
+          <t>PB00702797</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Bleu ciel</t>
+          <t>Apple iPhone Air 256 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4386,7 +4431,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -4492,18 +4537,21 @@
         <v>1079</v>
       </c>
       <c r="AQ28" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AR28" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PB00702792</t>
+          <t>PB00702807</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Noir sidéral</t>
+          <t>Apple iPhone Air 256 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4513,7 +4561,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -4529,7 +4577,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -4635,18 +4683,21 @@
         <v>1079</v>
       </c>
       <c r="AQ29" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AR29" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00702801</t>
+          <t>PB00702792</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Or clair</t>
+          <t>Apple iPhone Air 256 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4656,7 +4707,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -4672,7 +4723,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -4778,18 +4829,21 @@
         <v>1079</v>
       </c>
       <c r="AQ30" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AR30" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00570868</t>
+          <t>PB00702801</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Jaune</t>
+          <t>Apple iPhone Air 256 Go Or clair</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4806,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4815,124 +4869,127 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="J31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="K31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="L31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="M31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="N31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="O31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="P31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Q31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="R31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="S31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="T31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="U31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="V31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="W31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="X31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Z31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AA31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AB31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AC31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AD31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AE31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AF31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AG31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AH31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AI31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AK31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AL31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AM31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AN31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AO31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AP31" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1099</v>
+        <v>1079</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1079</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00570870</t>
+          <t>PB00570868</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Vert</t>
+          <t>Apple iPhone 15 512 Go Jaune</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4958,7 +5015,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -5064,18 +5121,21 @@
         <v>1099</v>
       </c>
       <c r="AQ32" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AR32" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00516186</t>
+          <t>PB00570870</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro 1 To Or</t>
+          <t>Apple iPhone 15 512 Go Vert</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5092,7 +5152,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -5101,124 +5161,127 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="J33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="K33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="L33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="M33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="N33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="O33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="P33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Q33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="R33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="S33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="T33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="U33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="V33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="W33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="X33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Y33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Z33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AA33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AB33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AC33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AD33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AE33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AF33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AG33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AH33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AI33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AK33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AL33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AM33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AN33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AO33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AP33" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1199</v>
+        <v>1099</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00702815</t>
+          <t>PB00516186</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Blanc</t>
+          <t>Apple iPhone 14 Pro 1 To Or</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5228,14 +5291,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -5244,124 +5307,127 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="J34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="K34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="L34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="M34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="N34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="O34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="P34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Q34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="R34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="S34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="T34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="U34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="V34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="W34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="X34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Y34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Z34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AA34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AB34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AC34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AD34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AE34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AF34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AG34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AH34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AI34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AK34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AL34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AM34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AN34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AO34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AP34" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1219</v>
+        <v>1199</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00702816</t>
+          <t>PB00702815</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Brume</t>
+          <t>Apple iPhone 17 512 Go Blanc</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5371,7 +5437,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -5387,7 +5453,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -5493,18 +5559,21 @@
         <v>1219</v>
       </c>
       <c r="AQ35" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AR35" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00702817</t>
+          <t>PB00702816</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Lavande</t>
+          <t>Apple iPhone 17 512 Go Brume</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5530,7 +5599,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -5636,18 +5705,21 @@
         <v>1219</v>
       </c>
       <c r="AQ36" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AR36" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00702813</t>
+          <t>PB00702817</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Noir</t>
+          <t>Apple iPhone 17 512 Go Lavande</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5657,7 +5729,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -5673,7 +5745,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -5779,18 +5851,21 @@
         <v>1219</v>
       </c>
       <c r="AQ37" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AR37" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00702818</t>
+          <t>PB00702813</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Sauge</t>
+          <t>Apple iPhone 17 512 Go Noir</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5800,7 +5875,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -5816,7 +5891,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -5922,18 +5997,21 @@
         <v>1219</v>
       </c>
       <c r="AQ38" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AR38" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00570890</t>
+          <t>PB00702818</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
+          <t>Apple iPhone 17 512 Go Sauge</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5950,7 +6028,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -5959,124 +6037,127 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="J39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="K39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="L39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="M39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="N39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="O39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="P39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Q39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="R39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="S39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="T39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="U39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="V39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="W39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="X39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Y39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Z39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AA39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AB39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AC39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AD39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AE39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AF39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AG39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AH39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AI39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AK39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AL39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AM39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AN39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AO39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AP39" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1229</v>
+        <v>1219</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00642649</t>
+          <t>PB00570890</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Blanc</t>
+          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6093,7 +6174,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -6102,124 +6183,127 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="J40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="K40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="L40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="M40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="N40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="O40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="P40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="R40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="S40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="T40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="U40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="V40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="W40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="X40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Y40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Z40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AA40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AB40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AC40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AD40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AE40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AF40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AG40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AH40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AI40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AK40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AL40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AM40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AN40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AO40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AP40" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1249</v>
+        <v>1229</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00642648</t>
+          <t>PB00642649</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Rose</t>
+          <t>Apple iPhone 16 512 Go Blanc</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6245,7 +6329,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -6351,18 +6435,21 @@
         <v>1249</v>
       </c>
       <c r="AQ41" t="n">
+        <v>1249</v>
+      </c>
+      <c r="AR41" t="n">
         <v>1249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00702819</t>
+          <t>PB00642648</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
+          <t>Apple iPhone 16 512 Go Rose</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6379,7 +6466,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -6388,124 +6475,127 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="J42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="K42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="L42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="M42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="N42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="O42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="P42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="R42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="S42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="T42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="U42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="V42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="W42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="X42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Y42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Z42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AA42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AB42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AC42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AD42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AE42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AF42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AG42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AH42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AI42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AK42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AL42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AM42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AN42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AO42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AP42" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1329</v>
+        <v>1249</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00702822</t>
+          <t>PB00702819</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6531,7 +6621,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -6637,18 +6727,21 @@
         <v>1329</v>
       </c>
       <c r="AQ43" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AR43" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00702820</t>
+          <t>PB00702822</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6674,7 +6767,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -6780,18 +6873,21 @@
         <v>1329</v>
       </c>
       <c r="AQ44" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AR44" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00702798</t>
+          <t>PB00702820</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Blanc nuage</t>
+          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6808,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -6817,7 +6913,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -6923,18 +7019,21 @@
         <v>1329</v>
       </c>
       <c r="AQ45" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AR45" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00702810</t>
+          <t>PB00702798</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Bleu ciel</t>
+          <t>Apple iPhone Air 512 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6960,7 +7059,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -7066,18 +7165,21 @@
         <v>1329</v>
       </c>
       <c r="AQ46" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AR46" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00702793</t>
+          <t>PB00702810</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Noir sidéral</t>
+          <t>Apple iPhone Air 512 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7103,7 +7205,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -7209,18 +7311,21 @@
         <v>1329</v>
       </c>
       <c r="AQ47" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AR47" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00702802</t>
+          <t>PB00702793</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Or clair</t>
+          <t>Apple iPhone Air 512 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7246,7 +7351,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -7352,18 +7457,21 @@
         <v>1329</v>
       </c>
       <c r="AQ48" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AR48" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00642633</t>
+          <t>PB00702802</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
+          <t>Apple iPhone Air 512 Go Or clair</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7380,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -7389,124 +7497,127 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="J49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="K49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="L49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="M49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="N49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="O49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="P49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Q49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="R49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="S49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="T49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="U49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="V49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="W49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="X49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Y49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Z49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AA49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AB49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AC49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AD49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AE49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AF49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AG49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AH49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AI49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AK49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AL49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AM49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AN49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AO49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AP49" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1349</v>
+        <v>1329</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00702830</t>
+          <t>PB00642633</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
+          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7516,14 +7627,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -7532,124 +7643,127 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="J50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="K50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="L50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="M50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="N50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="O50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="P50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Q50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="R50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="S50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="T50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="U50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="V50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="W50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="X50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Y50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Z50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AA50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AB50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AC50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AD50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AE50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AF50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AG50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AH50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AI50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AK50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AL50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AM50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AN50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AO50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AP50" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1479</v>
+        <v>1349</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00702832</t>
+          <t>PB00702830</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7659,7 +7773,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -7675,7 +7789,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -7781,18 +7895,21 @@
         <v>1479</v>
       </c>
       <c r="AQ51" t="n">
+        <v>1479</v>
+      </c>
+      <c r="AR51" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00702831</t>
+          <t>PB00702832</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7802,7 +7919,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -7818,7 +7935,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -7924,18 +8041,21 @@
         <v>1479</v>
       </c>
       <c r="AQ52" t="n">
+        <v>1479</v>
+      </c>
+      <c r="AR52" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00702823</t>
+          <t>PB00702831</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7961,124 +8081,127 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="J53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="K53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="L53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="M53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="N53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="O53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="P53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Q53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="R53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="S53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="T53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="U53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="V53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="W53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="X53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Y53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Z53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AA53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AB53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AC53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AD53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AE53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AF53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AG53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AH53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AI53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AK53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AL53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AM53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AN53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AO53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AP53" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1579</v>
+        <v>1479</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1479</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00702825</t>
+          <t>PB00702823</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8104,7 +8227,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -8210,18 +8333,21 @@
         <v>1579</v>
       </c>
       <c r="AQ54" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AR54" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00702824</t>
+          <t>PB00702825</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8231,7 +8357,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -8247,7 +8373,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -8353,18 +8479,21 @@
         <v>1579</v>
       </c>
       <c r="AQ55" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AR55" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00702799</t>
+          <t>PB00702824</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Blanc nuage</t>
+          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8381,7 +8510,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -8390,7 +8519,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -8496,18 +8625,21 @@
         <v>1579</v>
       </c>
       <c r="AQ56" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AR56" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00702812</t>
+          <t>PB00702799</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Bleu ciel</t>
+          <t>Apple iPhone Air 1 To Blanc nuage</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8533,7 +8665,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -8639,18 +8771,21 @@
         <v>1579</v>
       </c>
       <c r="AQ57" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AR57" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00702794</t>
+          <t>PB00702812</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Noir sidéral</t>
+          <t>Apple iPhone Air 1 To Bleu ciel</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8660,7 +8795,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -8676,7 +8811,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -8782,18 +8917,21 @@
         <v>1579</v>
       </c>
       <c r="AQ58" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AR58" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00702805</t>
+          <t>PB00702794</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Or clair</t>
+          <t>Apple iPhone Air 1 To Noir sidéral</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8803,7 +8941,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -8819,7 +8957,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -8925,18 +9063,21 @@
         <v>1579</v>
       </c>
       <c r="AQ59" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AR59" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00702833</t>
+          <t>PB00702805</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
+          <t>Apple iPhone Air 1 To Or clair</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8946,14 +9087,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -8962,124 +9103,127 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="J60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="K60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="L60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="M60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="N60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="O60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="P60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Q60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="R60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="S60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="T60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="U60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="V60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="W60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="X60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Y60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Z60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AA60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AB60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AC60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AD60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AE60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AF60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AG60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AH60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AI60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AK60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AL60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AM60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AN60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AO60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AP60" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1729</v>
+        <v>1579</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00702835</t>
+          <t>PB00702833</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -9105,7 +9249,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -9211,18 +9355,21 @@
         <v>1729</v>
       </c>
       <c r="AQ61" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AR61" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00702834</t>
+          <t>PB00702835</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9248,7 +9395,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -9354,18 +9501,21 @@
         <v>1729</v>
       </c>
       <c r="AQ62" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AR62" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00702826</t>
+          <t>PB00702834</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Argent</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9391,124 +9541,127 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="J63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="K63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="L63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="M63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="N63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="O63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="P63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Q63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="R63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="S63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="T63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="U63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="V63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="W63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="X63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Y63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Z63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AA63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AB63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AC63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AD63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AE63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AF63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AG63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AH63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AI63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AK63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AL63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AM63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AN63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AO63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AP63" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1829</v>
+        <v>1729</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1729</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00702828</t>
+          <t>PB00702826</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro 1 To Argent</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9534,7 +9687,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -9640,18 +9793,21 @@
         <v>1829</v>
       </c>
       <c r="AQ64" t="n">
+        <v>1829</v>
+      </c>
+      <c r="AR64" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00702827</t>
+          <t>PB00702828</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9677,7 +9833,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -9783,18 +9939,21 @@
         <v>1829</v>
       </c>
       <c r="AQ65" t="n">
+        <v>1829</v>
+      </c>
+      <c r="AR65" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00702836</t>
+          <t>PB00702827</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
+          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9820,124 +9979,127 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="J66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="K66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="L66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="M66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="N66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="O66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="P66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Q66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="R66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="S66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="T66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="U66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="V66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="W66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="X66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Y66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Z66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AA66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AB66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AC66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AD66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AE66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AF66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AG66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AH66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AI66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AK66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AL66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AM66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AN66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AO66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AP66" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1979</v>
+        <v>1829</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00702838</t>
+          <t>PB00702836</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9963,7 +10125,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -10069,18 +10231,21 @@
         <v>1979</v>
       </c>
       <c r="AQ67" t="n">
+        <v>1979</v>
+      </c>
+      <c r="AR67" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00702837</t>
+          <t>PB00702838</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10106,7 +10271,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -10212,18 +10377,21 @@
         <v>1979</v>
       </c>
       <c r="AQ68" t="n">
+        <v>1979</v>
+      </c>
+      <c r="AR68" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00702839</t>
+          <t>PB00702837</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
+          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -10249,124 +10417,127 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="J69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="K69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="L69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="M69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="N69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="O69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="P69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Q69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="R69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="S69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="T69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="U69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="V69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="W69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="X69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Y69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Z69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AA69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AB69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AC69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AD69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AE69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AF69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AG69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AH69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AI69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AK69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AL69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AM69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AN69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AO69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AP69" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2479</v>
+        <v>1979</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1979</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00702841</t>
+          <t>PB00702839</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -10392,7 +10563,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -10498,18 +10669,21 @@
         <v>2479</v>
       </c>
       <c r="AQ70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AR70" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00702840</t>
+          <t>PB00702841</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
+          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10535,7 +10709,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -10641,18 +10815,21 @@
         <v>2479</v>
       </c>
       <c r="AQ71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AR71" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00570867</t>
+          <t>PB00702840</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Rose</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -10662,14 +10839,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -10678,120 +10855,127 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="J72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="K72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="L72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="M72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="N72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="O72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="P72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Q72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="R72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="S72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="T72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="U72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="V72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="W72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="X72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Y72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Z72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AA72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AB72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AC72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AD72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AE72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AF72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AG72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AH72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AI72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AK72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AL72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AM72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AN72" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AO72" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
+        <v>2479</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00642639</t>
+          <t>PB00570867</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Noir</t>
+          <t>Apple iPhone 15 512 Go Rose</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -10801,14 +10985,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -10817,106 +11001,121 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="J73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="K73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="L73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="M73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="N73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="O73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="P73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Q73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="R73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="S73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="T73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="U73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="V73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="W73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="X73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Y73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Z73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AA73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AB73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AC73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AD73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AE73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AF73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AG73" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AH73" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
+        <v>1099</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1099</v>
+      </c>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00668659</t>
+          <t>PB00642639</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 128 Go Blanc</t>
+          <t>Apple iPhone 16 Plus 256 Go Noir</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -10926,14 +11125,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -10942,67 +11141,87 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668659.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="J74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="K74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="L74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="M74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="N74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="O74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="P74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="Q74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="R74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="S74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="T74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="U74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="V74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="W74" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="X74" t="n">
-        <v>619</v>
-      </c>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
+        <v>1039</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1039</v>
+      </c>
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
@@ -11012,6 +11231,7 @@
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR74"/>
+  <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,11 @@
       <c r="AR1" t="inlineStr">
         <is>
           <t>2026-02-17 17:53:16</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>2026-02-17 18:50:38</t>
         </is>
       </c>
     </row>
@@ -750,6 +755,9 @@
       <c r="AR2" t="n">
         <v>619</v>
       </c>
+      <c r="AS2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -896,6 +904,9 @@
       <c r="AR3" t="n">
         <v>659</v>
       </c>
+      <c r="AS3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1042,6 +1053,9 @@
       <c r="AR4" t="n">
         <v>659</v>
       </c>
+      <c r="AS4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1188,6 +1202,9 @@
       <c r="AR5" t="n">
         <v>749</v>
       </c>
+      <c r="AS5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1334,6 +1351,9 @@
       <c r="AR6" t="n">
         <v>749</v>
       </c>
+      <c r="AS6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1480,6 +1500,9 @@
       <c r="AR7" t="n">
         <v>809</v>
       </c>
+      <c r="AS7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1626,6 +1649,9 @@
       <c r="AR8" t="n">
         <v>809</v>
       </c>
+      <c r="AS8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1772,6 +1798,9 @@
       <c r="AR9" t="n">
         <v>809</v>
       </c>
+      <c r="AS9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1918,6 +1947,9 @@
       <c r="AR10" t="n">
         <v>809</v>
       </c>
+      <c r="AS10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2064,6 +2096,9 @@
       <c r="AR11" t="n">
         <v>809</v>
       </c>
+      <c r="AS11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2210,6 +2245,9 @@
       <c r="AR12" t="n">
         <v>849</v>
       </c>
+      <c r="AS12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2356,6 +2394,9 @@
       <c r="AR13" t="n">
         <v>899</v>
       </c>
+      <c r="AS13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2502,6 +2543,9 @@
       <c r="AR14" t="n">
         <v>899</v>
       </c>
+      <c r="AS14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2648,6 +2692,9 @@
       <c r="AR15" t="n">
         <v>909</v>
       </c>
+      <c r="AS15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2794,6 +2841,9 @@
       <c r="AR16" t="n">
         <v>909</v>
       </c>
+      <c r="AS16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2940,6 +2990,9 @@
       <c r="AR17" t="n">
         <v>909</v>
       </c>
+      <c r="AS17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3086,6 +3139,9 @@
       <c r="AR18" t="n">
         <v>909</v>
       </c>
+      <c r="AS18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3228,6 +3284,9 @@
       <c r="AR19" t="n">
         <v>949</v>
       </c>
+      <c r="AS19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3374,6 +3433,9 @@
       <c r="AR20" t="n">
         <v>969</v>
       </c>
+      <c r="AS20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3520,6 +3582,9 @@
       <c r="AR21" t="n">
         <v>969</v>
       </c>
+      <c r="AS21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3666,6 +3731,9 @@
       <c r="AR22" t="n">
         <v>969</v>
       </c>
+      <c r="AS22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3812,6 +3880,9 @@
       <c r="AR23" t="n">
         <v>969</v>
       </c>
+      <c r="AS23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3958,6 +4029,9 @@
       <c r="AR24" t="n">
         <v>969</v>
       </c>
+      <c r="AS24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4104,6 +4178,9 @@
       <c r="AR25" t="n">
         <v>999</v>
       </c>
+      <c r="AS25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4250,6 +4327,9 @@
       <c r="AR26" t="n">
         <v>999</v>
       </c>
+      <c r="AS26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4396,6 +4476,9 @@
       <c r="AR27" t="n">
         <v>1039</v>
       </c>
+      <c r="AS27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4542,6 +4625,9 @@
       <c r="AR28" t="n">
         <v>1079</v>
       </c>
+      <c r="AS28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4688,6 +4774,9 @@
       <c r="AR29" t="n">
         <v>1079</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4834,6 +4923,9 @@
       <c r="AR30" t="n">
         <v>1079</v>
       </c>
+      <c r="AS30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4980,6 +5072,9 @@
       <c r="AR31" t="n">
         <v>1079</v>
       </c>
+      <c r="AS31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5126,6 +5221,9 @@
       <c r="AR32" t="n">
         <v>1099</v>
       </c>
+      <c r="AS32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5272,6 +5370,9 @@
       <c r="AR33" t="n">
         <v>1099</v>
       </c>
+      <c r="AS33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5418,6 +5519,9 @@
       <c r="AR34" t="n">
         <v>1199</v>
       </c>
+      <c r="AS34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5564,6 +5668,9 @@
       <c r="AR35" t="n">
         <v>1219</v>
       </c>
+      <c r="AS35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5710,6 +5817,9 @@
       <c r="AR36" t="n">
         <v>1219</v>
       </c>
+      <c r="AS36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5856,6 +5966,9 @@
       <c r="AR37" t="n">
         <v>1219</v>
       </c>
+      <c r="AS37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6002,6 +6115,9 @@
       <c r="AR38" t="n">
         <v>1219</v>
       </c>
+      <c r="AS38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6148,6 +6264,9 @@
       <c r="AR39" t="n">
         <v>1219</v>
       </c>
+      <c r="AS39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6294,6 +6413,9 @@
       <c r="AR40" t="n">
         <v>1229</v>
       </c>
+      <c r="AS40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6440,6 +6562,9 @@
       <c r="AR41" t="n">
         <v>1249</v>
       </c>
+      <c r="AS41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6586,6 +6711,9 @@
       <c r="AR42" t="n">
         <v>1249</v>
       </c>
+      <c r="AS42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6732,6 +6860,9 @@
       <c r="AR43" t="n">
         <v>1329</v>
       </c>
+      <c r="AS43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6878,6 +7009,9 @@
       <c r="AR44" t="n">
         <v>1329</v>
       </c>
+      <c r="AS44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7024,6 +7158,9 @@
       <c r="AR45" t="n">
         <v>1329</v>
       </c>
+      <c r="AS45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7170,6 +7307,9 @@
       <c r="AR46" t="n">
         <v>1329</v>
       </c>
+      <c r="AS46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7316,6 +7456,9 @@
       <c r="AR47" t="n">
         <v>1329</v>
       </c>
+      <c r="AS47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7462,6 +7605,9 @@
       <c r="AR48" t="n">
         <v>1329</v>
       </c>
+      <c r="AS48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7608,6 +7754,9 @@
       <c r="AR49" t="n">
         <v>1329</v>
       </c>
+      <c r="AS49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7754,6 +7903,9 @@
       <c r="AR50" t="n">
         <v>1349</v>
       </c>
+      <c r="AS50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7900,6 +8052,9 @@
       <c r="AR51" t="n">
         <v>1479</v>
       </c>
+      <c r="AS51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8046,6 +8201,9 @@
       <c r="AR52" t="n">
         <v>1479</v>
       </c>
+      <c r="AS52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8192,6 +8350,9 @@
       <c r="AR53" t="n">
         <v>1479</v>
       </c>
+      <c r="AS53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8338,6 +8499,9 @@
       <c r="AR54" t="n">
         <v>1579</v>
       </c>
+      <c r="AS54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8484,6 +8648,9 @@
       <c r="AR55" t="n">
         <v>1579</v>
       </c>
+      <c r="AS55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8630,6 +8797,9 @@
       <c r="AR56" t="n">
         <v>1579</v>
       </c>
+      <c r="AS56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8776,6 +8946,9 @@
       <c r="AR57" t="n">
         <v>1579</v>
       </c>
+      <c r="AS57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8922,6 +9095,9 @@
       <c r="AR58" t="n">
         <v>1579</v>
       </c>
+      <c r="AS58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9068,6 +9244,9 @@
       <c r="AR59" t="n">
         <v>1579</v>
       </c>
+      <c r="AS59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9214,6 +9393,9 @@
       <c r="AR60" t="n">
         <v>1579</v>
       </c>
+      <c r="AS60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9360,6 +9542,9 @@
       <c r="AR61" t="n">
         <v>1729</v>
       </c>
+      <c r="AS61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9506,6 +9691,9 @@
       <c r="AR62" t="n">
         <v>1729</v>
       </c>
+      <c r="AS62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9652,6 +9840,9 @@
       <c r="AR63" t="n">
         <v>1729</v>
       </c>
+      <c r="AS63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9798,6 +9989,9 @@
       <c r="AR64" t="n">
         <v>1829</v>
       </c>
+      <c r="AS64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9944,6 +10138,9 @@
       <c r="AR65" t="n">
         <v>1829</v>
       </c>
+      <c r="AS65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10090,6 +10287,9 @@
       <c r="AR66" t="n">
         <v>1829</v>
       </c>
+      <c r="AS66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10236,6 +10436,9 @@
       <c r="AR67" t="n">
         <v>1979</v>
       </c>
+      <c r="AS67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10382,6 +10585,9 @@
       <c r="AR68" t="n">
         <v>1979</v>
       </c>
+      <c r="AS68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10528,6 +10734,9 @@
       <c r="AR69" t="n">
         <v>1979</v>
       </c>
+      <c r="AS69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10674,6 +10883,9 @@
       <c r="AR70" t="n">
         <v>2479</v>
       </c>
+      <c r="AS70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10820,6 +11032,9 @@
       <c r="AR71" t="n">
         <v>2479</v>
       </c>
+      <c r="AS71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10966,6 +11181,9 @@
       <c r="AR72" t="n">
         <v>2479</v>
       </c>
+      <c r="AS72" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11106,6 +11324,7 @@
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11232,6 +11451,7 @@
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS74"/>
+  <dimension ref="A1:AT74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,11 @@
       <c r="AS1" t="inlineStr">
         <is>
           <t>2026-02-17 18:50:38</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>2026-02-17 19:44:13</t>
         </is>
       </c>
     </row>
@@ -758,6 +763,9 @@
       <c r="AS2" t="n">
         <v>619</v>
       </c>
+      <c r="AT2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -907,6 +915,9 @@
       <c r="AS3" t="n">
         <v>659</v>
       </c>
+      <c r="AT3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1056,6 +1067,9 @@
       <c r="AS4" t="n">
         <v>659</v>
       </c>
+      <c r="AT4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1205,6 +1219,9 @@
       <c r="AS5" t="n">
         <v>749</v>
       </c>
+      <c r="AT5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1354,6 +1371,9 @@
       <c r="AS6" t="n">
         <v>749</v>
       </c>
+      <c r="AT6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1503,6 +1523,9 @@
       <c r="AS7" t="n">
         <v>809</v>
       </c>
+      <c r="AT7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1652,6 +1675,9 @@
       <c r="AS8" t="n">
         <v>809</v>
       </c>
+      <c r="AT8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1801,6 +1827,9 @@
       <c r="AS9" t="n">
         <v>809</v>
       </c>
+      <c r="AT9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1950,6 +1979,9 @@
       <c r="AS10" t="n">
         <v>809</v>
       </c>
+      <c r="AT10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2099,6 +2131,9 @@
       <c r="AS11" t="n">
         <v>809</v>
       </c>
+      <c r="AT11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2248,6 +2283,9 @@
       <c r="AS12" t="n">
         <v>849</v>
       </c>
+      <c r="AT12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2397,6 +2435,9 @@
       <c r="AS13" t="n">
         <v>899</v>
       </c>
+      <c r="AT13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2546,6 +2587,9 @@
       <c r="AS14" t="n">
         <v>899</v>
       </c>
+      <c r="AT14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2695,6 +2739,9 @@
       <c r="AS15" t="n">
         <v>909</v>
       </c>
+      <c r="AT15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2844,6 +2891,9 @@
       <c r="AS16" t="n">
         <v>909</v>
       </c>
+      <c r="AT16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2993,6 +3043,9 @@
       <c r="AS17" t="n">
         <v>909</v>
       </c>
+      <c r="AT17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3142,6 +3195,9 @@
       <c r="AS18" t="n">
         <v>909</v>
       </c>
+      <c r="AT18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3287,6 +3343,9 @@
       <c r="AS19" t="n">
         <v>949</v>
       </c>
+      <c r="AT19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3436,6 +3495,9 @@
       <c r="AS20" t="n">
         <v>969</v>
       </c>
+      <c r="AT20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3585,6 +3647,9 @@
       <c r="AS21" t="n">
         <v>969</v>
       </c>
+      <c r="AT21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3734,6 +3799,9 @@
       <c r="AS22" t="n">
         <v>969</v>
       </c>
+      <c r="AT22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3883,6 +3951,9 @@
       <c r="AS23" t="n">
         <v>969</v>
       </c>
+      <c r="AT23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4032,6 +4103,9 @@
       <c r="AS24" t="n">
         <v>969</v>
       </c>
+      <c r="AT24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4181,6 +4255,9 @@
       <c r="AS25" t="n">
         <v>999</v>
       </c>
+      <c r="AT25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4330,6 +4407,9 @@
       <c r="AS26" t="n">
         <v>999</v>
       </c>
+      <c r="AT26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4479,6 +4559,9 @@
       <c r="AS27" t="n">
         <v>1039</v>
       </c>
+      <c r="AT27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4628,6 +4711,9 @@
       <c r="AS28" t="n">
         <v>1079</v>
       </c>
+      <c r="AT28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4777,6 +4863,9 @@
       <c r="AS29" t="n">
         <v>1079</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4926,6 +5015,9 @@
       <c r="AS30" t="n">
         <v>1079</v>
       </c>
+      <c r="AT30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5075,6 +5167,9 @@
       <c r="AS31" t="n">
         <v>1079</v>
       </c>
+      <c r="AT31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5224,6 +5319,9 @@
       <c r="AS32" t="n">
         <v>1099</v>
       </c>
+      <c r="AT32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5373,6 +5471,9 @@
       <c r="AS33" t="n">
         <v>1099</v>
       </c>
+      <c r="AT33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5522,6 +5623,9 @@
       <c r="AS34" t="n">
         <v>1199</v>
       </c>
+      <c r="AT34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5671,6 +5775,9 @@
       <c r="AS35" t="n">
         <v>1219</v>
       </c>
+      <c r="AT35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5820,6 +5927,9 @@
       <c r="AS36" t="n">
         <v>1219</v>
       </c>
+      <c r="AT36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5969,6 +6079,9 @@
       <c r="AS37" t="n">
         <v>1219</v>
       </c>
+      <c r="AT37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6118,6 +6231,9 @@
       <c r="AS38" t="n">
         <v>1219</v>
       </c>
+      <c r="AT38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6267,6 +6383,9 @@
       <c r="AS39" t="n">
         <v>1219</v>
       </c>
+      <c r="AT39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6416,6 +6535,9 @@
       <c r="AS40" t="n">
         <v>1229</v>
       </c>
+      <c r="AT40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6565,6 +6687,9 @@
       <c r="AS41" t="n">
         <v>1249</v>
       </c>
+      <c r="AT41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6714,6 +6839,9 @@
       <c r="AS42" t="n">
         <v>1249</v>
       </c>
+      <c r="AT42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6863,6 +6991,9 @@
       <c r="AS43" t="n">
         <v>1329</v>
       </c>
+      <c r="AT43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7012,6 +7143,9 @@
       <c r="AS44" t="n">
         <v>1329</v>
       </c>
+      <c r="AT44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7161,6 +7295,9 @@
       <c r="AS45" t="n">
         <v>1329</v>
       </c>
+      <c r="AT45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7310,6 +7447,9 @@
       <c r="AS46" t="n">
         <v>1329</v>
       </c>
+      <c r="AT46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7459,6 +7599,9 @@
       <c r="AS47" t="n">
         <v>1329</v>
       </c>
+      <c r="AT47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7608,6 +7751,9 @@
       <c r="AS48" t="n">
         <v>1329</v>
       </c>
+      <c r="AT48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7757,6 +7903,9 @@
       <c r="AS49" t="n">
         <v>1329</v>
       </c>
+      <c r="AT49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7906,6 +8055,9 @@
       <c r="AS50" t="n">
         <v>1349</v>
       </c>
+      <c r="AT50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8055,6 +8207,9 @@
       <c r="AS51" t="n">
         <v>1479</v>
       </c>
+      <c r="AT51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8204,6 +8359,9 @@
       <c r="AS52" t="n">
         <v>1479</v>
       </c>
+      <c r="AT52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8353,6 +8511,9 @@
       <c r="AS53" t="n">
         <v>1479</v>
       </c>
+      <c r="AT53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8502,6 +8663,9 @@
       <c r="AS54" t="n">
         <v>1579</v>
       </c>
+      <c r="AT54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8651,6 +8815,9 @@
       <c r="AS55" t="n">
         <v>1579</v>
       </c>
+      <c r="AT55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8800,6 +8967,9 @@
       <c r="AS56" t="n">
         <v>1579</v>
       </c>
+      <c r="AT56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8949,6 +9119,9 @@
       <c r="AS57" t="n">
         <v>1579</v>
       </c>
+      <c r="AT57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9098,6 +9271,9 @@
       <c r="AS58" t="n">
         <v>1579</v>
       </c>
+      <c r="AT58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9247,6 +9423,9 @@
       <c r="AS59" t="n">
         <v>1579</v>
       </c>
+      <c r="AT59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9396,6 +9575,9 @@
       <c r="AS60" t="n">
         <v>1579</v>
       </c>
+      <c r="AT60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9545,6 +9727,9 @@
       <c r="AS61" t="n">
         <v>1729</v>
       </c>
+      <c r="AT61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9694,6 +9879,9 @@
       <c r="AS62" t="n">
         <v>1729</v>
       </c>
+      <c r="AT62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9843,6 +10031,9 @@
       <c r="AS63" t="n">
         <v>1729</v>
       </c>
+      <c r="AT63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9992,6 +10183,9 @@
       <c r="AS64" t="n">
         <v>1829</v>
       </c>
+      <c r="AT64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10141,6 +10335,9 @@
       <c r="AS65" t="n">
         <v>1829</v>
       </c>
+      <c r="AT65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10290,6 +10487,9 @@
       <c r="AS66" t="n">
         <v>1829</v>
       </c>
+      <c r="AT66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10439,6 +10639,9 @@
       <c r="AS67" t="n">
         <v>1979</v>
       </c>
+      <c r="AT67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10588,6 +10791,9 @@
       <c r="AS68" t="n">
         <v>1979</v>
       </c>
+      <c r="AT68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10737,6 +10943,9 @@
       <c r="AS69" t="n">
         <v>1979</v>
       </c>
+      <c r="AT69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10886,6 +11095,9 @@
       <c r="AS70" t="n">
         <v>2479</v>
       </c>
+      <c r="AT70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11035,6 +11247,9 @@
       <c r="AS71" t="n">
         <v>2479</v>
       </c>
+      <c r="AT71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11182,6 +11397,9 @@
         <v>2479</v>
       </c>
       <c r="AS72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AT72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -11325,6 +11543,7 @@
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
+      <c r="AT73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11452,6 +11671,7 @@
       <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
+      <c r="AT74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT74"/>
+  <dimension ref="A1:AU74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,11 @@
       <c r="AT1" t="inlineStr">
         <is>
           <t>2026-02-17 19:44:13</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>2026-02-17 20:31:45</t>
         </is>
       </c>
     </row>
@@ -766,6 +771,9 @@
       <c r="AT2" t="n">
         <v>619</v>
       </c>
+      <c r="AU2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -918,6 +926,9 @@
       <c r="AT3" t="n">
         <v>659</v>
       </c>
+      <c r="AU3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1070,6 +1081,9 @@
       <c r="AT4" t="n">
         <v>659</v>
       </c>
+      <c r="AU4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1222,6 +1236,9 @@
       <c r="AT5" t="n">
         <v>749</v>
       </c>
+      <c r="AU5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1374,6 +1391,9 @@
       <c r="AT6" t="n">
         <v>749</v>
       </c>
+      <c r="AU6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1526,6 +1546,9 @@
       <c r="AT7" t="n">
         <v>809</v>
       </c>
+      <c r="AU7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1678,6 +1701,9 @@
       <c r="AT8" t="n">
         <v>809</v>
       </c>
+      <c r="AU8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1830,6 +1856,9 @@
       <c r="AT9" t="n">
         <v>809</v>
       </c>
+      <c r="AU9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1982,6 +2011,9 @@
       <c r="AT10" t="n">
         <v>809</v>
       </c>
+      <c r="AU10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2134,6 +2166,9 @@
       <c r="AT11" t="n">
         <v>809</v>
       </c>
+      <c r="AU11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2286,6 +2321,9 @@
       <c r="AT12" t="n">
         <v>849</v>
       </c>
+      <c r="AU12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2438,6 +2476,9 @@
       <c r="AT13" t="n">
         <v>899</v>
       </c>
+      <c r="AU13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2590,6 +2631,9 @@
       <c r="AT14" t="n">
         <v>899</v>
       </c>
+      <c r="AU14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2742,6 +2786,9 @@
       <c r="AT15" t="n">
         <v>909</v>
       </c>
+      <c r="AU15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2894,6 +2941,9 @@
       <c r="AT16" t="n">
         <v>909</v>
       </c>
+      <c r="AU16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3046,6 +3096,9 @@
       <c r="AT17" t="n">
         <v>909</v>
       </c>
+      <c r="AU17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3198,6 +3251,9 @@
       <c r="AT18" t="n">
         <v>909</v>
       </c>
+      <c r="AU18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3346,6 +3402,9 @@
       <c r="AT19" t="n">
         <v>949</v>
       </c>
+      <c r="AU19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3498,6 +3557,9 @@
       <c r="AT20" t="n">
         <v>969</v>
       </c>
+      <c r="AU20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3650,6 +3712,9 @@
       <c r="AT21" t="n">
         <v>969</v>
       </c>
+      <c r="AU21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3802,6 +3867,9 @@
       <c r="AT22" t="n">
         <v>969</v>
       </c>
+      <c r="AU22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3954,6 +4022,9 @@
       <c r="AT23" t="n">
         <v>969</v>
       </c>
+      <c r="AU23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4106,6 +4177,9 @@
       <c r="AT24" t="n">
         <v>969</v>
       </c>
+      <c r="AU24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4258,6 +4332,9 @@
       <c r="AT25" t="n">
         <v>999</v>
       </c>
+      <c r="AU25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4410,6 +4487,9 @@
       <c r="AT26" t="n">
         <v>999</v>
       </c>
+      <c r="AU26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4562,6 +4642,9 @@
       <c r="AT27" t="n">
         <v>1039</v>
       </c>
+      <c r="AU27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4714,6 +4797,9 @@
       <c r="AT28" t="n">
         <v>1079</v>
       </c>
+      <c r="AU28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4866,6 +4952,9 @@
       <c r="AT29" t="n">
         <v>1079</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5018,6 +5107,9 @@
       <c r="AT30" t="n">
         <v>1079</v>
       </c>
+      <c r="AU30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5170,6 +5262,9 @@
       <c r="AT31" t="n">
         <v>1079</v>
       </c>
+      <c r="AU31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5322,6 +5417,9 @@
       <c r="AT32" t="n">
         <v>1099</v>
       </c>
+      <c r="AU32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5474,6 +5572,9 @@
       <c r="AT33" t="n">
         <v>1099</v>
       </c>
+      <c r="AU33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5626,6 +5727,9 @@
       <c r="AT34" t="n">
         <v>1199</v>
       </c>
+      <c r="AU34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5778,6 +5882,9 @@
       <c r="AT35" t="n">
         <v>1219</v>
       </c>
+      <c r="AU35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5930,6 +6037,9 @@
       <c r="AT36" t="n">
         <v>1219</v>
       </c>
+      <c r="AU36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6082,6 +6192,9 @@
       <c r="AT37" t="n">
         <v>1219</v>
       </c>
+      <c r="AU37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6234,6 +6347,9 @@
       <c r="AT38" t="n">
         <v>1219</v>
       </c>
+      <c r="AU38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6386,6 +6502,9 @@
       <c r="AT39" t="n">
         <v>1219</v>
       </c>
+      <c r="AU39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6538,6 +6657,9 @@
       <c r="AT40" t="n">
         <v>1229</v>
       </c>
+      <c r="AU40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6690,6 +6812,9 @@
       <c r="AT41" t="n">
         <v>1249</v>
       </c>
+      <c r="AU41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6842,6 +6967,9 @@
       <c r="AT42" t="n">
         <v>1249</v>
       </c>
+      <c r="AU42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6994,6 +7122,9 @@
       <c r="AT43" t="n">
         <v>1329</v>
       </c>
+      <c r="AU43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7146,6 +7277,9 @@
       <c r="AT44" t="n">
         <v>1329</v>
       </c>
+      <c r="AU44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7298,6 +7432,9 @@
       <c r="AT45" t="n">
         <v>1329</v>
       </c>
+      <c r="AU45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7450,6 +7587,9 @@
       <c r="AT46" t="n">
         <v>1329</v>
       </c>
+      <c r="AU46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7602,6 +7742,9 @@
       <c r="AT47" t="n">
         <v>1329</v>
       </c>
+      <c r="AU47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7754,6 +7897,9 @@
       <c r="AT48" t="n">
         <v>1329</v>
       </c>
+      <c r="AU48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7906,6 +8052,9 @@
       <c r="AT49" t="n">
         <v>1329</v>
       </c>
+      <c r="AU49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8058,6 +8207,9 @@
       <c r="AT50" t="n">
         <v>1349</v>
       </c>
+      <c r="AU50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8210,6 +8362,9 @@
       <c r="AT51" t="n">
         <v>1479</v>
       </c>
+      <c r="AU51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8362,6 +8517,9 @@
       <c r="AT52" t="n">
         <v>1479</v>
       </c>
+      <c r="AU52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8514,6 +8672,9 @@
       <c r="AT53" t="n">
         <v>1479</v>
       </c>
+      <c r="AU53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8666,6 +8827,9 @@
       <c r="AT54" t="n">
         <v>1579</v>
       </c>
+      <c r="AU54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8818,6 +8982,9 @@
       <c r="AT55" t="n">
         <v>1579</v>
       </c>
+      <c r="AU55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8970,6 +9137,9 @@
       <c r="AT56" t="n">
         <v>1579</v>
       </c>
+      <c r="AU56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9122,6 +9292,9 @@
       <c r="AT57" t="n">
         <v>1579</v>
       </c>
+      <c r="AU57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9274,6 +9447,9 @@
       <c r="AT58" t="n">
         <v>1579</v>
       </c>
+      <c r="AU58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9426,6 +9602,9 @@
       <c r="AT59" t="n">
         <v>1579</v>
       </c>
+      <c r="AU59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9578,6 +9757,9 @@
       <c r="AT60" t="n">
         <v>1579</v>
       </c>
+      <c r="AU60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9730,6 +9912,9 @@
       <c r="AT61" t="n">
         <v>1729</v>
       </c>
+      <c r="AU61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9882,6 +10067,9 @@
       <c r="AT62" t="n">
         <v>1729</v>
       </c>
+      <c r="AU62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10034,6 +10222,9 @@
       <c r="AT63" t="n">
         <v>1729</v>
       </c>
+      <c r="AU63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10186,6 +10377,9 @@
       <c r="AT64" t="n">
         <v>1829</v>
       </c>
+      <c r="AU64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10338,6 +10532,9 @@
       <c r="AT65" t="n">
         <v>1829</v>
       </c>
+      <c r="AU65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10490,6 +10687,9 @@
       <c r="AT66" t="n">
         <v>1829</v>
       </c>
+      <c r="AU66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10642,6 +10842,9 @@
       <c r="AT67" t="n">
         <v>1979</v>
       </c>
+      <c r="AU67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10794,6 +10997,9 @@
       <c r="AT68" t="n">
         <v>1979</v>
       </c>
+      <c r="AU68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10946,6 +11152,9 @@
       <c r="AT69" t="n">
         <v>1979</v>
       </c>
+      <c r="AU69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11098,6 +11307,9 @@
       <c r="AT70" t="n">
         <v>2479</v>
       </c>
+      <c r="AU70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11250,6 +11462,9 @@
       <c r="AT71" t="n">
         <v>2479</v>
       </c>
+      <c r="AU71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11400,6 +11615,9 @@
         <v>2479</v>
       </c>
       <c r="AT72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AU72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -11544,6 +11762,7 @@
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
+      <c r="AU73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11672,6 +11891,7 @@
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="inlineStr"/>
+      <c r="AU74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU74"/>
+  <dimension ref="A1:AV74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
       <c r="AU1" t="inlineStr">
         <is>
           <t>2026-02-17 20:31:45</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>2026-02-17 21:31:01</t>
         </is>
       </c>
     </row>
@@ -774,6 +779,9 @@
       <c r="AU2" t="n">
         <v>619</v>
       </c>
+      <c r="AV2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -929,6 +937,9 @@
       <c r="AU3" t="n">
         <v>659</v>
       </c>
+      <c r="AV3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1084,6 +1095,9 @@
       <c r="AU4" t="n">
         <v>659</v>
       </c>
+      <c r="AV4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1239,6 +1253,9 @@
       <c r="AU5" t="n">
         <v>749</v>
       </c>
+      <c r="AV5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1394,6 +1411,9 @@
       <c r="AU6" t="n">
         <v>749</v>
       </c>
+      <c r="AV6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1549,6 +1569,9 @@
       <c r="AU7" t="n">
         <v>809</v>
       </c>
+      <c r="AV7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1704,6 +1727,9 @@
       <c r="AU8" t="n">
         <v>809</v>
       </c>
+      <c r="AV8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1859,6 +1885,9 @@
       <c r="AU9" t="n">
         <v>809</v>
       </c>
+      <c r="AV9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2014,6 +2043,9 @@
       <c r="AU10" t="n">
         <v>809</v>
       </c>
+      <c r="AV10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2169,6 +2201,9 @@
       <c r="AU11" t="n">
         <v>809</v>
       </c>
+      <c r="AV11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2324,6 +2359,9 @@
       <c r="AU12" t="n">
         <v>849</v>
       </c>
+      <c r="AV12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2479,6 +2517,9 @@
       <c r="AU13" t="n">
         <v>899</v>
       </c>
+      <c r="AV13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2634,6 +2675,9 @@
       <c r="AU14" t="n">
         <v>899</v>
       </c>
+      <c r="AV14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2789,6 +2833,9 @@
       <c r="AU15" t="n">
         <v>909</v>
       </c>
+      <c r="AV15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2944,6 +2991,9 @@
       <c r="AU16" t="n">
         <v>909</v>
       </c>
+      <c r="AV16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3099,6 +3149,9 @@
       <c r="AU17" t="n">
         <v>909</v>
       </c>
+      <c r="AV17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3254,6 +3307,9 @@
       <c r="AU18" t="n">
         <v>909</v>
       </c>
+      <c r="AV18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3405,6 +3461,9 @@
       <c r="AU19" t="n">
         <v>949</v>
       </c>
+      <c r="AV19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3560,6 +3619,9 @@
       <c r="AU20" t="n">
         <v>969</v>
       </c>
+      <c r="AV20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3715,6 +3777,9 @@
       <c r="AU21" t="n">
         <v>969</v>
       </c>
+      <c r="AV21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3870,6 +3935,9 @@
       <c r="AU22" t="n">
         <v>969</v>
       </c>
+      <c r="AV22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4025,6 +4093,9 @@
       <c r="AU23" t="n">
         <v>969</v>
       </c>
+      <c r="AV23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4180,6 +4251,9 @@
       <c r="AU24" t="n">
         <v>969</v>
       </c>
+      <c r="AV24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4335,6 +4409,9 @@
       <c r="AU25" t="n">
         <v>999</v>
       </c>
+      <c r="AV25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4490,6 +4567,9 @@
       <c r="AU26" t="n">
         <v>999</v>
       </c>
+      <c r="AV26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4645,6 +4725,9 @@
       <c r="AU27" t="n">
         <v>1039</v>
       </c>
+      <c r="AV27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4800,6 +4883,9 @@
       <c r="AU28" t="n">
         <v>1079</v>
       </c>
+      <c r="AV28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4955,6 +5041,9 @@
       <c r="AU29" t="n">
         <v>1079</v>
       </c>
+      <c r="AV29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5110,6 +5199,9 @@
       <c r="AU30" t="n">
         <v>1079</v>
       </c>
+      <c r="AV30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5265,6 +5357,9 @@
       <c r="AU31" t="n">
         <v>1079</v>
       </c>
+      <c r="AV31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5420,6 +5515,9 @@
       <c r="AU32" t="n">
         <v>1099</v>
       </c>
+      <c r="AV32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5575,6 +5673,9 @@
       <c r="AU33" t="n">
         <v>1099</v>
       </c>
+      <c r="AV33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5730,6 +5831,9 @@
       <c r="AU34" t="n">
         <v>1199</v>
       </c>
+      <c r="AV34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5885,6 +5989,9 @@
       <c r="AU35" t="n">
         <v>1219</v>
       </c>
+      <c r="AV35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6040,6 +6147,9 @@
       <c r="AU36" t="n">
         <v>1219</v>
       </c>
+      <c r="AV36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6195,6 +6305,9 @@
       <c r="AU37" t="n">
         <v>1219</v>
       </c>
+      <c r="AV37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6350,6 +6463,9 @@
       <c r="AU38" t="n">
         <v>1219</v>
       </c>
+      <c r="AV38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6505,6 +6621,9 @@
       <c r="AU39" t="n">
         <v>1219</v>
       </c>
+      <c r="AV39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6660,6 +6779,9 @@
       <c r="AU40" t="n">
         <v>1229</v>
       </c>
+      <c r="AV40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6815,6 +6937,9 @@
       <c r="AU41" t="n">
         <v>1249</v>
       </c>
+      <c r="AV41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6970,6 +7095,9 @@
       <c r="AU42" t="n">
         <v>1249</v>
       </c>
+      <c r="AV42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7125,6 +7253,9 @@
       <c r="AU43" t="n">
         <v>1329</v>
       </c>
+      <c r="AV43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7280,6 +7411,9 @@
       <c r="AU44" t="n">
         <v>1329</v>
       </c>
+      <c r="AV44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7435,6 +7569,9 @@
       <c r="AU45" t="n">
         <v>1329</v>
       </c>
+      <c r="AV45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7590,6 +7727,9 @@
       <c r="AU46" t="n">
         <v>1329</v>
       </c>
+      <c r="AV46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7745,6 +7885,9 @@
       <c r="AU47" t="n">
         <v>1329</v>
       </c>
+      <c r="AV47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7900,6 +8043,9 @@
       <c r="AU48" t="n">
         <v>1329</v>
       </c>
+      <c r="AV48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8055,6 +8201,9 @@
       <c r="AU49" t="n">
         <v>1329</v>
       </c>
+      <c r="AV49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8210,6 +8359,9 @@
       <c r="AU50" t="n">
         <v>1349</v>
       </c>
+      <c r="AV50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8365,6 +8517,9 @@
       <c r="AU51" t="n">
         <v>1479</v>
       </c>
+      <c r="AV51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8520,6 +8675,9 @@
       <c r="AU52" t="n">
         <v>1479</v>
       </c>
+      <c r="AV52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8675,6 +8833,9 @@
       <c r="AU53" t="n">
         <v>1479</v>
       </c>
+      <c r="AV53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8830,6 +8991,9 @@
       <c r="AU54" t="n">
         <v>1579</v>
       </c>
+      <c r="AV54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8985,6 +9149,9 @@
       <c r="AU55" t="n">
         <v>1579</v>
       </c>
+      <c r="AV55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9140,6 +9307,9 @@
       <c r="AU56" t="n">
         <v>1579</v>
       </c>
+      <c r="AV56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9295,6 +9465,9 @@
       <c r="AU57" t="n">
         <v>1579</v>
       </c>
+      <c r="AV57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9450,6 +9623,9 @@
       <c r="AU58" t="n">
         <v>1579</v>
       </c>
+      <c r="AV58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9605,6 +9781,9 @@
       <c r="AU59" t="n">
         <v>1579</v>
       </c>
+      <c r="AV59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9760,6 +9939,9 @@
       <c r="AU60" t="n">
         <v>1579</v>
       </c>
+      <c r="AV60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9915,6 +10097,9 @@
       <c r="AU61" t="n">
         <v>1729</v>
       </c>
+      <c r="AV61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10070,6 +10255,9 @@
       <c r="AU62" t="n">
         <v>1729</v>
       </c>
+      <c r="AV62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10225,6 +10413,9 @@
       <c r="AU63" t="n">
         <v>1729</v>
       </c>
+      <c r="AV63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10380,6 +10571,9 @@
       <c r="AU64" t="n">
         <v>1829</v>
       </c>
+      <c r="AV64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10535,6 +10729,9 @@
       <c r="AU65" t="n">
         <v>1829</v>
       </c>
+      <c r="AV65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10690,6 +10887,9 @@
       <c r="AU66" t="n">
         <v>1829</v>
       </c>
+      <c r="AV66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10845,6 +11045,9 @@
       <c r="AU67" t="n">
         <v>1979</v>
       </c>
+      <c r="AV67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11000,6 +11203,9 @@
       <c r="AU68" t="n">
         <v>1979</v>
       </c>
+      <c r="AV68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11155,6 +11361,9 @@
       <c r="AU69" t="n">
         <v>1979</v>
       </c>
+      <c r="AV69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11310,6 +11519,9 @@
       <c r="AU70" t="n">
         <v>2479</v>
       </c>
+      <c r="AV70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11465,6 +11677,9 @@
       <c r="AU71" t="n">
         <v>2479</v>
       </c>
+      <c r="AV71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11618,6 +11833,9 @@
         <v>2479</v>
       </c>
       <c r="AU72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AV72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -11763,6 +11981,7 @@
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11892,6 +12111,7 @@
       <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="inlineStr"/>
       <c r="AU74" t="inlineStr"/>
+      <c r="AV74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV74"/>
+  <dimension ref="A1:AW74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
       <c r="AV1" t="inlineStr">
         <is>
           <t>2026-02-17 21:31:01</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>2026-02-17 22:26:05</t>
         </is>
       </c>
     </row>
@@ -782,6 +787,9 @@
       <c r="AV2" t="n">
         <v>619</v>
       </c>
+      <c r="AW2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -940,6 +948,9 @@
       <c r="AV3" t="n">
         <v>659</v>
       </c>
+      <c r="AW3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1098,6 +1109,9 @@
       <c r="AV4" t="n">
         <v>659</v>
       </c>
+      <c r="AW4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1256,6 +1270,9 @@
       <c r="AV5" t="n">
         <v>749</v>
       </c>
+      <c r="AW5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1414,6 +1431,9 @@
       <c r="AV6" t="n">
         <v>749</v>
       </c>
+      <c r="AW6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1572,6 +1592,9 @@
       <c r="AV7" t="n">
         <v>809</v>
       </c>
+      <c r="AW7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1730,6 +1753,9 @@
       <c r="AV8" t="n">
         <v>809</v>
       </c>
+      <c r="AW8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1888,6 +1914,9 @@
       <c r="AV9" t="n">
         <v>809</v>
       </c>
+      <c r="AW9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2046,6 +2075,9 @@
       <c r="AV10" t="n">
         <v>809</v>
       </c>
+      <c r="AW10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2204,6 +2236,9 @@
       <c r="AV11" t="n">
         <v>809</v>
       </c>
+      <c r="AW11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2362,6 +2397,9 @@
       <c r="AV12" t="n">
         <v>849</v>
       </c>
+      <c r="AW12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2520,6 +2558,9 @@
       <c r="AV13" t="n">
         <v>899</v>
       </c>
+      <c r="AW13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2678,6 +2719,9 @@
       <c r="AV14" t="n">
         <v>899</v>
       </c>
+      <c r="AW14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2836,6 +2880,9 @@
       <c r="AV15" t="n">
         <v>909</v>
       </c>
+      <c r="AW15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2994,6 +3041,9 @@
       <c r="AV16" t="n">
         <v>909</v>
       </c>
+      <c r="AW16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3152,6 +3202,9 @@
       <c r="AV17" t="n">
         <v>909</v>
       </c>
+      <c r="AW17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3310,6 +3363,9 @@
       <c r="AV18" t="n">
         <v>909</v>
       </c>
+      <c r="AW18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3464,6 +3520,9 @@
       <c r="AV19" t="n">
         <v>949</v>
       </c>
+      <c r="AW19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3622,6 +3681,9 @@
       <c r="AV20" t="n">
         <v>969</v>
       </c>
+      <c r="AW20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3780,6 +3842,9 @@
       <c r="AV21" t="n">
         <v>969</v>
       </c>
+      <c r="AW21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3938,6 +4003,9 @@
       <c r="AV22" t="n">
         <v>969</v>
       </c>
+      <c r="AW22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4096,6 +4164,9 @@
       <c r="AV23" t="n">
         <v>969</v>
       </c>
+      <c r="AW23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4254,6 +4325,9 @@
       <c r="AV24" t="n">
         <v>969</v>
       </c>
+      <c r="AW24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4412,6 +4486,9 @@
       <c r="AV25" t="n">
         <v>999</v>
       </c>
+      <c r="AW25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4570,6 +4647,9 @@
       <c r="AV26" t="n">
         <v>999</v>
       </c>
+      <c r="AW26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4728,6 +4808,9 @@
       <c r="AV27" t="n">
         <v>1039</v>
       </c>
+      <c r="AW27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4886,6 +4969,9 @@
       <c r="AV28" t="n">
         <v>1079</v>
       </c>
+      <c r="AW28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5044,6 +5130,9 @@
       <c r="AV29" t="n">
         <v>1079</v>
       </c>
+      <c r="AW29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5202,6 +5291,9 @@
       <c r="AV30" t="n">
         <v>1079</v>
       </c>
+      <c r="AW30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5360,6 +5452,9 @@
       <c r="AV31" t="n">
         <v>1079</v>
       </c>
+      <c r="AW31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5518,6 +5613,9 @@
       <c r="AV32" t="n">
         <v>1099</v>
       </c>
+      <c r="AW32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5676,6 +5774,9 @@
       <c r="AV33" t="n">
         <v>1099</v>
       </c>
+      <c r="AW33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5834,6 +5935,9 @@
       <c r="AV34" t="n">
         <v>1199</v>
       </c>
+      <c r="AW34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5992,6 +6096,9 @@
       <c r="AV35" t="n">
         <v>1219</v>
       </c>
+      <c r="AW35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6150,6 +6257,9 @@
       <c r="AV36" t="n">
         <v>1219</v>
       </c>
+      <c r="AW36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6308,6 +6418,9 @@
       <c r="AV37" t="n">
         <v>1219</v>
       </c>
+      <c r="AW37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6466,6 +6579,9 @@
       <c r="AV38" t="n">
         <v>1219</v>
       </c>
+      <c r="AW38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6624,6 +6740,9 @@
       <c r="AV39" t="n">
         <v>1219</v>
       </c>
+      <c r="AW39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6782,6 +6901,9 @@
       <c r="AV40" t="n">
         <v>1229</v>
       </c>
+      <c r="AW40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6940,6 +7062,9 @@
       <c r="AV41" t="n">
         <v>1249</v>
       </c>
+      <c r="AW41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7098,6 +7223,9 @@
       <c r="AV42" t="n">
         <v>1249</v>
       </c>
+      <c r="AW42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7256,6 +7384,9 @@
       <c r="AV43" t="n">
         <v>1329</v>
       </c>
+      <c r="AW43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7414,6 +7545,9 @@
       <c r="AV44" t="n">
         <v>1329</v>
       </c>
+      <c r="AW44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7572,6 +7706,9 @@
       <c r="AV45" t="n">
         <v>1329</v>
       </c>
+      <c r="AW45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7730,6 +7867,9 @@
       <c r="AV46" t="n">
         <v>1329</v>
       </c>
+      <c r="AW46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7888,6 +8028,9 @@
       <c r="AV47" t="n">
         <v>1329</v>
       </c>
+      <c r="AW47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8046,6 +8189,9 @@
       <c r="AV48" t="n">
         <v>1329</v>
       </c>
+      <c r="AW48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8204,6 +8350,9 @@
       <c r="AV49" t="n">
         <v>1329</v>
       </c>
+      <c r="AW49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8362,6 +8511,9 @@
       <c r="AV50" t="n">
         <v>1349</v>
       </c>
+      <c r="AW50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8520,6 +8672,9 @@
       <c r="AV51" t="n">
         <v>1479</v>
       </c>
+      <c r="AW51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8678,6 +8833,9 @@
       <c r="AV52" t="n">
         <v>1479</v>
       </c>
+      <c r="AW52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8836,6 +8994,9 @@
       <c r="AV53" t="n">
         <v>1479</v>
       </c>
+      <c r="AW53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8994,6 +9155,9 @@
       <c r="AV54" t="n">
         <v>1579</v>
       </c>
+      <c r="AW54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9152,6 +9316,9 @@
       <c r="AV55" t="n">
         <v>1579</v>
       </c>
+      <c r="AW55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9310,6 +9477,9 @@
       <c r="AV56" t="n">
         <v>1579</v>
       </c>
+      <c r="AW56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9468,6 +9638,9 @@
       <c r="AV57" t="n">
         <v>1579</v>
       </c>
+      <c r="AW57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9626,6 +9799,9 @@
       <c r="AV58" t="n">
         <v>1579</v>
       </c>
+      <c r="AW58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9784,6 +9960,9 @@
       <c r="AV59" t="n">
         <v>1579</v>
       </c>
+      <c r="AW59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9942,6 +10121,9 @@
       <c r="AV60" t="n">
         <v>1579</v>
       </c>
+      <c r="AW60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10100,6 +10282,9 @@
       <c r="AV61" t="n">
         <v>1729</v>
       </c>
+      <c r="AW61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10258,6 +10443,9 @@
       <c r="AV62" t="n">
         <v>1729</v>
       </c>
+      <c r="AW62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10416,6 +10604,9 @@
       <c r="AV63" t="n">
         <v>1729</v>
       </c>
+      <c r="AW63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10574,6 +10765,9 @@
       <c r="AV64" t="n">
         <v>1829</v>
       </c>
+      <c r="AW64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10732,6 +10926,9 @@
       <c r="AV65" t="n">
         <v>1829</v>
       </c>
+      <c r="AW65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10890,6 +11087,9 @@
       <c r="AV66" t="n">
         <v>1829</v>
       </c>
+      <c r="AW66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11048,6 +11248,9 @@
       <c r="AV67" t="n">
         <v>1979</v>
       </c>
+      <c r="AW67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11206,6 +11409,9 @@
       <c r="AV68" t="n">
         <v>1979</v>
       </c>
+      <c r="AW68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11364,6 +11570,9 @@
       <c r="AV69" t="n">
         <v>1979</v>
       </c>
+      <c r="AW69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11522,6 +11731,9 @@
       <c r="AV70" t="n">
         <v>2479</v>
       </c>
+      <c r="AW70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11680,6 +11892,9 @@
       <c r="AV71" t="n">
         <v>2479</v>
       </c>
+      <c r="AW71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11836,6 +12051,9 @@
         <v>2479</v>
       </c>
       <c r="AV72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AW72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -11982,6 +12200,7 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr"/>
       <c r="AV73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12112,6 +12331,7 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AU74" t="inlineStr"/>
       <c r="AV74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW74"/>
+  <dimension ref="A1:AX74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,11 @@
       <c r="AW1" t="inlineStr">
         <is>
           <t>2026-02-17 22:26:05</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>2026-02-17 23:24:15</t>
         </is>
       </c>
     </row>
@@ -790,6 +795,9 @@
       <c r="AW2" t="n">
         <v>619</v>
       </c>
+      <c r="AX2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -951,6 +959,9 @@
       <c r="AW3" t="n">
         <v>659</v>
       </c>
+      <c r="AX3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1112,6 +1123,9 @@
       <c r="AW4" t="n">
         <v>659</v>
       </c>
+      <c r="AX4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1273,6 +1287,9 @@
       <c r="AW5" t="n">
         <v>749</v>
       </c>
+      <c r="AX5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1434,6 +1451,9 @@
       <c r="AW6" t="n">
         <v>749</v>
       </c>
+      <c r="AX6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1595,6 +1615,9 @@
       <c r="AW7" t="n">
         <v>809</v>
       </c>
+      <c r="AX7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1756,6 +1779,9 @@
       <c r="AW8" t="n">
         <v>809</v>
       </c>
+      <c r="AX8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1917,6 +1943,9 @@
       <c r="AW9" t="n">
         <v>809</v>
       </c>
+      <c r="AX9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2078,6 +2107,9 @@
       <c r="AW10" t="n">
         <v>809</v>
       </c>
+      <c r="AX10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2239,6 +2271,9 @@
       <c r="AW11" t="n">
         <v>809</v>
       </c>
+      <c r="AX11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2400,6 +2435,9 @@
       <c r="AW12" t="n">
         <v>849</v>
       </c>
+      <c r="AX12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2561,6 +2599,9 @@
       <c r="AW13" t="n">
         <v>899</v>
       </c>
+      <c r="AX13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2722,6 +2763,9 @@
       <c r="AW14" t="n">
         <v>899</v>
       </c>
+      <c r="AX14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2883,6 +2927,9 @@
       <c r="AW15" t="n">
         <v>909</v>
       </c>
+      <c r="AX15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3044,6 +3091,9 @@
       <c r="AW16" t="n">
         <v>909</v>
       </c>
+      <c r="AX16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3205,6 +3255,9 @@
       <c r="AW17" t="n">
         <v>909</v>
       </c>
+      <c r="AX17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3366,6 +3419,9 @@
       <c r="AW18" t="n">
         <v>909</v>
       </c>
+      <c r="AX18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3523,6 +3579,9 @@
       <c r="AW19" t="n">
         <v>949</v>
       </c>
+      <c r="AX19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3684,6 +3743,9 @@
       <c r="AW20" t="n">
         <v>969</v>
       </c>
+      <c r="AX20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3845,6 +3907,9 @@
       <c r="AW21" t="n">
         <v>969</v>
       </c>
+      <c r="AX21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4006,6 +4071,9 @@
       <c r="AW22" t="n">
         <v>969</v>
       </c>
+      <c r="AX22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4167,6 +4235,9 @@
       <c r="AW23" t="n">
         <v>969</v>
       </c>
+      <c r="AX23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4328,6 +4399,9 @@
       <c r="AW24" t="n">
         <v>969</v>
       </c>
+      <c r="AX24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4489,6 +4563,9 @@
       <c r="AW25" t="n">
         <v>999</v>
       </c>
+      <c r="AX25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4650,6 +4727,9 @@
       <c r="AW26" t="n">
         <v>999</v>
       </c>
+      <c r="AX26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4811,6 +4891,9 @@
       <c r="AW27" t="n">
         <v>1039</v>
       </c>
+      <c r="AX27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4972,6 +5055,9 @@
       <c r="AW28" t="n">
         <v>1079</v>
       </c>
+      <c r="AX28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5133,6 +5219,9 @@
       <c r="AW29" t="n">
         <v>1079</v>
       </c>
+      <c r="AX29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5294,6 +5383,9 @@
       <c r="AW30" t="n">
         <v>1079</v>
       </c>
+      <c r="AX30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5455,6 +5547,9 @@
       <c r="AW31" t="n">
         <v>1079</v>
       </c>
+      <c r="AX31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5616,6 +5711,9 @@
       <c r="AW32" t="n">
         <v>1099</v>
       </c>
+      <c r="AX32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5777,6 +5875,9 @@
       <c r="AW33" t="n">
         <v>1099</v>
       </c>
+      <c r="AX33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5938,6 +6039,9 @@
       <c r="AW34" t="n">
         <v>1199</v>
       </c>
+      <c r="AX34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6099,6 +6203,9 @@
       <c r="AW35" t="n">
         <v>1219</v>
       </c>
+      <c r="AX35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6260,6 +6367,9 @@
       <c r="AW36" t="n">
         <v>1219</v>
       </c>
+      <c r="AX36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6421,6 +6531,9 @@
       <c r="AW37" t="n">
         <v>1219</v>
       </c>
+      <c r="AX37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6582,6 +6695,9 @@
       <c r="AW38" t="n">
         <v>1219</v>
       </c>
+      <c r="AX38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6743,6 +6859,9 @@
       <c r="AW39" t="n">
         <v>1219</v>
       </c>
+      <c r="AX39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6904,6 +7023,9 @@
       <c r="AW40" t="n">
         <v>1229</v>
       </c>
+      <c r="AX40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7065,6 +7187,9 @@
       <c r="AW41" t="n">
         <v>1249</v>
       </c>
+      <c r="AX41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7226,6 +7351,9 @@
       <c r="AW42" t="n">
         <v>1249</v>
       </c>
+      <c r="AX42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7387,6 +7515,9 @@
       <c r="AW43" t="n">
         <v>1329</v>
       </c>
+      <c r="AX43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7548,6 +7679,9 @@
       <c r="AW44" t="n">
         <v>1329</v>
       </c>
+      <c r="AX44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7709,6 +7843,9 @@
       <c r="AW45" t="n">
         <v>1329</v>
       </c>
+      <c r="AX45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7870,6 +8007,9 @@
       <c r="AW46" t="n">
         <v>1329</v>
       </c>
+      <c r="AX46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8031,6 +8171,9 @@
       <c r="AW47" t="n">
         <v>1329</v>
       </c>
+      <c r="AX47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8192,6 +8335,9 @@
       <c r="AW48" t="n">
         <v>1329</v>
       </c>
+      <c r="AX48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8353,6 +8499,9 @@
       <c r="AW49" t="n">
         <v>1329</v>
       </c>
+      <c r="AX49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8514,6 +8663,9 @@
       <c r="AW50" t="n">
         <v>1349</v>
       </c>
+      <c r="AX50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8675,6 +8827,9 @@
       <c r="AW51" t="n">
         <v>1479</v>
       </c>
+      <c r="AX51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8836,6 +8991,9 @@
       <c r="AW52" t="n">
         <v>1479</v>
       </c>
+      <c r="AX52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8997,6 +9155,9 @@
       <c r="AW53" t="n">
         <v>1479</v>
       </c>
+      <c r="AX53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9158,6 +9319,9 @@
       <c r="AW54" t="n">
         <v>1579</v>
       </c>
+      <c r="AX54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9319,6 +9483,9 @@
       <c r="AW55" t="n">
         <v>1579</v>
       </c>
+      <c r="AX55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9480,6 +9647,9 @@
       <c r="AW56" t="n">
         <v>1579</v>
       </c>
+      <c r="AX56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9641,6 +9811,9 @@
       <c r="AW57" t="n">
         <v>1579</v>
       </c>
+      <c r="AX57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9802,6 +9975,9 @@
       <c r="AW58" t="n">
         <v>1579</v>
       </c>
+      <c r="AX58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9963,6 +10139,9 @@
       <c r="AW59" t="n">
         <v>1579</v>
       </c>
+      <c r="AX59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10124,6 +10303,9 @@
       <c r="AW60" t="n">
         <v>1579</v>
       </c>
+      <c r="AX60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10285,6 +10467,9 @@
       <c r="AW61" t="n">
         <v>1729</v>
       </c>
+      <c r="AX61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10446,6 +10631,9 @@
       <c r="AW62" t="n">
         <v>1729</v>
       </c>
+      <c r="AX62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10607,6 +10795,9 @@
       <c r="AW63" t="n">
         <v>1729</v>
       </c>
+      <c r="AX63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10768,6 +10959,9 @@
       <c r="AW64" t="n">
         <v>1829</v>
       </c>
+      <c r="AX64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10929,6 +11123,9 @@
       <c r="AW65" t="n">
         <v>1829</v>
       </c>
+      <c r="AX65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11090,6 +11287,9 @@
       <c r="AW66" t="n">
         <v>1829</v>
       </c>
+      <c r="AX66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11251,6 +11451,9 @@
       <c r="AW67" t="n">
         <v>1979</v>
       </c>
+      <c r="AX67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11412,6 +11615,9 @@
       <c r="AW68" t="n">
         <v>1979</v>
       </c>
+      <c r="AX68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11573,6 +11779,9 @@
       <c r="AW69" t="n">
         <v>1979</v>
       </c>
+      <c r="AX69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11734,6 +11943,9 @@
       <c r="AW70" t="n">
         <v>2479</v>
       </c>
+      <c r="AX70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11895,6 +12107,9 @@
       <c r="AW71" t="n">
         <v>2479</v>
       </c>
+      <c r="AX71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12054,6 +12269,9 @@
         <v>2479</v>
       </c>
       <c r="AW72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AX72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -12201,6 +12419,7 @@
       <c r="AU73" t="inlineStr"/>
       <c r="AV73" t="inlineStr"/>
       <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12332,6 +12551,7 @@
       <c r="AU74" t="inlineStr"/>
       <c r="AV74" t="inlineStr"/>
       <c r="AW74" t="inlineStr"/>
+      <c r="AX74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX74"/>
+  <dimension ref="A1:AY74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,11 @@
       <c r="AX1" t="inlineStr">
         <is>
           <t>2026-02-17 23:24:15</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>2026-02-18 01:45:48</t>
         </is>
       </c>
     </row>
@@ -798,6 +803,9 @@
       <c r="AX2" t="n">
         <v>619</v>
       </c>
+      <c r="AY2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -962,6 +970,9 @@
       <c r="AX3" t="n">
         <v>659</v>
       </c>
+      <c r="AY3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1126,6 +1137,9 @@
       <c r="AX4" t="n">
         <v>659</v>
       </c>
+      <c r="AY4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1290,6 +1304,9 @@
       <c r="AX5" t="n">
         <v>749</v>
       </c>
+      <c r="AY5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1454,6 +1471,9 @@
       <c r="AX6" t="n">
         <v>749</v>
       </c>
+      <c r="AY6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1618,6 +1638,9 @@
       <c r="AX7" t="n">
         <v>809</v>
       </c>
+      <c r="AY7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1782,6 +1805,9 @@
       <c r="AX8" t="n">
         <v>809</v>
       </c>
+      <c r="AY8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1946,6 +1972,9 @@
       <c r="AX9" t="n">
         <v>809</v>
       </c>
+      <c r="AY9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2110,6 +2139,9 @@
       <c r="AX10" t="n">
         <v>809</v>
       </c>
+      <c r="AY10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2274,6 +2306,9 @@
       <c r="AX11" t="n">
         <v>809</v>
       </c>
+      <c r="AY11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2438,6 +2473,9 @@
       <c r="AX12" t="n">
         <v>849</v>
       </c>
+      <c r="AY12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2602,6 +2640,9 @@
       <c r="AX13" t="n">
         <v>899</v>
       </c>
+      <c r="AY13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2766,6 +2807,9 @@
       <c r="AX14" t="n">
         <v>899</v>
       </c>
+      <c r="AY14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2930,6 +2974,9 @@
       <c r="AX15" t="n">
         <v>909</v>
       </c>
+      <c r="AY15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3094,6 +3141,9 @@
       <c r="AX16" t="n">
         <v>909</v>
       </c>
+      <c r="AY16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3258,6 +3308,9 @@
       <c r="AX17" t="n">
         <v>909</v>
       </c>
+      <c r="AY17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3422,6 +3475,9 @@
       <c r="AX18" t="n">
         <v>909</v>
       </c>
+      <c r="AY18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3582,6 +3638,9 @@
       <c r="AX19" t="n">
         <v>949</v>
       </c>
+      <c r="AY19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3746,6 +3805,9 @@
       <c r="AX20" t="n">
         <v>969</v>
       </c>
+      <c r="AY20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3910,6 +3972,9 @@
       <c r="AX21" t="n">
         <v>969</v>
       </c>
+      <c r="AY21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4074,6 +4139,9 @@
       <c r="AX22" t="n">
         <v>969</v>
       </c>
+      <c r="AY22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4238,6 +4306,9 @@
       <c r="AX23" t="n">
         <v>969</v>
       </c>
+      <c r="AY23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4402,6 +4473,9 @@
       <c r="AX24" t="n">
         <v>969</v>
       </c>
+      <c r="AY24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4566,6 +4640,9 @@
       <c r="AX25" t="n">
         <v>999</v>
       </c>
+      <c r="AY25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4730,6 +4807,9 @@
       <c r="AX26" t="n">
         <v>999</v>
       </c>
+      <c r="AY26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4894,6 +4974,9 @@
       <c r="AX27" t="n">
         <v>1039</v>
       </c>
+      <c r="AY27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5058,6 +5141,9 @@
       <c r="AX28" t="n">
         <v>1079</v>
       </c>
+      <c r="AY28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5222,6 +5308,9 @@
       <c r="AX29" t="n">
         <v>1079</v>
       </c>
+      <c r="AY29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5386,6 +5475,9 @@
       <c r="AX30" t="n">
         <v>1079</v>
       </c>
+      <c r="AY30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5550,6 +5642,9 @@
       <c r="AX31" t="n">
         <v>1079</v>
       </c>
+      <c r="AY31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5714,6 +5809,9 @@
       <c r="AX32" t="n">
         <v>1099</v>
       </c>
+      <c r="AY32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5878,6 +5976,9 @@
       <c r="AX33" t="n">
         <v>1099</v>
       </c>
+      <c r="AY33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6042,6 +6143,9 @@
       <c r="AX34" t="n">
         <v>1199</v>
       </c>
+      <c r="AY34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6206,6 +6310,9 @@
       <c r="AX35" t="n">
         <v>1219</v>
       </c>
+      <c r="AY35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6370,6 +6477,9 @@
       <c r="AX36" t="n">
         <v>1219</v>
       </c>
+      <c r="AY36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6534,6 +6644,9 @@
       <c r="AX37" t="n">
         <v>1219</v>
       </c>
+      <c r="AY37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6698,6 +6811,9 @@
       <c r="AX38" t="n">
         <v>1219</v>
       </c>
+      <c r="AY38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6862,6 +6978,9 @@
       <c r="AX39" t="n">
         <v>1219</v>
       </c>
+      <c r="AY39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7026,6 +7145,9 @@
       <c r="AX40" t="n">
         <v>1229</v>
       </c>
+      <c r="AY40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7190,6 +7312,9 @@
       <c r="AX41" t="n">
         <v>1249</v>
       </c>
+      <c r="AY41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7354,6 +7479,9 @@
       <c r="AX42" t="n">
         <v>1249</v>
       </c>
+      <c r="AY42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7518,6 +7646,9 @@
       <c r="AX43" t="n">
         <v>1329</v>
       </c>
+      <c r="AY43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7682,6 +7813,9 @@
       <c r="AX44" t="n">
         <v>1329</v>
       </c>
+      <c r="AY44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7846,6 +7980,9 @@
       <c r="AX45" t="n">
         <v>1329</v>
       </c>
+      <c r="AY45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8010,6 +8147,9 @@
       <c r="AX46" t="n">
         <v>1329</v>
       </c>
+      <c r="AY46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8174,6 +8314,9 @@
       <c r="AX47" t="n">
         <v>1329</v>
       </c>
+      <c r="AY47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8338,6 +8481,9 @@
       <c r="AX48" t="n">
         <v>1329</v>
       </c>
+      <c r="AY48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8502,6 +8648,9 @@
       <c r="AX49" t="n">
         <v>1329</v>
       </c>
+      <c r="AY49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8666,6 +8815,9 @@
       <c r="AX50" t="n">
         <v>1349</v>
       </c>
+      <c r="AY50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8830,6 +8982,9 @@
       <c r="AX51" t="n">
         <v>1479</v>
       </c>
+      <c r="AY51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8994,6 +9149,9 @@
       <c r="AX52" t="n">
         <v>1479</v>
       </c>
+      <c r="AY52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9158,6 +9316,9 @@
       <c r="AX53" t="n">
         <v>1479</v>
       </c>
+      <c r="AY53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9322,6 +9483,9 @@
       <c r="AX54" t="n">
         <v>1579</v>
       </c>
+      <c r="AY54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9486,6 +9650,9 @@
       <c r="AX55" t="n">
         <v>1579</v>
       </c>
+      <c r="AY55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9650,6 +9817,9 @@
       <c r="AX56" t="n">
         <v>1579</v>
       </c>
+      <c r="AY56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9814,6 +9984,9 @@
       <c r="AX57" t="n">
         <v>1579</v>
       </c>
+      <c r="AY57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9978,6 +10151,9 @@
       <c r="AX58" t="n">
         <v>1579</v>
       </c>
+      <c r="AY58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10142,6 +10318,9 @@
       <c r="AX59" t="n">
         <v>1579</v>
       </c>
+      <c r="AY59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10306,6 +10485,9 @@
       <c r="AX60" t="n">
         <v>1579</v>
       </c>
+      <c r="AY60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10470,6 +10652,9 @@
       <c r="AX61" t="n">
         <v>1729</v>
       </c>
+      <c r="AY61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10634,6 +10819,9 @@
       <c r="AX62" t="n">
         <v>1729</v>
       </c>
+      <c r="AY62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10798,6 +10986,9 @@
       <c r="AX63" t="n">
         <v>1729</v>
       </c>
+      <c r="AY63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10962,6 +11153,9 @@
       <c r="AX64" t="n">
         <v>1829</v>
       </c>
+      <c r="AY64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11126,6 +11320,9 @@
       <c r="AX65" t="n">
         <v>1829</v>
       </c>
+      <c r="AY65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11290,6 +11487,9 @@
       <c r="AX66" t="n">
         <v>1829</v>
       </c>
+      <c r="AY66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11454,6 +11654,9 @@
       <c r="AX67" t="n">
         <v>1979</v>
       </c>
+      <c r="AY67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11618,6 +11821,9 @@
       <c r="AX68" t="n">
         <v>1979</v>
       </c>
+      <c r="AY68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11782,6 +11988,9 @@
       <c r="AX69" t="n">
         <v>1979</v>
       </c>
+      <c r="AY69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11946,6 +12155,9 @@
       <c r="AX70" t="n">
         <v>2479</v>
       </c>
+      <c r="AY70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12110,6 +12322,9 @@
       <c r="AX71" t="n">
         <v>2479</v>
       </c>
+      <c r="AY71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12272,6 +12487,9 @@
         <v>2479</v>
       </c>
       <c r="AX72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AY72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -12420,6 +12638,7 @@
       <c r="AV73" t="inlineStr"/>
       <c r="AW73" t="inlineStr"/>
       <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12552,6 +12771,7 @@
       <c r="AV74" t="inlineStr"/>
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
+      <c r="AY74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY74"/>
+  <dimension ref="A1:AZ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +675,11 @@
       <c r="AY1" t="inlineStr">
         <is>
           <t>2026-02-18 01:45:48</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>2026-02-18 04:17:17</t>
         </is>
       </c>
     </row>
@@ -806,6 +811,9 @@
       <c r="AY2" t="n">
         <v>619</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -973,6 +981,9 @@
       <c r="AY3" t="n">
         <v>659</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1140,6 +1151,9 @@
       <c r="AY4" t="n">
         <v>659</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1307,6 +1321,9 @@
       <c r="AY5" t="n">
         <v>749</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1474,6 +1491,9 @@
       <c r="AY6" t="n">
         <v>749</v>
       </c>
+      <c r="AZ6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1641,6 +1661,9 @@
       <c r="AY7" t="n">
         <v>809</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1808,6 +1831,9 @@
       <c r="AY8" t="n">
         <v>809</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1975,6 +2001,9 @@
       <c r="AY9" t="n">
         <v>809</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2142,6 +2171,9 @@
       <c r="AY10" t="n">
         <v>809</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2309,6 +2341,9 @@
       <c r="AY11" t="n">
         <v>809</v>
       </c>
+      <c r="AZ11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2476,6 +2511,9 @@
       <c r="AY12" t="n">
         <v>849</v>
       </c>
+      <c r="AZ12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2643,6 +2681,9 @@
       <c r="AY13" t="n">
         <v>899</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2810,6 +2851,9 @@
       <c r="AY14" t="n">
         <v>899</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2977,6 +3021,9 @@
       <c r="AY15" t="n">
         <v>909</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3144,6 +3191,9 @@
       <c r="AY16" t="n">
         <v>909</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3311,6 +3361,9 @@
       <c r="AY17" t="n">
         <v>909</v>
       </c>
+      <c r="AZ17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3478,6 +3531,9 @@
       <c r="AY18" t="n">
         <v>909</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3641,6 +3697,9 @@
       <c r="AY19" t="n">
         <v>949</v>
       </c>
+      <c r="AZ19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3808,6 +3867,9 @@
       <c r="AY20" t="n">
         <v>969</v>
       </c>
+      <c r="AZ20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3975,6 +4037,9 @@
       <c r="AY21" t="n">
         <v>969</v>
       </c>
+      <c r="AZ21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4142,6 +4207,9 @@
       <c r="AY22" t="n">
         <v>969</v>
       </c>
+      <c r="AZ22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4309,6 +4377,9 @@
       <c r="AY23" t="n">
         <v>969</v>
       </c>
+      <c r="AZ23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4476,6 +4547,9 @@
       <c r="AY24" t="n">
         <v>969</v>
       </c>
+      <c r="AZ24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4643,6 +4717,9 @@
       <c r="AY25" t="n">
         <v>999</v>
       </c>
+      <c r="AZ25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4810,6 +4887,9 @@
       <c r="AY26" t="n">
         <v>999</v>
       </c>
+      <c r="AZ26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4977,6 +5057,9 @@
       <c r="AY27" t="n">
         <v>1039</v>
       </c>
+      <c r="AZ27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5144,6 +5227,9 @@
       <c r="AY28" t="n">
         <v>1079</v>
       </c>
+      <c r="AZ28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5311,6 +5397,9 @@
       <c r="AY29" t="n">
         <v>1079</v>
       </c>
+      <c r="AZ29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5478,6 +5567,9 @@
       <c r="AY30" t="n">
         <v>1079</v>
       </c>
+      <c r="AZ30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5645,6 +5737,9 @@
       <c r="AY31" t="n">
         <v>1079</v>
       </c>
+      <c r="AZ31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5812,6 +5907,9 @@
       <c r="AY32" t="n">
         <v>1099</v>
       </c>
+      <c r="AZ32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5979,6 +6077,9 @@
       <c r="AY33" t="n">
         <v>1099</v>
       </c>
+      <c r="AZ33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6146,6 +6247,9 @@
       <c r="AY34" t="n">
         <v>1199</v>
       </c>
+      <c r="AZ34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6313,6 +6417,9 @@
       <c r="AY35" t="n">
         <v>1219</v>
       </c>
+      <c r="AZ35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6480,6 +6587,9 @@
       <c r="AY36" t="n">
         <v>1219</v>
       </c>
+      <c r="AZ36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6647,6 +6757,9 @@
       <c r="AY37" t="n">
         <v>1219</v>
       </c>
+      <c r="AZ37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6814,6 +6927,9 @@
       <c r="AY38" t="n">
         <v>1219</v>
       </c>
+      <c r="AZ38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6981,6 +7097,9 @@
       <c r="AY39" t="n">
         <v>1219</v>
       </c>
+      <c r="AZ39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7148,6 +7267,9 @@
       <c r="AY40" t="n">
         <v>1229</v>
       </c>
+      <c r="AZ40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7315,6 +7437,9 @@
       <c r="AY41" t="n">
         <v>1249</v>
       </c>
+      <c r="AZ41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7482,6 +7607,9 @@
       <c r="AY42" t="n">
         <v>1249</v>
       </c>
+      <c r="AZ42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7649,6 +7777,9 @@
       <c r="AY43" t="n">
         <v>1329</v>
       </c>
+      <c r="AZ43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7816,6 +7947,9 @@
       <c r="AY44" t="n">
         <v>1329</v>
       </c>
+      <c r="AZ44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7983,6 +8117,9 @@
       <c r="AY45" t="n">
         <v>1329</v>
       </c>
+      <c r="AZ45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8150,6 +8287,9 @@
       <c r="AY46" t="n">
         <v>1329</v>
       </c>
+      <c r="AZ46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8317,6 +8457,9 @@
       <c r="AY47" t="n">
         <v>1329</v>
       </c>
+      <c r="AZ47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8484,6 +8627,9 @@
       <c r="AY48" t="n">
         <v>1329</v>
       </c>
+      <c r="AZ48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8651,6 +8797,9 @@
       <c r="AY49" t="n">
         <v>1329</v>
       </c>
+      <c r="AZ49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8818,6 +8967,9 @@
       <c r="AY50" t="n">
         <v>1349</v>
       </c>
+      <c r="AZ50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8985,6 +9137,9 @@
       <c r="AY51" t="n">
         <v>1479</v>
       </c>
+      <c r="AZ51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9152,6 +9307,9 @@
       <c r="AY52" t="n">
         <v>1479</v>
       </c>
+      <c r="AZ52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9319,6 +9477,9 @@
       <c r="AY53" t="n">
         <v>1479</v>
       </c>
+      <c r="AZ53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9486,6 +9647,9 @@
       <c r="AY54" t="n">
         <v>1579</v>
       </c>
+      <c r="AZ54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9653,6 +9817,9 @@
       <c r="AY55" t="n">
         <v>1579</v>
       </c>
+      <c r="AZ55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9820,6 +9987,9 @@
       <c r="AY56" t="n">
         <v>1579</v>
       </c>
+      <c r="AZ56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9987,6 +10157,9 @@
       <c r="AY57" t="n">
         <v>1579</v>
       </c>
+      <c r="AZ57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10154,6 +10327,9 @@
       <c r="AY58" t="n">
         <v>1579</v>
       </c>
+      <c r="AZ58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10321,6 +10497,9 @@
       <c r="AY59" t="n">
         <v>1579</v>
       </c>
+      <c r="AZ59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10488,6 +10667,9 @@
       <c r="AY60" t="n">
         <v>1579</v>
       </c>
+      <c r="AZ60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10655,6 +10837,9 @@
       <c r="AY61" t="n">
         <v>1729</v>
       </c>
+      <c r="AZ61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10822,6 +11007,9 @@
       <c r="AY62" t="n">
         <v>1729</v>
       </c>
+      <c r="AZ62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10989,6 +11177,9 @@
       <c r="AY63" t="n">
         <v>1729</v>
       </c>
+      <c r="AZ63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11156,6 +11347,9 @@
       <c r="AY64" t="n">
         <v>1829</v>
       </c>
+      <c r="AZ64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11323,6 +11517,9 @@
       <c r="AY65" t="n">
         <v>1829</v>
       </c>
+      <c r="AZ65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11490,6 +11687,9 @@
       <c r="AY66" t="n">
         <v>1829</v>
       </c>
+      <c r="AZ66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11657,6 +11857,9 @@
       <c r="AY67" t="n">
         <v>1979</v>
       </c>
+      <c r="AZ67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11824,6 +12027,9 @@
       <c r="AY68" t="n">
         <v>1979</v>
       </c>
+      <c r="AZ68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11991,6 +12197,9 @@
       <c r="AY69" t="n">
         <v>1979</v>
       </c>
+      <c r="AZ69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12158,6 +12367,9 @@
       <c r="AY70" t="n">
         <v>2479</v>
       </c>
+      <c r="AZ70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12325,6 +12537,9 @@
       <c r="AY71" t="n">
         <v>2479</v>
       </c>
+      <c r="AZ71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12490,6 +12705,9 @@
         <v>2479</v>
       </c>
       <c r="AY72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AZ72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -12639,6 +12857,7 @@
       <c r="AW73" t="inlineStr"/>
       <c r="AX73" t="inlineStr"/>
       <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12772,6 +12991,7 @@
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="inlineStr"/>
+      <c r="AZ74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ74"/>
+  <dimension ref="A1:BA74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,11 @@
       <c r="AZ1" t="inlineStr">
         <is>
           <t>2026-02-18 04:17:17</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>2026-02-18 05:57:55</t>
         </is>
       </c>
     </row>
@@ -814,6 +819,9 @@
       <c r="AZ2" t="n">
         <v>619</v>
       </c>
+      <c r="BA2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -984,6 +992,9 @@
       <c r="AZ3" t="n">
         <v>659</v>
       </c>
+      <c r="BA3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1154,6 +1165,9 @@
       <c r="AZ4" t="n">
         <v>659</v>
       </c>
+      <c r="BA4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1324,6 +1338,9 @@
       <c r="AZ5" t="n">
         <v>749</v>
       </c>
+      <c r="BA5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1494,6 +1511,9 @@
       <c r="AZ6" t="n">
         <v>749</v>
       </c>
+      <c r="BA6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1664,6 +1684,9 @@
       <c r="AZ7" t="n">
         <v>809</v>
       </c>
+      <c r="BA7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1834,6 +1857,9 @@
       <c r="AZ8" t="n">
         <v>809</v>
       </c>
+      <c r="BA8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2004,6 +2030,9 @@
       <c r="AZ9" t="n">
         <v>809</v>
       </c>
+      <c r="BA9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2174,6 +2203,9 @@
       <c r="AZ10" t="n">
         <v>809</v>
       </c>
+      <c r="BA10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2344,6 +2376,9 @@
       <c r="AZ11" t="n">
         <v>809</v>
       </c>
+      <c r="BA11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2514,6 +2549,9 @@
       <c r="AZ12" t="n">
         <v>849</v>
       </c>
+      <c r="BA12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2684,6 +2722,9 @@
       <c r="AZ13" t="n">
         <v>899</v>
       </c>
+      <c r="BA13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2854,6 +2895,9 @@
       <c r="AZ14" t="n">
         <v>899</v>
       </c>
+      <c r="BA14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3024,6 +3068,9 @@
       <c r="AZ15" t="n">
         <v>909</v>
       </c>
+      <c r="BA15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3194,6 +3241,9 @@
       <c r="AZ16" t="n">
         <v>909</v>
       </c>
+      <c r="BA16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3364,6 +3414,9 @@
       <c r="AZ17" t="n">
         <v>909</v>
       </c>
+      <c r="BA17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3534,6 +3587,9 @@
       <c r="AZ18" t="n">
         <v>909</v>
       </c>
+      <c r="BA18" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3700,6 +3756,9 @@
       <c r="AZ19" t="n">
         <v>949</v>
       </c>
+      <c r="BA19" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3870,6 +3929,9 @@
       <c r="AZ20" t="n">
         <v>969</v>
       </c>
+      <c r="BA20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4040,6 +4102,9 @@
       <c r="AZ21" t="n">
         <v>969</v>
       </c>
+      <c r="BA21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4210,6 +4275,9 @@
       <c r="AZ22" t="n">
         <v>969</v>
       </c>
+      <c r="BA22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4380,6 +4448,9 @@
       <c r="AZ23" t="n">
         <v>969</v>
       </c>
+      <c r="BA23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4550,6 +4621,9 @@
       <c r="AZ24" t="n">
         <v>969</v>
       </c>
+      <c r="BA24" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4720,6 +4794,9 @@
       <c r="AZ25" t="n">
         <v>999</v>
       </c>
+      <c r="BA25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4890,6 +4967,9 @@
       <c r="AZ26" t="n">
         <v>999</v>
       </c>
+      <c r="BA26" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5060,6 +5140,9 @@
       <c r="AZ27" t="n">
         <v>1039</v>
       </c>
+      <c r="BA27" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5230,6 +5313,9 @@
       <c r="AZ28" t="n">
         <v>1079</v>
       </c>
+      <c r="BA28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5400,6 +5486,9 @@
       <c r="AZ29" t="n">
         <v>1079</v>
       </c>
+      <c r="BA29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5570,6 +5659,9 @@
       <c r="AZ30" t="n">
         <v>1079</v>
       </c>
+      <c r="BA30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5740,6 +5832,9 @@
       <c r="AZ31" t="n">
         <v>1079</v>
       </c>
+      <c r="BA31" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5910,6 +6005,9 @@
       <c r="AZ32" t="n">
         <v>1099</v>
       </c>
+      <c r="BA32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6080,6 +6178,9 @@
       <c r="AZ33" t="n">
         <v>1099</v>
       </c>
+      <c r="BA33" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6250,6 +6351,9 @@
       <c r="AZ34" t="n">
         <v>1199</v>
       </c>
+      <c r="BA34" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6420,6 +6524,9 @@
       <c r="AZ35" t="n">
         <v>1219</v>
       </c>
+      <c r="BA35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6590,6 +6697,9 @@
       <c r="AZ36" t="n">
         <v>1219</v>
       </c>
+      <c r="BA36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6760,6 +6870,9 @@
       <c r="AZ37" t="n">
         <v>1219</v>
       </c>
+      <c r="BA37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6930,6 +7043,9 @@
       <c r="AZ38" t="n">
         <v>1219</v>
       </c>
+      <c r="BA38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7100,6 +7216,9 @@
       <c r="AZ39" t="n">
         <v>1219</v>
       </c>
+      <c r="BA39" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7270,6 +7389,9 @@
       <c r="AZ40" t="n">
         <v>1229</v>
       </c>
+      <c r="BA40" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7440,6 +7562,9 @@
       <c r="AZ41" t="n">
         <v>1249</v>
       </c>
+      <c r="BA41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7610,6 +7735,9 @@
       <c r="AZ42" t="n">
         <v>1249</v>
       </c>
+      <c r="BA42" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7780,6 +7908,9 @@
       <c r="AZ43" t="n">
         <v>1329</v>
       </c>
+      <c r="BA43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7950,6 +8081,9 @@
       <c r="AZ44" t="n">
         <v>1329</v>
       </c>
+      <c r="BA44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8120,6 +8254,9 @@
       <c r="AZ45" t="n">
         <v>1329</v>
       </c>
+      <c r="BA45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8290,6 +8427,9 @@
       <c r="AZ46" t="n">
         <v>1329</v>
       </c>
+      <c r="BA46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8460,6 +8600,9 @@
       <c r="AZ47" t="n">
         <v>1329</v>
       </c>
+      <c r="BA47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8630,6 +8773,9 @@
       <c r="AZ48" t="n">
         <v>1329</v>
       </c>
+      <c r="BA48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8800,6 +8946,9 @@
       <c r="AZ49" t="n">
         <v>1329</v>
       </c>
+      <c r="BA49" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8970,6 +9119,9 @@
       <c r="AZ50" t="n">
         <v>1349</v>
       </c>
+      <c r="BA50" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9140,6 +9292,9 @@
       <c r="AZ51" t="n">
         <v>1479</v>
       </c>
+      <c r="BA51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9310,6 +9465,9 @@
       <c r="AZ52" t="n">
         <v>1479</v>
       </c>
+      <c r="BA52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9480,6 +9638,9 @@
       <c r="AZ53" t="n">
         <v>1479</v>
       </c>
+      <c r="BA53" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9499,7 +9660,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -9648,6 +9809,9 @@
         <v>1579</v>
       </c>
       <c r="AZ54" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BA54" t="n">
         <v>1579</v>
       </c>
     </row>
@@ -9820,6 +9984,9 @@
       <c r="AZ55" t="n">
         <v>1579</v>
       </c>
+      <c r="BA55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9990,6 +10157,9 @@
       <c r="AZ56" t="n">
         <v>1579</v>
       </c>
+      <c r="BA56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10160,6 +10330,9 @@
       <c r="AZ57" t="n">
         <v>1579</v>
       </c>
+      <c r="BA57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10330,6 +10503,9 @@
       <c r="AZ58" t="n">
         <v>1579</v>
       </c>
+      <c r="BA58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10500,6 +10676,9 @@
       <c r="AZ59" t="n">
         <v>1579</v>
       </c>
+      <c r="BA59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10670,6 +10849,9 @@
       <c r="AZ60" t="n">
         <v>1579</v>
       </c>
+      <c r="BA60" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10840,6 +11022,9 @@
       <c r="AZ61" t="n">
         <v>1729</v>
       </c>
+      <c r="BA61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11010,6 +11195,9 @@
       <c r="AZ62" t="n">
         <v>1729</v>
       </c>
+      <c r="BA62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11180,6 +11368,9 @@
       <c r="AZ63" t="n">
         <v>1729</v>
       </c>
+      <c r="BA63" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11350,6 +11541,9 @@
       <c r="AZ64" t="n">
         <v>1829</v>
       </c>
+      <c r="BA64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11520,6 +11714,9 @@
       <c r="AZ65" t="n">
         <v>1829</v>
       </c>
+      <c r="BA65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11690,6 +11887,9 @@
       <c r="AZ66" t="n">
         <v>1829</v>
       </c>
+      <c r="BA66" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11860,6 +12060,9 @@
       <c r="AZ67" t="n">
         <v>1979</v>
       </c>
+      <c r="BA67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12030,6 +12233,9 @@
       <c r="AZ68" t="n">
         <v>1979</v>
       </c>
+      <c r="BA68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12200,6 +12406,9 @@
       <c r="AZ69" t="n">
         <v>1979</v>
       </c>
+      <c r="BA69" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12370,6 +12579,9 @@
       <c r="AZ70" t="n">
         <v>2479</v>
       </c>
+      <c r="BA70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12540,6 +12752,9 @@
       <c r="AZ71" t="n">
         <v>2479</v>
       </c>
+      <c r="BA71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12708,6 +12923,9 @@
         <v>2479</v>
       </c>
       <c r="AZ72" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BA72" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -12858,6 +13076,7 @@
       <c r="AX73" t="inlineStr"/>
       <c r="AY73" t="inlineStr"/>
       <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12992,6 +13211,7 @@
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="inlineStr"/>
       <c r="AZ74" t="inlineStr"/>
+      <c r="BA74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA74"/>
+  <dimension ref="A1:BB74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,16 +687,21 @@
           <t>2026-02-18 05:57:55</t>
         </is>
       </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>2026-02-18 07:01:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PB00668659</t>
+          <t>PB00570856</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 128 Go Blanc</t>
+          <t>Apple iPhone 15 128 Go Noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -706,14 +711,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -722,116 +727,157 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668659.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="J2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="L2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="M2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="N2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="O2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="P2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="Q2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="R2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="S2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="T2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="U2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="V2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="W2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="X2" t="n">
-        <v>619</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+        <v>659</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>659</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>659</v>
+      </c>
       <c r="AR2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="AS2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="AT2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="AU2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="AV2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="AW2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="AX2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="AY2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="AZ2" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="BA2" t="n">
-        <v>619</v>
+        <v>659</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PB00570856</t>
+          <t>PB00570857</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Noir</t>
+          <t>Apple iPhone 15 128 Go Rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -857,7 +903,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -993,18 +1039,21 @@
         <v>659</v>
       </c>
       <c r="BA3" t="n">
+        <v>659</v>
+      </c>
+      <c r="BB3" t="n">
         <v>659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PB00570857</t>
+          <t>PB00668661</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Rose</t>
+          <t>Apple iPhone 16e 256 Go Blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1014,14 +1063,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1030,154 +1079,157 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668661.html</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="K4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="L4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="M4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="N4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="O4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="P4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="Q4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="R4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="S4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="T4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="U4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="V4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="W4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="X4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="Y4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="Z4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AA4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AB4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AC4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AD4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AE4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AF4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AG4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AH4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AI4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AJ4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AK4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AL4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AM4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AN4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AO4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AP4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AQ4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AR4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AS4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AT4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AU4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AV4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AW4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AX4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AY4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="AZ4" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="BA4" t="n">
-        <v>659</v>
+        <v>749</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PB00668661</t>
+          <t>PB00668660</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 256 Go Blanc</t>
+          <t>Apple iPhone 16e 256 Go Noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1187,7 +1239,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1203,7 +1255,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668661.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668660.html</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -1339,18 +1391,21 @@
         <v>749</v>
       </c>
       <c r="BA5" t="n">
+        <v>749</v>
+      </c>
+      <c r="BB5" t="n">
         <v>749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PB00668660</t>
+          <t>PB00642659</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 256 Go Noir</t>
+          <t>Apple iPhone 16 128 Go Blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1360,14 +1415,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1376,154 +1431,157 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668660.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642659.html</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="J6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="L6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="M6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="N6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="O6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="P6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="Q6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="R6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="S6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="T6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="U6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="V6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="W6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="X6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="Y6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="Z6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AA6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AB6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AC6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AD6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AE6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AF6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AG6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AH6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AI6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AJ6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AK6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AL6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AM6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AN6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AO6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AP6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AQ6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AR6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AS6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AT6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AU6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AV6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AW6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AX6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AY6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="AZ6" t="n">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="BA6" t="n">
-        <v>749</v>
+        <v>809</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PB00642659</t>
+          <t>PB00642660</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Blanc</t>
+          <t>Apple iPhone 16 128 Go Noir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1549,7 +1607,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642659.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642660.html</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1685,18 +1743,21 @@
         <v>809</v>
       </c>
       <c r="BA7" t="n">
+        <v>809</v>
+      </c>
+      <c r="BB7" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PB00642660</t>
+          <t>PB00642657</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Noir</t>
+          <t>Apple iPhone 16 128 Go Outremer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1722,7 +1783,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642660.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642657.html</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1858,18 +1919,21 @@
         <v>809</v>
       </c>
       <c r="BA8" t="n">
+        <v>809</v>
+      </c>
+      <c r="BB8" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PB00642657</t>
+          <t>PB00642658</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Outremer</t>
+          <t>Apple iPhone 16 128 Go Rose</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1879,7 +1943,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1895,7 +1959,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642657.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642658.html</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -2031,18 +2095,21 @@
         <v>809</v>
       </c>
       <c r="BA9" t="n">
+        <v>809</v>
+      </c>
+      <c r="BB9" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PB00642658</t>
+          <t>PB00642656</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Rose</t>
+          <t>Apple iPhone 16 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2052,7 +2119,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -2068,7 +2135,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642658.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642656.html</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -2204,18 +2271,21 @@
         <v>809</v>
       </c>
       <c r="BA10" t="n">
+        <v>809</v>
+      </c>
+      <c r="BB10" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PB00642656</t>
+          <t>PB00570863</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Sarcelle</t>
+          <t>Apple iPhone 15 256 Go Jaune</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2232,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2241,154 +2311,157 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642656.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570863.html</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="J11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="K11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="L11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="M11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="N11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="O11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="P11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="Q11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="R11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="S11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="T11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="U11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="V11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="W11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="X11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="Y11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="Z11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AA11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AB11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AC11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AD11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AE11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AF11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AG11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AH11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AI11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AJ11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AK11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AL11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AM11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AN11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AO11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AP11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AQ11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AR11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AS11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AT11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AU11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AV11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AW11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AX11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AY11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="AZ11" t="n">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="BA11" t="n">
-        <v>809</v>
+        <v>849</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>849</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PB00570863</t>
+          <t>PB00516137</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 256 Go Jaune</t>
+          <t>Apple iPhone 14 512 Go (PRODUCT)RED</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2405,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2414,154 +2487,157 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570863.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516137.html</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="J12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="K12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="L12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="M12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="N12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="O12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="P12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="Q12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="R12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="S12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="T12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="U12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="V12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="W12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="X12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="Y12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="Z12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AA12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AB12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AC12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AD12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AE12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AF12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AG12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AH12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AI12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AJ12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AK12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AL12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AM12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AN12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AO12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AP12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AQ12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AR12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AS12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AT12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AU12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AV12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AW12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AX12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AY12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="AZ12" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="BA12" t="n">
-        <v>849</v>
+        <v>899</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PB00516137</t>
+          <t>PB00516141</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 512 Go (PRODUCT)RED</t>
+          <t>Apple iPhone 14 512 Go Lumière Stellaire</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2587,7 +2663,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516137.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516141.html</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -2723,18 +2799,21 @@
         <v>899</v>
       </c>
       <c r="BA13" t="n">
+        <v>899</v>
+      </c>
+      <c r="BB13" t="n">
         <v>899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PB00516141</t>
+          <t>PB00642644</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 512 Go Lumière Stellaire</t>
+          <t>Apple iPhone 16 Plus 128 Go Noir</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2744,14 +2823,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2760,154 +2839,157 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516141.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642644.html</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="J14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="K14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="L14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="M14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="N14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="O14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="P14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="Q14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="R14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="S14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="T14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="U14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="V14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="W14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="X14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="Y14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="Z14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AA14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AB14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AC14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AD14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AE14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AF14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AG14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AH14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AI14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AJ14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AK14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AL14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AM14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AN14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AO14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AP14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AQ14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AR14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AS14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AT14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AU14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AV14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AW14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AX14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AY14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="AZ14" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="BA14" t="n">
-        <v>899</v>
+        <v>909</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PB00642644</t>
+          <t>PB00642641</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Noir</t>
+          <t>Apple iPhone 16 Plus 128 Go Outremer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2917,7 +2999,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -2933,7 +3015,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642644.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642641.html</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -3069,18 +3151,21 @@
         <v>909</v>
       </c>
       <c r="BA15" t="n">
+        <v>909</v>
+      </c>
+      <c r="BB15" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PB00642641</t>
+          <t>PB00642642</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Outremer</t>
+          <t>Apple iPhone 16 Plus 128 Go Rose</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3090,7 +3175,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3106,7 +3191,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642641.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -3242,18 +3327,21 @@
         <v>909</v>
       </c>
       <c r="BA16" t="n">
+        <v>909</v>
+      </c>
+      <c r="BB16" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PB00642642</t>
+          <t>PB00642640</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Rose</t>
+          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3263,7 +3351,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3279,7 +3367,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -3415,18 +3503,21 @@
         <v>909</v>
       </c>
       <c r="BA17" t="n">
+        <v>909</v>
+      </c>
+      <c r="BB17" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PB00642640</t>
+          <t>PB00516161</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
+          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3439,167 +3530,166 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>40</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="J18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="K18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="L18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="M18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="N18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="O18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="P18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="Q18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="R18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="S18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="T18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="U18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="V18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="W18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="X18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="Y18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="Z18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AA18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AB18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AC18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AD18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AE18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AF18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AG18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AH18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AI18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AJ18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AK18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AL18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AM18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AN18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AO18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AP18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AQ18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AR18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AS18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AT18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AU18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AV18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AW18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AX18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AY18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AZ18" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BA18" t="n">
-        <v>909</v>
+        <v>949</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>949</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PB00516161</t>
+          <t>PB00702806</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
+          <t>Apple iPhone 17 256 Go Blanc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3612,163 +3702,170 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24</v>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="J19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="K19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="L19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="M19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="N19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="O19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="P19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="Q19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="R19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="S19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="T19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="U19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="V19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="W19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="X19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="Y19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="Z19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AA19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AB19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AC19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AD19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AE19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AF19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AG19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AH19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AI19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AJ19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AK19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AL19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AM19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AN19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AO19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AP19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AQ19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AR19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AS19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AT19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AU19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AV19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AW19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AX19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AY19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AZ19" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BA19" t="n">
-        <v>949</v>
+        <v>969</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PB00702806</t>
+          <t>PB00702808</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Blanc</t>
+          <t>Apple iPhone 17 256 Go Brume</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3794,7 +3891,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -3930,18 +4027,21 @@
         <v>969</v>
       </c>
       <c r="BA20" t="n">
+        <v>969</v>
+      </c>
+      <c r="BB20" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PB00702808</t>
+          <t>PB00702809</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Brume</t>
+          <t>Apple iPhone 17 256 Go Lavande</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3967,7 +4067,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -4103,18 +4203,21 @@
         <v>969</v>
       </c>
       <c r="BA21" t="n">
+        <v>969</v>
+      </c>
+      <c r="BB21" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PB00702809</t>
+          <t>PB00702804</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Lavande</t>
+          <t>Apple iPhone 17 256 Go Noir</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4140,7 +4243,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -4276,18 +4379,21 @@
         <v>969</v>
       </c>
       <c r="BA22" t="n">
+        <v>969</v>
+      </c>
+      <c r="BB22" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PB00702804</t>
+          <t>PB00702811</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Noir</t>
+          <t>Apple iPhone 17 256 Go Sauge</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4313,7 +4419,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -4449,18 +4555,21 @@
         <v>969</v>
       </c>
       <c r="BA23" t="n">
+        <v>969</v>
+      </c>
+      <c r="BB23" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PB00702811</t>
+          <t>PB00668663</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Sauge</t>
+          <t>Apple iPhone 16e 512 Go Blanc</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4470,14 +4579,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4486,154 +4595,157 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="J24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="K24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="L24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="M24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="N24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="O24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="P24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="Q24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="R24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="S24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="T24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="U24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="V24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="W24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="X24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="Y24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="Z24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AA24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AB24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AC24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AD24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AE24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AF24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AG24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AH24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AI24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AJ24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AK24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AL24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AM24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AN24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AO24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AP24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AQ24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AR24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AS24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AT24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AU24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AV24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AW24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AX24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AY24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AZ24" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BA24" t="n">
-        <v>969</v>
+        <v>999</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00668663</t>
+          <t>PB00668662</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Blanc</t>
+          <t>Apple iPhone 16e 512 Go Noir</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4643,7 +4755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -4659,7 +4771,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -4795,18 +4907,21 @@
         <v>999</v>
       </c>
       <c r="BA25" t="n">
+        <v>999</v>
+      </c>
+      <c r="BB25" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00668662</t>
+          <t>PB00642638</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Noir</t>
+          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4816,14 +4931,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4832,154 +4947,157 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="J26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="K26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="L26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="M26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="N26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="O26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="P26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Q26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="R26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="S26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="T26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="U26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="V26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="W26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="X26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Y26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Z26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AA26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AB26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AC26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AD26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AE26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AF26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AG26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AH26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AI26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AJ26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AK26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AL26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AM26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AN26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AO26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AP26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AQ26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AR26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AS26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AT26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AU26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AV26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AW26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AX26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AY26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AZ26" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BA26" t="n">
-        <v>999</v>
+        <v>1039</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1039</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00642638</t>
+          <t>PB00702797</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
+          <t>Apple iPhone Air 256 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4989,14 +5107,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -5005,154 +5123,157 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="J27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="K27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="L27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="M27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="N27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="O27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="P27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Q27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="R27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="S27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="T27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="U27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="V27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="W27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="X27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Y27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Z27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AA27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AB27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AC27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AD27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AE27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AF27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AG27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AH27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AI27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AK27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AL27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AM27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AN27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AO27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AP27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AR27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AS27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AT27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AU27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AV27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AW27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AX27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AY27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BA27" t="n">
-        <v>1039</v>
+        <v>1079</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1079</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00702797</t>
+          <t>PB00702807</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Blanc nuage</t>
+          <t>Apple iPhone Air 256 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5178,7 +5299,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -5314,18 +5435,21 @@
         <v>1079</v>
       </c>
       <c r="BA28" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BB28" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PB00702807</t>
+          <t>PB00702792</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Bleu ciel</t>
+          <t>Apple iPhone Air 256 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5335,7 +5459,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5351,7 +5475,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -5487,18 +5611,21 @@
         <v>1079</v>
       </c>
       <c r="BA29" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BB29" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00702792</t>
+          <t>PB00702801</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Noir sidéral</t>
+          <t>Apple iPhone Air 256 Go Or clair</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5508,7 +5635,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5524,7 +5651,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -5660,18 +5787,21 @@
         <v>1079</v>
       </c>
       <c r="BA30" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BB30" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00702801</t>
+          <t>PB00570868</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Or clair</t>
+          <t>Apple iPhone 15 512 Go Jaune</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5688,7 +5818,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -5697,154 +5827,157 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="J31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="K31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="L31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="M31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="N31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="O31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="P31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Q31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="R31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="S31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="T31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="U31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="V31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="W31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="X31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Y31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Z31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AA31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AB31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AC31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AD31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AE31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AF31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AG31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AH31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AI31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AK31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AL31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AM31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AN31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AO31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AP31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AR31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AS31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AT31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AU31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AV31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AW31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AX31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AY31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BA31" t="n">
-        <v>1079</v>
+        <v>1099</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00570868</t>
+          <t>PB00570870</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Jaune</t>
+          <t>Apple iPhone 15 512 Go Vert</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5870,7 +6003,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -6006,18 +6139,21 @@
         <v>1099</v>
       </c>
       <c r="BA32" t="n">
+        <v>1099</v>
+      </c>
+      <c r="BB32" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00570870</t>
+          <t>PB00516186</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Vert</t>
+          <t>Apple iPhone 14 Pro 1 To Or</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6034,7 +6170,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -6043,154 +6179,157 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="J33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="K33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="L33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="M33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="N33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="O33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="P33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Q33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="R33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="S33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="T33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="U33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="V33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="W33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="X33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Y33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Z33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AA33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AB33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AC33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AD33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AE33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AF33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AG33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AH33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AI33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AK33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AL33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AM33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AN33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AO33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AP33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AR33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AS33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AT33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AU33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AV33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AW33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AX33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AY33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BA33" t="n">
-        <v>1099</v>
+        <v>1199</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00516186</t>
+          <t>PB00702815</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro 1 To Or</t>
+          <t>Apple iPhone 17 512 Go Blanc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6200,14 +6339,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -6216,154 +6355,157 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="J34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="K34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="L34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="M34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="N34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="O34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="P34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Q34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="R34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="S34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="T34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="U34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="V34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="W34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="X34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Z34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AA34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AB34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AC34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AD34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AE34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AF34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AG34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AH34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AI34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AK34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AL34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AM34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AN34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AO34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AP34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AR34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AS34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AT34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AU34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AV34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AW34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AX34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AY34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AZ34" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BA34" t="n">
-        <v>1199</v>
+        <v>1219</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00702815</t>
+          <t>PB00702816</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Blanc</t>
+          <t>Apple iPhone 17 512 Go Brume</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6373,7 +6515,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -6389,7 +6531,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -6525,18 +6667,21 @@
         <v>1219</v>
       </c>
       <c r="BA35" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BB35" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00702816</t>
+          <t>PB00702817</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Brume</t>
+          <t>Apple iPhone 17 512 Go Lavande</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6562,7 +6707,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -6698,18 +6843,21 @@
         <v>1219</v>
       </c>
       <c r="BA36" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BB36" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00702817</t>
+          <t>PB00702813</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Lavande</t>
+          <t>Apple iPhone 17 512 Go Noir</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6719,7 +6867,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -6735,7 +6883,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -6871,18 +7019,21 @@
         <v>1219</v>
       </c>
       <c r="BA37" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BB37" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00702813</t>
+          <t>PB00702818</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Noir</t>
+          <t>Apple iPhone 17 512 Go Sauge</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6892,7 +7043,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -6908,7 +7059,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -7044,18 +7195,21 @@
         <v>1219</v>
       </c>
       <c r="BA38" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BB38" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00702818</t>
+          <t>PB00570890</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Sauge</t>
+          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7072,7 +7226,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -7081,154 +7235,157 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="J39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="K39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="L39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="M39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="N39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="O39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="P39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Q39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="R39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="S39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="T39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="U39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="V39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="W39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="X39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Y39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Z39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AA39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AB39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AC39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AD39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AE39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AF39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AG39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AH39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AI39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AK39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AL39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AM39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AN39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AO39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AP39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AR39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AS39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AT39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AU39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AV39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AW39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AX39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AY39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AZ39" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BA39" t="n">
-        <v>1219</v>
+        <v>1229</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00570890</t>
+          <t>PB00642649</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
+          <t>Apple iPhone 16 512 Go Blanc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7245,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -7254,154 +7411,157 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="J40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="K40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="L40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="M40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="N40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="O40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="P40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Q40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="R40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="S40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="T40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="U40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="V40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="W40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="X40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Y40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Z40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AA40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AB40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AC40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AD40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AE40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AF40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AG40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AH40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AI40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AK40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AL40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AM40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AN40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AO40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AP40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AR40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AS40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AT40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AU40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AV40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AW40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AX40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AY40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BA40" t="n">
-        <v>1229</v>
+        <v>1249</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00642649</t>
+          <t>PB00642648</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Blanc</t>
+          <t>Apple iPhone 16 512 Go Rose</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7427,7 +7587,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -7563,18 +7723,21 @@
         <v>1249</v>
       </c>
       <c r="BA41" t="n">
+        <v>1249</v>
+      </c>
+      <c r="BB41" t="n">
         <v>1249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00642648</t>
+          <t>PB00702819</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Rose</t>
+          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7591,7 +7754,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -7600,154 +7763,157 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="J42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="K42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="L42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="M42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="N42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="O42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="P42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Q42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="R42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="S42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="T42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="U42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="V42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="W42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="X42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Y42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Z42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AA42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AB42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AC42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AD42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AE42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AF42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AG42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AH42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AI42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AK42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AL42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AM42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AN42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AO42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AP42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AR42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AS42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AT42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AU42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AV42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AW42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AX42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AY42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AZ42" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BA42" t="n">
-        <v>1249</v>
+        <v>1329</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00702819</t>
+          <t>PB00702822</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7773,7 +7939,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -7909,18 +8075,21 @@
         <v>1329</v>
       </c>
       <c r="BA43" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BB43" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00702822</t>
+          <t>PB00702820</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7946,7 +8115,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -8082,18 +8251,21 @@
         <v>1329</v>
       </c>
       <c r="BA44" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BB44" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00702820</t>
+          <t>PB00702798</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 512 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8110,7 +8282,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -8119,7 +8291,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -8255,18 +8427,21 @@
         <v>1329</v>
       </c>
       <c r="BA45" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BB45" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00702798</t>
+          <t>PB00702810</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Blanc nuage</t>
+          <t>Apple iPhone Air 512 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8292,7 +8467,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -8428,18 +8603,21 @@
         <v>1329</v>
       </c>
       <c r="BA46" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BB46" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00702810</t>
+          <t>PB00702793</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Bleu ciel</t>
+          <t>Apple iPhone Air 512 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8465,7 +8643,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -8601,18 +8779,21 @@
         <v>1329</v>
       </c>
       <c r="BA47" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BB47" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00702793</t>
+          <t>PB00702802</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Noir sidéral</t>
+          <t>Apple iPhone Air 512 Go Or clair</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8638,7 +8819,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -8774,18 +8955,21 @@
         <v>1329</v>
       </c>
       <c r="BA48" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BB48" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00702802</t>
+          <t>PB00642633</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Or clair</t>
+          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8802,7 +8986,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -8811,154 +8995,157 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="J49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="K49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="L49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="M49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="N49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="O49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="P49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Q49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="R49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="S49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="T49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="U49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="V49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="W49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="X49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Y49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Z49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AA49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AB49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AC49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AD49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AE49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AF49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AG49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AH49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AI49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AK49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AL49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AM49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AN49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AO49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AP49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AR49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AS49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AT49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AU49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AV49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AW49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AX49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AY49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AZ49" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BA49" t="n">
-        <v>1329</v>
+        <v>1349</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00642633</t>
+          <t>PB00702830</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8968,14 +9155,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -8984,154 +9171,157 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="J50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="K50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="L50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="M50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="N50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="O50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="P50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Q50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="R50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="S50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="T50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="U50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="V50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="W50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="X50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Y50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Z50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AA50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AB50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AC50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AD50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AE50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AF50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AG50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AH50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AI50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AK50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AL50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AM50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AN50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AO50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AP50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AR50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AS50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AT50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AU50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AV50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AW50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AX50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AY50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AZ50" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BA50" t="n">
-        <v>1349</v>
+        <v>1479</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00702830</t>
+          <t>PB00702832</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9141,7 +9331,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -9157,7 +9347,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -9293,18 +9483,21 @@
         <v>1479</v>
       </c>
       <c r="BA51" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BB51" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00702832</t>
+          <t>PB00702831</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9314,7 +9507,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -9330,7 +9523,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -9466,18 +9659,21 @@
         <v>1479</v>
       </c>
       <c r="BA52" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BB52" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00702831</t>
+          <t>PB00702823</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9487,7 +9683,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -9503,154 +9699,157 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="J53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="K53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="L53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="M53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="N53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="O53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="P53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Q53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="R53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="S53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="T53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="U53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="V53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="W53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="X53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Y53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Z53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AA53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AB53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AC53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AD53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AE53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AF53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AG53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AH53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AI53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AK53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AL53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AM53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AN53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AO53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AP53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AR53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AS53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AT53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AU53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AV53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AW53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AX53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AY53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AZ53" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BA53" t="n">
-        <v>1479</v>
+        <v>1579</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1579</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00702823</t>
+          <t>PB00702825</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9660,7 +9859,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -9676,7 +9875,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -9812,18 +10011,21 @@
         <v>1579</v>
       </c>
       <c r="BA54" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BB54" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00702825</t>
+          <t>PB00702824</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9833,7 +10035,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -9849,7 +10051,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -9985,18 +10187,21 @@
         <v>1579</v>
       </c>
       <c r="BA55" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BB55" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00702824</t>
+          <t>PB00702799</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 1 To Blanc nuage</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10013,7 +10218,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -10022,7 +10227,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -10158,18 +10363,21 @@
         <v>1579</v>
       </c>
       <c r="BA56" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BB56" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00702799</t>
+          <t>PB00702812</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Blanc nuage</t>
+          <t>Apple iPhone Air 1 To Bleu ciel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10195,7 +10403,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -10331,18 +10539,21 @@
         <v>1579</v>
       </c>
       <c r="BA57" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BB57" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00702812</t>
+          <t>PB00702794</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Bleu ciel</t>
+          <t>Apple iPhone Air 1 To Noir sidéral</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10352,7 +10563,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -10368,7 +10579,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -10504,18 +10715,21 @@
         <v>1579</v>
       </c>
       <c r="BA58" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BB58" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00702794</t>
+          <t>PB00702805</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Noir sidéral</t>
+          <t>Apple iPhone Air 1 To Or clair</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10525,7 +10739,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -10541,7 +10755,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -10677,18 +10891,21 @@
         <v>1579</v>
       </c>
       <c r="BA59" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BB59" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00702805</t>
+          <t>PB00702833</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Or clair</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -10698,14 +10915,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -10714,154 +10931,157 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="J60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="K60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="L60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="M60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="N60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="O60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="P60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Q60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="R60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="S60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="T60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="U60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="V60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="W60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="X60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Y60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Z60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AA60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AB60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AC60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AD60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AE60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AF60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AG60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AH60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AI60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AK60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AL60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AM60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AN60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AO60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AP60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AR60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AS60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AT60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AU60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AV60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AW60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AX60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AY60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AZ60" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BA60" t="n">
-        <v>1579</v>
+        <v>1729</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1729</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00702833</t>
+          <t>PB00702835</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -10887,7 +11107,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -11023,18 +11243,21 @@
         <v>1729</v>
       </c>
       <c r="BA61" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BB61" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00702835</t>
+          <t>PB00702834</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11060,7 +11283,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -11196,18 +11419,21 @@
         <v>1729</v>
       </c>
       <c r="BA62" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BB62" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00702834</t>
+          <t>PB00702826</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 1 To Argent</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11233,154 +11459,157 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="J63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="K63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="L63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="M63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="N63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="O63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="P63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Q63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="R63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="S63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="T63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="U63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="V63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="W63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="X63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Y63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Z63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AA63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AB63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AC63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AD63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AE63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AF63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AG63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AH63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AI63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AK63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AL63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AM63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AN63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AO63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AP63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AR63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AS63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AT63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AU63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AV63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AW63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AX63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AY63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AZ63" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BA63" t="n">
-        <v>1729</v>
+        <v>1829</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00702826</t>
+          <t>PB00702828</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Argent</t>
+          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11406,7 +11635,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -11542,18 +11771,21 @@
         <v>1829</v>
       </c>
       <c r="BA64" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BB64" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00702828</t>
+          <t>PB00702827</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11579,7 +11811,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -11715,18 +11947,21 @@
         <v>1829</v>
       </c>
       <c r="BA65" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BB65" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00702827</t>
+          <t>PB00702836</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -11752,154 +11987,157 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="J66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="K66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="L66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="M66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="N66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="O66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="P66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Q66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="R66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="S66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="T66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="U66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="V66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="W66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="X66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Y66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Z66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AA66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AB66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AC66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AD66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AE66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AF66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AG66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AH66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AI66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AK66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AL66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AM66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AN66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AO66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AP66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AR66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AS66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AT66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AU66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AV66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AW66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AX66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AY66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AZ66" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BA66" t="n">
-        <v>1829</v>
+        <v>1979</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1979</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00702836</t>
+          <t>PB00702838</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -11925,7 +12163,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -12061,18 +12299,21 @@
         <v>1979</v>
       </c>
       <c r="BA67" t="n">
+        <v>1979</v>
+      </c>
+      <c r="BB67" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00702838</t>
+          <t>PB00702837</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -12098,7 +12339,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -12234,18 +12475,21 @@
         <v>1979</v>
       </c>
       <c r="BA68" t="n">
+        <v>1979</v>
+      </c>
+      <c r="BB68" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00702837</t>
+          <t>PB00702839</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12271,154 +12515,157 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="J69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="K69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="L69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="M69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="N69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="O69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="P69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Q69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="R69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="S69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="T69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="U69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="V69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="W69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="X69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Y69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Z69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AA69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AB69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AC69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AD69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AE69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AF69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AG69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AH69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AI69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AK69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AL69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AM69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AN69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AO69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AP69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AR69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AS69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AT69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AU69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AV69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AW69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AX69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AY69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AZ69" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BA69" t="n">
-        <v>1979</v>
+        <v>2479</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>2479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00702839</t>
+          <t>PB00702841</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
+          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -12444,7 +12691,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -12580,18 +12827,21 @@
         <v>2479</v>
       </c>
       <c r="BA70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BB70" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00702841</t>
+          <t>PB00702840</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -12617,7 +12867,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -12753,18 +13003,21 @@
         <v>2479</v>
       </c>
       <c r="BA71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BB71" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00702840</t>
+          <t>PB00570867</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
+          <t>Apple iPhone 15 512 Go Rose</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -12774,14 +13027,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -12790,154 +13043,131 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="J72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="K72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="L72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="M72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="N72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="O72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="P72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Q72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="R72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="S72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="T72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="U72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="V72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="W72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="X72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Y72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Z72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AA72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AB72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AC72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AD72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AE72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AF72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AG72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AH72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AI72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AK72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AL72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AM72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AN72" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AO72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>2479</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
+      <c r="AS72" t="inlineStr"/>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AU72" t="inlineStr"/>
+      <c r="AV72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr"/>
+      <c r="AX72" t="inlineStr"/>
+      <c r="AY72" t="inlineStr"/>
+      <c r="AZ72" t="inlineStr"/>
+      <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00570867</t>
+          <t>PB00642639</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Rose</t>
+          <t>Apple iPhone 16 Plus 256 Go Noir</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -12947,14 +13177,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -12963,108 +13193,94 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="J73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="K73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="L73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="M73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="N73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="O73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="P73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="Q73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="R73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="S73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="T73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="U73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="V73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="W73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="X73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="Y73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="Z73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="AA73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="AB73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="AC73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="AD73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="AE73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="AF73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="AG73" t="n">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="AH73" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>1099</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
@@ -13077,16 +13293,17 @@
       <c r="AY73" t="inlineStr"/>
       <c r="AZ73" t="inlineStr"/>
       <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00642639</t>
+          <t>PB00668659</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Noir</t>
+          <t>Apple iPhone 16e 128 Go Blanc</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -13100,10 +13317,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -13112,87 +13329,67 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668659.html</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="J74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="K74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="L74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="M74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="N74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="O74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="P74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="Q74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="R74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="S74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="T74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="U74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="V74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="W74" t="n">
-        <v>1039</v>
+        <v>619</v>
       </c>
       <c r="X74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>1039</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
@@ -13202,16 +13399,37 @@
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
-      <c r="AT74" t="inlineStr"/>
-      <c r="AU74" t="inlineStr"/>
-      <c r="AV74" t="inlineStr"/>
-      <c r="AW74" t="inlineStr"/>
-      <c r="AX74" t="inlineStr"/>
-      <c r="AY74" t="inlineStr"/>
-      <c r="AZ74" t="inlineStr"/>
-      <c r="BA74" t="inlineStr"/>
+      <c r="AR74" t="n">
+        <v>619</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>619</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>619</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>619</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>619</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>619</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>619</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>619</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>619</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>619</v>
+      </c>
+      <c r="BB74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB74"/>
+  <dimension ref="A1:BC74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,6 +692,11 @@
           <t>2026-02-18 07:01:06</t>
         </is>
       </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>2026-02-18 07:56:35</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -868,6 +873,9 @@
       <c r="BB2" t="n">
         <v>659</v>
       </c>
+      <c r="BC2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1044,6 +1052,9 @@
       <c r="BB3" t="n">
         <v>659</v>
       </c>
+      <c r="BC3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1220,6 +1231,9 @@
       <c r="BB4" t="n">
         <v>749</v>
       </c>
+      <c r="BC4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1396,6 +1410,9 @@
       <c r="BB5" t="n">
         <v>749</v>
       </c>
+      <c r="BC5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1572,6 +1589,9 @@
       <c r="BB6" t="n">
         <v>809</v>
       </c>
+      <c r="BC6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1748,6 +1768,9 @@
       <c r="BB7" t="n">
         <v>809</v>
       </c>
+      <c r="BC7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1924,6 +1947,9 @@
       <c r="BB8" t="n">
         <v>809</v>
       </c>
+      <c r="BC8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2100,6 +2126,9 @@
       <c r="BB9" t="n">
         <v>809</v>
       </c>
+      <c r="BC9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2276,6 +2305,9 @@
       <c r="BB10" t="n">
         <v>809</v>
       </c>
+      <c r="BC10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2452,6 +2484,9 @@
       <c r="BB11" t="n">
         <v>849</v>
       </c>
+      <c r="BC11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2628,6 +2663,9 @@
       <c r="BB12" t="n">
         <v>899</v>
       </c>
+      <c r="BC12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2804,6 +2842,9 @@
       <c r="BB13" t="n">
         <v>899</v>
       </c>
+      <c r="BC13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2980,6 +3021,9 @@
       <c r="BB14" t="n">
         <v>909</v>
       </c>
+      <c r="BC14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3156,6 +3200,9 @@
       <c r="BB15" t="n">
         <v>909</v>
       </c>
+      <c r="BC15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3175,7 +3222,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3330,6 +3377,9 @@
         <v>909</v>
       </c>
       <c r="BB16" t="n">
+        <v>909</v>
+      </c>
+      <c r="BC16" t="n">
         <v>909</v>
       </c>
     </row>
@@ -3508,6 +3558,9 @@
       <c r="BB17" t="n">
         <v>909</v>
       </c>
+      <c r="BC17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3680,6 +3733,9 @@
       <c r="BB18" t="n">
         <v>949</v>
       </c>
+      <c r="BC18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3856,6 +3912,9 @@
       <c r="BB19" t="n">
         <v>969</v>
       </c>
+      <c r="BC19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4032,6 +4091,9 @@
       <c r="BB20" t="n">
         <v>969</v>
       </c>
+      <c r="BC20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4208,6 +4270,9 @@
       <c r="BB21" t="n">
         <v>969</v>
       </c>
+      <c r="BC21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4384,6 +4449,9 @@
       <c r="BB22" t="n">
         <v>969</v>
       </c>
+      <c r="BC22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4560,6 +4628,9 @@
       <c r="BB23" t="n">
         <v>969</v>
       </c>
+      <c r="BC23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4736,6 +4807,9 @@
       <c r="BB24" t="n">
         <v>999</v>
       </c>
+      <c r="BC24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4912,6 +4986,9 @@
       <c r="BB25" t="n">
         <v>999</v>
       </c>
+      <c r="BC25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5088,6 +5165,9 @@
       <c r="BB26" t="n">
         <v>1039</v>
       </c>
+      <c r="BC26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5264,6 +5344,9 @@
       <c r="BB27" t="n">
         <v>1079</v>
       </c>
+      <c r="BC27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5440,6 +5523,9 @@
       <c r="BB28" t="n">
         <v>1079</v>
       </c>
+      <c r="BC28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5616,6 +5702,9 @@
       <c r="BB29" t="n">
         <v>1079</v>
       </c>
+      <c r="BC29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5792,6 +5881,9 @@
       <c r="BB30" t="n">
         <v>1079</v>
       </c>
+      <c r="BC30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5968,6 +6060,9 @@
       <c r="BB31" t="n">
         <v>1099</v>
       </c>
+      <c r="BC31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6144,6 +6239,9 @@
       <c r="BB32" t="n">
         <v>1099</v>
       </c>
+      <c r="BC32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6320,6 +6418,9 @@
       <c r="BB33" t="n">
         <v>1199</v>
       </c>
+      <c r="BC33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6496,6 +6597,9 @@
       <c r="BB34" t="n">
         <v>1219</v>
       </c>
+      <c r="BC34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6672,6 +6776,9 @@
       <c r="BB35" t="n">
         <v>1219</v>
       </c>
+      <c r="BC35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6848,6 +6955,9 @@
       <c r="BB36" t="n">
         <v>1219</v>
       </c>
+      <c r="BC36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7024,6 +7134,9 @@
       <c r="BB37" t="n">
         <v>1219</v>
       </c>
+      <c r="BC37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7200,6 +7313,9 @@
       <c r="BB38" t="n">
         <v>1219</v>
       </c>
+      <c r="BC38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7376,6 +7492,9 @@
       <c r="BB39" t="n">
         <v>1229</v>
       </c>
+      <c r="BC39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7552,6 +7671,9 @@
       <c r="BB40" t="n">
         <v>1249</v>
       </c>
+      <c r="BC40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7728,6 +7850,9 @@
       <c r="BB41" t="n">
         <v>1249</v>
       </c>
+      <c r="BC41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7904,6 +8029,9 @@
       <c r="BB42" t="n">
         <v>1329</v>
       </c>
+      <c r="BC42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8080,6 +8208,9 @@
       <c r="BB43" t="n">
         <v>1329</v>
       </c>
+      <c r="BC43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8256,6 +8387,9 @@
       <c r="BB44" t="n">
         <v>1329</v>
       </c>
+      <c r="BC44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8432,6 +8566,9 @@
       <c r="BB45" t="n">
         <v>1329</v>
       </c>
+      <c r="BC45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8608,6 +8745,9 @@
       <c r="BB46" t="n">
         <v>1329</v>
       </c>
+      <c r="BC46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8784,6 +8924,9 @@
       <c r="BB47" t="n">
         <v>1329</v>
       </c>
+      <c r="BC47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8960,6 +9103,9 @@
       <c r="BB48" t="n">
         <v>1329</v>
       </c>
+      <c r="BC48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9136,6 +9282,9 @@
       <c r="BB49" t="n">
         <v>1349</v>
       </c>
+      <c r="BC49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9312,6 +9461,9 @@
       <c r="BB50" t="n">
         <v>1479</v>
       </c>
+      <c r="BC50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9488,6 +9640,9 @@
       <c r="BB51" t="n">
         <v>1479</v>
       </c>
+      <c r="BC51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9664,6 +9819,9 @@
       <c r="BB52" t="n">
         <v>1479</v>
       </c>
+      <c r="BC52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9840,6 +9998,9 @@
       <c r="BB53" t="n">
         <v>1579</v>
       </c>
+      <c r="BC53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10016,6 +10177,9 @@
       <c r="BB54" t="n">
         <v>1579</v>
       </c>
+      <c r="BC54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10192,6 +10356,9 @@
       <c r="BB55" t="n">
         <v>1579</v>
       </c>
+      <c r="BC55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10368,6 +10535,9 @@
       <c r="BB56" t="n">
         <v>1579</v>
       </c>
+      <c r="BC56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10544,6 +10714,9 @@
       <c r="BB57" t="n">
         <v>1579</v>
       </c>
+      <c r="BC57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10720,6 +10893,9 @@
       <c r="BB58" t="n">
         <v>1579</v>
       </c>
+      <c r="BC58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10896,6 +11072,9 @@
       <c r="BB59" t="n">
         <v>1579</v>
       </c>
+      <c r="BC59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11072,6 +11251,9 @@
       <c r="BB60" t="n">
         <v>1729</v>
       </c>
+      <c r="BC60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11248,6 +11430,9 @@
       <c r="BB61" t="n">
         <v>1729</v>
       </c>
+      <c r="BC61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11424,6 +11609,9 @@
       <c r="BB62" t="n">
         <v>1729</v>
       </c>
+      <c r="BC62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11600,6 +11788,9 @@
       <c r="BB63" t="n">
         <v>1829</v>
       </c>
+      <c r="BC63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11776,6 +11967,9 @@
       <c r="BB64" t="n">
         <v>1829</v>
       </c>
+      <c r="BC64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11952,6 +12146,9 @@
       <c r="BB65" t="n">
         <v>1829</v>
       </c>
+      <c r="BC65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12128,6 +12325,9 @@
       <c r="BB66" t="n">
         <v>1979</v>
       </c>
+      <c r="BC66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12304,6 +12504,9 @@
       <c r="BB67" t="n">
         <v>1979</v>
       </c>
+      <c r="BC67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12480,6 +12683,9 @@
       <c r="BB68" t="n">
         <v>1979</v>
       </c>
+      <c r="BC68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12656,6 +12862,9 @@
       <c r="BB69" t="n">
         <v>2479</v>
       </c>
+      <c r="BC69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12832,6 +13041,9 @@
       <c r="BB70" t="n">
         <v>2479</v>
       </c>
+      <c r="BC70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13006,6 +13218,9 @@
         <v>2479</v>
       </c>
       <c r="BB71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BC71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -13158,6 +13373,7 @@
       <c r="AZ72" t="inlineStr"/>
       <c r="BA72" t="inlineStr"/>
       <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13294,6 +13510,7 @@
       <c r="AZ73" t="inlineStr"/>
       <c r="BA73" t="inlineStr"/>
       <c r="BB73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13430,6 +13647,7 @@
         <v>619</v>
       </c>
       <c r="BB74" t="inlineStr"/>
+      <c r="BC74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC74"/>
+  <dimension ref="A1:BD74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,11 @@
           <t>2026-02-18 07:56:35</t>
         </is>
       </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>2026-02-18 08:39:41</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -876,6 +881,9 @@
       <c r="BC2" t="n">
         <v>659</v>
       </c>
+      <c r="BD2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1055,6 +1063,9 @@
       <c r="BC3" t="n">
         <v>659</v>
       </c>
+      <c r="BD3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1234,6 +1245,9 @@
       <c r="BC4" t="n">
         <v>749</v>
       </c>
+      <c r="BD4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1413,6 +1427,9 @@
       <c r="BC5" t="n">
         <v>749</v>
       </c>
+      <c r="BD5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1592,6 +1609,9 @@
       <c r="BC6" t="n">
         <v>809</v>
       </c>
+      <c r="BD6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1771,6 +1791,9 @@
       <c r="BC7" t="n">
         <v>809</v>
       </c>
+      <c r="BD7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1950,6 +1973,9 @@
       <c r="BC8" t="n">
         <v>809</v>
       </c>
+      <c r="BD8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1969,7 +1995,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -2127,6 +2153,9 @@
         <v>809</v>
       </c>
       <c r="BC9" t="n">
+        <v>809</v>
+      </c>
+      <c r="BD9" t="n">
         <v>809</v>
       </c>
     </row>
@@ -2308,6 +2337,9 @@
       <c r="BC10" t="n">
         <v>809</v>
       </c>
+      <c r="BD10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2487,6 +2519,9 @@
       <c r="BC11" t="n">
         <v>849</v>
       </c>
+      <c r="BD11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2666,6 +2701,9 @@
       <c r="BC12" t="n">
         <v>899</v>
       </c>
+      <c r="BD12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2845,6 +2883,9 @@
       <c r="BC13" t="n">
         <v>899</v>
       </c>
+      <c r="BD13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3024,6 +3065,9 @@
       <c r="BC14" t="n">
         <v>909</v>
       </c>
+      <c r="BD14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3203,6 +3247,9 @@
       <c r="BC15" t="n">
         <v>909</v>
       </c>
+      <c r="BD15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3382,6 +3429,9 @@
       <c r="BC16" t="n">
         <v>909</v>
       </c>
+      <c r="BD16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3561,6 +3611,9 @@
       <c r="BC17" t="n">
         <v>909</v>
       </c>
+      <c r="BD17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3736,6 +3789,9 @@
       <c r="BC18" t="n">
         <v>949</v>
       </c>
+      <c r="BD18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3915,6 +3971,9 @@
       <c r="BC19" t="n">
         <v>969</v>
       </c>
+      <c r="BD19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4094,6 +4153,9 @@
       <c r="BC20" t="n">
         <v>969</v>
       </c>
+      <c r="BD20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4273,6 +4335,9 @@
       <c r="BC21" t="n">
         <v>969</v>
       </c>
+      <c r="BD21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4452,6 +4517,9 @@
       <c r="BC22" t="n">
         <v>969</v>
       </c>
+      <c r="BD22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4631,6 +4699,9 @@
       <c r="BC23" t="n">
         <v>969</v>
       </c>
+      <c r="BD23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4810,6 +4881,9 @@
       <c r="BC24" t="n">
         <v>999</v>
       </c>
+      <c r="BD24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4989,6 +5063,9 @@
       <c r="BC25" t="n">
         <v>999</v>
       </c>
+      <c r="BD25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5168,6 +5245,9 @@
       <c r="BC26" t="n">
         <v>1039</v>
       </c>
+      <c r="BD26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5347,6 +5427,9 @@
       <c r="BC27" t="n">
         <v>1079</v>
       </c>
+      <c r="BD27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5526,6 +5609,9 @@
       <c r="BC28" t="n">
         <v>1079</v>
       </c>
+      <c r="BD28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5545,7 +5631,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5703,6 +5789,9 @@
         <v>1079</v>
       </c>
       <c r="BC29" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BD29" t="n">
         <v>1079</v>
       </c>
     </row>
@@ -5884,6 +5973,9 @@
       <c r="BC30" t="n">
         <v>1079</v>
       </c>
+      <c r="BD30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6063,6 +6155,9 @@
       <c r="BC31" t="n">
         <v>1099</v>
       </c>
+      <c r="BD31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6242,6 +6337,9 @@
       <c r="BC32" t="n">
         <v>1099</v>
       </c>
+      <c r="BD32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6421,6 +6519,9 @@
       <c r="BC33" t="n">
         <v>1199</v>
       </c>
+      <c r="BD33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6440,7 +6541,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -6598,6 +6699,9 @@
         <v>1219</v>
       </c>
       <c r="BC34" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BD34" t="n">
         <v>1219</v>
       </c>
     </row>
@@ -6779,6 +6883,9 @@
       <c r="BC35" t="n">
         <v>1219</v>
       </c>
+      <c r="BD35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6958,6 +7065,9 @@
       <c r="BC36" t="n">
         <v>1219</v>
       </c>
+      <c r="BD36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7137,6 +7247,9 @@
       <c r="BC37" t="n">
         <v>1219</v>
       </c>
+      <c r="BD37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7316,6 +7429,9 @@
       <c r="BC38" t="n">
         <v>1219</v>
       </c>
+      <c r="BD38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7495,6 +7611,9 @@
       <c r="BC39" t="n">
         <v>1229</v>
       </c>
+      <c r="BD39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7674,6 +7793,9 @@
       <c r="BC40" t="n">
         <v>1249</v>
       </c>
+      <c r="BD40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7853,6 +7975,9 @@
       <c r="BC41" t="n">
         <v>1249</v>
       </c>
+      <c r="BD41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8032,6 +8157,9 @@
       <c r="BC42" t="n">
         <v>1329</v>
       </c>
+      <c r="BD42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8211,6 +8339,9 @@
       <c r="BC43" t="n">
         <v>1329</v>
       </c>
+      <c r="BD43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8390,6 +8521,9 @@
       <c r="BC44" t="n">
         <v>1329</v>
       </c>
+      <c r="BD44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8569,6 +8703,9 @@
       <c r="BC45" t="n">
         <v>1329</v>
       </c>
+      <c r="BD45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8748,6 +8885,9 @@
       <c r="BC46" t="n">
         <v>1329</v>
       </c>
+      <c r="BD46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8927,6 +9067,9 @@
       <c r="BC47" t="n">
         <v>1329</v>
       </c>
+      <c r="BD47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9106,6 +9249,9 @@
       <c r="BC48" t="n">
         <v>1329</v>
       </c>
+      <c r="BD48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9285,6 +9431,9 @@
       <c r="BC49" t="n">
         <v>1349</v>
       </c>
+      <c r="BD49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9464,6 +9613,9 @@
       <c r="BC50" t="n">
         <v>1479</v>
       </c>
+      <c r="BD50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9643,6 +9795,9 @@
       <c r="BC51" t="n">
         <v>1479</v>
       </c>
+      <c r="BD51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9822,6 +9977,9 @@
       <c r="BC52" t="n">
         <v>1479</v>
       </c>
+      <c r="BD52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10001,6 +10159,9 @@
       <c r="BC53" t="n">
         <v>1579</v>
       </c>
+      <c r="BD53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10180,6 +10341,9 @@
       <c r="BC54" t="n">
         <v>1579</v>
       </c>
+      <c r="BD54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10359,6 +10523,9 @@
       <c r="BC55" t="n">
         <v>1579</v>
       </c>
+      <c r="BD55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10538,6 +10705,9 @@
       <c r="BC56" t="n">
         <v>1579</v>
       </c>
+      <c r="BD56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10717,6 +10887,9 @@
       <c r="BC57" t="n">
         <v>1579</v>
       </c>
+      <c r="BD57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10896,6 +11069,9 @@
       <c r="BC58" t="n">
         <v>1579</v>
       </c>
+      <c r="BD58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11075,6 +11251,9 @@
       <c r="BC59" t="n">
         <v>1579</v>
       </c>
+      <c r="BD59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11254,6 +11433,9 @@
       <c r="BC60" t="n">
         <v>1729</v>
       </c>
+      <c r="BD60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11433,6 +11615,9 @@
       <c r="BC61" t="n">
         <v>1729</v>
       </c>
+      <c r="BD61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11612,6 +11797,9 @@
       <c r="BC62" t="n">
         <v>1729</v>
       </c>
+      <c r="BD62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11791,6 +11979,9 @@
       <c r="BC63" t="n">
         <v>1829</v>
       </c>
+      <c r="BD63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11970,6 +12161,9 @@
       <c r="BC64" t="n">
         <v>1829</v>
       </c>
+      <c r="BD64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12149,6 +12343,9 @@
       <c r="BC65" t="n">
         <v>1829</v>
       </c>
+      <c r="BD65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12328,6 +12525,9 @@
       <c r="BC66" t="n">
         <v>1979</v>
       </c>
+      <c r="BD66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12507,6 +12707,9 @@
       <c r="BC67" t="n">
         <v>1979</v>
       </c>
+      <c r="BD67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12686,6 +12889,9 @@
       <c r="BC68" t="n">
         <v>1979</v>
       </c>
+      <c r="BD68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12865,6 +13071,9 @@
       <c r="BC69" t="n">
         <v>2479</v>
       </c>
+      <c r="BD69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13044,6 +13253,9 @@
       <c r="BC70" t="n">
         <v>2479</v>
       </c>
+      <c r="BD70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13221,6 +13433,9 @@
         <v>2479</v>
       </c>
       <c r="BC71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BD71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -13374,6 +13589,7 @@
       <c r="BA72" t="inlineStr"/>
       <c r="BB72" t="inlineStr"/>
       <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13511,6 +13727,7 @@
       <c r="BA73" t="inlineStr"/>
       <c r="BB73" t="inlineStr"/>
       <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13648,6 +13865,7 @@
       </c>
       <c r="BB74" t="inlineStr"/>
       <c r="BC74" t="inlineStr"/>
+      <c r="BD74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD74"/>
+  <dimension ref="A1:BE74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,6 +702,11 @@
           <t>2026-02-18 08:39:41</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>2026-02-18 09:41:56</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -884,6 +889,9 @@
       <c r="BD2" t="n">
         <v>659</v>
       </c>
+      <c r="BE2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1066,6 +1074,9 @@
       <c r="BD3" t="n">
         <v>659</v>
       </c>
+      <c r="BE3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1248,6 +1259,9 @@
       <c r="BD4" t="n">
         <v>749</v>
       </c>
+      <c r="BE4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1267,7 +1281,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1428,6 +1442,9 @@
         <v>749</v>
       </c>
       <c r="BD5" t="n">
+        <v>749</v>
+      </c>
+      <c r="BE5" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1612,6 +1629,9 @@
       <c r="BD6" t="n">
         <v>809</v>
       </c>
+      <c r="BE6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1794,6 +1814,9 @@
       <c r="BD7" t="n">
         <v>809</v>
       </c>
+      <c r="BE7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1976,6 +1999,9 @@
       <c r="BD8" t="n">
         <v>809</v>
       </c>
+      <c r="BE8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2158,6 +2184,9 @@
       <c r="BD9" t="n">
         <v>809</v>
       </c>
+      <c r="BE9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2340,6 +2369,9 @@
       <c r="BD10" t="n">
         <v>809</v>
       </c>
+      <c r="BE10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2522,6 +2554,9 @@
       <c r="BD11" t="n">
         <v>849</v>
       </c>
+      <c r="BE11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2704,6 +2739,9 @@
       <c r="BD12" t="n">
         <v>899</v>
       </c>
+      <c r="BE12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2886,6 +2924,9 @@
       <c r="BD13" t="n">
         <v>899</v>
       </c>
+      <c r="BE13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3068,6 +3109,9 @@
       <c r="BD14" t="n">
         <v>909</v>
       </c>
+      <c r="BE14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3250,6 +3294,9 @@
       <c r="BD15" t="n">
         <v>909</v>
       </c>
+      <c r="BE15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3432,6 +3479,9 @@
       <c r="BD16" t="n">
         <v>909</v>
       </c>
+      <c r="BE16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3614,6 +3664,9 @@
       <c r="BD17" t="n">
         <v>909</v>
       </c>
+      <c r="BE17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3792,6 +3845,9 @@
       <c r="BD18" t="n">
         <v>949</v>
       </c>
+      <c r="BE18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3974,6 +4030,9 @@
       <c r="BD19" t="n">
         <v>969</v>
       </c>
+      <c r="BE19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4156,6 +4215,9 @@
       <c r="BD20" t="n">
         <v>969</v>
       </c>
+      <c r="BE20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4338,6 +4400,9 @@
       <c r="BD21" t="n">
         <v>969</v>
       </c>
+      <c r="BE21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4520,6 +4585,9 @@
       <c r="BD22" t="n">
         <v>969</v>
       </c>
+      <c r="BE22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4702,6 +4770,9 @@
       <c r="BD23" t="n">
         <v>969</v>
       </c>
+      <c r="BE23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4884,6 +4955,9 @@
       <c r="BD24" t="n">
         <v>999</v>
       </c>
+      <c r="BE24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5066,6 +5140,9 @@
       <c r="BD25" t="n">
         <v>999</v>
       </c>
+      <c r="BE25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5248,6 +5325,9 @@
       <c r="BD26" t="n">
         <v>1039</v>
       </c>
+      <c r="BE26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5430,6 +5510,9 @@
       <c r="BD27" t="n">
         <v>1079</v>
       </c>
+      <c r="BE27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5612,6 +5695,9 @@
       <c r="BD28" t="n">
         <v>1079</v>
       </c>
+      <c r="BE28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5794,6 +5880,9 @@
       <c r="BD29" t="n">
         <v>1079</v>
       </c>
+      <c r="BE29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5976,6 +6065,9 @@
       <c r="BD30" t="n">
         <v>1079</v>
       </c>
+      <c r="BE30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6158,6 +6250,9 @@
       <c r="BD31" t="n">
         <v>1099</v>
       </c>
+      <c r="BE31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6340,6 +6435,9 @@
       <c r="BD32" t="n">
         <v>1099</v>
       </c>
+      <c r="BE32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6522,6 +6620,9 @@
       <c r="BD33" t="n">
         <v>1199</v>
       </c>
+      <c r="BE33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6704,6 +6805,9 @@
       <c r="BD34" t="n">
         <v>1219</v>
       </c>
+      <c r="BE34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6886,6 +6990,9 @@
       <c r="BD35" t="n">
         <v>1219</v>
       </c>
+      <c r="BE35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7068,6 +7175,9 @@
       <c r="BD36" t="n">
         <v>1219</v>
       </c>
+      <c r="BE36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7250,6 +7360,9 @@
       <c r="BD37" t="n">
         <v>1219</v>
       </c>
+      <c r="BE37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7432,6 +7545,9 @@
       <c r="BD38" t="n">
         <v>1219</v>
       </c>
+      <c r="BE38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7614,6 +7730,9 @@
       <c r="BD39" t="n">
         <v>1229</v>
       </c>
+      <c r="BE39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7796,6 +7915,9 @@
       <c r="BD40" t="n">
         <v>1249</v>
       </c>
+      <c r="BE40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7978,6 +8100,9 @@
       <c r="BD41" t="n">
         <v>1249</v>
       </c>
+      <c r="BE41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8160,6 +8285,9 @@
       <c r="BD42" t="n">
         <v>1329</v>
       </c>
+      <c r="BE42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8342,6 +8470,9 @@
       <c r="BD43" t="n">
         <v>1329</v>
       </c>
+      <c r="BE43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8524,6 +8655,9 @@
       <c r="BD44" t="n">
         <v>1329</v>
       </c>
+      <c r="BE44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8706,6 +8840,9 @@
       <c r="BD45" t="n">
         <v>1329</v>
       </c>
+      <c r="BE45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8888,6 +9025,9 @@
       <c r="BD46" t="n">
         <v>1329</v>
       </c>
+      <c r="BE46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9070,6 +9210,9 @@
       <c r="BD47" t="n">
         <v>1329</v>
       </c>
+      <c r="BE47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9252,6 +9395,9 @@
       <c r="BD48" t="n">
         <v>1329</v>
       </c>
+      <c r="BE48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9434,6 +9580,9 @@
       <c r="BD49" t="n">
         <v>1349</v>
       </c>
+      <c r="BE49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9616,6 +9765,9 @@
       <c r="BD50" t="n">
         <v>1479</v>
       </c>
+      <c r="BE50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9798,6 +9950,9 @@
       <c r="BD51" t="n">
         <v>1479</v>
       </c>
+      <c r="BE51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9980,6 +10135,9 @@
       <c r="BD52" t="n">
         <v>1479</v>
       </c>
+      <c r="BE52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10162,6 +10320,9 @@
       <c r="BD53" t="n">
         <v>1579</v>
       </c>
+      <c r="BE53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10344,6 +10505,9 @@
       <c r="BD54" t="n">
         <v>1579</v>
       </c>
+      <c r="BE54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10526,6 +10690,9 @@
       <c r="BD55" t="n">
         <v>1579</v>
       </c>
+      <c r="BE55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10708,6 +10875,9 @@
       <c r="BD56" t="n">
         <v>1579</v>
       </c>
+      <c r="BE56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10890,6 +11060,9 @@
       <c r="BD57" t="n">
         <v>1579</v>
       </c>
+      <c r="BE57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11072,6 +11245,9 @@
       <c r="BD58" t="n">
         <v>1579</v>
       </c>
+      <c r="BE58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11254,6 +11430,9 @@
       <c r="BD59" t="n">
         <v>1579</v>
       </c>
+      <c r="BE59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11436,6 +11615,9 @@
       <c r="BD60" t="n">
         <v>1729</v>
       </c>
+      <c r="BE60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11455,7 +11637,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -11616,6 +11798,9 @@
         <v>1729</v>
       </c>
       <c r="BD61" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BE61" t="n">
         <v>1729</v>
       </c>
     </row>
@@ -11800,6 +11985,9 @@
       <c r="BD62" t="n">
         <v>1729</v>
       </c>
+      <c r="BE62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11982,6 +12170,9 @@
       <c r="BD63" t="n">
         <v>1829</v>
       </c>
+      <c r="BE63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12164,6 +12355,9 @@
       <c r="BD64" t="n">
         <v>1829</v>
       </c>
+      <c r="BE64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12346,6 +12540,9 @@
       <c r="BD65" t="n">
         <v>1829</v>
       </c>
+      <c r="BE65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12528,6 +12725,9 @@
       <c r="BD66" t="n">
         <v>1979</v>
       </c>
+      <c r="BE66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12710,6 +12910,9 @@
       <c r="BD67" t="n">
         <v>1979</v>
       </c>
+      <c r="BE67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12892,6 +13095,9 @@
       <c r="BD68" t="n">
         <v>1979</v>
       </c>
+      <c r="BE68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13074,6 +13280,9 @@
       <c r="BD69" t="n">
         <v>2479</v>
       </c>
+      <c r="BE69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13256,6 +13465,9 @@
       <c r="BD70" t="n">
         <v>2479</v>
       </c>
+      <c r="BE70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13436,6 +13648,9 @@
         <v>2479</v>
       </c>
       <c r="BD71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BE71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -13590,6 +13805,7 @@
       <c r="BB72" t="inlineStr"/>
       <c r="BC72" t="inlineStr"/>
       <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13728,6 +13944,7 @@
       <c r="BB73" t="inlineStr"/>
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13866,6 +14083,7 @@
       <c r="BB74" t="inlineStr"/>
       <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="inlineStr"/>
+      <c r="BE74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE74"/>
+  <dimension ref="A1:BF74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,11 @@
           <t>2026-02-18 09:41:56</t>
         </is>
       </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>2026-02-18 10:39:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -892,6 +897,9 @@
       <c r="BE2" t="n">
         <v>659</v>
       </c>
+      <c r="BF2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1077,6 +1085,9 @@
       <c r="BE3" t="n">
         <v>659</v>
       </c>
+      <c r="BF3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1262,6 +1273,9 @@
       <c r="BE4" t="n">
         <v>749</v>
       </c>
+      <c r="BF4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1447,6 +1461,9 @@
       <c r="BE5" t="n">
         <v>749</v>
       </c>
+      <c r="BF5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1632,6 +1649,9 @@
       <c r="BE6" t="n">
         <v>809</v>
       </c>
+      <c r="BF6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1817,6 +1837,9 @@
       <c r="BE7" t="n">
         <v>809</v>
       </c>
+      <c r="BF7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2002,6 +2025,9 @@
       <c r="BE8" t="n">
         <v>809</v>
       </c>
+      <c r="BF8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2187,6 +2213,9 @@
       <c r="BE9" t="n">
         <v>809</v>
       </c>
+      <c r="BF9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2372,6 +2401,9 @@
       <c r="BE10" t="n">
         <v>809</v>
       </c>
+      <c r="BF10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2557,6 +2589,9 @@
       <c r="BE11" t="n">
         <v>849</v>
       </c>
+      <c r="BF11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2742,6 +2777,9 @@
       <c r="BE12" t="n">
         <v>899</v>
       </c>
+      <c r="BF12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2927,6 +2965,9 @@
       <c r="BE13" t="n">
         <v>899</v>
       </c>
+      <c r="BF13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3112,6 +3153,9 @@
       <c r="BE14" t="n">
         <v>909</v>
       </c>
+      <c r="BF14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3297,6 +3341,9 @@
       <c r="BE15" t="n">
         <v>909</v>
       </c>
+      <c r="BF15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3482,6 +3529,9 @@
       <c r="BE16" t="n">
         <v>909</v>
       </c>
+      <c r="BF16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3667,6 +3717,9 @@
       <c r="BE17" t="n">
         <v>909</v>
       </c>
+      <c r="BF17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3848,6 +3901,9 @@
       <c r="BE18" t="n">
         <v>949</v>
       </c>
+      <c r="BF18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4033,6 +4089,9 @@
       <c r="BE19" t="n">
         <v>969</v>
       </c>
+      <c r="BF19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4218,6 +4277,9 @@
       <c r="BE20" t="n">
         <v>969</v>
       </c>
+      <c r="BF20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4403,6 +4465,9 @@
       <c r="BE21" t="n">
         <v>969</v>
       </c>
+      <c r="BF21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4588,6 +4653,9 @@
       <c r="BE22" t="n">
         <v>969</v>
       </c>
+      <c r="BF22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4773,6 +4841,9 @@
       <c r="BE23" t="n">
         <v>969</v>
       </c>
+      <c r="BF23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4958,6 +5029,9 @@
       <c r="BE24" t="n">
         <v>999</v>
       </c>
+      <c r="BF24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5143,6 +5217,9 @@
       <c r="BE25" t="n">
         <v>999</v>
       </c>
+      <c r="BF25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5328,6 +5405,9 @@
       <c r="BE26" t="n">
         <v>1039</v>
       </c>
+      <c r="BF26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5513,6 +5593,9 @@
       <c r="BE27" t="n">
         <v>1079</v>
       </c>
+      <c r="BF27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5698,6 +5781,9 @@
       <c r="BE28" t="n">
         <v>1079</v>
       </c>
+      <c r="BF28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5883,6 +5969,9 @@
       <c r="BE29" t="n">
         <v>1079</v>
       </c>
+      <c r="BF29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6068,6 +6157,9 @@
       <c r="BE30" t="n">
         <v>1079</v>
       </c>
+      <c r="BF30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6253,6 +6345,9 @@
       <c r="BE31" t="n">
         <v>1099</v>
       </c>
+      <c r="BF31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6438,6 +6533,9 @@
       <c r="BE32" t="n">
         <v>1099</v>
       </c>
+      <c r="BF32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6623,6 +6721,9 @@
       <c r="BE33" t="n">
         <v>1199</v>
       </c>
+      <c r="BF33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6808,6 +6909,9 @@
       <c r="BE34" t="n">
         <v>1219</v>
       </c>
+      <c r="BF34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6993,6 +7097,9 @@
       <c r="BE35" t="n">
         <v>1219</v>
       </c>
+      <c r="BF35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7178,6 +7285,9 @@
       <c r="BE36" t="n">
         <v>1219</v>
       </c>
+      <c r="BF36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7363,6 +7473,9 @@
       <c r="BE37" t="n">
         <v>1219</v>
       </c>
+      <c r="BF37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7548,6 +7661,9 @@
       <c r="BE38" t="n">
         <v>1219</v>
       </c>
+      <c r="BF38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7733,6 +7849,9 @@
       <c r="BE39" t="n">
         <v>1229</v>
       </c>
+      <c r="BF39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7918,6 +8037,9 @@
       <c r="BE40" t="n">
         <v>1249</v>
       </c>
+      <c r="BF40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8103,6 +8225,9 @@
       <c r="BE41" t="n">
         <v>1249</v>
       </c>
+      <c r="BF41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8288,6 +8413,9 @@
       <c r="BE42" t="n">
         <v>1329</v>
       </c>
+      <c r="BF42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8473,6 +8601,9 @@
       <c r="BE43" t="n">
         <v>1329</v>
       </c>
+      <c r="BF43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8658,6 +8789,9 @@
       <c r="BE44" t="n">
         <v>1329</v>
       </c>
+      <c r="BF44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8843,6 +8977,9 @@
       <c r="BE45" t="n">
         <v>1329</v>
       </c>
+      <c r="BF45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9028,6 +9165,9 @@
       <c r="BE46" t="n">
         <v>1329</v>
       </c>
+      <c r="BF46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9213,6 +9353,9 @@
       <c r="BE47" t="n">
         <v>1329</v>
       </c>
+      <c r="BF47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9398,6 +9541,9 @@
       <c r="BE48" t="n">
         <v>1329</v>
       </c>
+      <c r="BF48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9583,6 +9729,9 @@
       <c r="BE49" t="n">
         <v>1349</v>
       </c>
+      <c r="BF49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9602,7 +9751,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -9766,6 +9915,9 @@
         <v>1479</v>
       </c>
       <c r="BE50" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BF50" t="n">
         <v>1479</v>
       </c>
     </row>
@@ -9953,6 +10105,9 @@
       <c r="BE51" t="n">
         <v>1479</v>
       </c>
+      <c r="BF51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10138,6 +10293,9 @@
       <c r="BE52" t="n">
         <v>1479</v>
       </c>
+      <c r="BF52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10323,6 +10481,9 @@
       <c r="BE53" t="n">
         <v>1579</v>
       </c>
+      <c r="BF53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10508,6 +10669,9 @@
       <c r="BE54" t="n">
         <v>1579</v>
       </c>
+      <c r="BF54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10693,6 +10857,9 @@
       <c r="BE55" t="n">
         <v>1579</v>
       </c>
+      <c r="BF55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10878,6 +11045,9 @@
       <c r="BE56" t="n">
         <v>1579</v>
       </c>
+      <c r="BF56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11063,6 +11233,9 @@
       <c r="BE57" t="n">
         <v>1579</v>
       </c>
+      <c r="BF57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11248,6 +11421,9 @@
       <c r="BE58" t="n">
         <v>1579</v>
       </c>
+      <c r="BF58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11433,6 +11609,9 @@
       <c r="BE59" t="n">
         <v>1579</v>
       </c>
+      <c r="BF59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11618,6 +11797,9 @@
       <c r="BE60" t="n">
         <v>1729</v>
       </c>
+      <c r="BF60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11803,6 +11985,9 @@
       <c r="BE61" t="n">
         <v>1729</v>
       </c>
+      <c r="BF61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11988,6 +12173,9 @@
       <c r="BE62" t="n">
         <v>1729</v>
       </c>
+      <c r="BF62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12173,6 +12361,9 @@
       <c r="BE63" t="n">
         <v>1829</v>
       </c>
+      <c r="BF63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12358,6 +12549,9 @@
       <c r="BE64" t="n">
         <v>1829</v>
       </c>
+      <c r="BF64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12543,6 +12737,9 @@
       <c r="BE65" t="n">
         <v>1829</v>
       </c>
+      <c r="BF65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12728,6 +12925,9 @@
       <c r="BE66" t="n">
         <v>1979</v>
       </c>
+      <c r="BF66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12913,6 +13113,9 @@
       <c r="BE67" t="n">
         <v>1979</v>
       </c>
+      <c r="BF67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13098,6 +13301,9 @@
       <c r="BE68" t="n">
         <v>1979</v>
       </c>
+      <c r="BF68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13283,6 +13489,9 @@
       <c r="BE69" t="n">
         <v>2479</v>
       </c>
+      <c r="BF69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13468,6 +13677,9 @@
       <c r="BE70" t="n">
         <v>2479</v>
       </c>
+      <c r="BF70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13651,6 +13863,9 @@
         <v>2479</v>
       </c>
       <c r="BE71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BF71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -13806,6 +14021,7 @@
       <c r="BC72" t="inlineStr"/>
       <c r="BD72" t="inlineStr"/>
       <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13945,6 +14161,7 @@
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
       <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14084,6 +14301,7 @@
       <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="inlineStr"/>
       <c r="BE74" t="inlineStr"/>
+      <c r="BF74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF74"/>
+  <dimension ref="A1:BG74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>2026-02-18 10:39:50</t>
         </is>
       </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>2026-02-18 11:35:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -900,6 +905,9 @@
       <c r="BF2" t="n">
         <v>659</v>
       </c>
+      <c r="BG2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1088,6 +1096,9 @@
       <c r="BF3" t="n">
         <v>659</v>
       </c>
+      <c r="BG3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1276,6 +1287,9 @@
       <c r="BF4" t="n">
         <v>749</v>
       </c>
+      <c r="BG4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1464,6 +1478,9 @@
       <c r="BF5" t="n">
         <v>749</v>
       </c>
+      <c r="BG5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1652,6 +1669,9 @@
       <c r="BF6" t="n">
         <v>809</v>
       </c>
+      <c r="BG6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1840,6 +1860,9 @@
       <c r="BF7" t="n">
         <v>809</v>
       </c>
+      <c r="BG7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2028,6 +2051,9 @@
       <c r="BF8" t="n">
         <v>809</v>
       </c>
+      <c r="BG8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2216,6 +2242,9 @@
       <c r="BF9" t="n">
         <v>809</v>
       </c>
+      <c r="BG9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2404,6 +2433,9 @@
       <c r="BF10" t="n">
         <v>809</v>
       </c>
+      <c r="BG10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2592,6 +2624,9 @@
       <c r="BF11" t="n">
         <v>849</v>
       </c>
+      <c r="BG11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2780,6 +2815,9 @@
       <c r="BF12" t="n">
         <v>899</v>
       </c>
+      <c r="BG12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2968,6 +3006,9 @@
       <c r="BF13" t="n">
         <v>899</v>
       </c>
+      <c r="BG13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3156,6 +3197,9 @@
       <c r="BF14" t="n">
         <v>909</v>
       </c>
+      <c r="BG14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3344,6 +3388,9 @@
       <c r="BF15" t="n">
         <v>909</v>
       </c>
+      <c r="BG15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3532,6 +3579,9 @@
       <c r="BF16" t="n">
         <v>909</v>
       </c>
+      <c r="BG16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3720,6 +3770,9 @@
       <c r="BF17" t="n">
         <v>909</v>
       </c>
+      <c r="BG17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3904,6 +3957,9 @@
       <c r="BF18" t="n">
         <v>949</v>
       </c>
+      <c r="BG18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4092,6 +4148,9 @@
       <c r="BF19" t="n">
         <v>969</v>
       </c>
+      <c r="BG19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4280,6 +4339,9 @@
       <c r="BF20" t="n">
         <v>969</v>
       </c>
+      <c r="BG20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4468,6 +4530,9 @@
       <c r="BF21" t="n">
         <v>969</v>
       </c>
+      <c r="BG21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4656,6 +4721,9 @@
       <c r="BF22" t="n">
         <v>969</v>
       </c>
+      <c r="BG22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4844,6 +4912,9 @@
       <c r="BF23" t="n">
         <v>969</v>
       </c>
+      <c r="BG23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5032,6 +5103,9 @@
       <c r="BF24" t="n">
         <v>999</v>
       </c>
+      <c r="BG24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5220,6 +5294,9 @@
       <c r="BF25" t="n">
         <v>999</v>
       </c>
+      <c r="BG25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5408,6 +5485,9 @@
       <c r="BF26" t="n">
         <v>1039</v>
       </c>
+      <c r="BG26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5596,6 +5676,9 @@
       <c r="BF27" t="n">
         <v>1079</v>
       </c>
+      <c r="BG27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5784,6 +5867,9 @@
       <c r="BF28" t="n">
         <v>1079</v>
       </c>
+      <c r="BG28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5972,6 +6058,9 @@
       <c r="BF29" t="n">
         <v>1079</v>
       </c>
+      <c r="BG29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6160,6 +6249,9 @@
       <c r="BF30" t="n">
         <v>1079</v>
       </c>
+      <c r="BG30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6348,6 +6440,9 @@
       <c r="BF31" t="n">
         <v>1099</v>
       </c>
+      <c r="BG31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6536,6 +6631,9 @@
       <c r="BF32" t="n">
         <v>1099</v>
       </c>
+      <c r="BG32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6724,6 +6822,9 @@
       <c r="BF33" t="n">
         <v>1199</v>
       </c>
+      <c r="BG33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6912,6 +7013,9 @@
       <c r="BF34" t="n">
         <v>1219</v>
       </c>
+      <c r="BG34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7100,6 +7204,9 @@
       <c r="BF35" t="n">
         <v>1219</v>
       </c>
+      <c r="BG35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7288,6 +7395,9 @@
       <c r="BF36" t="n">
         <v>1219</v>
       </c>
+      <c r="BG36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7476,6 +7586,9 @@
       <c r="BF37" t="n">
         <v>1219</v>
       </c>
+      <c r="BG37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7664,6 +7777,9 @@
       <c r="BF38" t="n">
         <v>1219</v>
       </c>
+      <c r="BG38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7852,6 +7968,9 @@
       <c r="BF39" t="n">
         <v>1229</v>
       </c>
+      <c r="BG39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8040,6 +8159,9 @@
       <c r="BF40" t="n">
         <v>1249</v>
       </c>
+      <c r="BG40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8228,6 +8350,9 @@
       <c r="BF41" t="n">
         <v>1249</v>
       </c>
+      <c r="BG41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8416,6 +8541,9 @@
       <c r="BF42" t="n">
         <v>1329</v>
       </c>
+      <c r="BG42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8604,6 +8732,9 @@
       <c r="BF43" t="n">
         <v>1329</v>
       </c>
+      <c r="BG43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8792,6 +8923,9 @@
       <c r="BF44" t="n">
         <v>1329</v>
       </c>
+      <c r="BG44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8980,6 +9114,9 @@
       <c r="BF45" t="n">
         <v>1329</v>
       </c>
+      <c r="BG45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9168,6 +9305,9 @@
       <c r="BF46" t="n">
         <v>1329</v>
       </c>
+      <c r="BG46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9356,6 +9496,9 @@
       <c r="BF47" t="n">
         <v>1329</v>
       </c>
+      <c r="BG47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9544,6 +9687,9 @@
       <c r="BF48" t="n">
         <v>1329</v>
       </c>
+      <c r="BG48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9732,6 +9878,9 @@
       <c r="BF49" t="n">
         <v>1349</v>
       </c>
+      <c r="BG49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9920,6 +10069,9 @@
       <c r="BF50" t="n">
         <v>1479</v>
       </c>
+      <c r="BG50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10108,6 +10260,9 @@
       <c r="BF51" t="n">
         <v>1479</v>
       </c>
+      <c r="BG51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10296,6 +10451,9 @@
       <c r="BF52" t="n">
         <v>1479</v>
       </c>
+      <c r="BG52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10484,6 +10642,9 @@
       <c r="BF53" t="n">
         <v>1579</v>
       </c>
+      <c r="BG53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10672,6 +10833,9 @@
       <c r="BF54" t="n">
         <v>1579</v>
       </c>
+      <c r="BG54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10860,6 +11024,9 @@
       <c r="BF55" t="n">
         <v>1579</v>
       </c>
+      <c r="BG55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11048,6 +11215,9 @@
       <c r="BF56" t="n">
         <v>1579</v>
       </c>
+      <c r="BG56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11236,6 +11406,9 @@
       <c r="BF57" t="n">
         <v>1579</v>
       </c>
+      <c r="BG57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11424,6 +11597,9 @@
       <c r="BF58" t="n">
         <v>1579</v>
       </c>
+      <c r="BG58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11612,6 +11788,9 @@
       <c r="BF59" t="n">
         <v>1579</v>
       </c>
+      <c r="BG59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11800,6 +11979,9 @@
       <c r="BF60" t="n">
         <v>1729</v>
       </c>
+      <c r="BG60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11988,6 +12170,9 @@
       <c r="BF61" t="n">
         <v>1729</v>
       </c>
+      <c r="BG61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12176,6 +12361,9 @@
       <c r="BF62" t="n">
         <v>1729</v>
       </c>
+      <c r="BG62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12364,6 +12552,9 @@
       <c r="BF63" t="n">
         <v>1829</v>
       </c>
+      <c r="BG63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12552,6 +12743,9 @@
       <c r="BF64" t="n">
         <v>1829</v>
       </c>
+      <c r="BG64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12740,6 +12934,9 @@
       <c r="BF65" t="n">
         <v>1829</v>
       </c>
+      <c r="BG65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12928,6 +13125,9 @@
       <c r="BF66" t="n">
         <v>1979</v>
       </c>
+      <c r="BG66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13116,6 +13316,9 @@
       <c r="BF67" t="n">
         <v>1979</v>
       </c>
+      <c r="BG67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13304,6 +13507,9 @@
       <c r="BF68" t="n">
         <v>1979</v>
       </c>
+      <c r="BG68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13492,6 +13698,9 @@
       <c r="BF69" t="n">
         <v>2479</v>
       </c>
+      <c r="BG69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13680,6 +13889,9 @@
       <c r="BF70" t="n">
         <v>2479</v>
       </c>
+      <c r="BG70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13866,6 +14078,9 @@
         <v>2479</v>
       </c>
       <c r="BF71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BG71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -14022,6 +14237,7 @@
       <c r="BD72" t="inlineStr"/>
       <c r="BE72" t="inlineStr"/>
       <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14162,6 +14378,7 @@
       <c r="BD73" t="inlineStr"/>
       <c r="BE73" t="inlineStr"/>
       <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14302,6 +14519,7 @@
       <c r="BD74" t="inlineStr"/>
       <c r="BE74" t="inlineStr"/>
       <c r="BF74" t="inlineStr"/>
+      <c r="BG74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG74"/>
+  <dimension ref="A1:BH74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,6 +717,11 @@
           <t>2026-02-18 11:35:26</t>
         </is>
       </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>2026-02-18 12:53:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -908,6 +913,9 @@
       <c r="BG2" t="n">
         <v>659</v>
       </c>
+      <c r="BH2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1099,6 +1107,9 @@
       <c r="BG3" t="n">
         <v>659</v>
       </c>
+      <c r="BH3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1118,7 +1129,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1288,6 +1299,9 @@
         <v>749</v>
       </c>
       <c r="BG4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BH4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1481,6 +1495,9 @@
       <c r="BG5" t="n">
         <v>749</v>
       </c>
+      <c r="BH5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1672,6 +1689,9 @@
       <c r="BG6" t="n">
         <v>809</v>
       </c>
+      <c r="BH6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1863,6 +1883,9 @@
       <c r="BG7" t="n">
         <v>809</v>
       </c>
+      <c r="BH7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2054,6 +2077,9 @@
       <c r="BG8" t="n">
         <v>809</v>
       </c>
+      <c r="BH8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2245,6 +2271,9 @@
       <c r="BG9" t="n">
         <v>809</v>
       </c>
+      <c r="BH9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2436,6 +2465,9 @@
       <c r="BG10" t="n">
         <v>809</v>
       </c>
+      <c r="BH10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2627,6 +2659,9 @@
       <c r="BG11" t="n">
         <v>849</v>
       </c>
+      <c r="BH11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2818,6 +2853,9 @@
       <c r="BG12" t="n">
         <v>899</v>
       </c>
+      <c r="BH12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3009,6 +3047,9 @@
       <c r="BG13" t="n">
         <v>899</v>
       </c>
+      <c r="BH13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3200,6 +3241,9 @@
       <c r="BG14" t="n">
         <v>909</v>
       </c>
+      <c r="BH14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3391,6 +3435,9 @@
       <c r="BG15" t="n">
         <v>909</v>
       </c>
+      <c r="BH15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3582,6 +3629,9 @@
       <c r="BG16" t="n">
         <v>909</v>
       </c>
+      <c r="BH16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3773,6 +3823,9 @@
       <c r="BG17" t="n">
         <v>909</v>
       </c>
+      <c r="BH17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3960,6 +4013,9 @@
       <c r="BG18" t="n">
         <v>949</v>
       </c>
+      <c r="BH18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4151,6 +4207,9 @@
       <c r="BG19" t="n">
         <v>969</v>
       </c>
+      <c r="BH19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4342,6 +4401,9 @@
       <c r="BG20" t="n">
         <v>969</v>
       </c>
+      <c r="BH20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4533,6 +4595,9 @@
       <c r="BG21" t="n">
         <v>969</v>
       </c>
+      <c r="BH21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4724,6 +4789,9 @@
       <c r="BG22" t="n">
         <v>969</v>
       </c>
+      <c r="BH22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4915,6 +4983,9 @@
       <c r="BG23" t="n">
         <v>969</v>
       </c>
+      <c r="BH23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5106,6 +5177,9 @@
       <c r="BG24" t="n">
         <v>999</v>
       </c>
+      <c r="BH24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5297,6 +5371,9 @@
       <c r="BG25" t="n">
         <v>999</v>
       </c>
+      <c r="BH25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5488,6 +5565,9 @@
       <c r="BG26" t="n">
         <v>1039</v>
       </c>
+      <c r="BH26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5679,6 +5759,9 @@
       <c r="BG27" t="n">
         <v>1079</v>
       </c>
+      <c r="BH27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5870,6 +5953,9 @@
       <c r="BG28" t="n">
         <v>1079</v>
       </c>
+      <c r="BH28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6061,6 +6147,9 @@
       <c r="BG29" t="n">
         <v>1079</v>
       </c>
+      <c r="BH29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6252,6 +6341,9 @@
       <c r="BG30" t="n">
         <v>1079</v>
       </c>
+      <c r="BH30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6443,6 +6535,9 @@
       <c r="BG31" t="n">
         <v>1099</v>
       </c>
+      <c r="BH31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6634,6 +6729,9 @@
       <c r="BG32" t="n">
         <v>1099</v>
       </c>
+      <c r="BH32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6825,6 +6923,9 @@
       <c r="BG33" t="n">
         <v>1199</v>
       </c>
+      <c r="BH33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7016,6 +7117,9 @@
       <c r="BG34" t="n">
         <v>1219</v>
       </c>
+      <c r="BH34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7207,6 +7311,9 @@
       <c r="BG35" t="n">
         <v>1219</v>
       </c>
+      <c r="BH35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7398,6 +7505,9 @@
       <c r="BG36" t="n">
         <v>1219</v>
       </c>
+      <c r="BH36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7589,6 +7699,9 @@
       <c r="BG37" t="n">
         <v>1219</v>
       </c>
+      <c r="BH37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7780,6 +7893,9 @@
       <c r="BG38" t="n">
         <v>1219</v>
       </c>
+      <c r="BH38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7971,6 +8087,9 @@
       <c r="BG39" t="n">
         <v>1229</v>
       </c>
+      <c r="BH39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8162,6 +8281,9 @@
       <c r="BG40" t="n">
         <v>1249</v>
       </c>
+      <c r="BH40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8353,6 +8475,9 @@
       <c r="BG41" t="n">
         <v>1249</v>
       </c>
+      <c r="BH41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8544,6 +8669,9 @@
       <c r="BG42" t="n">
         <v>1329</v>
       </c>
+      <c r="BH42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8735,6 +8863,9 @@
       <c r="BG43" t="n">
         <v>1329</v>
       </c>
+      <c r="BH43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8926,6 +9057,9 @@
       <c r="BG44" t="n">
         <v>1329</v>
       </c>
+      <c r="BH44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9117,6 +9251,9 @@
       <c r="BG45" t="n">
         <v>1329</v>
       </c>
+      <c r="BH45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9308,6 +9445,9 @@
       <c r="BG46" t="n">
         <v>1329</v>
       </c>
+      <c r="BH46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9499,6 +9639,9 @@
       <c r="BG47" t="n">
         <v>1329</v>
       </c>
+      <c r="BH47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9690,6 +9833,9 @@
       <c r="BG48" t="n">
         <v>1329</v>
       </c>
+      <c r="BH48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9881,6 +10027,9 @@
       <c r="BG49" t="n">
         <v>1349</v>
       </c>
+      <c r="BH49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10072,6 +10221,9 @@
       <c r="BG50" t="n">
         <v>1479</v>
       </c>
+      <c r="BH50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10263,6 +10415,9 @@
       <c r="BG51" t="n">
         <v>1479</v>
       </c>
+      <c r="BH51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10454,6 +10609,9 @@
       <c r="BG52" t="n">
         <v>1479</v>
       </c>
+      <c r="BH52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10645,6 +10803,9 @@
       <c r="BG53" t="n">
         <v>1579</v>
       </c>
+      <c r="BH53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10836,6 +10997,9 @@
       <c r="BG54" t="n">
         <v>1579</v>
       </c>
+      <c r="BH54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11027,6 +11191,9 @@
       <c r="BG55" t="n">
         <v>1579</v>
       </c>
+      <c r="BH55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11218,6 +11385,9 @@
       <c r="BG56" t="n">
         <v>1579</v>
       </c>
+      <c r="BH56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11409,6 +11579,9 @@
       <c r="BG57" t="n">
         <v>1579</v>
       </c>
+      <c r="BH57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11600,6 +11773,9 @@
       <c r="BG58" t="n">
         <v>1579</v>
       </c>
+      <c r="BH58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11791,6 +11967,9 @@
       <c r="BG59" t="n">
         <v>1579</v>
       </c>
+      <c r="BH59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11982,6 +12161,9 @@
       <c r="BG60" t="n">
         <v>1729</v>
       </c>
+      <c r="BH60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12173,6 +12355,9 @@
       <c r="BG61" t="n">
         <v>1729</v>
       </c>
+      <c r="BH61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12364,6 +12549,9 @@
       <c r="BG62" t="n">
         <v>1729</v>
       </c>
+      <c r="BH62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12555,6 +12743,9 @@
       <c r="BG63" t="n">
         <v>1829</v>
       </c>
+      <c r="BH63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12746,6 +12937,9 @@
       <c r="BG64" t="n">
         <v>1829</v>
       </c>
+      <c r="BH64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12937,6 +13131,9 @@
       <c r="BG65" t="n">
         <v>1829</v>
       </c>
+      <c r="BH65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13128,6 +13325,9 @@
       <c r="BG66" t="n">
         <v>1979</v>
       </c>
+      <c r="BH66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13319,6 +13519,9 @@
       <c r="BG67" t="n">
         <v>1979</v>
       </c>
+      <c r="BH67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13510,6 +13713,9 @@
       <c r="BG68" t="n">
         <v>1979</v>
       </c>
+      <c r="BH68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13701,6 +13907,9 @@
       <c r="BG69" t="n">
         <v>2479</v>
       </c>
+      <c r="BH69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13892,6 +14101,9 @@
       <c r="BG70" t="n">
         <v>2479</v>
       </c>
+      <c r="BH70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14081,6 +14293,9 @@
         <v>2479</v>
       </c>
       <c r="BG71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BH71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -14238,6 +14453,7 @@
       <c r="BE72" t="inlineStr"/>
       <c r="BF72" t="inlineStr"/>
       <c r="BG72" t="inlineStr"/>
+      <c r="BH72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14379,6 +14595,7 @@
       <c r="BE73" t="inlineStr"/>
       <c r="BF73" t="inlineStr"/>
       <c r="BG73" t="inlineStr"/>
+      <c r="BH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14520,6 +14737,7 @@
       <c r="BE74" t="inlineStr"/>
       <c r="BF74" t="inlineStr"/>
       <c r="BG74" t="inlineStr"/>
+      <c r="BH74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH74"/>
+  <dimension ref="A1:BI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,11 @@
           <t>2026-02-18 12:53:05</t>
         </is>
       </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>2026-02-18 14:05:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -916,6 +921,9 @@
       <c r="BH2" t="n">
         <v>659</v>
       </c>
+      <c r="BI2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,6 +1118,9 @@
       <c r="BH3" t="n">
         <v>659</v>
       </c>
+      <c r="BI3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1304,6 +1315,9 @@
       <c r="BH4" t="n">
         <v>749</v>
       </c>
+      <c r="BI4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1498,6 +1512,9 @@
       <c r="BH5" t="n">
         <v>749</v>
       </c>
+      <c r="BI5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1692,6 +1709,9 @@
       <c r="BH6" t="n">
         <v>809</v>
       </c>
+      <c r="BI6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1886,6 +1906,9 @@
       <c r="BH7" t="n">
         <v>809</v>
       </c>
+      <c r="BI7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2080,6 +2103,9 @@
       <c r="BH8" t="n">
         <v>809</v>
       </c>
+      <c r="BI8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2274,6 +2300,9 @@
       <c r="BH9" t="n">
         <v>809</v>
       </c>
+      <c r="BI9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2468,6 +2497,9 @@
       <c r="BH10" t="n">
         <v>809</v>
       </c>
+      <c r="BI10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2662,6 +2694,9 @@
       <c r="BH11" t="n">
         <v>849</v>
       </c>
+      <c r="BI11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2856,6 +2891,9 @@
       <c r="BH12" t="n">
         <v>899</v>
       </c>
+      <c r="BI12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3050,6 +3088,9 @@
       <c r="BH13" t="n">
         <v>899</v>
       </c>
+      <c r="BI13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3244,6 +3285,9 @@
       <c r="BH14" t="n">
         <v>909</v>
       </c>
+      <c r="BI14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3438,6 +3482,9 @@
       <c r="BH15" t="n">
         <v>909</v>
       </c>
+      <c r="BI15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3632,6 +3679,9 @@
       <c r="BH16" t="n">
         <v>909</v>
       </c>
+      <c r="BI16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3826,6 +3876,9 @@
       <c r="BH17" t="n">
         <v>909</v>
       </c>
+      <c r="BI17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4016,6 +4069,9 @@
       <c r="BH18" t="n">
         <v>949</v>
       </c>
+      <c r="BI18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4210,6 +4266,9 @@
       <c r="BH19" t="n">
         <v>969</v>
       </c>
+      <c r="BI19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4404,6 +4463,9 @@
       <c r="BH20" t="n">
         <v>969</v>
       </c>
+      <c r="BI20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4598,6 +4660,9 @@
       <c r="BH21" t="n">
         <v>969</v>
       </c>
+      <c r="BI21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4792,6 +4857,9 @@
       <c r="BH22" t="n">
         <v>969</v>
       </c>
+      <c r="BI22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4986,6 +5054,9 @@
       <c r="BH23" t="n">
         <v>969</v>
       </c>
+      <c r="BI23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5180,6 +5251,9 @@
       <c r="BH24" t="n">
         <v>999</v>
       </c>
+      <c r="BI24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5374,6 +5448,9 @@
       <c r="BH25" t="n">
         <v>999</v>
       </c>
+      <c r="BI25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5568,6 +5645,9 @@
       <c r="BH26" t="n">
         <v>1039</v>
       </c>
+      <c r="BI26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5762,6 +5842,9 @@
       <c r="BH27" t="n">
         <v>1079</v>
       </c>
+      <c r="BI27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5956,6 +6039,9 @@
       <c r="BH28" t="n">
         <v>1079</v>
       </c>
+      <c r="BI28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6150,6 +6236,9 @@
       <c r="BH29" t="n">
         <v>1079</v>
       </c>
+      <c r="BI29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6344,6 +6433,9 @@
       <c r="BH30" t="n">
         <v>1079</v>
       </c>
+      <c r="BI30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6538,6 +6630,9 @@
       <c r="BH31" t="n">
         <v>1099</v>
       </c>
+      <c r="BI31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6732,6 +6827,9 @@
       <c r="BH32" t="n">
         <v>1099</v>
       </c>
+      <c r="BI32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6926,6 +7024,9 @@
       <c r="BH33" t="n">
         <v>1199</v>
       </c>
+      <c r="BI33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7120,6 +7221,9 @@
       <c r="BH34" t="n">
         <v>1219</v>
       </c>
+      <c r="BI34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7314,6 +7418,9 @@
       <c r="BH35" t="n">
         <v>1219</v>
       </c>
+      <c r="BI35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7508,6 +7615,9 @@
       <c r="BH36" t="n">
         <v>1219</v>
       </c>
+      <c r="BI36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7702,6 +7812,9 @@
       <c r="BH37" t="n">
         <v>1219</v>
       </c>
+      <c r="BI37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7896,6 +8009,9 @@
       <c r="BH38" t="n">
         <v>1219</v>
       </c>
+      <c r="BI38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8090,6 +8206,9 @@
       <c r="BH39" t="n">
         <v>1229</v>
       </c>
+      <c r="BI39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8284,6 +8403,9 @@
       <c r="BH40" t="n">
         <v>1249</v>
       </c>
+      <c r="BI40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8478,6 +8600,9 @@
       <c r="BH41" t="n">
         <v>1249</v>
       </c>
+      <c r="BI41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8672,6 +8797,9 @@
       <c r="BH42" t="n">
         <v>1329</v>
       </c>
+      <c r="BI42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8866,6 +8994,9 @@
       <c r="BH43" t="n">
         <v>1329</v>
       </c>
+      <c r="BI43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9060,6 +9191,9 @@
       <c r="BH44" t="n">
         <v>1329</v>
       </c>
+      <c r="BI44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9254,6 +9388,9 @@
       <c r="BH45" t="n">
         <v>1329</v>
       </c>
+      <c r="BI45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9448,6 +9585,9 @@
       <c r="BH46" t="n">
         <v>1329</v>
       </c>
+      <c r="BI46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9642,6 +9782,9 @@
       <c r="BH47" t="n">
         <v>1329</v>
       </c>
+      <c r="BI47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9836,6 +9979,9 @@
       <c r="BH48" t="n">
         <v>1329</v>
       </c>
+      <c r="BI48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10030,6 +10176,9 @@
       <c r="BH49" t="n">
         <v>1349</v>
       </c>
+      <c r="BI49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10224,6 +10373,9 @@
       <c r="BH50" t="n">
         <v>1479</v>
       </c>
+      <c r="BI50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10418,6 +10570,9 @@
       <c r="BH51" t="n">
         <v>1479</v>
       </c>
+      <c r="BI51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10612,6 +10767,9 @@
       <c r="BH52" t="n">
         <v>1479</v>
       </c>
+      <c r="BI52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10806,6 +10964,9 @@
       <c r="BH53" t="n">
         <v>1579</v>
       </c>
+      <c r="BI53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11000,6 +11161,9 @@
       <c r="BH54" t="n">
         <v>1579</v>
       </c>
+      <c r="BI54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11194,6 +11358,9 @@
       <c r="BH55" t="n">
         <v>1579</v>
       </c>
+      <c r="BI55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11388,6 +11555,9 @@
       <c r="BH56" t="n">
         <v>1579</v>
       </c>
+      <c r="BI56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11582,6 +11752,9 @@
       <c r="BH57" t="n">
         <v>1579</v>
       </c>
+      <c r="BI57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11776,6 +11949,9 @@
       <c r="BH58" t="n">
         <v>1579</v>
       </c>
+      <c r="BI58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11970,6 +12146,9 @@
       <c r="BH59" t="n">
         <v>1579</v>
       </c>
+      <c r="BI59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12164,6 +12343,9 @@
       <c r="BH60" t="n">
         <v>1729</v>
       </c>
+      <c r="BI60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12358,6 +12540,9 @@
       <c r="BH61" t="n">
         <v>1729</v>
       </c>
+      <c r="BI61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12377,7 +12562,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -12550,6 +12735,9 @@
         <v>1729</v>
       </c>
       <c r="BH62" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BI62" t="n">
         <v>1729</v>
       </c>
     </row>
@@ -12746,6 +12934,9 @@
       <c r="BH63" t="n">
         <v>1829</v>
       </c>
+      <c r="BI63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12940,6 +13131,9 @@
       <c r="BH64" t="n">
         <v>1829</v>
       </c>
+      <c r="BI64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13134,6 +13328,9 @@
       <c r="BH65" t="n">
         <v>1829</v>
       </c>
+      <c r="BI65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13328,6 +13525,9 @@
       <c r="BH66" t="n">
         <v>1979</v>
       </c>
+      <c r="BI66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13522,6 +13722,9 @@
       <c r="BH67" t="n">
         <v>1979</v>
       </c>
+      <c r="BI67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13716,6 +13919,9 @@
       <c r="BH68" t="n">
         <v>1979</v>
       </c>
+      <c r="BI68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13910,6 +14116,9 @@
       <c r="BH69" t="n">
         <v>2479</v>
       </c>
+      <c r="BI69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14104,6 +14313,9 @@
       <c r="BH70" t="n">
         <v>2479</v>
       </c>
+      <c r="BI70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14296,6 +14508,9 @@
         <v>2479</v>
       </c>
       <c r="BH71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BI71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -14454,6 +14669,7 @@
       <c r="BF72" t="inlineStr"/>
       <c r="BG72" t="inlineStr"/>
       <c r="BH72" t="inlineStr"/>
+      <c r="BI72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14596,6 +14812,7 @@
       <c r="BF73" t="inlineStr"/>
       <c r="BG73" t="inlineStr"/>
       <c r="BH73" t="inlineStr"/>
+      <c r="BI73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14738,6 +14955,7 @@
       <c r="BF74" t="inlineStr"/>
       <c r="BG74" t="inlineStr"/>
       <c r="BH74" t="inlineStr"/>
+      <c r="BI74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI74"/>
+  <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +727,11 @@
           <t>2026-02-18 14:05:50</t>
         </is>
       </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>2026-02-18 15:45:40</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -924,6 +929,9 @@
       <c r="BI2" t="n">
         <v>659</v>
       </c>
+      <c r="BJ2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1121,6 +1129,9 @@
       <c r="BI3" t="n">
         <v>659</v>
       </c>
+      <c r="BJ3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1318,6 +1329,9 @@
       <c r="BI4" t="n">
         <v>749</v>
       </c>
+      <c r="BJ4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1515,6 +1529,9 @@
       <c r="BI5" t="n">
         <v>749</v>
       </c>
+      <c r="BJ5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1712,6 +1729,9 @@
       <c r="BI6" t="n">
         <v>809</v>
       </c>
+      <c r="BJ6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1909,6 +1929,9 @@
       <c r="BI7" t="n">
         <v>809</v>
       </c>
+      <c r="BJ7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2106,6 +2129,9 @@
       <c r="BI8" t="n">
         <v>809</v>
       </c>
+      <c r="BJ8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2303,6 +2329,9 @@
       <c r="BI9" t="n">
         <v>809</v>
       </c>
+      <c r="BJ9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2500,6 +2529,9 @@
       <c r="BI10" t="n">
         <v>809</v>
       </c>
+      <c r="BJ10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2697,6 +2729,9 @@
       <c r="BI11" t="n">
         <v>849</v>
       </c>
+      <c r="BJ11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2894,6 +2929,9 @@
       <c r="BI12" t="n">
         <v>899</v>
       </c>
+      <c r="BJ12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3091,6 +3129,9 @@
       <c r="BI13" t="n">
         <v>899</v>
       </c>
+      <c r="BJ13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3288,6 +3329,9 @@
       <c r="BI14" t="n">
         <v>909</v>
       </c>
+      <c r="BJ14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3485,6 +3529,9 @@
       <c r="BI15" t="n">
         <v>909</v>
       </c>
+      <c r="BJ15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3682,6 +3729,9 @@
       <c r="BI16" t="n">
         <v>909</v>
       </c>
+      <c r="BJ16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3879,6 +3929,9 @@
       <c r="BI17" t="n">
         <v>909</v>
       </c>
+      <c r="BJ17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4072,6 +4125,9 @@
       <c r="BI18" t="n">
         <v>949</v>
       </c>
+      <c r="BJ18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4269,6 +4325,9 @@
       <c r="BI19" t="n">
         <v>969</v>
       </c>
+      <c r="BJ19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4466,6 +4525,9 @@
       <c r="BI20" t="n">
         <v>969</v>
       </c>
+      <c r="BJ20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4663,6 +4725,9 @@
       <c r="BI21" t="n">
         <v>969</v>
       </c>
+      <c r="BJ21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4860,6 +4925,9 @@
       <c r="BI22" t="n">
         <v>969</v>
       </c>
+      <c r="BJ22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5057,6 +5125,9 @@
       <c r="BI23" t="n">
         <v>969</v>
       </c>
+      <c r="BJ23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5254,6 +5325,9 @@
       <c r="BI24" t="n">
         <v>999</v>
       </c>
+      <c r="BJ24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5451,6 +5525,9 @@
       <c r="BI25" t="n">
         <v>999</v>
       </c>
+      <c r="BJ25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5648,6 +5725,9 @@
       <c r="BI26" t="n">
         <v>1039</v>
       </c>
+      <c r="BJ26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5845,6 +5925,9 @@
       <c r="BI27" t="n">
         <v>1079</v>
       </c>
+      <c r="BJ27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6042,6 +6125,9 @@
       <c r="BI28" t="n">
         <v>1079</v>
       </c>
+      <c r="BJ28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6239,6 +6325,9 @@
       <c r="BI29" t="n">
         <v>1079</v>
       </c>
+      <c r="BJ29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6436,6 +6525,9 @@
       <c r="BI30" t="n">
         <v>1079</v>
       </c>
+      <c r="BJ30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6633,6 +6725,9 @@
       <c r="BI31" t="n">
         <v>1099</v>
       </c>
+      <c r="BJ31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6830,6 +6925,9 @@
       <c r="BI32" t="n">
         <v>1099</v>
       </c>
+      <c r="BJ32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7027,6 +7125,9 @@
       <c r="BI33" t="n">
         <v>1199</v>
       </c>
+      <c r="BJ33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7224,6 +7325,9 @@
       <c r="BI34" t="n">
         <v>1219</v>
       </c>
+      <c r="BJ34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7421,6 +7525,9 @@
       <c r="BI35" t="n">
         <v>1219</v>
       </c>
+      <c r="BJ35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7618,6 +7725,9 @@
       <c r="BI36" t="n">
         <v>1219</v>
       </c>
+      <c r="BJ36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7815,6 +7925,9 @@
       <c r="BI37" t="n">
         <v>1219</v>
       </c>
+      <c r="BJ37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8012,6 +8125,9 @@
       <c r="BI38" t="n">
         <v>1219</v>
       </c>
+      <c r="BJ38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8209,6 +8325,9 @@
       <c r="BI39" t="n">
         <v>1229</v>
       </c>
+      <c r="BJ39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8406,6 +8525,9 @@
       <c r="BI40" t="n">
         <v>1249</v>
       </c>
+      <c r="BJ40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8603,6 +8725,9 @@
       <c r="BI41" t="n">
         <v>1249</v>
       </c>
+      <c r="BJ41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8800,6 +8925,9 @@
       <c r="BI42" t="n">
         <v>1329</v>
       </c>
+      <c r="BJ42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8997,6 +9125,9 @@
       <c r="BI43" t="n">
         <v>1329</v>
       </c>
+      <c r="BJ43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9194,6 +9325,9 @@
       <c r="BI44" t="n">
         <v>1329</v>
       </c>
+      <c r="BJ44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9391,6 +9525,9 @@
       <c r="BI45" t="n">
         <v>1329</v>
       </c>
+      <c r="BJ45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9588,6 +9725,9 @@
       <c r="BI46" t="n">
         <v>1329</v>
       </c>
+      <c r="BJ46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9785,6 +9925,9 @@
       <c r="BI47" t="n">
         <v>1329</v>
       </c>
+      <c r="BJ47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9982,6 +10125,9 @@
       <c r="BI48" t="n">
         <v>1329</v>
       </c>
+      <c r="BJ48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10179,6 +10325,9 @@
       <c r="BI49" t="n">
         <v>1349</v>
       </c>
+      <c r="BJ49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10376,6 +10525,9 @@
       <c r="BI50" t="n">
         <v>1479</v>
       </c>
+      <c r="BJ50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10573,6 +10725,9 @@
       <c r="BI51" t="n">
         <v>1479</v>
       </c>
+      <c r="BJ51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10770,6 +10925,9 @@
       <c r="BI52" t="n">
         <v>1479</v>
       </c>
+      <c r="BJ52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10967,6 +11125,9 @@
       <c r="BI53" t="n">
         <v>1579</v>
       </c>
+      <c r="BJ53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11164,6 +11325,9 @@
       <c r="BI54" t="n">
         <v>1579</v>
       </c>
+      <c r="BJ54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11361,6 +11525,9 @@
       <c r="BI55" t="n">
         <v>1579</v>
       </c>
+      <c r="BJ55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11558,6 +11725,9 @@
       <c r="BI56" t="n">
         <v>1579</v>
       </c>
+      <c r="BJ56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11755,6 +11925,9 @@
       <c r="BI57" t="n">
         <v>1579</v>
       </c>
+      <c r="BJ57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11952,6 +12125,9 @@
       <c r="BI58" t="n">
         <v>1579</v>
       </c>
+      <c r="BJ58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12149,6 +12325,9 @@
       <c r="BI59" t="n">
         <v>1579</v>
       </c>
+      <c r="BJ59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12346,6 +12525,9 @@
       <c r="BI60" t="n">
         <v>1729</v>
       </c>
+      <c r="BJ60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12543,6 +12725,9 @@
       <c r="BI61" t="n">
         <v>1729</v>
       </c>
+      <c r="BJ61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12740,6 +12925,9 @@
       <c r="BI62" t="n">
         <v>1729</v>
       </c>
+      <c r="BJ62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12937,6 +13125,9 @@
       <c r="BI63" t="n">
         <v>1829</v>
       </c>
+      <c r="BJ63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13134,6 +13325,9 @@
       <c r="BI64" t="n">
         <v>1829</v>
       </c>
+      <c r="BJ64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13331,6 +13525,9 @@
       <c r="BI65" t="n">
         <v>1829</v>
       </c>
+      <c r="BJ65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13528,6 +13725,9 @@
       <c r="BI66" t="n">
         <v>1979</v>
       </c>
+      <c r="BJ66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13725,6 +13925,9 @@
       <c r="BI67" t="n">
         <v>1979</v>
       </c>
+      <c r="BJ67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13922,6 +14125,9 @@
       <c r="BI68" t="n">
         <v>1979</v>
       </c>
+      <c r="BJ68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14119,6 +14325,9 @@
       <c r="BI69" t="n">
         <v>2479</v>
       </c>
+      <c r="BJ69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14316,6 +14525,9 @@
       <c r="BI70" t="n">
         <v>2479</v>
       </c>
+      <c r="BJ70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14511,6 +14723,9 @@
         <v>2479</v>
       </c>
       <c r="BI71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BJ71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -14670,6 +14885,7 @@
       <c r="BG72" t="inlineStr"/>
       <c r="BH72" t="inlineStr"/>
       <c r="BI72" t="inlineStr"/>
+      <c r="BJ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14813,6 +15029,7 @@
       <c r="BG73" t="inlineStr"/>
       <c r="BH73" t="inlineStr"/>
       <c r="BI73" t="inlineStr"/>
+      <c r="BJ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14956,6 +15173,7 @@
       <c r="BG74" t="inlineStr"/>
       <c r="BH74" t="inlineStr"/>
       <c r="BI74" t="inlineStr"/>
+      <c r="BJ74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BL74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,11 @@
           <t>2026-02-18 16:58:05</t>
         </is>
       </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>2026-02-18 17:52:54</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -940,6 +945,9 @@
       <c r="BK2" t="n">
         <v>659</v>
       </c>
+      <c r="BL2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1143,6 +1151,9 @@
       <c r="BK3" t="n">
         <v>659</v>
       </c>
+      <c r="BL3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1346,6 +1357,9 @@
       <c r="BK4" t="n">
         <v>749</v>
       </c>
+      <c r="BL4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1549,6 +1563,9 @@
       <c r="BK5" t="n">
         <v>809</v>
       </c>
+      <c r="BL5" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1752,6 +1769,9 @@
       <c r="BK6" t="n">
         <v>809</v>
       </c>
+      <c r="BL6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1955,6 +1975,9 @@
       <c r="BK7" t="n">
         <v>809</v>
       </c>
+      <c r="BL7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2158,6 +2181,9 @@
       <c r="BK8" t="n">
         <v>809</v>
       </c>
+      <c r="BL8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2361,6 +2387,9 @@
       <c r="BK9" t="n">
         <v>809</v>
       </c>
+      <c r="BL9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2564,6 +2593,9 @@
       <c r="BK10" t="n">
         <v>849</v>
       </c>
+      <c r="BL10" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2767,6 +2799,9 @@
       <c r="BK11" t="n">
         <v>899</v>
       </c>
+      <c r="BL11" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2970,6 +3005,9 @@
       <c r="BK12" t="n">
         <v>899</v>
       </c>
+      <c r="BL12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3173,6 +3211,9 @@
       <c r="BK13" t="n">
         <v>909</v>
       </c>
+      <c r="BL13" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3376,6 +3417,9 @@
       <c r="BK14" t="n">
         <v>909</v>
       </c>
+      <c r="BL14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3579,6 +3623,9 @@
       <c r="BK15" t="n">
         <v>909</v>
       </c>
+      <c r="BL15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3782,6 +3829,9 @@
       <c r="BK16" t="n">
         <v>909</v>
       </c>
+      <c r="BL16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3981,6 +4031,9 @@
       <c r="BK17" t="n">
         <v>949</v>
       </c>
+      <c r="BL17" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4184,6 +4237,9 @@
       <c r="BK18" t="n">
         <v>969</v>
       </c>
+      <c r="BL18" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4387,6 +4443,9 @@
       <c r="BK19" t="n">
         <v>969</v>
       </c>
+      <c r="BL19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4590,6 +4649,9 @@
       <c r="BK20" t="n">
         <v>969</v>
       </c>
+      <c r="BL20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4793,6 +4855,9 @@
       <c r="BK21" t="n">
         <v>969</v>
       </c>
+      <c r="BL21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4996,6 +5061,9 @@
       <c r="BK22" t="n">
         <v>969</v>
       </c>
+      <c r="BL22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5015,7 +5083,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5197,6 +5265,9 @@
         <v>999</v>
       </c>
       <c r="BK23" t="n">
+        <v>999</v>
+      </c>
+      <c r="BL23" t="n">
         <v>999</v>
       </c>
     </row>
@@ -5402,16 +5473,19 @@
       <c r="BK24" t="n">
         <v>999</v>
       </c>
+      <c r="BL24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00702797</t>
+          <t>PB00642638</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Blanc nuage</t>
+          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5421,14 +5495,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -5437,184 +5511,185 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="J25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="K25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="L25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="M25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="N25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="O25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="P25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Q25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="R25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="S25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="T25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="U25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="V25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="W25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="X25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Y25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Z25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AA25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AB25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AC25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AD25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AE25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AF25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AG25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AH25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AI25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AK25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AL25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AM25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AN25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AO25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AP25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AR25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AS25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AT25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AU25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AV25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AW25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AX25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AY25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BA25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BB25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BC25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BD25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BE25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BF25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BG25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BH25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BI25" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BJ25" t="n">
-        <v>1079</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>1079</v>
+        <v>1039</v>
+      </c>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="n">
+        <v>1039</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00702807</t>
+          <t>PB00702797</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Bleu ciel</t>
+          <t>Apple iPhone Air 256 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5640,7 +5715,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -5806,18 +5881,21 @@
         <v>1079</v>
       </c>
       <c r="BK26" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BL26" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00702792</t>
+          <t>PB00702807</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Noir sidéral</t>
+          <t>Apple iPhone Air 256 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5827,7 +5905,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5843,7 +5921,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -6009,18 +6087,21 @@
         <v>1079</v>
       </c>
       <c r="BK27" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BL27" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00702801</t>
+          <t>PB00702792</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Or clair</t>
+          <t>Apple iPhone Air 256 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6030,7 +6111,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -6046,7 +6127,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -6212,18 +6293,21 @@
         <v>1079</v>
       </c>
       <c r="BK28" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BL28" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PB00570868</t>
+          <t>PB00702801</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Jaune</t>
+          <t>Apple iPhone Air 256 Go Or clair</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6240,7 +6324,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -6249,184 +6333,187 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="J29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="K29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="L29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="M29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="N29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="O29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="P29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Q29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="R29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="S29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="T29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="U29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="V29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="W29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="X29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Y29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Z29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AA29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AB29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AC29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AD29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AE29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AF29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AG29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AH29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AI29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AK29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AL29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AM29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AN29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AO29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AP29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AR29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AS29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AT29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AU29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AV29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AW29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AX29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AY29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AZ29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BA29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BB29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BC29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BD29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BE29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BF29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BG29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BH29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BI29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BJ29" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BK29" t="n">
-        <v>1099</v>
+        <v>1079</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00570870</t>
+          <t>PB00570868</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Vert</t>
+          <t>Apple iPhone 15 512 Go Jaune</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6452,7 +6539,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -6618,18 +6705,21 @@
         <v>1099</v>
       </c>
       <c r="BK30" t="n">
+        <v>1099</v>
+      </c>
+      <c r="BL30" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00516186</t>
+          <t>PB00570870</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro 1 To Or</t>
+          <t>Apple iPhone 15 512 Go Vert</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6646,7 +6736,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -6655,184 +6745,187 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="J31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="K31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="L31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="M31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="N31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="O31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="P31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Q31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="R31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="S31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="T31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="U31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="V31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="W31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="X31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Y31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Z31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AA31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AB31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AC31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AD31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AE31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AF31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AG31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AH31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AI31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AK31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AL31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AM31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AN31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AO31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AP31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AR31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AS31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AT31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AU31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AV31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AW31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AX31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AY31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BA31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BB31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BC31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BD31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BE31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BF31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BG31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BH31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BI31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BJ31" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BK31" t="n">
-        <v>1199</v>
+        <v>1099</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00702815</t>
+          <t>PB00516186</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Blanc</t>
+          <t>Apple iPhone 14 Pro 1 To Or</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6842,14 +6935,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -6858,184 +6951,187 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="J32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="K32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="L32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="M32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="N32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="O32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="P32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Q32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="R32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="S32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="T32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="U32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="V32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="W32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="X32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Y32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Z32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AA32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AB32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AC32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AD32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AE32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AF32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AG32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AH32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AI32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AK32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AL32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AM32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AN32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AO32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AP32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AR32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AS32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AT32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AU32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AV32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AW32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AX32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AY32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BA32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BB32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BC32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BD32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BE32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BF32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BG32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BH32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BI32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BJ32" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BK32" t="n">
-        <v>1219</v>
+        <v>1199</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00702816</t>
+          <t>PB00702815</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Brume</t>
+          <t>Apple iPhone 17 512 Go Blanc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7045,7 +7141,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -7061,7 +7157,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -7227,18 +7323,21 @@
         <v>1219</v>
       </c>
       <c r="BK33" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BL33" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00702817</t>
+          <t>PB00702816</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Lavande</t>
+          <t>Apple iPhone 17 512 Go Brume</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7264,7 +7363,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -7430,18 +7529,21 @@
         <v>1219</v>
       </c>
       <c r="BK34" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BL34" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00702813</t>
+          <t>PB00702817</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Noir</t>
+          <t>Apple iPhone 17 512 Go Lavande</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7451,7 +7553,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -7467,7 +7569,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -7633,18 +7735,21 @@
         <v>1219</v>
       </c>
       <c r="BK35" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BL35" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00702818</t>
+          <t>PB00702813</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Sauge</t>
+          <t>Apple iPhone 17 512 Go Noir</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7654,7 +7759,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -7670,7 +7775,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -7836,18 +7941,21 @@
         <v>1219</v>
       </c>
       <c r="BK36" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BL36" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00570890</t>
+          <t>PB00702818</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
+          <t>Apple iPhone 17 512 Go Sauge</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7864,7 +7972,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -7873,184 +7981,187 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="J37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="K37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="L37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="M37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="N37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="O37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="P37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Q37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="R37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="S37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="T37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="U37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="V37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="W37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="X37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Y37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Z37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AA37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AB37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AC37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AD37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AE37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AF37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AG37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AH37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AI37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AK37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AL37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AM37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AN37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AO37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AP37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AR37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AS37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AT37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AU37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AV37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AW37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AX37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AY37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AZ37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BA37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BB37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BC37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BD37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BE37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BF37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BG37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BH37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BI37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BJ37" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BK37" t="n">
-        <v>1229</v>
+        <v>1219</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00642649</t>
+          <t>PB00570890</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Blanc</t>
+          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8060,14 +8171,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -8076,184 +8187,187 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="J38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="K38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="L38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="M38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="N38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="O38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="P38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Q38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="R38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="S38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="T38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="U38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="V38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="W38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="X38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Z38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AA38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AB38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AC38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AD38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AE38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AF38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AG38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AH38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AI38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AK38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AL38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AM38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AN38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AO38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AP38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AR38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AS38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AT38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AU38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AV38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AW38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AX38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AY38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AZ38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BA38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BB38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BC38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BD38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BE38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BF38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BG38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BH38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BI38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BJ38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BK38" t="n">
-        <v>1249</v>
+        <v>1229</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00642648</t>
+          <t>PB00642649</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Rose</t>
+          <t>Apple iPhone 16 512 Go Blanc</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8263,7 +8377,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -8279,7 +8393,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -8445,18 +8559,21 @@
         <v>1249</v>
       </c>
       <c r="BK39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="BL39" t="n">
         <v>1249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00702819</t>
+          <t>PB00642648</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
+          <t>Apple iPhone 16 512 Go Rose</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8473,7 +8590,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -8482,184 +8599,187 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="J40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="K40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="L40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="M40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="N40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="O40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="P40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Q40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="R40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="S40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="T40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="U40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="V40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="W40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="X40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Y40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Z40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AA40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AB40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AC40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AD40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AE40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AF40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AG40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AH40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AI40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AK40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AL40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AM40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AN40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AO40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AP40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AR40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AS40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AT40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AU40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AV40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AW40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AX40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AY40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BA40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BB40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BC40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BD40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BE40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BF40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BG40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BH40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BI40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BJ40" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BK40" t="n">
-        <v>1329</v>
+        <v>1249</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00702822</t>
+          <t>PB00702819</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8685,7 +8805,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -8851,18 +8971,21 @@
         <v>1329</v>
       </c>
       <c r="BK41" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BL41" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00702820</t>
+          <t>PB00702822</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8888,7 +9011,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -9054,18 +9177,21 @@
         <v>1329</v>
       </c>
       <c r="BK42" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BL42" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00702798</t>
+          <t>PB00702820</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Blanc nuage</t>
+          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9082,7 +9208,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -9091,7 +9217,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -9257,18 +9383,21 @@
         <v>1329</v>
       </c>
       <c r="BK43" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BL43" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00702810</t>
+          <t>PB00702798</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Bleu ciel</t>
+          <t>Apple iPhone Air 512 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9294,7 +9423,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -9460,18 +9589,21 @@
         <v>1329</v>
       </c>
       <c r="BK44" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BL44" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00702793</t>
+          <t>PB00702810</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Noir sidéral</t>
+          <t>Apple iPhone Air 512 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9497,7 +9629,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -9663,18 +9795,21 @@
         <v>1329</v>
       </c>
       <c r="BK45" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BL45" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00702802</t>
+          <t>PB00702793</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Or clair</t>
+          <t>Apple iPhone Air 512 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9700,7 +9835,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -9866,18 +10001,21 @@
         <v>1329</v>
       </c>
       <c r="BK46" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BL46" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00642633</t>
+          <t>PB00702802</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
+          <t>Apple iPhone Air 512 Go Or clair</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9894,7 +10032,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -9903,184 +10041,187 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="J47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="K47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="L47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="M47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="N47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="O47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="P47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Q47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="R47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="S47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="T47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="U47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="V47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="W47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="X47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Y47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Z47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AA47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AB47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AC47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AD47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AE47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AF47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AG47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AH47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AI47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AK47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AL47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AM47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AN47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AO47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AP47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AR47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AS47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AT47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AU47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AV47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AW47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AX47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AY47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AZ47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BA47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BB47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BC47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BD47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BE47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BF47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BG47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BH47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BI47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BJ47" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BK47" t="n">
-        <v>1349</v>
+        <v>1329</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00702830</t>
+          <t>PB00642633</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
+          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10097,7 +10238,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -10106,184 +10247,187 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="J48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="K48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="L48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="M48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="N48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="O48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="P48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Q48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="R48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="S48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="T48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="U48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="V48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="W48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="X48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Y48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Z48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AA48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AB48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AC48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AD48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AE48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AF48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AG48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AH48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AI48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AK48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AL48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AM48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AN48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AO48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AP48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AR48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AS48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AT48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AU48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AV48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AW48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AX48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AY48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BA48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BB48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BC48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BD48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BE48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BF48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BG48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BH48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BI48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BJ48" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BK48" t="n">
-        <v>1479</v>
+        <v>1349</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00702832</t>
+          <t>PB00702830</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10309,7 +10453,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -10475,18 +10619,21 @@
         <v>1479</v>
       </c>
       <c r="BK49" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BL49" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00702831</t>
+          <t>PB00702832</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10496,7 +10643,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -10512,7 +10659,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -10678,18 +10825,21 @@
         <v>1479</v>
       </c>
       <c r="BK50" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BL50" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00702823</t>
+          <t>PB00702831</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10699,7 +10849,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -10715,184 +10865,187 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="J51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="K51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="L51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="M51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="N51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="O51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="P51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Q51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="R51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="S51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="T51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="U51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="V51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="W51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="X51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Y51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Z51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AA51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AB51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AC51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AD51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AE51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AF51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AG51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AH51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AI51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AK51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AL51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AM51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AN51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AO51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AP51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AR51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AS51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AT51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AU51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AV51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AW51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AX51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AY51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BA51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BB51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BC51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BD51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BE51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BF51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BG51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BH51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BI51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BJ51" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BK51" t="n">
-        <v>1579</v>
+        <v>1479</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00702825</t>
+          <t>PB00702823</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10902,7 +11055,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -10918,7 +11071,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -11084,18 +11237,21 @@
         <v>1579</v>
       </c>
       <c r="BK52" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BL52" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00702824</t>
+          <t>PB00702825</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -11105,7 +11261,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -11121,7 +11277,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -11287,18 +11443,21 @@
         <v>1579</v>
       </c>
       <c r="BK53" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BL53" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00702799</t>
+          <t>PB00702824</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Blanc nuage</t>
+          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11315,7 +11474,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -11324,7 +11483,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -11490,18 +11649,21 @@
         <v>1579</v>
       </c>
       <c r="BK54" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BL54" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00702812</t>
+          <t>PB00702799</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Bleu ciel</t>
+          <t>Apple iPhone Air 1 To Blanc nuage</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11527,7 +11689,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -11693,18 +11855,21 @@
         <v>1579</v>
       </c>
       <c r="BK55" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BL55" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00702794</t>
+          <t>PB00702812</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Noir sidéral</t>
+          <t>Apple iPhone Air 1 To Bleu ciel</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11714,7 +11879,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -11730,7 +11895,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -11896,18 +12061,21 @@
         <v>1579</v>
       </c>
       <c r="BK56" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BL56" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00702805</t>
+          <t>PB00702794</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Or clair</t>
+          <t>Apple iPhone Air 1 To Noir sidéral</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11917,7 +12085,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -11933,7 +12101,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -12099,18 +12267,21 @@
         <v>1579</v>
       </c>
       <c r="BK57" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BL57" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00702833</t>
+          <t>PB00702805</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
+          <t>Apple iPhone Air 1 To Or clair</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -12120,14 +12291,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -12136,184 +12307,187 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="J58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="K58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="L58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="M58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="N58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="O58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="P58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Q58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="R58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="S58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="T58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="U58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="V58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="W58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="X58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Y58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Z58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AA58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AB58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AC58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AD58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AE58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AF58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AG58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AH58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AI58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AK58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AL58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AM58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AN58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AO58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AP58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AR58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AS58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AT58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AU58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AV58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AW58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AX58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AY58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BA58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BB58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BC58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BD58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BE58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BF58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BG58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BH58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BI58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BJ58" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BK58" t="n">
-        <v>1729</v>
+        <v>1579</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00702835</t>
+          <t>PB00702833</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12323,7 +12497,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -12339,7 +12513,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -12505,18 +12679,21 @@
         <v>1729</v>
       </c>
       <c r="BK59" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BL59" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00702834</t>
+          <t>PB00702835</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12526,7 +12703,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -12542,7 +12719,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -12708,18 +12885,21 @@
         <v>1729</v>
       </c>
       <c r="BK60" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BL60" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00702826</t>
+          <t>PB00702834</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Argent</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12729,7 +12909,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -12745,184 +12925,187 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="J61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="K61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="L61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="M61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="N61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="O61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="P61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Q61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="R61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="S61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="T61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="U61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="V61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="W61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="X61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Y61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Z61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AA61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AB61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AC61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AD61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AE61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AF61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AG61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AH61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AI61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AK61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AL61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AM61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AN61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AO61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AP61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AR61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AS61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AT61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AU61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AV61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AW61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AX61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AY61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AZ61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BA61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BB61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BC61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BD61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BE61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BF61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BG61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BH61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BI61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BJ61" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BK61" t="n">
-        <v>1829</v>
+        <v>1729</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1729</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00702828</t>
+          <t>PB00702826</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro 1 To Argent</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12948,7 +13131,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -13114,18 +13297,21 @@
         <v>1829</v>
       </c>
       <c r="BK62" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BL62" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00702827</t>
+          <t>PB00702828</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -13151,7 +13337,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -13317,18 +13503,21 @@
         <v>1829</v>
       </c>
       <c r="BK63" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BL63" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00702836</t>
+          <t>PB00702827</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
+          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13354,184 +13543,187 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="J64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="K64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="L64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="M64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="N64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="O64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="P64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Q64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="R64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="S64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="T64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="U64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="V64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="W64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="X64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Y64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Z64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AA64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AB64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AC64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AD64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AE64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AF64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AG64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AH64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AI64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AK64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AL64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AM64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AN64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AO64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AP64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AR64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AS64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AT64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AU64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AV64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AW64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AX64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AY64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AZ64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BA64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BB64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BC64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BD64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BE64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BF64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BG64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BH64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BI64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BJ64" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BK64" t="n">
-        <v>1979</v>
+        <v>1829</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00702838</t>
+          <t>PB00702836</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13557,7 +13749,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -13723,18 +13915,21 @@
         <v>1979</v>
       </c>
       <c r="BK65" t="n">
+        <v>1979</v>
+      </c>
+      <c r="BL65" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00702837</t>
+          <t>PB00702838</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13760,7 +13955,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -13926,18 +14121,21 @@
         <v>1979</v>
       </c>
       <c r="BK66" t="n">
+        <v>1979</v>
+      </c>
+      <c r="BL66" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00702839</t>
+          <t>PB00702837</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
+          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13963,184 +14161,187 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="J67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="K67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="L67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="M67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="N67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="O67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="P67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Q67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="R67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="S67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="T67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="U67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="V67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="W67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="X67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Y67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Z67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AA67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AB67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AC67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AD67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AE67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AF67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AG67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AH67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AI67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AJ67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AK67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AL67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AM67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AN67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AO67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AP67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AR67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AS67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AT67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AU67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AV67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AW67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AX67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AY67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AZ67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BA67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BB67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BC67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BD67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BE67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BF67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BG67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BH67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BI67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BJ67" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BK67" t="n">
-        <v>2479</v>
+        <v>1979</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>1979</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00702841</t>
+          <t>PB00702839</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -14166,7 +14367,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -14332,18 +14533,21 @@
         <v>2479</v>
       </c>
       <c r="BK68" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BL68" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00702840</t>
+          <t>PB00702841</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
+          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14369,7 +14573,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -14535,18 +14739,21 @@
         <v>2479</v>
       </c>
       <c r="BK69" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BL69" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00570867</t>
+          <t>PB00702840</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Rose</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14556,14 +14763,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -14572,140 +14779,187 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="J70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="K70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="L70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="M70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="N70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="O70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="P70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Q70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="R70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="S70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="T70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="U70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="V70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="W70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="X70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Y70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Z70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AA70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AB70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AC70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AD70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AE70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AF70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AG70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AH70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AI70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AK70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AL70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AM70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AN70" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AO70" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
-      <c r="AT70" t="inlineStr"/>
-      <c r="AU70" t="inlineStr"/>
-      <c r="AV70" t="inlineStr"/>
-      <c r="AW70" t="inlineStr"/>
-      <c r="AX70" t="inlineStr"/>
-      <c r="AY70" t="inlineStr"/>
-      <c r="AZ70" t="inlineStr"/>
-      <c r="BA70" t="inlineStr"/>
-      <c r="BB70" t="inlineStr"/>
-      <c r="BC70" t="inlineStr"/>
-      <c r="BD70" t="inlineStr"/>
-      <c r="BE70" t="inlineStr"/>
-      <c r="BF70" t="inlineStr"/>
-      <c r="BG70" t="inlineStr"/>
-      <c r="BH70" t="inlineStr"/>
-      <c r="BI70" t="inlineStr"/>
-      <c r="BJ70" t="inlineStr"/>
-      <c r="BK70" t="inlineStr"/>
+        <v>2479</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00642638</t>
+          <t>PB00570867</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
+          <t>Apple iPhone 15 512 Go Rose</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14715,14 +14969,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -14731,172 +14985,131 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="J71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="K71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="L71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="M71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="N71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="O71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="P71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Q71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="R71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="S71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="T71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="U71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="V71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="W71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="X71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Y71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Z71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AA71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AB71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AC71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AD71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AE71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AF71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AG71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AH71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AI71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AK71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AL71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AM71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AN71" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AO71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>1039</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AU71" t="inlineStr"/>
+      <c r="AV71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
+      <c r="AZ71" t="inlineStr"/>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
+      <c r="BI71" t="inlineStr"/>
+      <c r="BJ71" t="inlineStr"/>
       <c r="BK71" t="inlineStr"/>
+      <c r="BL71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15042,6 +15255,7 @@
       <c r="BI72" t="inlineStr"/>
       <c r="BJ72" t="inlineStr"/>
       <c r="BK72" t="inlineStr"/>
+      <c r="BL72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15187,6 +15401,7 @@
       <c r="BI73" t="inlineStr"/>
       <c r="BJ73" t="inlineStr"/>
       <c r="BK73" t="inlineStr"/>
+      <c r="BL73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15388,6 +15603,7 @@
         <v>749</v>
       </c>
       <c r="BK74" t="inlineStr"/>
+      <c r="BL74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL74"/>
+  <dimension ref="A1:BM74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,6 +742,11 @@
           <t>2026-02-18 17:52:54</t>
         </is>
       </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>2026-02-18 18:45:08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -948,6 +953,9 @@
       <c r="BL2" t="n">
         <v>659</v>
       </c>
+      <c r="BM2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1154,6 +1162,9 @@
       <c r="BL3" t="n">
         <v>659</v>
       </c>
+      <c r="BM3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1360,6 +1371,9 @@
       <c r="BL4" t="n">
         <v>749</v>
       </c>
+      <c r="BM4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1566,6 +1580,9 @@
       <c r="BL5" t="n">
         <v>809</v>
       </c>
+      <c r="BM5" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1772,6 +1789,9 @@
       <c r="BL6" t="n">
         <v>809</v>
       </c>
+      <c r="BM6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +1998,9 @@
       <c r="BL7" t="n">
         <v>809</v>
       </c>
+      <c r="BM7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2184,6 +2207,9 @@
       <c r="BL8" t="n">
         <v>809</v>
       </c>
+      <c r="BM8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2390,6 +2416,9 @@
       <c r="BL9" t="n">
         <v>809</v>
       </c>
+      <c r="BM9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2596,6 +2625,9 @@
       <c r="BL10" t="n">
         <v>849</v>
       </c>
+      <c r="BM10" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2802,6 +2834,9 @@
       <c r="BL11" t="n">
         <v>899</v>
       </c>
+      <c r="BM11" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3008,6 +3043,9 @@
       <c r="BL12" t="n">
         <v>899</v>
       </c>
+      <c r="BM12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3214,6 +3252,9 @@
       <c r="BL13" t="n">
         <v>909</v>
       </c>
+      <c r="BM13" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3420,6 +3461,9 @@
       <c r="BL14" t="n">
         <v>909</v>
       </c>
+      <c r="BM14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3626,6 +3670,9 @@
       <c r="BL15" t="n">
         <v>909</v>
       </c>
+      <c r="BM15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3832,6 +3879,9 @@
       <c r="BL16" t="n">
         <v>909</v>
       </c>
+      <c r="BM16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4034,6 +4084,9 @@
       <c r="BL17" t="n">
         <v>949</v>
       </c>
+      <c r="BM17" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4240,6 +4293,9 @@
       <c r="BL18" t="n">
         <v>969</v>
       </c>
+      <c r="BM18" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4446,6 +4502,9 @@
       <c r="BL19" t="n">
         <v>969</v>
       </c>
+      <c r="BM19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4652,6 +4711,9 @@
       <c r="BL20" t="n">
         <v>969</v>
       </c>
+      <c r="BM20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4858,6 +4920,9 @@
       <c r="BL21" t="n">
         <v>969</v>
       </c>
+      <c r="BM21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5064,6 +5129,9 @@
       <c r="BL22" t="n">
         <v>969</v>
       </c>
+      <c r="BM22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5270,6 +5338,9 @@
       <c r="BL23" t="n">
         <v>999</v>
       </c>
+      <c r="BM23" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5476,6 +5547,9 @@
       <c r="BL24" t="n">
         <v>999</v>
       </c>
+      <c r="BM24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5680,6 +5754,9 @@
       <c r="BL25" t="n">
         <v>1039</v>
       </c>
+      <c r="BM25" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5886,6 +5963,9 @@
       <c r="BL26" t="n">
         <v>1079</v>
       </c>
+      <c r="BM26" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6092,6 +6172,9 @@
       <c r="BL27" t="n">
         <v>1079</v>
       </c>
+      <c r="BM27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6298,6 +6381,9 @@
       <c r="BL28" t="n">
         <v>1079</v>
       </c>
+      <c r="BM28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6504,6 +6590,9 @@
       <c r="BL29" t="n">
         <v>1079</v>
       </c>
+      <c r="BM29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6710,6 +6799,9 @@
       <c r="BL30" t="n">
         <v>1099</v>
       </c>
+      <c r="BM30" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6916,6 +7008,9 @@
       <c r="BL31" t="n">
         <v>1099</v>
       </c>
+      <c r="BM31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7122,6 +7217,9 @@
       <c r="BL32" t="n">
         <v>1199</v>
       </c>
+      <c r="BM32" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7328,6 +7426,9 @@
       <c r="BL33" t="n">
         <v>1219</v>
       </c>
+      <c r="BM33" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7534,6 +7635,9 @@
       <c r="BL34" t="n">
         <v>1219</v>
       </c>
+      <c r="BM34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7740,6 +7844,9 @@
       <c r="BL35" t="n">
         <v>1219</v>
       </c>
+      <c r="BM35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7946,6 +8053,9 @@
       <c r="BL36" t="n">
         <v>1219</v>
       </c>
+      <c r="BM36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8152,6 +8262,9 @@
       <c r="BL37" t="n">
         <v>1219</v>
       </c>
+      <c r="BM37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8358,6 +8471,9 @@
       <c r="BL38" t="n">
         <v>1229</v>
       </c>
+      <c r="BM38" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8564,6 +8680,9 @@
       <c r="BL39" t="n">
         <v>1249</v>
       </c>
+      <c r="BM39" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8770,6 +8889,9 @@
       <c r="BL40" t="n">
         <v>1249</v>
       </c>
+      <c r="BM40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8976,6 +9098,9 @@
       <c r="BL41" t="n">
         <v>1329</v>
       </c>
+      <c r="BM41" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9182,6 +9307,9 @@
       <c r="BL42" t="n">
         <v>1329</v>
       </c>
+      <c r="BM42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9388,6 +9516,9 @@
       <c r="BL43" t="n">
         <v>1329</v>
       </c>
+      <c r="BM43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9594,6 +9725,9 @@
       <c r="BL44" t="n">
         <v>1329</v>
       </c>
+      <c r="BM44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9800,6 +9934,9 @@
       <c r="BL45" t="n">
         <v>1329</v>
       </c>
+      <c r="BM45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10006,6 +10143,9 @@
       <c r="BL46" t="n">
         <v>1329</v>
       </c>
+      <c r="BM46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10212,6 +10352,9 @@
       <c r="BL47" t="n">
         <v>1329</v>
       </c>
+      <c r="BM47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10418,6 +10561,9 @@
       <c r="BL48" t="n">
         <v>1349</v>
       </c>
+      <c r="BM48" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10624,6 +10770,9 @@
       <c r="BL49" t="n">
         <v>1479</v>
       </c>
+      <c r="BM49" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10830,6 +10979,9 @@
       <c r="BL50" t="n">
         <v>1479</v>
       </c>
+      <c r="BM50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11036,6 +11188,9 @@
       <c r="BL51" t="n">
         <v>1479</v>
       </c>
+      <c r="BM51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11242,6 +11397,9 @@
       <c r="BL52" t="n">
         <v>1579</v>
       </c>
+      <c r="BM52" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11448,6 +11606,9 @@
       <c r="BL53" t="n">
         <v>1579</v>
       </c>
+      <c r="BM53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11654,6 +11815,9 @@
       <c r="BL54" t="n">
         <v>1579</v>
       </c>
+      <c r="BM54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11860,6 +12024,9 @@
       <c r="BL55" t="n">
         <v>1579</v>
       </c>
+      <c r="BM55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12066,6 +12233,9 @@
       <c r="BL56" t="n">
         <v>1579</v>
       </c>
+      <c r="BM56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12272,6 +12442,9 @@
       <c r="BL57" t="n">
         <v>1579</v>
       </c>
+      <c r="BM57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12478,6 +12651,9 @@
       <c r="BL58" t="n">
         <v>1579</v>
       </c>
+      <c r="BM58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12684,6 +12860,9 @@
       <c r="BL59" t="n">
         <v>1729</v>
       </c>
+      <c r="BM59" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12890,6 +13069,9 @@
       <c r="BL60" t="n">
         <v>1729</v>
       </c>
+      <c r="BM60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13096,6 +13278,9 @@
       <c r="BL61" t="n">
         <v>1729</v>
       </c>
+      <c r="BM61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13302,6 +13487,9 @@
       <c r="BL62" t="n">
         <v>1829</v>
       </c>
+      <c r="BM62" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13508,6 +13696,9 @@
       <c r="BL63" t="n">
         <v>1829</v>
       </c>
+      <c r="BM63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13714,6 +13905,9 @@
       <c r="BL64" t="n">
         <v>1829</v>
       </c>
+      <c r="BM64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13920,6 +14114,9 @@
       <c r="BL65" t="n">
         <v>1979</v>
       </c>
+      <c r="BM65" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14126,6 +14323,9 @@
       <c r="BL66" t="n">
         <v>1979</v>
       </c>
+      <c r="BM66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14332,6 +14532,9 @@
       <c r="BL67" t="n">
         <v>1979</v>
       </c>
+      <c r="BM67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14538,6 +14741,9 @@
       <c r="BL68" t="n">
         <v>2479</v>
       </c>
+      <c r="BM68" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14744,6 +14950,9 @@
       <c r="BL69" t="n">
         <v>2479</v>
       </c>
+      <c r="BM69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14948,6 +15157,9 @@
         <v>2479</v>
       </c>
       <c r="BL70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BM70" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -15110,6 +15322,7 @@
       <c r="BJ71" t="inlineStr"/>
       <c r="BK71" t="inlineStr"/>
       <c r="BL71" t="inlineStr"/>
+      <c r="BM71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15256,6 +15469,7 @@
       <c r="BJ72" t="inlineStr"/>
       <c r="BK72" t="inlineStr"/>
       <c r="BL72" t="inlineStr"/>
+      <c r="BM72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15402,6 +15616,7 @@
       <c r="BJ73" t="inlineStr"/>
       <c r="BK73" t="inlineStr"/>
       <c r="BL73" t="inlineStr"/>
+      <c r="BM73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15604,6 +15819,7 @@
       </c>
       <c r="BK74" t="inlineStr"/>
       <c r="BL74" t="inlineStr"/>
+      <c r="BM74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM74"/>
+  <dimension ref="A1:BN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,6 +747,11 @@
           <t>2026-02-18 18:45:08</t>
         </is>
       </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>2026-02-18 19:44:35</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -956,6 +961,9 @@
       <c r="BM2" t="n">
         <v>659</v>
       </c>
+      <c r="BN2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1165,6 +1173,9 @@
       <c r="BM3" t="n">
         <v>659</v>
       </c>
+      <c r="BN3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1374,16 +1385,19 @@
       <c r="BM4" t="n">
         <v>749</v>
       </c>
+      <c r="BN4" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PB00642659</t>
+          <t>PB00668660</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Blanc</t>
+          <t>Apple iPhone 16e 256 Go Noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1393,14 +1407,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1409,190 +1423,187 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642659.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668660.html</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="J5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="L5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="M5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="N5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="O5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="P5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="Q5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="R5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="S5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="T5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="U5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="V5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="W5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="X5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="Y5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="Z5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AA5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AB5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AC5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AD5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AE5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AF5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AG5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AH5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AI5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AJ5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AK5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AL5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AM5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AN5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AO5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AP5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AQ5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AR5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AS5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AT5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AU5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AV5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AW5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AX5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AY5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AZ5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BA5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BB5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BC5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BD5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BE5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BF5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BG5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BH5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BI5" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="BJ5" t="n">
-        <v>809</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>809</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>809</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>809</v>
+        <v>749</v>
+      </c>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="n">
+        <v>749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PB00642660</t>
+          <t>PB00642659</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Noir</t>
+          <t>Apple iPhone 16 128 Go Blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1618,7 +1629,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642660.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642659.html</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -1790,18 +1801,21 @@
         <v>809</v>
       </c>
       <c r="BM6" t="n">
+        <v>809</v>
+      </c>
+      <c r="BN6" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PB00642657</t>
+          <t>PB00642660</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Outremer</t>
+          <t>Apple iPhone 16 128 Go Noir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1827,7 +1841,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642657.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642660.html</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1999,18 +2013,21 @@
         <v>809</v>
       </c>
       <c r="BM7" t="n">
+        <v>809</v>
+      </c>
+      <c r="BN7" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PB00642658</t>
+          <t>PB00642657</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Rose</t>
+          <t>Apple iPhone 16 128 Go Outremer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2020,7 +2037,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -2036,7 +2053,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642658.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642657.html</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -2208,18 +2225,21 @@
         <v>809</v>
       </c>
       <c r="BM8" t="n">
+        <v>809</v>
+      </c>
+      <c r="BN8" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PB00642656</t>
+          <t>PB00642658</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 128 Go Sarcelle</t>
+          <t>Apple iPhone 16 128 Go Rose</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2229,7 +2249,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -2245,7 +2265,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642656.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642658.html</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -2417,18 +2437,21 @@
         <v>809</v>
       </c>
       <c r="BM9" t="n">
+        <v>809</v>
+      </c>
+      <c r="BN9" t="n">
         <v>809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PB00570863</t>
+          <t>PB00642656</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 256 Go Jaune</t>
+          <t>Apple iPhone 16 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2445,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2454,190 +2477,193 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570863.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642656.html</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="J10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="K10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="L10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="M10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="N10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="O10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="P10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="Q10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="R10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="S10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="T10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="U10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="V10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="W10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="X10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="Y10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="Z10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AA10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AB10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AC10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AD10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AE10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AF10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AG10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AH10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AI10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AJ10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AK10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AL10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AM10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AN10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AO10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AP10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AQ10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AR10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AS10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AT10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AU10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AV10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AW10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AX10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AY10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="AZ10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BA10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BB10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BC10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BD10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BE10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BF10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BG10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BH10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BI10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BJ10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BK10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BL10" t="n">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BM10" t="n">
-        <v>849</v>
+        <v>809</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PB00516137</t>
+          <t>PB00570863</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 512 Go (PRODUCT)RED</t>
+          <t>Apple iPhone 15 256 Go Jaune</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2654,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2663,190 +2689,193 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516137.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570863.html</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="J11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="K11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="L11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="M11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="N11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="O11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="P11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="Q11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="R11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="S11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="T11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="U11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="V11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="W11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="X11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="Y11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="Z11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AA11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AB11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AC11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AD11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AE11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AF11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AG11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AH11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AI11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AJ11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AK11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AL11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AM11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AN11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AO11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AP11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AQ11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AR11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AS11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AT11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AU11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AV11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AW11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AX11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AY11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="AZ11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BA11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BB11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BC11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BD11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BE11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BF11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BG11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BH11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BI11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BJ11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BK11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BL11" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="BM11" t="n">
-        <v>899</v>
+        <v>849</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>849</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PB00516141</t>
+          <t>PB00516137</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 512 Go Lumière Stellaire</t>
+          <t>Apple iPhone 14 512 Go (PRODUCT)RED</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2872,7 +2901,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516141.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516137.html</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -3044,18 +3073,21 @@
         <v>899</v>
       </c>
       <c r="BM12" t="n">
+        <v>899</v>
+      </c>
+      <c r="BN12" t="n">
         <v>899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PB00642644</t>
+          <t>PB00516141</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Noir</t>
+          <t>Apple iPhone 14 512 Go Lumière Stellaire</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3065,14 +3097,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3081,190 +3113,193 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642644.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516141.html</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="J13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="K13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="L13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="M13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="N13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="O13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="P13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="Q13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="R13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="S13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="T13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="U13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="V13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="W13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="X13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="Y13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="Z13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AA13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AB13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AC13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AD13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AE13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AF13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AG13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AH13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AI13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AJ13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AK13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AL13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AM13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AN13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AO13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AP13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AQ13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AR13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AS13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AT13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AU13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AV13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AW13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AX13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AY13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AZ13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BA13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BB13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BC13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BD13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BE13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BF13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BG13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BH13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BI13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BJ13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BK13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BL13" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="BM13" t="n">
-        <v>909</v>
+        <v>899</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PB00642641</t>
+          <t>PB00642644</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Outremer</t>
+          <t>Apple iPhone 16 Plus 128 Go Noir</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3274,7 +3309,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -3290,7 +3325,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642641.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642644.html</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -3462,18 +3497,21 @@
         <v>909</v>
       </c>
       <c r="BM14" t="n">
+        <v>909</v>
+      </c>
+      <c r="BN14" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PB00642642</t>
+          <t>PB00642641</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Rose</t>
+          <t>Apple iPhone 16 Plus 128 Go Outremer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3483,7 +3521,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (20/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3499,7 +3537,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642641.html</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -3671,18 +3709,21 @@
         <v>909</v>
       </c>
       <c r="BM15" t="n">
+        <v>909</v>
+      </c>
+      <c r="BN15" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PB00642640</t>
+          <t>PB00642642</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
+          <t>Apple iPhone 16 Plus 128 Go Rose</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3692,7 +3733,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3708,7 +3749,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -3880,18 +3921,21 @@
         <v>909</v>
       </c>
       <c r="BM16" t="n">
+        <v>909</v>
+      </c>
+      <c r="BN16" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PB00516161</t>
+          <t>PB00642640</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
+          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3904,199 +3948,206 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>40</v>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="J17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="K17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="L17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="M17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="N17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="O17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="P17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="Q17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="R17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="S17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="T17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="U17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="V17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="W17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="X17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="Y17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="Z17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AA17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AB17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AC17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AD17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AE17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AF17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AG17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AH17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AI17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AJ17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AK17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AL17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AM17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AN17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AO17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AP17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AQ17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AR17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AS17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AT17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AU17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AV17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AW17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AX17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AY17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AZ17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BA17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BB17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BC17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BD17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BE17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BF17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BG17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BH17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BI17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BJ17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BK17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BL17" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="BM17" t="n">
-        <v>949</v>
+        <v>909</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>909</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PB00702806</t>
+          <t>PB00516161</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Blanc</t>
+          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4109,203 +4160,202 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>24</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="J18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="K18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="L18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="M18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="N18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="O18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="P18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="Q18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="R18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="S18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="T18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="U18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="V18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="W18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="X18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="Y18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="Z18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AA18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AB18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AC18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AD18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AE18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AF18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AG18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AH18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AI18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AJ18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AK18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AL18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AM18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AN18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AO18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AP18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AQ18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AR18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AS18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AT18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AU18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AV18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AW18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AX18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AY18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="AZ18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BA18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BB18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BC18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BD18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BE18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BF18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BG18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BH18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BI18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BJ18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BK18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BL18" t="n">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="BM18" t="n">
-        <v>969</v>
+        <v>949</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>949</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PB00702808</t>
+          <t>PB00702806</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Brume</t>
+          <t>Apple iPhone 17 256 Go Blanc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4331,7 +4381,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -4503,18 +4553,21 @@
         <v>969</v>
       </c>
       <c r="BM19" t="n">
+        <v>969</v>
+      </c>
+      <c r="BN19" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PB00702809</t>
+          <t>PB00702808</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Lavande</t>
+          <t>Apple iPhone 17 256 Go Brume</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4540,7 +4593,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -4712,18 +4765,21 @@
         <v>969</v>
       </c>
       <c r="BM20" t="n">
+        <v>969</v>
+      </c>
+      <c r="BN20" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PB00702804</t>
+          <t>PB00702809</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Noir</t>
+          <t>Apple iPhone 17 256 Go Lavande</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4749,7 +4805,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -4921,18 +4977,21 @@
         <v>969</v>
       </c>
       <c r="BM21" t="n">
+        <v>969</v>
+      </c>
+      <c r="BN21" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PB00702811</t>
+          <t>PB00702804</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Sauge</t>
+          <t>Apple iPhone 17 256 Go Noir</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4958,7 +5017,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -5130,18 +5189,21 @@
         <v>969</v>
       </c>
       <c r="BM22" t="n">
+        <v>969</v>
+      </c>
+      <c r="BN22" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PB00668663</t>
+          <t>PB00702811</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Blanc</t>
+          <t>Apple iPhone 17 256 Go Sauge</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5151,14 +5213,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -5167,190 +5229,193 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="J23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="K23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="L23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="M23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="N23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="O23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="P23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="Q23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="R23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="S23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="T23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="U23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="V23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="W23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="X23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="Y23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="Z23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AA23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AB23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AC23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AD23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AE23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AF23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AG23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AH23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AI23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AJ23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AK23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AL23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AM23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AN23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AO23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AP23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AQ23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AR23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AS23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AT23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AU23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AV23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AW23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AX23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AY23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="AZ23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BA23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BB23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BC23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BD23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BE23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BF23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BG23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BH23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BI23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BJ23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BK23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BL23" t="n">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="BM23" t="n">
-        <v>999</v>
+        <v>969</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PB00668662</t>
+          <t>PB00668663</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Noir</t>
+          <t>Apple iPhone 16e 512 Go Blanc</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5360,7 +5425,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5376,7 +5441,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -5548,18 +5613,21 @@
         <v>999</v>
       </c>
       <c r="BM24" t="n">
+        <v>999</v>
+      </c>
+      <c r="BN24" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00642638</t>
+          <t>PB00668662</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
+          <t>Apple iPhone 16e 512 Go Noir</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5569,14 +5637,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -5585,188 +5653,193 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="J25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="K25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="L25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="M25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="N25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="O25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="P25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="Q25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="R25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="S25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="T25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="U25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="V25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="W25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="X25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="Y25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="Z25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AA25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AB25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AD25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AE25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AF25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AG25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AH25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AI25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AK25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AL25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AM25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AN25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AO25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AP25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AR25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AS25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AT25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AU25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AV25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AW25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AX25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AY25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BA25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BB25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BC25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BD25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BE25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BF25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BG25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BH25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BI25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BJ25" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BK25" t="inlineStr"/>
+        <v>999</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>999</v>
+      </c>
       <c r="BL25" t="n">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="BM25" t="n">
-        <v>1039</v>
+        <v>999</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00702797</t>
+          <t>PB00642638</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Blanc nuage</t>
+          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5776,14 +5849,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -5792,190 +5865,191 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="J26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="K26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="L26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="M26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="N26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="O26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="P26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Q26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="R26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="S26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="T26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="U26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="V26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="W26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="X26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Y26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="Z26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AA26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AB26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AC26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AD26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AE26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AF26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AG26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AH26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AI26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AK26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AL26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AM26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AN26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AO26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AP26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AR26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AS26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AT26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AU26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AV26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AW26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AX26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AY26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BA26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BB26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BC26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BD26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BE26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BF26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BG26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BH26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BI26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BJ26" t="n">
-        <v>1079</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>1079</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="n">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="BM26" t="n">
-        <v>1079</v>
+        <v>1039</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1039</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00702807</t>
+          <t>PB00702797</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Bleu ciel</t>
+          <t>Apple iPhone Air 256 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6001,7 +6075,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -6173,18 +6247,21 @@
         <v>1079</v>
       </c>
       <c r="BM27" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BN27" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00702792</t>
+          <t>PB00702807</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Noir sidéral</t>
+          <t>Apple iPhone Air 256 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6194,7 +6271,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -6210,7 +6287,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -6382,18 +6459,21 @@
         <v>1079</v>
       </c>
       <c r="BM28" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BN28" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PB00702801</t>
+          <t>PB00702792</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Or clair</t>
+          <t>Apple iPhone Air 256 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6403,7 +6483,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6419,7 +6499,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -6591,18 +6671,21 @@
         <v>1079</v>
       </c>
       <c r="BM29" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BN29" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00570868</t>
+          <t>PB00702801</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Jaune</t>
+          <t>Apple iPhone Air 256 Go Or clair</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6619,7 +6702,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -6628,190 +6711,193 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="J30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="K30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="L30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="M30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="N30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="O30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="P30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Q30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="R30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="S30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="T30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="U30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="V30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="W30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="X30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="Z30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AA30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AB30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AC30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AD30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AE30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AF30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AG30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AH30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AI30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AK30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AL30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AM30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AN30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AO30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AP30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AR30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AS30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AT30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AU30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AV30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AW30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AX30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AY30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="AZ30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BA30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BB30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BC30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BD30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BE30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BF30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BG30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BH30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BI30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BJ30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BK30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BL30" t="n">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="BM30" t="n">
-        <v>1099</v>
+        <v>1079</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1079</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00570870</t>
+          <t>PB00570868</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Vert</t>
+          <t>Apple iPhone 15 512 Go Jaune</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6837,7 +6923,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -7009,18 +7095,21 @@
         <v>1099</v>
       </c>
       <c r="BM31" t="n">
+        <v>1099</v>
+      </c>
+      <c r="BN31" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00516186</t>
+          <t>PB00570870</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro 1 To Or</t>
+          <t>Apple iPhone 15 512 Go Vert</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7037,7 +7126,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -7046,190 +7135,193 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="J32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="K32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="L32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="M32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="N32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="O32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="P32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Q32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="R32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="S32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="T32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="U32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="V32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="W32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="X32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Y32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="Z32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AA32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AB32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AC32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AD32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AE32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AF32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AG32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AH32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AI32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AK32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AL32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AM32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AN32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AO32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AP32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AR32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AS32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AT32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AU32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AV32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AW32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AX32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AY32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BA32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BB32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BC32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BD32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BE32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BF32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BG32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BH32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BI32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BJ32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BK32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BL32" t="n">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="BM32" t="n">
-        <v>1199</v>
+        <v>1099</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00702815</t>
+          <t>PB00516186</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Blanc</t>
+          <t>Apple iPhone 14 Pro 1 To Or</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7239,14 +7331,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -7255,190 +7347,193 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="J33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="K33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="L33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="M33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="N33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="O33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="P33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Q33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="R33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="S33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="T33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="U33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="V33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="W33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="X33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Y33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="Z33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AA33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AB33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AC33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AD33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AE33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AF33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AG33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AH33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AI33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AK33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AL33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AM33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AN33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AO33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AP33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AR33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AS33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AT33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AU33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AV33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AW33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AX33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AY33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BA33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BB33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BC33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BD33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BE33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BF33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BG33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BH33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BI33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BJ33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BK33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BL33" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="BM33" t="n">
-        <v>1219</v>
+        <v>1199</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00702816</t>
+          <t>PB00702815</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Brume</t>
+          <t>Apple iPhone 17 512 Go Blanc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7448,7 +7543,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -7464,7 +7559,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -7636,18 +7731,21 @@
         <v>1219</v>
       </c>
       <c r="BM34" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BN34" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00702817</t>
+          <t>PB00702816</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Lavande</t>
+          <t>Apple iPhone 17 512 Go Brume</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7673,7 +7771,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -7845,18 +7943,21 @@
         <v>1219</v>
       </c>
       <c r="BM35" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BN35" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00702813</t>
+          <t>PB00702817</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Noir</t>
+          <t>Apple iPhone 17 512 Go Lavande</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7866,7 +7967,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -7882,7 +7983,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -8054,18 +8155,21 @@
         <v>1219</v>
       </c>
       <c r="BM36" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BN36" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00702818</t>
+          <t>PB00702813</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Sauge</t>
+          <t>Apple iPhone 17 512 Go Noir</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8075,7 +8179,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -8091,7 +8195,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -8263,18 +8367,21 @@
         <v>1219</v>
       </c>
       <c r="BM37" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BN37" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00570890</t>
+          <t>PB00702818</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
+          <t>Apple iPhone 17 512 Go Sauge</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8291,7 +8398,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -8300,190 +8407,193 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="J38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="K38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="L38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="M38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="N38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="O38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="P38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Q38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="R38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="S38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="T38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="U38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="V38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="W38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="X38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Y38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="Z38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AA38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AB38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AC38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AD38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AE38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AF38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AG38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AH38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AI38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AK38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AL38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AM38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AN38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AO38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AP38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AR38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AS38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AT38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AU38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AV38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AW38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AX38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AY38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AZ38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BA38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BB38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BC38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BD38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BE38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BF38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BG38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BH38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BI38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BJ38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BK38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BL38" t="n">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BM38" t="n">
-        <v>1229</v>
+        <v>1219</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00642649</t>
+          <t>PB00570890</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Blanc</t>
+          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8493,14 +8603,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -8509,190 +8619,193 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="J39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="K39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="L39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="M39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="N39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="O39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="P39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Q39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="R39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="S39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="T39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="U39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="V39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="W39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="X39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Y39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="Z39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AA39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AB39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AC39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AD39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AE39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AF39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AG39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AH39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AI39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AK39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AL39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AM39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AN39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AO39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AP39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AR39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AS39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AT39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AU39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AV39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AW39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AX39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AY39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="AZ39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BA39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BB39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BC39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BD39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BE39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BF39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BG39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BH39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BI39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BJ39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BK39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BL39" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BM39" t="n">
-        <v>1249</v>
+        <v>1229</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00642648</t>
+          <t>PB00642649</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Rose</t>
+          <t>Apple iPhone 16 512 Go Blanc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8702,7 +8815,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -8718,7 +8831,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -8890,18 +9003,21 @@
         <v>1249</v>
       </c>
       <c r="BM40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="BN40" t="n">
         <v>1249</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00702819</t>
+          <t>PB00642648</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
+          <t>Apple iPhone 16 512 Go Rose</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8918,7 +9034,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -8927,190 +9043,193 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="J41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="K41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="L41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="M41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="N41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="O41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="P41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Q41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="R41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="S41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="T41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="U41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="V41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="W41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="X41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Y41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="Z41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AA41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AB41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AC41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AD41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AE41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AF41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AG41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AH41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AI41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AK41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AL41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AM41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AN41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AO41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AP41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AR41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AS41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AT41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AU41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AV41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AW41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AX41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AY41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="AZ41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BA41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BB41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BC41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BD41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BE41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BF41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BG41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BH41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BI41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BJ41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BK41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BL41" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="BM41" t="n">
-        <v>1329</v>
+        <v>1249</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00702822</t>
+          <t>PB00702819</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -9136,7 +9255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -9308,18 +9427,21 @@
         <v>1329</v>
       </c>
       <c r="BM42" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BN42" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00702820</t>
+          <t>PB00702822</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9345,7 +9467,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -9517,18 +9639,21 @@
         <v>1329</v>
       </c>
       <c r="BM43" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BN43" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00702798</t>
+          <t>PB00702820</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Blanc nuage</t>
+          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9545,7 +9670,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -9554,7 +9679,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -9726,18 +9851,21 @@
         <v>1329</v>
       </c>
       <c r="BM44" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BN44" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00702810</t>
+          <t>PB00702798</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Bleu ciel</t>
+          <t>Apple iPhone Air 512 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9763,7 +9891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -9935,18 +10063,21 @@
         <v>1329</v>
       </c>
       <c r="BM45" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BN45" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00702793</t>
+          <t>PB00702810</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Noir sidéral</t>
+          <t>Apple iPhone Air 512 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9972,7 +10103,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -10144,18 +10275,21 @@
         <v>1329</v>
       </c>
       <c r="BM46" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BN46" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00702802</t>
+          <t>PB00702793</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Or clair</t>
+          <t>Apple iPhone Air 512 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10181,7 +10315,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -10353,18 +10487,21 @@
         <v>1329</v>
       </c>
       <c r="BM47" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BN47" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00642633</t>
+          <t>PB00702802</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
+          <t>Apple iPhone Air 512 Go Or clair</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10381,7 +10518,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -10390,190 +10527,193 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="J48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="K48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="L48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="M48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="N48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="O48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="P48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Q48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="R48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="S48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="T48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="U48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="V48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="W48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="X48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Y48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="Z48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AA48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AB48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AC48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AD48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AE48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AF48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AG48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AH48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AI48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AK48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AL48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AM48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AN48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AO48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AP48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AR48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AS48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AT48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AU48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AV48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AW48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AX48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AY48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BA48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BB48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BC48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BD48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BE48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BF48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BG48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BH48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BI48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BJ48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BK48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BL48" t="n">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="BM48" t="n">
-        <v>1349</v>
+        <v>1329</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00702830</t>
+          <t>PB00642633</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
+          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10590,7 +10730,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -10599,190 +10739,193 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="J49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="K49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="L49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="M49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="N49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="O49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="P49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Q49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="R49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="S49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="T49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="U49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="V49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="W49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="X49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Y49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="Z49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AA49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AB49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AC49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AD49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AE49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AF49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AG49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AH49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AI49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AK49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AL49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AM49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AN49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AO49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AP49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AR49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AS49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AT49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AU49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AV49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AW49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AX49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AY49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="AZ49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BA49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BB49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BC49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BD49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BE49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BF49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BG49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BH49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BI49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BJ49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BK49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BL49" t="n">
-        <v>1479</v>
+        <v>1349</v>
       </c>
       <c r="BM49" t="n">
-        <v>1479</v>
+        <v>1349</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00702832</t>
+          <t>PB00702830</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10808,7 +10951,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -10980,18 +11123,21 @@
         <v>1479</v>
       </c>
       <c r="BM50" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BN50" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00702831</t>
+          <t>PB00702832</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -11001,7 +11147,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -11017,7 +11163,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -11189,18 +11335,21 @@
         <v>1479</v>
       </c>
       <c r="BM51" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BN51" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00702823</t>
+          <t>PB00702831</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -11210,7 +11359,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -11226,190 +11375,193 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="J52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="K52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="L52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="M52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="N52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="O52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="P52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Q52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="R52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="S52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="T52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="U52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="V52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="W52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="X52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Y52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="Z52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AA52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AB52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AC52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AD52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AE52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AF52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AG52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AH52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AI52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AK52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AL52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AM52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AN52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AO52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AP52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AR52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AS52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AT52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AU52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AV52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AW52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AX52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AY52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BA52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BB52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BC52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BD52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BE52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BF52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BG52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BH52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BI52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BJ52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BK52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BL52" t="n">
-        <v>1579</v>
+        <v>1479</v>
       </c>
       <c r="BM52" t="n">
-        <v>1579</v>
+        <v>1479</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1479</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00702825</t>
+          <t>PB00702823</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -11419,7 +11571,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -11435,7 +11587,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -11607,18 +11759,21 @@
         <v>1579</v>
       </c>
       <c r="BM53" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BN53" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00702824</t>
+          <t>PB00702825</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11628,7 +11783,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -11644,7 +11799,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -11816,18 +11971,21 @@
         <v>1579</v>
       </c>
       <c r="BM54" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BN54" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00702799</t>
+          <t>PB00702824</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Blanc nuage</t>
+          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11844,7 +12002,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -11853,7 +12011,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -12025,18 +12183,21 @@
         <v>1579</v>
       </c>
       <c r="BM55" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BN55" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00702812</t>
+          <t>PB00702799</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Bleu ciel</t>
+          <t>Apple iPhone Air 1 To Blanc nuage</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -12062,7 +12223,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -12234,18 +12395,21 @@
         <v>1579</v>
       </c>
       <c r="BM56" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BN56" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00702794</t>
+          <t>PB00702812</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Noir sidéral</t>
+          <t>Apple iPhone Air 1 To Bleu ciel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -12255,7 +12419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -12271,7 +12435,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -12443,18 +12607,21 @@
         <v>1579</v>
       </c>
       <c r="BM57" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BN57" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00702805</t>
+          <t>PB00702794</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Or clair</t>
+          <t>Apple iPhone Air 1 To Noir sidéral</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -12464,7 +12631,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -12480,7 +12647,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -12652,18 +12819,21 @@
         <v>1579</v>
       </c>
       <c r="BM58" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BN58" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00702833</t>
+          <t>PB00702805</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
+          <t>Apple iPhone Air 1 To Or clair</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12673,14 +12843,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -12689,190 +12859,193 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="J59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="K59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="L59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="M59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="N59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="O59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="P59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Q59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="R59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="S59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="T59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="U59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="V59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="W59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="X59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Y59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="Z59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AA59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AB59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AC59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AD59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AE59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AF59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AG59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AH59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AI59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AK59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AL59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AM59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AN59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AO59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AP59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AR59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AS59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AT59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AU59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AV59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AW59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AX59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AY59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="AZ59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BA59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BB59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BC59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BD59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BE59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BF59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BG59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BH59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BI59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BJ59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BK59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BL59" t="n">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="BM59" t="n">
-        <v>1729</v>
+        <v>1579</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00702835</t>
+          <t>PB00702833</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12882,7 +13055,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -12898,7 +13071,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -13070,18 +13243,21 @@
         <v>1729</v>
       </c>
       <c r="BM60" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BN60" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00702834</t>
+          <t>PB00702835</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -13091,7 +13267,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -13107,7 +13283,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -13279,18 +13455,21 @@
         <v>1729</v>
       </c>
       <c r="BM61" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BN61" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00702826</t>
+          <t>PB00702834</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Argent</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -13300,7 +13479,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -13316,190 +13495,193 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="J62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="K62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="L62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="M62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="N62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="O62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="P62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Q62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="R62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="S62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="T62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="U62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="V62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="W62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="X62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Y62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="Z62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AA62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AB62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AC62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AD62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AE62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AF62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AG62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AH62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AI62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AK62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AL62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AM62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AN62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AO62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AP62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AR62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AS62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AT62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AU62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AV62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AW62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AX62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AY62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="AZ62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BA62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BB62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BC62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BD62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BE62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BF62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BG62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BH62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BI62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BJ62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BK62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BL62" t="n">
-        <v>1829</v>
+        <v>1729</v>
       </c>
       <c r="BM62" t="n">
-        <v>1829</v>
+        <v>1729</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1729</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00702828</t>
+          <t>PB00702826</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro 1 To Argent</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -13525,7 +13707,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -13697,18 +13879,21 @@
         <v>1829</v>
       </c>
       <c r="BM63" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BN63" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00702827</t>
+          <t>PB00702828</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13734,7 +13919,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -13906,18 +14091,21 @@
         <v>1829</v>
       </c>
       <c r="BM64" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BN64" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00702836</t>
+          <t>PB00702827</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
+          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13943,190 +14131,193 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="J65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="K65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="L65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="M65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="N65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="O65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="P65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Q65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="R65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="S65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="T65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="U65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="V65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="W65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="X65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Y65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="Z65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AA65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AB65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AC65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AD65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AE65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AF65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AG65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AH65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AI65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AK65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AL65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AM65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AN65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AO65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AP65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AR65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AS65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AT65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AU65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AV65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AW65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AX65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AY65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="AZ65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BA65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BB65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BC65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BD65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BE65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BF65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BG65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BH65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BI65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BJ65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BK65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BL65" t="n">
-        <v>1979</v>
+        <v>1829</v>
       </c>
       <c r="BM65" t="n">
-        <v>1979</v>
+        <v>1829</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00702838</t>
+          <t>PB00702836</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -14152,7 +14343,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -14324,18 +14515,21 @@
         <v>1979</v>
       </c>
       <c r="BM66" t="n">
+        <v>1979</v>
+      </c>
+      <c r="BN66" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00702837</t>
+          <t>PB00702838</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -14361,7 +14555,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -14533,18 +14727,21 @@
         <v>1979</v>
       </c>
       <c r="BM67" t="n">
+        <v>1979</v>
+      </c>
+      <c r="BN67" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00702839</t>
+          <t>PB00702837</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
+          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -14570,190 +14767,193 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="J68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="K68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="L68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="M68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="N68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="O68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="P68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Q68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="R68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="S68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="T68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="U68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="V68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="W68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="X68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Y68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="Z68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AA68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AB68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AC68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AD68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AE68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AF68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AG68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AH68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AI68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AK68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AL68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AM68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AN68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AO68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AP68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AR68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AS68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AT68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AU68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AV68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AW68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AX68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AY68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="AZ68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BA68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BB68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BC68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BD68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BE68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BF68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BG68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BH68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BI68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BJ68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BK68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BL68" t="n">
-        <v>2479</v>
+        <v>1979</v>
       </c>
       <c r="BM68" t="n">
-        <v>2479</v>
+        <v>1979</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1979</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00702841</t>
+          <t>PB00702839</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14779,7 +14979,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -14951,18 +15151,21 @@
         <v>2479</v>
       </c>
       <c r="BM69" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BN69" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00702840</t>
+          <t>PB00702841</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
+          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14988,7 +15191,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -15160,18 +15363,21 @@
         <v>2479</v>
       </c>
       <c r="BM70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BN70" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00570867</t>
+          <t>PB00702840</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Rose</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -15181,14 +15387,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -15197,142 +15403,193 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="J71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="K71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="L71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="M71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="N71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="O71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="P71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Q71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="R71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="S71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="T71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="U71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="V71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="W71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="X71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Y71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="Z71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AA71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AB71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AC71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AD71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AE71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AF71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AG71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AH71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AI71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AK71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AL71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AM71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AN71" t="n">
-        <v>1099</v>
+        <v>2479</v>
       </c>
       <c r="AO71" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
-      <c r="AU71" t="inlineStr"/>
-      <c r="AV71" t="inlineStr"/>
-      <c r="AW71" t="inlineStr"/>
-      <c r="AX71" t="inlineStr"/>
-      <c r="AY71" t="inlineStr"/>
-      <c r="AZ71" t="inlineStr"/>
-      <c r="BA71" t="inlineStr"/>
-      <c r="BB71" t="inlineStr"/>
-      <c r="BC71" t="inlineStr"/>
-      <c r="BD71" t="inlineStr"/>
-      <c r="BE71" t="inlineStr"/>
-      <c r="BF71" t="inlineStr"/>
-      <c r="BG71" t="inlineStr"/>
-      <c r="BH71" t="inlineStr"/>
-      <c r="BI71" t="inlineStr"/>
-      <c r="BJ71" t="inlineStr"/>
-      <c r="BK71" t="inlineStr"/>
-      <c r="BL71" t="inlineStr"/>
-      <c r="BM71" t="inlineStr"/>
+        <v>2479</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00642639</t>
+          <t>PB00570867</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Noir</t>
+          <t>Apple iPhone 15 512 Go Rose</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -15342,14 +15599,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -15358,94 +15615,108 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="J72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="K72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="L72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="M72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="N72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="O72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="P72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Q72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="R72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="S72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="T72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="U72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="V72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="W72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="X72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Y72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="Z72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AA72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AB72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AC72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AD72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AE72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AF72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AG72" t="n">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="AH72" t="n">
-        <v>1039</v>
-      </c>
-      <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
-      <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
-      <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="inlineStr"/>
+        <v>1099</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1099</v>
+      </c>
       <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr"/>
       <c r="AR72" t="inlineStr"/>
@@ -15470,16 +15741,17 @@
       <c r="BK72" t="inlineStr"/>
       <c r="BL72" t="inlineStr"/>
       <c r="BM72" t="inlineStr"/>
+      <c r="BN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00668659</t>
+          <t>PB00642639</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 128 Go Blanc</t>
+          <t>Apple iPhone 16 Plus 256 Go Noir</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -15493,10 +15765,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -15505,67 +15777,87 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668659.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642639.html</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="J73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="K73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="L73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="M73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="N73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="O73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="P73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="Q73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="R73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="S73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="T73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="U73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="V73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="W73" t="n">
-        <v>619</v>
+        <v>1039</v>
       </c>
       <c r="X73" t="n">
-        <v>619</v>
-      </c>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
+        <v>1039</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1039</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1039</v>
+      </c>
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
@@ -15575,36 +15867,16 @@
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="n">
-        <v>619</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>619</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>619</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>619</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>619</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>619</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>619</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>619</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>619</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>619</v>
-      </c>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
       <c r="BB73" t="inlineStr"/>
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
@@ -15617,16 +15889,17 @@
       <c r="BK73" t="inlineStr"/>
       <c r="BL73" t="inlineStr"/>
       <c r="BM73" t="inlineStr"/>
+      <c r="BN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00668660</t>
+          <t>PB00668659</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 256 Go Noir</t>
+          <t>Apple iPhone 16e 128 Go Blanc</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15636,7 +15909,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -15652,174 +15925,119 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668660.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668659.html</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="J74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="K74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="L74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="M74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="N74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="O74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="P74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="Q74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="R74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="S74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="T74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="U74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="V74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="W74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="X74" t="n">
-        <v>749</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>749</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>749</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>749</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
+      <c r="AO74" t="inlineStr"/>
+      <c r="AP74" t="inlineStr"/>
+      <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="AS74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="AT74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="AU74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="AV74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="AW74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="AX74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="AY74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="AZ74" t="n">
-        <v>749</v>
+        <v>619</v>
       </c>
       <c r="BA74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>749</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>749</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="BB74" t="inlineStr"/>
+      <c r="BC74" t="inlineStr"/>
+      <c r="BD74" t="inlineStr"/>
+      <c r="BE74" t="inlineStr"/>
+      <c r="BF74" t="inlineStr"/>
+      <c r="BG74" t="inlineStr"/>
+      <c r="BH74" t="inlineStr"/>
+      <c r="BI74" t="inlineStr"/>
+      <c r="BJ74" t="inlineStr"/>
       <c r="BK74" t="inlineStr"/>
       <c r="BL74" t="inlineStr"/>
       <c r="BM74" t="inlineStr"/>
+      <c r="BN74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN74"/>
+  <dimension ref="A1:BO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,6 +752,11 @@
           <t>2026-02-18 19:44:35</t>
         </is>
       </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>2026-02-18 20:33:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -964,6 +969,9 @@
       <c r="BN2" t="n">
         <v>659</v>
       </c>
+      <c r="BO2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1176,6 +1184,9 @@
       <c r="BN3" t="n">
         <v>659</v>
       </c>
+      <c r="BO3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1386,6 +1397,9 @@
         <v>749</v>
       </c>
       <c r="BN4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BO4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1594,6 +1608,9 @@
       <c r="BN5" t="n">
         <v>749</v>
       </c>
+      <c r="BO5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1806,6 +1823,9 @@
       <c r="BN6" t="n">
         <v>809</v>
       </c>
+      <c r="BO6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2018,6 +2038,9 @@
       <c r="BN7" t="n">
         <v>809</v>
       </c>
+      <c r="BO7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2230,6 +2253,9 @@
       <c r="BN8" t="n">
         <v>809</v>
       </c>
+      <c r="BO8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2442,6 +2468,9 @@
       <c r="BN9" t="n">
         <v>809</v>
       </c>
+      <c r="BO9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2654,6 +2683,9 @@
       <c r="BN10" t="n">
         <v>809</v>
       </c>
+      <c r="BO10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2866,6 +2898,9 @@
       <c r="BN11" t="n">
         <v>849</v>
       </c>
+      <c r="BO11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3078,6 +3113,9 @@
       <c r="BN12" t="n">
         <v>899</v>
       </c>
+      <c r="BO12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3290,6 +3328,9 @@
       <c r="BN13" t="n">
         <v>899</v>
       </c>
+      <c r="BO13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3502,6 +3543,9 @@
       <c r="BN14" t="n">
         <v>909</v>
       </c>
+      <c r="BO14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3714,6 +3758,9 @@
       <c r="BN15" t="n">
         <v>909</v>
       </c>
+      <c r="BO15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3926,6 +3973,9 @@
       <c r="BN16" t="n">
         <v>909</v>
       </c>
+      <c r="BO16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4138,6 +4188,9 @@
       <c r="BN17" t="n">
         <v>909</v>
       </c>
+      <c r="BO17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4346,6 +4399,9 @@
       <c r="BN18" t="n">
         <v>949</v>
       </c>
+      <c r="BO18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4558,6 +4614,9 @@
       <c r="BN19" t="n">
         <v>969</v>
       </c>
+      <c r="BO19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4770,6 +4829,9 @@
       <c r="BN20" t="n">
         <v>969</v>
       </c>
+      <c r="BO20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4982,6 +5044,9 @@
       <c r="BN21" t="n">
         <v>969</v>
       </c>
+      <c r="BO21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5194,6 +5259,9 @@
       <c r="BN22" t="n">
         <v>969</v>
       </c>
+      <c r="BO22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5406,6 +5474,9 @@
       <c r="BN23" t="n">
         <v>969</v>
       </c>
+      <c r="BO23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5618,6 +5689,9 @@
       <c r="BN24" t="n">
         <v>999</v>
       </c>
+      <c r="BO24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5830,6 +5904,9 @@
       <c r="BN25" t="n">
         <v>999</v>
       </c>
+      <c r="BO25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6040,6 +6117,9 @@
       <c r="BN26" t="n">
         <v>1039</v>
       </c>
+      <c r="BO26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6252,6 +6332,9 @@
       <c r="BN27" t="n">
         <v>1079</v>
       </c>
+      <c r="BO27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6464,6 +6547,9 @@
       <c r="BN28" t="n">
         <v>1079</v>
       </c>
+      <c r="BO28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6676,6 +6762,9 @@
       <c r="BN29" t="n">
         <v>1079</v>
       </c>
+      <c r="BO29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6888,6 +6977,9 @@
       <c r="BN30" t="n">
         <v>1079</v>
       </c>
+      <c r="BO30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7100,6 +7192,9 @@
       <c r="BN31" t="n">
         <v>1099</v>
       </c>
+      <c r="BO31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7312,6 +7407,9 @@
       <c r="BN32" t="n">
         <v>1099</v>
       </c>
+      <c r="BO32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7524,6 +7622,9 @@
       <c r="BN33" t="n">
         <v>1199</v>
       </c>
+      <c r="BO33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7736,6 +7837,9 @@
       <c r="BN34" t="n">
         <v>1219</v>
       </c>
+      <c r="BO34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7948,6 +8052,9 @@
       <c r="BN35" t="n">
         <v>1219</v>
       </c>
+      <c r="BO35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8160,6 +8267,9 @@
       <c r="BN36" t="n">
         <v>1219</v>
       </c>
+      <c r="BO36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8372,6 +8482,9 @@
       <c r="BN37" t="n">
         <v>1219</v>
       </c>
+      <c r="BO37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8584,6 +8697,9 @@
       <c r="BN38" t="n">
         <v>1219</v>
       </c>
+      <c r="BO38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8796,6 +8912,9 @@
       <c r="BN39" t="n">
         <v>1229</v>
       </c>
+      <c r="BO39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9008,6 +9127,9 @@
       <c r="BN40" t="n">
         <v>1249</v>
       </c>
+      <c r="BO40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9220,6 +9342,9 @@
       <c r="BN41" t="n">
         <v>1249</v>
       </c>
+      <c r="BO41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9432,6 +9557,9 @@
       <c r="BN42" t="n">
         <v>1329</v>
       </c>
+      <c r="BO42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9644,6 +9772,9 @@
       <c r="BN43" t="n">
         <v>1329</v>
       </c>
+      <c r="BO43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9856,6 +9987,9 @@
       <c r="BN44" t="n">
         <v>1329</v>
       </c>
+      <c r="BO44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10068,6 +10202,9 @@
       <c r="BN45" t="n">
         <v>1329</v>
       </c>
+      <c r="BO45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10280,6 +10417,9 @@
       <c r="BN46" t="n">
         <v>1329</v>
       </c>
+      <c r="BO46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10492,6 +10632,9 @@
       <c r="BN47" t="n">
         <v>1329</v>
       </c>
+      <c r="BO47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10704,6 +10847,9 @@
       <c r="BN48" t="n">
         <v>1329</v>
       </c>
+      <c r="BO48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10916,6 +11062,9 @@
       <c r="BN49" t="n">
         <v>1349</v>
       </c>
+      <c r="BO49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11128,6 +11277,9 @@
       <c r="BN50" t="n">
         <v>1479</v>
       </c>
+      <c r="BO50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11340,6 +11492,9 @@
       <c r="BN51" t="n">
         <v>1479</v>
       </c>
+      <c r="BO51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11552,6 +11707,9 @@
       <c r="BN52" t="n">
         <v>1479</v>
       </c>
+      <c r="BO52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11764,6 +11922,9 @@
       <c r="BN53" t="n">
         <v>1579</v>
       </c>
+      <c r="BO53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11976,6 +12137,9 @@
       <c r="BN54" t="n">
         <v>1579</v>
       </c>
+      <c r="BO54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12188,6 +12352,9 @@
       <c r="BN55" t="n">
         <v>1579</v>
       </c>
+      <c r="BO55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12400,6 +12567,9 @@
       <c r="BN56" t="n">
         <v>1579</v>
       </c>
+      <c r="BO56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12612,6 +12782,9 @@
       <c r="BN57" t="n">
         <v>1579</v>
       </c>
+      <c r="BO57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12824,6 +12997,9 @@
       <c r="BN58" t="n">
         <v>1579</v>
       </c>
+      <c r="BO58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13036,6 +13212,9 @@
       <c r="BN59" t="n">
         <v>1579</v>
       </c>
+      <c r="BO59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13248,6 +13427,9 @@
       <c r="BN60" t="n">
         <v>1729</v>
       </c>
+      <c r="BO60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13460,6 +13642,9 @@
       <c r="BN61" t="n">
         <v>1729</v>
       </c>
+      <c r="BO61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13672,6 +13857,9 @@
       <c r="BN62" t="n">
         <v>1729</v>
       </c>
+      <c r="BO62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13884,6 +14072,9 @@
       <c r="BN63" t="n">
         <v>1829</v>
       </c>
+      <c r="BO63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14096,6 +14287,9 @@
       <c r="BN64" t="n">
         <v>1829</v>
       </c>
+      <c r="BO64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14308,6 +14502,9 @@
       <c r="BN65" t="n">
         <v>1829</v>
       </c>
+      <c r="BO65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14520,6 +14717,9 @@
       <c r="BN66" t="n">
         <v>1979</v>
       </c>
+      <c r="BO66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14732,6 +14932,9 @@
       <c r="BN67" t="n">
         <v>1979</v>
       </c>
+      <c r="BO67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14944,6 +15147,9 @@
       <c r="BN68" t="n">
         <v>1979</v>
       </c>
+      <c r="BO68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15156,6 +15362,9 @@
       <c r="BN69" t="n">
         <v>2479</v>
       </c>
+      <c r="BO69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15368,6 +15577,9 @@
       <c r="BN70" t="n">
         <v>2479</v>
       </c>
+      <c r="BO70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15578,6 +15790,9 @@
         <v>2479</v>
       </c>
       <c r="BN71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BO71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -15742,6 +15957,7 @@
       <c r="BL72" t="inlineStr"/>
       <c r="BM72" t="inlineStr"/>
       <c r="BN72" t="inlineStr"/>
+      <c r="BO72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15890,6 +16106,7 @@
       <c r="BL73" t="inlineStr"/>
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr"/>
+      <c r="BO73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16038,6 +16255,7 @@
       <c r="BL74" t="inlineStr"/>
       <c r="BM74" t="inlineStr"/>
       <c r="BN74" t="inlineStr"/>
+      <c r="BO74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO74"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,11 @@
           <t>2026-02-18 20:33:50</t>
         </is>
       </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>2026-02-18 21:31:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -972,6 +977,9 @@
       <c r="BO2" t="n">
         <v>659</v>
       </c>
+      <c r="BP2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1187,6 +1195,9 @@
       <c r="BO3" t="n">
         <v>659</v>
       </c>
+      <c r="BP3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1400,6 +1411,9 @@
         <v>749</v>
       </c>
       <c r="BO4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BP4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1611,6 +1625,9 @@
       <c r="BO5" t="n">
         <v>749</v>
       </c>
+      <c r="BP5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1826,6 +1843,9 @@
       <c r="BO6" t="n">
         <v>809</v>
       </c>
+      <c r="BP6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2041,6 +2061,9 @@
       <c r="BO7" t="n">
         <v>809</v>
       </c>
+      <c r="BP7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2256,6 +2279,9 @@
       <c r="BO8" t="n">
         <v>809</v>
       </c>
+      <c r="BP8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2471,6 +2497,9 @@
       <c r="BO9" t="n">
         <v>809</v>
       </c>
+      <c r="BP9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2686,6 +2715,9 @@
       <c r="BO10" t="n">
         <v>809</v>
       </c>
+      <c r="BP10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2901,6 +2933,9 @@
       <c r="BO11" t="n">
         <v>849</v>
       </c>
+      <c r="BP11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3116,6 +3151,9 @@
       <c r="BO12" t="n">
         <v>899</v>
       </c>
+      <c r="BP12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3331,6 +3369,9 @@
       <c r="BO13" t="n">
         <v>899</v>
       </c>
+      <c r="BP13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3546,6 +3587,9 @@
       <c r="BO14" t="n">
         <v>909</v>
       </c>
+      <c r="BP14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3761,6 +3805,9 @@
       <c r="BO15" t="n">
         <v>909</v>
       </c>
+      <c r="BP15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3976,6 +4023,9 @@
       <c r="BO16" t="n">
         <v>909</v>
       </c>
+      <c r="BP16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4191,6 +4241,9 @@
       <c r="BO17" t="n">
         <v>909</v>
       </c>
+      <c r="BP17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4402,6 +4455,9 @@
       <c r="BO18" t="n">
         <v>949</v>
       </c>
+      <c r="BP18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4617,6 +4673,9 @@
       <c r="BO19" t="n">
         <v>969</v>
       </c>
+      <c r="BP19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4832,6 +4891,9 @@
       <c r="BO20" t="n">
         <v>969</v>
       </c>
+      <c r="BP20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5047,6 +5109,9 @@
       <c r="BO21" t="n">
         <v>969</v>
       </c>
+      <c r="BP21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5262,6 +5327,9 @@
       <c r="BO22" t="n">
         <v>969</v>
       </c>
+      <c r="BP22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5477,6 +5545,9 @@
       <c r="BO23" t="n">
         <v>969</v>
       </c>
+      <c r="BP23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5692,6 +5763,9 @@
       <c r="BO24" t="n">
         <v>999</v>
       </c>
+      <c r="BP24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5907,6 +5981,9 @@
       <c r="BO25" t="n">
         <v>999</v>
       </c>
+      <c r="BP25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6120,6 +6197,9 @@
       <c r="BO26" t="n">
         <v>1039</v>
       </c>
+      <c r="BP26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6335,6 +6415,9 @@
       <c r="BO27" t="n">
         <v>1079</v>
       </c>
+      <c r="BP27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6550,6 +6633,9 @@
       <c r="BO28" t="n">
         <v>1079</v>
       </c>
+      <c r="BP28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6765,6 +6851,9 @@
       <c r="BO29" t="n">
         <v>1079</v>
       </c>
+      <c r="BP29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6980,6 +7069,9 @@
       <c r="BO30" t="n">
         <v>1079</v>
       </c>
+      <c r="BP30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7195,6 +7287,9 @@
       <c r="BO31" t="n">
         <v>1099</v>
       </c>
+      <c r="BP31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7410,6 +7505,9 @@
       <c r="BO32" t="n">
         <v>1099</v>
       </c>
+      <c r="BP32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7625,6 +7723,9 @@
       <c r="BO33" t="n">
         <v>1199</v>
       </c>
+      <c r="BP33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7840,6 +7941,9 @@
       <c r="BO34" t="n">
         <v>1219</v>
       </c>
+      <c r="BP34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8055,6 +8159,9 @@
       <c r="BO35" t="n">
         <v>1219</v>
       </c>
+      <c r="BP35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8270,6 +8377,9 @@
       <c r="BO36" t="n">
         <v>1219</v>
       </c>
+      <c r="BP36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8485,6 +8595,9 @@
       <c r="BO37" t="n">
         <v>1219</v>
       </c>
+      <c r="BP37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8700,6 +8813,9 @@
       <c r="BO38" t="n">
         <v>1219</v>
       </c>
+      <c r="BP38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8915,6 +9031,9 @@
       <c r="BO39" t="n">
         <v>1229</v>
       </c>
+      <c r="BP39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9130,6 +9249,9 @@
       <c r="BO40" t="n">
         <v>1249</v>
       </c>
+      <c r="BP40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9345,6 +9467,9 @@
       <c r="BO41" t="n">
         <v>1249</v>
       </c>
+      <c r="BP41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9560,6 +9685,9 @@
       <c r="BO42" t="n">
         <v>1329</v>
       </c>
+      <c r="BP42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9775,6 +9903,9 @@
       <c r="BO43" t="n">
         <v>1329</v>
       </c>
+      <c r="BP43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9990,6 +10121,9 @@
       <c r="BO44" t="n">
         <v>1329</v>
       </c>
+      <c r="BP44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10205,6 +10339,9 @@
       <c r="BO45" t="n">
         <v>1329</v>
       </c>
+      <c r="BP45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10420,6 +10557,9 @@
       <c r="BO46" t="n">
         <v>1329</v>
       </c>
+      <c r="BP46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10635,6 +10775,9 @@
       <c r="BO47" t="n">
         <v>1329</v>
       </c>
+      <c r="BP47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10850,6 +10993,9 @@
       <c r="BO48" t="n">
         <v>1329</v>
       </c>
+      <c r="BP48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11065,6 +11211,9 @@
       <c r="BO49" t="n">
         <v>1349</v>
       </c>
+      <c r="BP49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11280,6 +11429,9 @@
       <c r="BO50" t="n">
         <v>1479</v>
       </c>
+      <c r="BP50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11495,6 +11647,9 @@
       <c r="BO51" t="n">
         <v>1479</v>
       </c>
+      <c r="BP51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11710,6 +11865,9 @@
       <c r="BO52" t="n">
         <v>1479</v>
       </c>
+      <c r="BP52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11925,6 +12083,9 @@
       <c r="BO53" t="n">
         <v>1579</v>
       </c>
+      <c r="BP53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12140,6 +12301,9 @@
       <c r="BO54" t="n">
         <v>1579</v>
       </c>
+      <c r="BP54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12355,6 +12519,9 @@
       <c r="BO55" t="n">
         <v>1579</v>
       </c>
+      <c r="BP55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12570,6 +12737,9 @@
       <c r="BO56" t="n">
         <v>1579</v>
       </c>
+      <c r="BP56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12785,6 +12955,9 @@
       <c r="BO57" t="n">
         <v>1579</v>
       </c>
+      <c r="BP57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13000,6 +13173,9 @@
       <c r="BO58" t="n">
         <v>1579</v>
       </c>
+      <c r="BP58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13215,6 +13391,9 @@
       <c r="BO59" t="n">
         <v>1579</v>
       </c>
+      <c r="BP59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13430,6 +13609,9 @@
       <c r="BO60" t="n">
         <v>1729</v>
       </c>
+      <c r="BP60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13645,6 +13827,9 @@
       <c r="BO61" t="n">
         <v>1729</v>
       </c>
+      <c r="BP61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13860,6 +14045,9 @@
       <c r="BO62" t="n">
         <v>1729</v>
       </c>
+      <c r="BP62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14075,6 +14263,9 @@
       <c r="BO63" t="n">
         <v>1829</v>
       </c>
+      <c r="BP63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14290,6 +14481,9 @@
       <c r="BO64" t="n">
         <v>1829</v>
       </c>
+      <c r="BP64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14505,6 +14699,9 @@
       <c r="BO65" t="n">
         <v>1829</v>
       </c>
+      <c r="BP65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14720,6 +14917,9 @@
       <c r="BO66" t="n">
         <v>1979</v>
       </c>
+      <c r="BP66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14935,6 +15135,9 @@
       <c r="BO67" t="n">
         <v>1979</v>
       </c>
+      <c r="BP67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15150,6 +15353,9 @@
       <c r="BO68" t="n">
         <v>1979</v>
       </c>
+      <c r="BP68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15365,6 +15571,9 @@
       <c r="BO69" t="n">
         <v>2479</v>
       </c>
+      <c r="BP69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15580,6 +15789,9 @@
       <c r="BO70" t="n">
         <v>2479</v>
       </c>
+      <c r="BP70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15793,6 +16005,9 @@
         <v>2479</v>
       </c>
       <c r="BO71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BP71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -15958,6 +16173,7 @@
       <c r="BM72" t="inlineStr"/>
       <c r="BN72" t="inlineStr"/>
       <c r="BO72" t="inlineStr"/>
+      <c r="BP72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16107,6 +16323,7 @@
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr"/>
       <c r="BO73" t="inlineStr"/>
+      <c r="BP73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16256,6 +16473,7 @@
       <c r="BM74" t="inlineStr"/>
       <c r="BN74" t="inlineStr"/>
       <c r="BO74" t="inlineStr"/>
+      <c r="BP74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BQ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,16 +762,21 @@
           <t>2026-02-18 21:31:26</t>
         </is>
       </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>2026-02-18 22:28:11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PB00570856</t>
+          <t>PB00570857</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Noir</t>
+          <t>Apple iPhone 15 128 Go Rose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -797,7 +802,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -979,17 +984,20 @@
       </c>
       <c r="BP2" t="n">
         <v>659</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PB00570857</t>
+          <t>PB00570856</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Rose</t>
+          <t>Apple iPhone 15 128 Go Noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1015,7 +1023,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -1196,6 +1204,9 @@
         <v>659</v>
       </c>
       <c r="BP3" t="n">
+        <v>659</v>
+      </c>
+      <c r="BQ3" t="n">
         <v>659</v>
       </c>
     </row>
@@ -1414,6 +1425,9 @@
         <v>749</v>
       </c>
       <c r="BP4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1628,6 +1642,9 @@
       <c r="BP5" t="n">
         <v>749</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1846,6 +1863,9 @@
       <c r="BP6" t="n">
         <v>809</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2064,6 +2084,9 @@
       <c r="BP7" t="n">
         <v>809</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2282,6 +2305,9 @@
       <c r="BP8" t="n">
         <v>809</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2500,6 +2526,9 @@
       <c r="BP9" t="n">
         <v>809</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2718,6 +2747,9 @@
       <c r="BP10" t="n">
         <v>809</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2936,6 +2968,9 @@
       <c r="BP11" t="n">
         <v>849</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3154,6 +3189,9 @@
       <c r="BP12" t="n">
         <v>899</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3372,6 +3410,9 @@
       <c r="BP13" t="n">
         <v>899</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3590,6 +3631,9 @@
       <c r="BP14" t="n">
         <v>909</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3808,6 +3852,9 @@
       <c r="BP15" t="n">
         <v>909</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4026,6 +4073,9 @@
       <c r="BP16" t="n">
         <v>909</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4244,6 +4294,9 @@
       <c r="BP17" t="n">
         <v>909</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4458,6 +4511,9 @@
       <c r="BP18" t="n">
         <v>949</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4676,6 +4732,9 @@
       <c r="BP19" t="n">
         <v>969</v>
       </c>
+      <c r="BQ19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4894,6 +4953,9 @@
       <c r="BP20" t="n">
         <v>969</v>
       </c>
+      <c r="BQ20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5112,6 +5174,9 @@
       <c r="BP21" t="n">
         <v>969</v>
       </c>
+      <c r="BQ21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5330,6 +5395,9 @@
       <c r="BP22" t="n">
         <v>969</v>
       </c>
+      <c r="BQ22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5548,6 +5616,9 @@
       <c r="BP23" t="n">
         <v>969</v>
       </c>
+      <c r="BQ23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5766,6 +5837,9 @@
       <c r="BP24" t="n">
         <v>999</v>
       </c>
+      <c r="BQ24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5984,6 +6058,9 @@
       <c r="BP25" t="n">
         <v>999</v>
       </c>
+      <c r="BQ25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6200,6 +6277,9 @@
       <c r="BP26" t="n">
         <v>1039</v>
       </c>
+      <c r="BQ26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6418,6 +6498,9 @@
       <c r="BP27" t="n">
         <v>1079</v>
       </c>
+      <c r="BQ27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6636,6 +6719,9 @@
       <c r="BP28" t="n">
         <v>1079</v>
       </c>
+      <c r="BQ28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6854,6 +6940,9 @@
       <c r="BP29" t="n">
         <v>1079</v>
       </c>
+      <c r="BQ29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7072,6 +7161,9 @@
       <c r="BP30" t="n">
         <v>1079</v>
       </c>
+      <c r="BQ30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7290,6 +7382,9 @@
       <c r="BP31" t="n">
         <v>1099</v>
       </c>
+      <c r="BQ31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7508,6 +7603,9 @@
       <c r="BP32" t="n">
         <v>1099</v>
       </c>
+      <c r="BQ32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7726,6 +7824,9 @@
       <c r="BP33" t="n">
         <v>1199</v>
       </c>
+      <c r="BQ33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7944,6 +8045,9 @@
       <c r="BP34" t="n">
         <v>1219</v>
       </c>
+      <c r="BQ34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8162,6 +8266,9 @@
       <c r="BP35" t="n">
         <v>1219</v>
       </c>
+      <c r="BQ35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8380,6 +8487,9 @@
       <c r="BP36" t="n">
         <v>1219</v>
       </c>
+      <c r="BQ36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8598,6 +8708,9 @@
       <c r="BP37" t="n">
         <v>1219</v>
       </c>
+      <c r="BQ37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8816,6 +8929,9 @@
       <c r="BP38" t="n">
         <v>1219</v>
       </c>
+      <c r="BQ38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9034,6 +9150,9 @@
       <c r="BP39" t="n">
         <v>1229</v>
       </c>
+      <c r="BQ39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9252,6 +9371,9 @@
       <c r="BP40" t="n">
         <v>1249</v>
       </c>
+      <c r="BQ40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9470,6 +9592,9 @@
       <c r="BP41" t="n">
         <v>1249</v>
       </c>
+      <c r="BQ41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9688,6 +9813,9 @@
       <c r="BP42" t="n">
         <v>1329</v>
       </c>
+      <c r="BQ42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9906,6 +10034,9 @@
       <c r="BP43" t="n">
         <v>1329</v>
       </c>
+      <c r="BQ43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10124,6 +10255,9 @@
       <c r="BP44" t="n">
         <v>1329</v>
       </c>
+      <c r="BQ44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10342,6 +10476,9 @@
       <c r="BP45" t="n">
         <v>1329</v>
       </c>
+      <c r="BQ45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10560,6 +10697,9 @@
       <c r="BP46" t="n">
         <v>1329</v>
       </c>
+      <c r="BQ46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10778,6 +10918,9 @@
       <c r="BP47" t="n">
         <v>1329</v>
       </c>
+      <c r="BQ47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10996,6 +11139,9 @@
       <c r="BP48" t="n">
         <v>1329</v>
       </c>
+      <c r="BQ48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11214,6 +11360,9 @@
       <c r="BP49" t="n">
         <v>1349</v>
       </c>
+      <c r="BQ49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11432,6 +11581,9 @@
       <c r="BP50" t="n">
         <v>1479</v>
       </c>
+      <c r="BQ50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11650,6 +11802,9 @@
       <c r="BP51" t="n">
         <v>1479</v>
       </c>
+      <c r="BQ51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11868,6 +12023,9 @@
       <c r="BP52" t="n">
         <v>1479</v>
       </c>
+      <c r="BQ52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12086,6 +12244,9 @@
       <c r="BP53" t="n">
         <v>1579</v>
       </c>
+      <c r="BQ53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12304,6 +12465,9 @@
       <c r="BP54" t="n">
         <v>1579</v>
       </c>
+      <c r="BQ54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12522,6 +12686,9 @@
       <c r="BP55" t="n">
         <v>1579</v>
       </c>
+      <c r="BQ55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12740,6 +12907,9 @@
       <c r="BP56" t="n">
         <v>1579</v>
       </c>
+      <c r="BQ56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12958,6 +13128,9 @@
       <c r="BP57" t="n">
         <v>1579</v>
       </c>
+      <c r="BQ57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13176,6 +13349,9 @@
       <c r="BP58" t="n">
         <v>1579</v>
       </c>
+      <c r="BQ58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13394,6 +13570,9 @@
       <c r="BP59" t="n">
         <v>1579</v>
       </c>
+      <c r="BQ59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13612,6 +13791,9 @@
       <c r="BP60" t="n">
         <v>1729</v>
       </c>
+      <c r="BQ60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13830,6 +14012,9 @@
       <c r="BP61" t="n">
         <v>1729</v>
       </c>
+      <c r="BQ61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14048,6 +14233,9 @@
       <c r="BP62" t="n">
         <v>1729</v>
       </c>
+      <c r="BQ62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14266,6 +14454,9 @@
       <c r="BP63" t="n">
         <v>1829</v>
       </c>
+      <c r="BQ63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14484,6 +14675,9 @@
       <c r="BP64" t="n">
         <v>1829</v>
       </c>
+      <c r="BQ64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14702,6 +14896,9 @@
       <c r="BP65" t="n">
         <v>1829</v>
       </c>
+      <c r="BQ65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14920,6 +15117,9 @@
       <c r="BP66" t="n">
         <v>1979</v>
       </c>
+      <c r="BQ66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15138,6 +15338,9 @@
       <c r="BP67" t="n">
         <v>1979</v>
       </c>
+      <c r="BQ67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15356,6 +15559,9 @@
       <c r="BP68" t="n">
         <v>1979</v>
       </c>
+      <c r="BQ68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15574,6 +15780,9 @@
       <c r="BP69" t="n">
         <v>2479</v>
       </c>
+      <c r="BQ69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15792,6 +16001,9 @@
       <c r="BP70" t="n">
         <v>2479</v>
       </c>
+      <c r="BQ70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16008,6 +16220,9 @@
         <v>2479</v>
       </c>
       <c r="BP71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BQ71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -16174,6 +16389,7 @@
       <c r="BN72" t="inlineStr"/>
       <c r="BO72" t="inlineStr"/>
       <c r="BP72" t="inlineStr"/>
+      <c r="BQ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16324,6 +16540,7 @@
       <c r="BN73" t="inlineStr"/>
       <c r="BO73" t="inlineStr"/>
       <c r="BP73" t="inlineStr"/>
+      <c r="BQ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16474,6 +16691,7 @@
       <c r="BN74" t="inlineStr"/>
       <c r="BO74" t="inlineStr"/>
       <c r="BP74" t="inlineStr"/>
+      <c r="BQ74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ74"/>
+  <dimension ref="A1:BR74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,6 +767,11 @@
           <t>2026-02-18 22:28:11</t>
         </is>
       </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>2026-02-18 23:25:19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -988,6 +993,9 @@
       <c r="BQ2" t="n">
         <v>403</v>
       </c>
+      <c r="BR2" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1209,6 +1217,9 @@
       <c r="BQ3" t="n">
         <v>659</v>
       </c>
+      <c r="BR3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1428,6 +1439,9 @@
         <v>749</v>
       </c>
       <c r="BQ4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BR4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1645,6 +1659,9 @@
       <c r="BQ5" t="n">
         <v>749</v>
       </c>
+      <c r="BR5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1866,6 +1883,9 @@
       <c r="BQ6" t="n">
         <v>809</v>
       </c>
+      <c r="BR6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2087,6 +2107,9 @@
       <c r="BQ7" t="n">
         <v>809</v>
       </c>
+      <c r="BR7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2308,6 +2331,9 @@
       <c r="BQ8" t="n">
         <v>809</v>
       </c>
+      <c r="BR8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2529,6 +2555,9 @@
       <c r="BQ9" t="n">
         <v>809</v>
       </c>
+      <c r="BR9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2750,6 +2779,9 @@
       <c r="BQ10" t="n">
         <v>809</v>
       </c>
+      <c r="BR10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2971,6 +3003,9 @@
       <c r="BQ11" t="n">
         <v>849</v>
       </c>
+      <c r="BR11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3192,6 +3227,9 @@
       <c r="BQ12" t="n">
         <v>899</v>
       </c>
+      <c r="BR12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3413,6 +3451,9 @@
       <c r="BQ13" t="n">
         <v>899</v>
       </c>
+      <c r="BR13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3634,6 +3675,9 @@
       <c r="BQ14" t="n">
         <v>909</v>
       </c>
+      <c r="BR14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3855,6 +3899,9 @@
       <c r="BQ15" t="n">
         <v>909</v>
       </c>
+      <c r="BR15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4076,6 +4123,9 @@
       <c r="BQ16" t="n">
         <v>909</v>
       </c>
+      <c r="BR16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4297,6 +4347,9 @@
       <c r="BQ17" t="n">
         <v>909</v>
       </c>
+      <c r="BR17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4514,6 +4567,9 @@
       <c r="BQ18" t="n">
         <v>949</v>
       </c>
+      <c r="BR18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4735,6 +4791,9 @@
       <c r="BQ19" t="n">
         <v>969</v>
       </c>
+      <c r="BR19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4956,6 +5015,9 @@
       <c r="BQ20" t="n">
         <v>969</v>
       </c>
+      <c r="BR20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5177,6 +5239,9 @@
       <c r="BQ21" t="n">
         <v>969</v>
       </c>
+      <c r="BR21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5398,6 +5463,9 @@
       <c r="BQ22" t="n">
         <v>969</v>
       </c>
+      <c r="BR22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5619,6 +5687,9 @@
       <c r="BQ23" t="n">
         <v>969</v>
       </c>
+      <c r="BR23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5840,6 +5911,9 @@
       <c r="BQ24" t="n">
         <v>999</v>
       </c>
+      <c r="BR24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6061,6 +6135,9 @@
       <c r="BQ25" t="n">
         <v>999</v>
       </c>
+      <c r="BR25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6280,6 +6357,9 @@
       <c r="BQ26" t="n">
         <v>1039</v>
       </c>
+      <c r="BR26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6501,6 +6581,9 @@
       <c r="BQ27" t="n">
         <v>1079</v>
       </c>
+      <c r="BR27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6722,6 +6805,9 @@
       <c r="BQ28" t="n">
         <v>1079</v>
       </c>
+      <c r="BR28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6943,6 +7029,9 @@
       <c r="BQ29" t="n">
         <v>1079</v>
       </c>
+      <c r="BR29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7164,6 +7253,9 @@
       <c r="BQ30" t="n">
         <v>1079</v>
       </c>
+      <c r="BR30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7385,6 +7477,9 @@
       <c r="BQ31" t="n">
         <v>1099</v>
       </c>
+      <c r="BR31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7606,6 +7701,9 @@
       <c r="BQ32" t="n">
         <v>1099</v>
       </c>
+      <c r="BR32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7827,6 +7925,9 @@
       <c r="BQ33" t="n">
         <v>1199</v>
       </c>
+      <c r="BR33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8048,6 +8149,9 @@
       <c r="BQ34" t="n">
         <v>1219</v>
       </c>
+      <c r="BR34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8269,6 +8373,9 @@
       <c r="BQ35" t="n">
         <v>1219</v>
       </c>
+      <c r="BR35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8490,6 +8597,9 @@
       <c r="BQ36" t="n">
         <v>1219</v>
       </c>
+      <c r="BR36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8711,6 +8821,9 @@
       <c r="BQ37" t="n">
         <v>1219</v>
       </c>
+      <c r="BR37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8932,6 +9045,9 @@
       <c r="BQ38" t="n">
         <v>1219</v>
       </c>
+      <c r="BR38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9153,6 +9269,9 @@
       <c r="BQ39" t="n">
         <v>1229</v>
       </c>
+      <c r="BR39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9374,6 +9493,9 @@
       <c r="BQ40" t="n">
         <v>1249</v>
       </c>
+      <c r="BR40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9595,6 +9717,9 @@
       <c r="BQ41" t="n">
         <v>1249</v>
       </c>
+      <c r="BR41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9816,6 +9941,9 @@
       <c r="BQ42" t="n">
         <v>1329</v>
       </c>
+      <c r="BR42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10037,6 +10165,9 @@
       <c r="BQ43" t="n">
         <v>1329</v>
       </c>
+      <c r="BR43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10258,6 +10389,9 @@
       <c r="BQ44" t="n">
         <v>1329</v>
       </c>
+      <c r="BR44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10479,6 +10613,9 @@
       <c r="BQ45" t="n">
         <v>1329</v>
       </c>
+      <c r="BR45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10700,6 +10837,9 @@
       <c r="BQ46" t="n">
         <v>1329</v>
       </c>
+      <c r="BR46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10921,6 +11061,9 @@
       <c r="BQ47" t="n">
         <v>1329</v>
       </c>
+      <c r="BR47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11142,6 +11285,9 @@
       <c r="BQ48" t="n">
         <v>1329</v>
       </c>
+      <c r="BR48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11363,6 +11509,9 @@
       <c r="BQ49" t="n">
         <v>1349</v>
       </c>
+      <c r="BR49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11584,6 +11733,9 @@
       <c r="BQ50" t="n">
         <v>1479</v>
       </c>
+      <c r="BR50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11805,6 +11957,9 @@
       <c r="BQ51" t="n">
         <v>1479</v>
       </c>
+      <c r="BR51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12026,6 +12181,9 @@
       <c r="BQ52" t="n">
         <v>1479</v>
       </c>
+      <c r="BR52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12247,6 +12405,9 @@
       <c r="BQ53" t="n">
         <v>1579</v>
       </c>
+      <c r="BR53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12468,6 +12629,9 @@
       <c r="BQ54" t="n">
         <v>1579</v>
       </c>
+      <c r="BR54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12689,6 +12853,9 @@
       <c r="BQ55" t="n">
         <v>1579</v>
       </c>
+      <c r="BR55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12910,6 +13077,9 @@
       <c r="BQ56" t="n">
         <v>1579</v>
       </c>
+      <c r="BR56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13131,6 +13301,9 @@
       <c r="BQ57" t="n">
         <v>1579</v>
       </c>
+      <c r="BR57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13352,6 +13525,9 @@
       <c r="BQ58" t="n">
         <v>1579</v>
       </c>
+      <c r="BR58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13573,6 +13749,9 @@
       <c r="BQ59" t="n">
         <v>1579</v>
       </c>
+      <c r="BR59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13794,6 +13973,9 @@
       <c r="BQ60" t="n">
         <v>1729</v>
       </c>
+      <c r="BR60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14015,6 +14197,9 @@
       <c r="BQ61" t="n">
         <v>1729</v>
       </c>
+      <c r="BR61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14236,6 +14421,9 @@
       <c r="BQ62" t="n">
         <v>1729</v>
       </c>
+      <c r="BR62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14457,6 +14645,9 @@
       <c r="BQ63" t="n">
         <v>1829</v>
       </c>
+      <c r="BR63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14678,6 +14869,9 @@
       <c r="BQ64" t="n">
         <v>1829</v>
       </c>
+      <c r="BR64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14899,6 +15093,9 @@
       <c r="BQ65" t="n">
         <v>1829</v>
       </c>
+      <c r="BR65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15120,6 +15317,9 @@
       <c r="BQ66" t="n">
         <v>1979</v>
       </c>
+      <c r="BR66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15341,6 +15541,9 @@
       <c r="BQ67" t="n">
         <v>1979</v>
       </c>
+      <c r="BR67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15562,6 +15765,9 @@
       <c r="BQ68" t="n">
         <v>1979</v>
       </c>
+      <c r="BR68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15783,6 +15989,9 @@
       <c r="BQ69" t="n">
         <v>2479</v>
       </c>
+      <c r="BR69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16004,6 +16213,9 @@
       <c r="BQ70" t="n">
         <v>2479</v>
       </c>
+      <c r="BR70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16223,6 +16435,9 @@
         <v>2479</v>
       </c>
       <c r="BQ71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BR71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -16390,6 +16605,7 @@
       <c r="BO72" t="inlineStr"/>
       <c r="BP72" t="inlineStr"/>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16541,6 +16757,7 @@
       <c r="BO73" t="inlineStr"/>
       <c r="BP73" t="inlineStr"/>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16692,6 +16909,7 @@
       <c r="BO74" t="inlineStr"/>
       <c r="BP74" t="inlineStr"/>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR74"/>
+  <dimension ref="A1:BS74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +772,11 @@
           <t>2026-02-18 23:25:19</t>
         </is>
       </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>2026-02-19 01:45:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -996,6 +1001,9 @@
       <c r="BR2" t="n">
         <v>403</v>
       </c>
+      <c r="BS2" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1220,6 +1228,9 @@
       <c r="BR3" t="n">
         <v>659</v>
       </c>
+      <c r="BS3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1442,6 +1453,9 @@
         <v>749</v>
       </c>
       <c r="BR4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BS4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1662,6 +1676,9 @@
       <c r="BR5" t="n">
         <v>749</v>
       </c>
+      <c r="BS5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1886,6 +1903,9 @@
       <c r="BR6" t="n">
         <v>809</v>
       </c>
+      <c r="BS6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2110,6 +2130,9 @@
       <c r="BR7" t="n">
         <v>809</v>
       </c>
+      <c r="BS7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2334,6 +2357,9 @@
       <c r="BR8" t="n">
         <v>809</v>
       </c>
+      <c r="BS8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2558,6 +2584,9 @@
       <c r="BR9" t="n">
         <v>809</v>
       </c>
+      <c r="BS9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2782,6 +2811,9 @@
       <c r="BR10" t="n">
         <v>809</v>
       </c>
+      <c r="BS10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3006,6 +3038,9 @@
       <c r="BR11" t="n">
         <v>849</v>
       </c>
+      <c r="BS11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3230,6 +3265,9 @@
       <c r="BR12" t="n">
         <v>899</v>
       </c>
+      <c r="BS12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3454,6 +3492,9 @@
       <c r="BR13" t="n">
         <v>899</v>
       </c>
+      <c r="BS13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3678,6 +3719,9 @@
       <c r="BR14" t="n">
         <v>909</v>
       </c>
+      <c r="BS14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3902,6 +3946,9 @@
       <c r="BR15" t="n">
         <v>909</v>
       </c>
+      <c r="BS15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4126,6 +4173,9 @@
       <c r="BR16" t="n">
         <v>909</v>
       </c>
+      <c r="BS16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4350,6 +4400,9 @@
       <c r="BR17" t="n">
         <v>909</v>
       </c>
+      <c r="BS17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4570,6 +4623,9 @@
       <c r="BR18" t="n">
         <v>949</v>
       </c>
+      <c r="BS18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4794,6 +4850,9 @@
       <c r="BR19" t="n">
         <v>969</v>
       </c>
+      <c r="BS19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5018,6 +5077,9 @@
       <c r="BR20" t="n">
         <v>969</v>
       </c>
+      <c r="BS20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5242,6 +5304,9 @@
       <c r="BR21" t="n">
         <v>969</v>
       </c>
+      <c r="BS21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5466,6 +5531,9 @@
       <c r="BR22" t="n">
         <v>969</v>
       </c>
+      <c r="BS22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5690,6 +5758,9 @@
       <c r="BR23" t="n">
         <v>969</v>
       </c>
+      <c r="BS23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5914,6 +5985,9 @@
       <c r="BR24" t="n">
         <v>999</v>
       </c>
+      <c r="BS24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6138,6 +6212,9 @@
       <c r="BR25" t="n">
         <v>999</v>
       </c>
+      <c r="BS25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6360,6 +6437,9 @@
       <c r="BR26" t="n">
         <v>1039</v>
       </c>
+      <c r="BS26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6584,6 +6664,9 @@
       <c r="BR27" t="n">
         <v>1079</v>
       </c>
+      <c r="BS27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6808,6 +6891,9 @@
       <c r="BR28" t="n">
         <v>1079</v>
       </c>
+      <c r="BS28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7032,6 +7118,9 @@
       <c r="BR29" t="n">
         <v>1079</v>
       </c>
+      <c r="BS29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7256,6 +7345,9 @@
       <c r="BR30" t="n">
         <v>1079</v>
       </c>
+      <c r="BS30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7480,6 +7572,9 @@
       <c r="BR31" t="n">
         <v>1099</v>
       </c>
+      <c r="BS31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7704,6 +7799,9 @@
       <c r="BR32" t="n">
         <v>1099</v>
       </c>
+      <c r="BS32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7928,6 +8026,9 @@
       <c r="BR33" t="n">
         <v>1199</v>
       </c>
+      <c r="BS33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8152,6 +8253,9 @@
       <c r="BR34" t="n">
         <v>1219</v>
       </c>
+      <c r="BS34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8376,6 +8480,9 @@
       <c r="BR35" t="n">
         <v>1219</v>
       </c>
+      <c r="BS35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8600,6 +8707,9 @@
       <c r="BR36" t="n">
         <v>1219</v>
       </c>
+      <c r="BS36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8824,6 +8934,9 @@
       <c r="BR37" t="n">
         <v>1219</v>
       </c>
+      <c r="BS37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9048,6 +9161,9 @@
       <c r="BR38" t="n">
         <v>1219</v>
       </c>
+      <c r="BS38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9272,6 +9388,9 @@
       <c r="BR39" t="n">
         <v>1229</v>
       </c>
+      <c r="BS39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9496,6 +9615,9 @@
       <c r="BR40" t="n">
         <v>1249</v>
       </c>
+      <c r="BS40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9720,6 +9842,9 @@
       <c r="BR41" t="n">
         <v>1249</v>
       </c>
+      <c r="BS41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9944,6 +10069,9 @@
       <c r="BR42" t="n">
         <v>1329</v>
       </c>
+      <c r="BS42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10168,6 +10296,9 @@
       <c r="BR43" t="n">
         <v>1329</v>
       </c>
+      <c r="BS43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10392,6 +10523,9 @@
       <c r="BR44" t="n">
         <v>1329</v>
       </c>
+      <c r="BS44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10616,6 +10750,9 @@
       <c r="BR45" t="n">
         <v>1329</v>
       </c>
+      <c r="BS45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10840,6 +10977,9 @@
       <c r="BR46" t="n">
         <v>1329</v>
       </c>
+      <c r="BS46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11064,6 +11204,9 @@
       <c r="BR47" t="n">
         <v>1329</v>
       </c>
+      <c r="BS47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11288,6 +11431,9 @@
       <c r="BR48" t="n">
         <v>1329</v>
       </c>
+      <c r="BS48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11512,6 +11658,9 @@
       <c r="BR49" t="n">
         <v>1349</v>
       </c>
+      <c r="BS49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11736,6 +11885,9 @@
       <c r="BR50" t="n">
         <v>1479</v>
       </c>
+      <c r="BS50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11960,6 +12112,9 @@
       <c r="BR51" t="n">
         <v>1479</v>
       </c>
+      <c r="BS51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12184,6 +12339,9 @@
       <c r="BR52" t="n">
         <v>1479</v>
       </c>
+      <c r="BS52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12408,6 +12566,9 @@
       <c r="BR53" t="n">
         <v>1579</v>
       </c>
+      <c r="BS53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12632,6 +12793,9 @@
       <c r="BR54" t="n">
         <v>1579</v>
       </c>
+      <c r="BS54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12856,6 +13020,9 @@
       <c r="BR55" t="n">
         <v>1579</v>
       </c>
+      <c r="BS55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13080,6 +13247,9 @@
       <c r="BR56" t="n">
         <v>1579</v>
       </c>
+      <c r="BS56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13304,6 +13474,9 @@
       <c r="BR57" t="n">
         <v>1579</v>
       </c>
+      <c r="BS57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13528,6 +13701,9 @@
       <c r="BR58" t="n">
         <v>1579</v>
       </c>
+      <c r="BS58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13752,6 +13928,9 @@
       <c r="BR59" t="n">
         <v>1579</v>
       </c>
+      <c r="BS59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13976,6 +14155,9 @@
       <c r="BR60" t="n">
         <v>1729</v>
       </c>
+      <c r="BS60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14200,6 +14382,9 @@
       <c r="BR61" t="n">
         <v>1729</v>
       </c>
+      <c r="BS61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14424,6 +14609,9 @@
       <c r="BR62" t="n">
         <v>1729</v>
       </c>
+      <c r="BS62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14648,6 +14836,9 @@
       <c r="BR63" t="n">
         <v>1829</v>
       </c>
+      <c r="BS63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14872,6 +15063,9 @@
       <c r="BR64" t="n">
         <v>1829</v>
       </c>
+      <c r="BS64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15096,6 +15290,9 @@
       <c r="BR65" t="n">
         <v>1829</v>
       </c>
+      <c r="BS65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15320,6 +15517,9 @@
       <c r="BR66" t="n">
         <v>1979</v>
       </c>
+      <c r="BS66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15544,6 +15744,9 @@
       <c r="BR67" t="n">
         <v>1979</v>
       </c>
+      <c r="BS67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15768,6 +15971,9 @@
       <c r="BR68" t="n">
         <v>1979</v>
       </c>
+      <c r="BS68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15992,6 +16198,9 @@
       <c r="BR69" t="n">
         <v>2479</v>
       </c>
+      <c r="BS69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16216,6 +16425,9 @@
       <c r="BR70" t="n">
         <v>2479</v>
       </c>
+      <c r="BS70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16438,6 +16650,9 @@
         <v>2479</v>
       </c>
       <c r="BR71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BS71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -16606,6 +16821,7 @@
       <c r="BP72" t="inlineStr"/>
       <c r="BQ72" t="inlineStr"/>
       <c r="BR72" t="inlineStr"/>
+      <c r="BS72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16758,6 +16974,7 @@
       <c r="BP73" t="inlineStr"/>
       <c r="BQ73" t="inlineStr"/>
       <c r="BR73" t="inlineStr"/>
+      <c r="BS73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16910,6 +17127,7 @@
       <c r="BP74" t="inlineStr"/>
       <c r="BQ74" t="inlineStr"/>
       <c r="BR74" t="inlineStr"/>
+      <c r="BS74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS74"/>
+  <dimension ref="A1:BT74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,11 @@
           <t>2026-02-19 01:45:23</t>
         </is>
       </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>2026-02-19 04:16:07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1004,6 +1009,9 @@
       <c r="BS2" t="n">
         <v>403</v>
       </c>
+      <c r="BT2" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1231,6 +1239,9 @@
       <c r="BS3" t="n">
         <v>659</v>
       </c>
+      <c r="BT3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1456,6 +1467,9 @@
         <v>749</v>
       </c>
       <c r="BS4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BT4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1679,6 +1693,9 @@
       <c r="BS5" t="n">
         <v>749</v>
       </c>
+      <c r="BT5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1906,6 +1923,9 @@
       <c r="BS6" t="n">
         <v>809</v>
       </c>
+      <c r="BT6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2133,6 +2153,9 @@
       <c r="BS7" t="n">
         <v>809</v>
       </c>
+      <c r="BT7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2360,6 +2383,9 @@
       <c r="BS8" t="n">
         <v>809</v>
       </c>
+      <c r="BT8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2587,6 +2613,9 @@
       <c r="BS9" t="n">
         <v>809</v>
       </c>
+      <c r="BT9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2814,6 +2843,9 @@
       <c r="BS10" t="n">
         <v>809</v>
       </c>
+      <c r="BT10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3041,6 +3073,9 @@
       <c r="BS11" t="n">
         <v>849</v>
       </c>
+      <c r="BT11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3268,6 +3303,9 @@
       <c r="BS12" t="n">
         <v>899</v>
       </c>
+      <c r="BT12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3495,6 +3533,9 @@
       <c r="BS13" t="n">
         <v>899</v>
       </c>
+      <c r="BT13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3722,6 +3763,9 @@
       <c r="BS14" t="n">
         <v>909</v>
       </c>
+      <c r="BT14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3949,6 +3993,9 @@
       <c r="BS15" t="n">
         <v>909</v>
       </c>
+      <c r="BT15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4176,6 +4223,9 @@
       <c r="BS16" t="n">
         <v>909</v>
       </c>
+      <c r="BT16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4403,6 +4453,9 @@
       <c r="BS17" t="n">
         <v>909</v>
       </c>
+      <c r="BT17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4626,6 +4679,9 @@
       <c r="BS18" t="n">
         <v>949</v>
       </c>
+      <c r="BT18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4645,7 +4701,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -4851,6 +4907,9 @@
         <v>969</v>
       </c>
       <c r="BS19" t="n">
+        <v>969</v>
+      </c>
+      <c r="BT19" t="n">
         <v>969</v>
       </c>
     </row>
@@ -5080,6 +5139,9 @@
       <c r="BS20" t="n">
         <v>969</v>
       </c>
+      <c r="BT20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5307,6 +5369,9 @@
       <c r="BS21" t="n">
         <v>969</v>
       </c>
+      <c r="BT21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5534,6 +5599,9 @@
       <c r="BS22" t="n">
         <v>969</v>
       </c>
+      <c r="BT22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5761,6 +5829,9 @@
       <c r="BS23" t="n">
         <v>969</v>
       </c>
+      <c r="BT23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5988,6 +6059,9 @@
       <c r="BS24" t="n">
         <v>999</v>
       </c>
+      <c r="BT24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6215,6 +6289,9 @@
       <c r="BS25" t="n">
         <v>999</v>
       </c>
+      <c r="BT25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6440,6 +6517,9 @@
       <c r="BS26" t="n">
         <v>1039</v>
       </c>
+      <c r="BT26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6667,6 +6747,9 @@
       <c r="BS27" t="n">
         <v>1079</v>
       </c>
+      <c r="BT27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6894,6 +6977,9 @@
       <c r="BS28" t="n">
         <v>1079</v>
       </c>
+      <c r="BT28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7121,6 +7207,9 @@
       <c r="BS29" t="n">
         <v>1079</v>
       </c>
+      <c r="BT29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7348,6 +7437,9 @@
       <c r="BS30" t="n">
         <v>1079</v>
       </c>
+      <c r="BT30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7575,6 +7667,9 @@
       <c r="BS31" t="n">
         <v>1099</v>
       </c>
+      <c r="BT31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7802,6 +7897,9 @@
       <c r="BS32" t="n">
         <v>1099</v>
       </c>
+      <c r="BT32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8029,6 +8127,9 @@
       <c r="BS33" t="n">
         <v>1199</v>
       </c>
+      <c r="BT33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8256,6 +8357,9 @@
       <c r="BS34" t="n">
         <v>1219</v>
       </c>
+      <c r="BT34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8483,6 +8587,9 @@
       <c r="BS35" t="n">
         <v>1219</v>
       </c>
+      <c r="BT35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8710,6 +8817,9 @@
       <c r="BS36" t="n">
         <v>1219</v>
       </c>
+      <c r="BT36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8937,6 +9047,9 @@
       <c r="BS37" t="n">
         <v>1219</v>
       </c>
+      <c r="BT37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9164,6 +9277,9 @@
       <c r="BS38" t="n">
         <v>1219</v>
       </c>
+      <c r="BT38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9391,6 +9507,9 @@
       <c r="BS39" t="n">
         <v>1229</v>
       </c>
+      <c r="BT39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9618,6 +9737,9 @@
       <c r="BS40" t="n">
         <v>1249</v>
       </c>
+      <c r="BT40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9845,6 +9967,9 @@
       <c r="BS41" t="n">
         <v>1249</v>
       </c>
+      <c r="BT41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10072,6 +10197,9 @@
       <c r="BS42" t="n">
         <v>1329</v>
       </c>
+      <c r="BT42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10299,6 +10427,9 @@
       <c r="BS43" t="n">
         <v>1329</v>
       </c>
+      <c r="BT43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10526,6 +10657,9 @@
       <c r="BS44" t="n">
         <v>1329</v>
       </c>
+      <c r="BT44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10753,6 +10887,9 @@
       <c r="BS45" t="n">
         <v>1329</v>
       </c>
+      <c r="BT45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10980,6 +11117,9 @@
       <c r="BS46" t="n">
         <v>1329</v>
       </c>
+      <c r="BT46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11207,6 +11347,9 @@
       <c r="BS47" t="n">
         <v>1329</v>
       </c>
+      <c r="BT47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11434,6 +11577,9 @@
       <c r="BS48" t="n">
         <v>1329</v>
       </c>
+      <c r="BT48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11661,6 +11807,9 @@
       <c r="BS49" t="n">
         <v>1349</v>
       </c>
+      <c r="BT49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11888,6 +12037,9 @@
       <c r="BS50" t="n">
         <v>1479</v>
       </c>
+      <c r="BT50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12115,6 +12267,9 @@
       <c r="BS51" t="n">
         <v>1479</v>
       </c>
+      <c r="BT51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12342,6 +12497,9 @@
       <c r="BS52" t="n">
         <v>1479</v>
       </c>
+      <c r="BT52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12569,6 +12727,9 @@
       <c r="BS53" t="n">
         <v>1579</v>
       </c>
+      <c r="BT53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12796,6 +12957,9 @@
       <c r="BS54" t="n">
         <v>1579</v>
       </c>
+      <c r="BT54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13023,6 +13187,9 @@
       <c r="BS55" t="n">
         <v>1579</v>
       </c>
+      <c r="BT55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13250,6 +13417,9 @@
       <c r="BS56" t="n">
         <v>1579</v>
       </c>
+      <c r="BT56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13477,6 +13647,9 @@
       <c r="BS57" t="n">
         <v>1579</v>
       </c>
+      <c r="BT57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13704,6 +13877,9 @@
       <c r="BS58" t="n">
         <v>1579</v>
       </c>
+      <c r="BT58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13931,6 +14107,9 @@
       <c r="BS59" t="n">
         <v>1579</v>
       </c>
+      <c r="BT59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14158,6 +14337,9 @@
       <c r="BS60" t="n">
         <v>1729</v>
       </c>
+      <c r="BT60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14385,6 +14567,9 @@
       <c r="BS61" t="n">
         <v>1729</v>
       </c>
+      <c r="BT61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14612,6 +14797,9 @@
       <c r="BS62" t="n">
         <v>1729</v>
       </c>
+      <c r="BT62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14839,6 +15027,9 @@
       <c r="BS63" t="n">
         <v>1829</v>
       </c>
+      <c r="BT63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15066,6 +15257,9 @@
       <c r="BS64" t="n">
         <v>1829</v>
       </c>
+      <c r="BT64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15293,6 +15487,9 @@
       <c r="BS65" t="n">
         <v>1829</v>
       </c>
+      <c r="BT65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15520,6 +15717,9 @@
       <c r="BS66" t="n">
         <v>1979</v>
       </c>
+      <c r="BT66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15747,6 +15947,9 @@
       <c r="BS67" t="n">
         <v>1979</v>
       </c>
+      <c r="BT67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15974,6 +16177,9 @@
       <c r="BS68" t="n">
         <v>1979</v>
       </c>
+      <c r="BT68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16201,6 +16407,9 @@
       <c r="BS69" t="n">
         <v>2479</v>
       </c>
+      <c r="BT69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16428,6 +16637,9 @@
       <c r="BS70" t="n">
         <v>2479</v>
       </c>
+      <c r="BT70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16653,6 +16865,9 @@
         <v>2479</v>
       </c>
       <c r="BS71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BT71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -16822,6 +17037,7 @@
       <c r="BQ72" t="inlineStr"/>
       <c r="BR72" t="inlineStr"/>
       <c r="BS72" t="inlineStr"/>
+      <c r="BT72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16975,6 +17191,7 @@
       <c r="BQ73" t="inlineStr"/>
       <c r="BR73" t="inlineStr"/>
       <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17128,6 +17345,7 @@
       <c r="BQ74" t="inlineStr"/>
       <c r="BR74" t="inlineStr"/>
       <c r="BS74" t="inlineStr"/>
+      <c r="BT74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT74"/>
+  <dimension ref="A1:BU74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,16 +782,21 @@
           <t>2026-02-19 04:16:07</t>
         </is>
       </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>2026-02-19 05:56:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PB00570857</t>
+          <t>PB00570856</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Rose</t>
+          <t>Apple iPhone 15 128 Go Noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -817,7 +822,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -1001,27 +1006,30 @@
         <v>659</v>
       </c>
       <c r="BQ2" t="n">
-        <v>403</v>
+        <v>659</v>
       </c>
       <c r="BR2" t="n">
-        <v>403</v>
+        <v>659</v>
       </c>
       <c r="BS2" t="n">
-        <v>403</v>
+        <v>659</v>
       </c>
       <c r="BT2" t="n">
-        <v>403</v>
+        <v>659</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PB00570856</t>
+          <t>PB00570857</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128 Go Noir</t>
+          <t>Apple iPhone 15 128 Go Rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1047,7 +1055,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570856.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570857.html</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -1231,15 +1239,18 @@
         <v>659</v>
       </c>
       <c r="BQ3" t="n">
-        <v>659</v>
+        <v>403</v>
       </c>
       <c r="BR3" t="n">
-        <v>659</v>
+        <v>403</v>
       </c>
       <c r="BS3" t="n">
-        <v>659</v>
+        <v>403</v>
       </c>
       <c r="BT3" t="n">
+        <v>403</v>
+      </c>
+      <c r="BU3" t="n">
         <v>659</v>
       </c>
     </row>
@@ -1470,6 +1481,9 @@
         <v>749</v>
       </c>
       <c r="BT4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BU4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1696,6 +1710,9 @@
       <c r="BT5" t="n">
         <v>749</v>
       </c>
+      <c r="BU5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1926,6 +1943,9 @@
       <c r="BT6" t="n">
         <v>809</v>
       </c>
+      <c r="BU6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2156,6 +2176,9 @@
       <c r="BT7" t="n">
         <v>809</v>
       </c>
+      <c r="BU7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2386,6 +2409,9 @@
       <c r="BT8" t="n">
         <v>809</v>
       </c>
+      <c r="BU8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2616,6 +2642,9 @@
       <c r="BT9" t="n">
         <v>809</v>
       </c>
+      <c r="BU9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2846,6 +2875,9 @@
       <c r="BT10" t="n">
         <v>809</v>
       </c>
+      <c r="BU10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3076,6 +3108,9 @@
       <c r="BT11" t="n">
         <v>849</v>
       </c>
+      <c r="BU11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3306,6 +3341,9 @@
       <c r="BT12" t="n">
         <v>899</v>
       </c>
+      <c r="BU12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3536,6 +3574,9 @@
       <c r="BT13" t="n">
         <v>899</v>
       </c>
+      <c r="BU13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3766,6 +3807,9 @@
       <c r="BT14" t="n">
         <v>909</v>
       </c>
+      <c r="BU14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3996,16 +4040,19 @@
       <c r="BT15" t="n">
         <v>909</v>
       </c>
+      <c r="BU15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PB00642642</t>
+          <t>PB00642640</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Rose</t>
+          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4015,7 +4062,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (20/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4031,7 +4078,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -4224,18 +4271,21 @@
         <v>909</v>
       </c>
       <c r="BT16" t="n">
+        <v>909</v>
+      </c>
+      <c r="BU16" t="n">
         <v>909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PB00642640</t>
+          <t>PB00516161</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 128 Go Sarcelle</t>
+          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4248,224 +4298,223 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>40</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642640.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="J17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="K17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="L17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="M17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="N17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="O17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="P17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="Q17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="R17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="S17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="T17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="U17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="V17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="W17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="X17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="Y17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="Z17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AA17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AB17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AC17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AD17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AE17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AF17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AG17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AH17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AI17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AJ17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AK17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AL17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AM17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AN17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AO17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AP17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AQ17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AR17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AS17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AT17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AU17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AV17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AW17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AX17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AY17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="AZ17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BA17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BB17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BC17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BD17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BE17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BF17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BG17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BH17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BI17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BJ17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BK17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BL17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BM17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BN17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BO17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BP17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BQ17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BR17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BS17" t="n">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="BT17" t="n">
-        <v>909</v>
+        <v>949</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>949</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PB00516161</t>
+          <t>PB00702806</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Plus 512 Go Bleu</t>
+          <t>Apple iPhone 17 256 Go Blanc</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4475,223 +4524,230 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>Rupture</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24</v>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516161.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="J18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="K18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="L18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="M18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="N18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="O18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="P18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="Q18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="R18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="S18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="T18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="U18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="V18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="W18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="X18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="Y18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="Z18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AA18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AB18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AC18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AD18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AE18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AF18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AG18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AH18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AI18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AJ18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AK18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AL18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AM18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AN18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AO18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AP18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AQ18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AR18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AS18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AT18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AU18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AV18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AW18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AX18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AY18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="AZ18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BA18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BB18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BC18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BD18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BE18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BF18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BG18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BH18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BI18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BJ18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BK18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BL18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BM18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BN18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BO18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BP18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BQ18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BR18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BS18" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="BT18" t="n">
-        <v>949</v>
+        <v>969</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>969</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PB00702806</t>
+          <t>PB00702808</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Blanc</t>
+          <t>Apple iPhone 17 256 Go Brume</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4701,7 +4757,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (20/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -4717,7 +4773,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702806.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -4910,18 +4966,21 @@
         <v>969</v>
       </c>
       <c r="BT19" t="n">
+        <v>969</v>
+      </c>
+      <c r="BU19" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PB00702808</t>
+          <t>PB00702809</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Brume</t>
+          <t>Apple iPhone 17 256 Go Lavande</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4947,7 +5006,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702808.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -5140,18 +5199,21 @@
         <v>969</v>
       </c>
       <c r="BT20" t="n">
+        <v>969</v>
+      </c>
+      <c r="BU20" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PB00702809</t>
+          <t>PB00702804</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Lavande</t>
+          <t>Apple iPhone 17 256 Go Noir</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5177,7 +5239,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702809.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -5370,18 +5432,21 @@
         <v>969</v>
       </c>
       <c r="BT21" t="n">
+        <v>969</v>
+      </c>
+      <c r="BU21" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PB00702804</t>
+          <t>PB00702811</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Noir</t>
+          <t>Apple iPhone 17 256 Go Sauge</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5407,7 +5472,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702804.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -5600,18 +5665,21 @@
         <v>969</v>
       </c>
       <c r="BT22" t="n">
+        <v>969</v>
+      </c>
+      <c r="BU22" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PB00702811</t>
+          <t>PB00668663</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 256 Go Sauge</t>
+          <t>Apple iPhone 16e 512 Go Blanc</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5621,14 +5689,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -5637,211 +5705,214 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702811.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="J23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="K23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="L23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="M23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="N23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="O23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="P23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="Q23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="R23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="S23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="T23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="U23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="V23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="W23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="X23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="Y23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="Z23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AA23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AB23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AC23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AD23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AE23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AF23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AG23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AH23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AI23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AJ23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AK23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AL23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AM23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AN23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AO23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AP23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AQ23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AR23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AS23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AT23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AU23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AV23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AW23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AX23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AY23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="AZ23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BA23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BB23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BC23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BD23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BE23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BF23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BG23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BH23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BI23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BJ23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BK23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BL23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BM23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BN23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BO23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BP23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BQ23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BR23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BS23" t="n">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="BT23" t="n">
-        <v>969</v>
+        <v>999</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PB00668663</t>
+          <t>PB00668662</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Blanc</t>
+          <t>Apple iPhone 16e 512 Go Noir</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5851,7 +5922,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5867,7 +5938,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668663.html</t>
+          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -6060,18 +6131,21 @@
         <v>999</v>
       </c>
       <c r="BT24" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU24" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00668662</t>
+          <t>PB00642638</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e 512 Go Noir</t>
+          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6081,14 +6155,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -6097,211 +6171,212 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00668662.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="J25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="K25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="L25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="M25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="N25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="O25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="P25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Q25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="R25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="S25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="T25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="U25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="V25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="W25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="X25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Y25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Z25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AA25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AB25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AC25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AD25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AE25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AF25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AG25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AH25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AI25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AJ25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AK25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AL25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AM25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AN25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AO25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AP25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AQ25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AR25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AS25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AT25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AU25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AV25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AW25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AX25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AY25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="AZ25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BA25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BB25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BC25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BD25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BE25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BF25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BG25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BH25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BI25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BJ25" t="n">
-        <v>999</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>999</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BM25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BN25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BO25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BP25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BQ25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BR25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BS25" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="BT25" t="n">
-        <v>999</v>
+        <v>1039</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1039</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00642638</t>
+          <t>PB00702797</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 256 Go Blanc</t>
+          <t>Apple iPhone Air 256 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6311,14 +6386,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -6327,209 +6402,214 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642638.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="J26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="K26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="L26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="M26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="N26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="O26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="P26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Q26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="R26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="S26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="T26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="U26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="V26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="W26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="X26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Y26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="Z26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AA26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AB26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AC26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AD26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AE26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AF26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AG26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AH26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AI26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AK26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AL26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AM26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AN26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AO26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AP26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AR26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AS26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AT26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AU26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AV26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AW26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AX26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AY26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BA26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BB26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BC26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BD26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BE26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BF26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BG26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BH26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BI26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BJ26" t="n">
-        <v>1039</v>
-      </c>
-      <c r="BK26" t="inlineStr"/>
+        <v>1079</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1079</v>
+      </c>
       <c r="BL26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BM26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BN26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BO26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BP26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BQ26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BR26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BS26" t="n">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="BT26" t="n">
-        <v>1039</v>
+        <v>1079</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1079</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00702797</t>
+          <t>PB00702807</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Blanc nuage</t>
+          <t>Apple iPhone Air 256 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6555,7 +6635,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702797.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -6748,18 +6828,21 @@
         <v>1079</v>
       </c>
       <c r="BT27" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BU27" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00702807</t>
+          <t>PB00702792</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Bleu ciel</t>
+          <t>Apple iPhone Air 256 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6769,7 +6852,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -6785,7 +6868,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702807.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -6978,18 +7061,21 @@
         <v>1079</v>
       </c>
       <c r="BT28" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BU28" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PB00702792</t>
+          <t>PB00702801</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Noir sidéral</t>
+          <t>Apple iPhone Air 256 Go Or clair</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6999,7 +7085,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -7015,7 +7101,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702792.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -7208,18 +7294,21 @@
         <v>1079</v>
       </c>
       <c r="BT29" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BU29" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00702801</t>
+          <t>PB00570868</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 256 Go Or clair</t>
+          <t>Apple iPhone 15 512 Go Jaune</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7236,7 +7325,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -7245,211 +7334,214 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702801.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="J30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="K30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="L30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="M30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="N30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="O30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="P30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Q30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="R30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="S30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="T30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="U30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="V30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="W30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="X30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Y30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="Z30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AA30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AB30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AC30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AD30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AE30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AF30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AG30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AH30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AI30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AK30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AL30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AM30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AN30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AO30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AP30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AR30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AS30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AT30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AU30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AV30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AW30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AX30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AY30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="AZ30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BA30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BB30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BC30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BD30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BE30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BF30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BG30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BH30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BI30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BJ30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BK30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BL30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BM30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BN30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BO30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BP30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BQ30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BR30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BS30" t="n">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="BT30" t="n">
-        <v>1079</v>
+        <v>1099</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00570868</t>
+          <t>PB00570870</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Jaune</t>
+          <t>Apple iPhone 15 512 Go Vert</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7475,7 +7567,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570868.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -7668,18 +7760,21 @@
         <v>1099</v>
       </c>
       <c r="BT31" t="n">
+        <v>1099</v>
+      </c>
+      <c r="BU31" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00570870</t>
+          <t>PB00516186</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Vert</t>
+          <t>Apple iPhone 14 Pro 1 To Or</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7696,7 +7791,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -7705,211 +7800,214 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570870.html</t>
+          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="J32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="K32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="L32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="M32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="N32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="O32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="P32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Q32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="R32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="S32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="T32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="U32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="V32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="W32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="X32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Y32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="Z32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AA32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AB32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AC32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AD32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AE32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AF32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AG32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AH32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AI32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AK32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AL32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AM32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AN32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AO32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AP32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AR32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AS32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AT32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AU32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AV32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AW32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AX32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AY32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BA32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BB32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BC32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BD32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BE32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BF32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BG32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BH32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BI32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BJ32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BK32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BL32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BM32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BN32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BO32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BP32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BQ32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BR32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BS32" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="BT32" t="n">
-        <v>1099</v>
+        <v>1199</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00516186</t>
+          <t>PB00702815</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro 1 To Or</t>
+          <t>Apple iPhone 17 512 Go Blanc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7919,14 +8017,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -7935,211 +8033,214 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00516186.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="J33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="K33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="L33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="M33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="N33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="O33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="P33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Q33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="R33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="S33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="T33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="U33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="V33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="W33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="X33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Y33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="Z33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AA33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AB33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AC33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AD33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AE33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AF33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AG33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AH33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AI33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AK33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AL33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AM33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AN33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AO33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AP33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AR33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AS33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AT33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AU33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AV33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AW33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AX33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AY33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BA33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BB33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BC33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BD33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BE33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BF33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BG33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BH33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BI33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BJ33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BK33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BL33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BM33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BN33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BO33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BP33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BQ33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BR33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BS33" t="n">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="BT33" t="n">
-        <v>1199</v>
+        <v>1219</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00702815</t>
+          <t>PB00702816</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Blanc</t>
+          <t>Apple iPhone 17 512 Go Brume</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8149,7 +8250,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -8165,7 +8266,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702815.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -8358,18 +8459,21 @@
         <v>1219</v>
       </c>
       <c r="BT34" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BU34" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00702816</t>
+          <t>PB00702817</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Brume</t>
+          <t>Apple iPhone 17 512 Go Lavande</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8395,7 +8499,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702816.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -8588,18 +8692,21 @@
         <v>1219</v>
       </c>
       <c r="BT35" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BU35" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00702817</t>
+          <t>PB00702813</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Lavande</t>
+          <t>Apple iPhone 17 512 Go Noir</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8609,7 +8716,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -8625,7 +8732,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702817.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -8818,18 +8925,21 @@
         <v>1219</v>
       </c>
       <c r="BT36" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BU36" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00702813</t>
+          <t>PB00702818</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Noir</t>
+          <t>Apple iPhone 17 512 Go Sauge</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8839,7 +8949,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -8855,7 +8965,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -9048,18 +9158,21 @@
         <v>1219</v>
       </c>
       <c r="BT37" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BU37" t="n">
         <v>1219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00702818</t>
+          <t>PB00570890</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 512 Go Sauge</t>
+          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -9076,7 +9189,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -9085,211 +9198,214 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="J38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="K38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="L38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="M38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="N38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="O38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="P38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Q38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="R38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="S38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="T38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="U38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="V38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="W38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="X38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Y38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="Z38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AA38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AB38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AC38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AD38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AE38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AF38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AG38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AH38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AI38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AK38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AL38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AM38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AN38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AO38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AP38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AR38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AS38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AT38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AU38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AV38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AW38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AX38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AY38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="AZ38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BA38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BB38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BC38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BD38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BE38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BF38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BG38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BH38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BI38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BJ38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BK38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BL38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BM38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BN38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BO38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BP38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BQ38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BR38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BS38" t="n">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="BT38" t="n">
-        <v>1219</v>
+        <v>1229</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00570890</t>
+          <t>PB00642649</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 512 Go Jaune</t>
+          <t>Apple iPhone 16 512 Go Blanc</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -9299,14 +9415,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -9315,211 +9431,214 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570890.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="J39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="K39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="L39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="M39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="N39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="O39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="P39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Q39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="R39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="S39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="T39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="U39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="V39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="W39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="X39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Y39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="Z39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AA39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AB39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AC39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AD39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AE39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AF39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AG39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AH39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AI39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AK39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AL39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AM39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AN39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AO39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AP39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AR39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AS39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AT39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AU39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AV39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AW39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AX39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AY39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="AZ39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BA39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BB39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BC39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BD39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BE39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BF39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BG39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BH39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BI39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BJ39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BK39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BL39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BM39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BN39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BO39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BP39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BQ39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BR39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BS39" t="n">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="BT39" t="n">
-        <v>1229</v>
+        <v>1249</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00642649</t>
+          <t>PB00642648</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Blanc</t>
+          <t>Apple iPhone 16 512 Go Rose</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -9529,7 +9648,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -9545,7 +9664,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642649.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -9738,18 +9857,21 @@
         <v>1249</v>
       </c>
       <c r="BT40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="BU40" t="n">
         <v>1249</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00642648</t>
+          <t>PB00702819</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 512 Go Rose</t>
+          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -9766,7 +9888,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -9775,211 +9897,214 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642648.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="J41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="K41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="L41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="M41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="N41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="O41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="P41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Q41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="R41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="S41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="T41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="U41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="V41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="W41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="X41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Y41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="Z41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AA41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AB41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AC41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AD41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AE41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AF41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AG41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AH41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AI41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AK41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AL41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AM41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AN41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AO41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AP41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AR41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AS41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AT41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AU41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AV41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AW41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AX41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AY41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="AZ41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BA41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BB41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BC41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BD41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BE41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BF41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BG41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BH41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BI41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BJ41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BK41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BL41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BM41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BN41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BO41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BP41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BQ41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BR41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BS41" t="n">
-        <v>1249</v>
+        <v>1329</v>
       </c>
       <c r="BT41" t="n">
-        <v>1249</v>
+        <v>1329</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00702819</t>
+          <t>PB00702822</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10005,7 +10130,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702819.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -10198,18 +10323,21 @@
         <v>1329</v>
       </c>
       <c r="BT42" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU42" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00702822</t>
+          <t>PB00702820</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10235,7 +10363,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702822.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -10428,18 +10556,21 @@
         <v>1329</v>
       </c>
       <c r="BT43" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU43" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00702820</t>
+          <t>PB00702798</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 512 Go Blanc nuage</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10456,7 +10587,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -10465,7 +10596,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -10658,18 +10789,21 @@
         <v>1329</v>
       </c>
       <c r="BT44" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU44" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00702798</t>
+          <t>PB00702810</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Blanc nuage</t>
+          <t>Apple iPhone Air 512 Go Bleu ciel</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10695,7 +10829,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702798.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -10888,18 +11022,21 @@
         <v>1329</v>
       </c>
       <c r="BT45" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU45" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00702810</t>
+          <t>PB00702793</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Bleu ciel</t>
+          <t>Apple iPhone Air 512 Go Noir sidéral</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10925,7 +11062,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702810.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -11118,18 +11255,21 @@
         <v>1329</v>
       </c>
       <c r="BT46" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU46" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00702793</t>
+          <t>PB00702802</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Noir sidéral</t>
+          <t>Apple iPhone Air 512 Go Or clair</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -11155,7 +11295,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702793.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -11348,18 +11488,21 @@
         <v>1329</v>
       </c>
       <c r="BT47" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU47" t="n">
         <v>1329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00702802</t>
+          <t>PB00642633</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 512 Go Or clair</t>
+          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -11376,7 +11519,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -11385,211 +11528,214 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702802.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="J48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="K48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="L48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="M48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="N48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="O48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="P48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Q48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="R48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="S48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="T48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="U48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="V48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="W48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="X48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Y48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="Z48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AA48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AB48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AC48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AD48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AE48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AF48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AG48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AH48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AI48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AK48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AL48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AM48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AN48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AO48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AP48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AR48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AS48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AT48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AU48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AV48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AW48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AX48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AY48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BA48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BB48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BC48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BD48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BE48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BF48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BG48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BH48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BI48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BJ48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BK48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BL48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BM48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BN48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BO48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BP48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BQ48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BR48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BS48" t="n">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BT48" t="n">
-        <v>1329</v>
+        <v>1349</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00642633</t>
+          <t>PB00702830</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus 512 Go Blanc</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -11606,7 +11752,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -11615,211 +11761,214 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00642633.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="J49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="K49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="L49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="M49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="N49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="O49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="P49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Q49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="R49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="S49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="T49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="U49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="V49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="W49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="X49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Y49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="Z49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AA49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AB49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AC49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AD49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AE49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AF49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AG49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AH49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AI49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AK49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AL49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AM49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AN49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AO49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AP49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AR49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AS49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AT49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AU49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AV49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AW49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AX49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AY49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="AZ49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BA49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BB49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BC49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BD49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BE49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BF49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BG49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BH49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BI49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BJ49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BK49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BL49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BM49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BN49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BO49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BP49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BQ49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BR49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BS49" t="n">
-        <v>1349</v>
+        <v>1479</v>
       </c>
       <c r="BT49" t="n">
-        <v>1349</v>
+        <v>1479</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>1479</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00702830</t>
+          <t>PB00702832</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -11845,7 +11994,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702830.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -12038,18 +12187,21 @@
         <v>1479</v>
       </c>
       <c r="BT50" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BU50" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00702832</t>
+          <t>PB00702831</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -12075,7 +12227,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702832.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -12268,18 +12420,21 @@
         <v>1479</v>
       </c>
       <c r="BT51" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BU51" t="n">
         <v>1479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00702831</t>
+          <t>PB00702823</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 256 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -12289,7 +12444,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -12305,211 +12460,214 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702831.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="J52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="K52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="L52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="M52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="N52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="O52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="P52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Q52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="R52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="S52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="T52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="U52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="V52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="W52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="X52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Y52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="Z52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AA52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AB52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AC52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AD52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AE52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AF52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AG52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AH52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AI52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AK52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AL52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AM52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AN52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AO52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AP52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AR52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AS52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AT52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AU52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AV52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AW52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AX52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AY52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BA52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BB52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BC52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BD52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BE52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BF52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BG52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BH52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BI52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BJ52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BK52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BL52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BM52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BN52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BO52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BP52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BQ52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BR52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BS52" t="n">
-        <v>1479</v>
+        <v>1579</v>
       </c>
       <c r="BT52" t="n">
-        <v>1479</v>
+        <v>1579</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>1579</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00702823</t>
+          <t>PB00702825</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -12519,7 +12677,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -12535,7 +12693,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702823.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -12728,18 +12886,21 @@
         <v>1579</v>
       </c>
       <c r="BT53" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BU53" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00702825</t>
+          <t>PB00702824</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -12749,7 +12910,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -12765,7 +12926,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -12958,18 +13119,21 @@
         <v>1579</v>
       </c>
       <c r="BT54" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BU54" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00702824</t>
+          <t>PB00702799</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone Air 1 To Blanc nuage</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -12986,7 +13150,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -12995,7 +13159,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702824.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -13188,18 +13352,21 @@
         <v>1579</v>
       </c>
       <c r="BT55" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BU55" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00702799</t>
+          <t>PB00702812</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Blanc nuage</t>
+          <t>Apple iPhone Air 1 To Bleu ciel</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -13225,7 +13392,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702799.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -13418,18 +13585,21 @@
         <v>1579</v>
       </c>
       <c r="BT56" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BU56" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00702812</t>
+          <t>PB00702794</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Bleu ciel</t>
+          <t>Apple iPhone Air 1 To Noir sidéral</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -13439,7 +13609,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -13455,7 +13625,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -13648,18 +13818,21 @@
         <v>1579</v>
       </c>
       <c r="BT57" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BU57" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00702794</t>
+          <t>PB00702805</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Noir sidéral</t>
+          <t>Apple iPhone Air 1 To Or clair</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -13669,7 +13842,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -13685,7 +13858,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702794.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -13878,18 +14051,21 @@
         <v>1579</v>
       </c>
       <c r="BT58" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BU58" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00702805</t>
+          <t>PB00702833</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apple iPhone Air 1 To Or clair</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -13899,14 +14075,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -13915,211 +14091,214 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702805.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="J59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="K59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="L59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="M59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="N59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="O59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="P59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Q59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="R59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="S59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="T59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="U59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="V59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="W59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="X59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Y59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="Z59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AA59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AB59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AC59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AD59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AE59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AF59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AG59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AH59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AI59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AK59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AL59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AM59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AN59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AO59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AP59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AR59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AS59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AT59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AU59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AV59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AW59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AX59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AY59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="AZ59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BA59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BB59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BC59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BD59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BE59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BF59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BG59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BH59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BI59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BJ59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BK59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BL59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BM59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BN59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BO59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BP59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BQ59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BR59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BS59" t="n">
-        <v>1579</v>
+        <v>1729</v>
       </c>
       <c r="BT59" t="n">
-        <v>1579</v>
+        <v>1729</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>1729</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00702833</t>
+          <t>PB00702835</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Argent1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -14129,7 +14308,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -14145,7 +14324,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702833.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -14338,18 +14517,21 @@
         <v>1729</v>
       </c>
       <c r="BT60" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BU60" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00702835</t>
+          <t>PB00702834</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -14359,7 +14541,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -14375,7 +14557,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702835.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -14568,18 +14750,21 @@
         <v>1729</v>
       </c>
       <c r="BT61" t="n">
+        <v>1729</v>
+      </c>
+      <c r="BU61" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00702834</t>
+          <t>PB00702826</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 512 Go Orange Cosmique1</t>
+          <t>Apple iPhone 17 Pro 1 To Argent</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -14589,7 +14774,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -14605,211 +14790,214 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702834.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="J62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="K62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="L62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="M62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="N62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="O62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="P62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Q62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="R62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="S62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="T62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="U62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="V62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="W62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="X62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Y62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="Z62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AA62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AB62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AC62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AD62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AE62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AF62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AG62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AH62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AI62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AK62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AL62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AM62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AN62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AO62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AP62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AR62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AS62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AT62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AU62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AV62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AW62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AX62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AY62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="AZ62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BA62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BB62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BC62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BD62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BE62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BF62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BG62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BH62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BI62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BJ62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BK62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BL62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BM62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BN62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BO62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BP62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BQ62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BR62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BS62" t="n">
-        <v>1729</v>
+        <v>1829</v>
       </c>
       <c r="BT62" t="n">
-        <v>1729</v>
+        <v>1829</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00702826</t>
+          <t>PB00702828</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Argent</t>
+          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -14835,7 +15023,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702826.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -15028,18 +15216,21 @@
         <v>1829</v>
       </c>
       <c r="BT63" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BU63" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00702828</t>
+          <t>PB00702827</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -15065,7 +15256,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702828.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -15258,18 +15449,21 @@
         <v>1829</v>
       </c>
       <c r="BT64" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BU64" t="n">
         <v>1829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00702827</t>
+          <t>PB00702836</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -15295,211 +15489,214 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702827.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="J65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="K65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="L65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="M65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="N65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="O65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="P65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Q65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="R65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="S65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="T65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="U65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="V65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="W65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="X65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Y65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="Z65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AA65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AB65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AC65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AD65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AE65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AF65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AG65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AH65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AI65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AK65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AL65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AM65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AN65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AO65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AP65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AR65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AS65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AT65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AU65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AV65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AW65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AX65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AY65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="AZ65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BA65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BB65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BC65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BD65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BE65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BF65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BG65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BH65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BI65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BJ65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BK65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BL65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BM65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BN65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BO65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BP65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BQ65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BR65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BS65" t="n">
-        <v>1829</v>
+        <v>1979</v>
       </c>
       <c r="BT65" t="n">
-        <v>1829</v>
+        <v>1979</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>1979</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00702836</t>
+          <t>PB00702838</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Argent</t>
+          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -15525,7 +15722,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702836.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -15718,18 +15915,21 @@
         <v>1979</v>
       </c>
       <c r="BT66" t="n">
+        <v>1979</v>
+      </c>
+      <c r="BU66" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00702838</t>
+          <t>PB00702837</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Bleu Intense1</t>
+          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -15755,7 +15955,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702838.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -15948,18 +16148,21 @@
         <v>1979</v>
       </c>
       <c r="BT67" t="n">
+        <v>1979</v>
+      </c>
+      <c r="BU67" t="n">
         <v>1979</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00702837</t>
+          <t>PB00702839</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 1 To Orange Cosmique</t>
+          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -15985,211 +16188,214 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702837.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="J68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="K68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="L68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="M68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="N68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="O68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="P68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Q68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="R68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="S68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="T68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="U68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="V68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="W68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="X68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Y68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="Z68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AA68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AB68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AC68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AD68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AE68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AF68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AG68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AH68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AI68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AK68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AL68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AM68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AN68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AO68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AP68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AR68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AS68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AT68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AU68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AV68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AW68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AX68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AY68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="AZ68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BA68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BB68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BC68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BD68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BE68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BF68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BG68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BH68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BI68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BJ68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BK68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BL68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BM68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BN68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BO68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BP68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BQ68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BR68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BS68" t="n">
-        <v>1979</v>
+        <v>2479</v>
       </c>
       <c r="BT68" t="n">
-        <v>1979</v>
+        <v>2479</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>2479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00702839</t>
+          <t>PB00702841</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Argent2</t>
+          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -16215,7 +16421,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702839.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -16408,18 +16614,21 @@
         <v>2479</v>
       </c>
       <c r="BT69" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BU69" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00702841</t>
+          <t>PB00702840</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Bleu Intense</t>
+          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -16445,7 +16654,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702841.html</t>
+          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -16638,18 +16847,21 @@
         <v>2479</v>
       </c>
       <c r="BT70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BU70" t="n">
         <v>2479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00702840</t>
+          <t>PB00570867</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Apple iPhone 17 Pro Max 2 To Orange Cosmique2</t>
+          <t>Apple iPhone 15 512 Go Rose</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -16659,14 +16871,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -16675,211 +16887,150 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00702840.html</t>
+          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="J71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="K71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="L71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="M71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="N71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="O71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="P71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Q71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="R71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="S71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="T71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="U71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="V71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="W71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="X71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Y71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="Z71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AA71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AB71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AC71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AD71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AE71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AF71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AG71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AH71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AI71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AJ71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AK71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AL71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AM71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AN71" t="n">
-        <v>2479</v>
+        <v>1099</v>
       </c>
       <c r="AO71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BL71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BP71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BQ71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BR71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BS71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="BT71" t="n">
-        <v>2479</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AU71" t="inlineStr"/>
+      <c r="AV71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
+      <c r="AZ71" t="inlineStr"/>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
+      <c r="BI71" t="inlineStr"/>
+      <c r="BJ71" t="inlineStr"/>
+      <c r="BK71" t="inlineStr"/>
+      <c r="BL71" t="inlineStr"/>
+      <c r="BM71" t="inlineStr"/>
+      <c r="BN71" t="inlineStr"/>
+      <c r="BO71" t="inlineStr"/>
+      <c r="BP71" t="inlineStr"/>
+      <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
+      <c r="BS71" t="inlineStr"/>
+      <c r="BT71" t="inlineStr"/>
+      <c r="BU71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00570867</t>
+          <t>PB00642642</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 512 Go Rose</t>
+          <t>Apple iPhone 16 Plus 128 Go Rose</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -16889,14 +17040,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -16905,139 +17056,202 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00570867.html</t>
+          <t>https://www.ldlc.com/fiche/PB00642642.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="J72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="K72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="L72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="M72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="N72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="O72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="P72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="Q72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="R72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="S72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="T72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="U72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="V72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="W72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="X72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="Y72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="Z72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AA72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AB72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AC72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AD72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AE72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AF72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AG72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AH72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AI72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AK72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AL72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AM72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AN72" t="n">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="AO72" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="inlineStr"/>
-      <c r="AU72" t="inlineStr"/>
-      <c r="AV72" t="inlineStr"/>
-      <c r="AW72" t="inlineStr"/>
-      <c r="AX72" t="inlineStr"/>
-      <c r="AY72" t="inlineStr"/>
-      <c r="AZ72" t="inlineStr"/>
-      <c r="BA72" t="inlineStr"/>
-      <c r="BB72" t="inlineStr"/>
-      <c r="BC72" t="inlineStr"/>
-      <c r="BD72" t="inlineStr"/>
-      <c r="BE72" t="inlineStr"/>
-      <c r="BF72" t="inlineStr"/>
-      <c r="BG72" t="inlineStr"/>
-      <c r="BH72" t="inlineStr"/>
-      <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
-      <c r="BL72" t="inlineStr"/>
-      <c r="BM72" t="inlineStr"/>
-      <c r="BN72" t="inlineStr"/>
-      <c r="BO72" t="inlineStr"/>
-      <c r="BP72" t="inlineStr"/>
-      <c r="BQ72" t="inlineStr"/>
-      <c r="BR72" t="inlineStr"/>
-      <c r="BS72" t="inlineStr"/>
-      <c r="BT72" t="inlineStr"/>
+        <v>909</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>909</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>909</v>
+      </c>
+      <c r="BU72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17192,6 +17406,7 @@
       <c r="BR73" t="inlineStr"/>
       <c r="BS73" t="inlineStr"/>
       <c r="BT73" t="inlineStr"/>
+      <c r="BU73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17346,6 +17561,7 @@
       <c r="BR74" t="inlineStr"/>
       <c r="BS74" t="inlineStr"/>
       <c r="BT74" t="inlineStr"/>
+      <c r="BU74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU74"/>
+  <dimension ref="A1:BV74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,6 +787,11 @@
           <t>2026-02-19 05:56:06</t>
         </is>
       </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>2026-02-19 06:55:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1020,6 +1025,9 @@
       <c r="BU2" t="n">
         <v>659</v>
       </c>
+      <c r="BV2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1253,6 +1261,9 @@
       <c r="BU3" t="n">
         <v>659</v>
       </c>
+      <c r="BV3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1484,6 +1495,9 @@
         <v>749</v>
       </c>
       <c r="BU4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BV4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1713,6 +1727,9 @@
       <c r="BU5" t="n">
         <v>749</v>
       </c>
+      <c r="BV5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1946,6 +1963,9 @@
       <c r="BU6" t="n">
         <v>809</v>
       </c>
+      <c r="BV6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2179,6 +2199,9 @@
       <c r="BU7" t="n">
         <v>809</v>
       </c>
+      <c r="BV7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2412,6 +2435,9 @@
       <c r="BU8" t="n">
         <v>809</v>
       </c>
+      <c r="BV8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2645,6 +2671,9 @@
       <c r="BU9" t="n">
         <v>809</v>
       </c>
+      <c r="BV9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2878,6 +2907,9 @@
       <c r="BU10" t="n">
         <v>809</v>
       </c>
+      <c r="BV10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3111,6 +3143,9 @@
       <c r="BU11" t="n">
         <v>849</v>
       </c>
+      <c r="BV11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3344,6 +3379,9 @@
       <c r="BU12" t="n">
         <v>899</v>
       </c>
+      <c r="BV12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3577,6 +3615,9 @@
       <c r="BU13" t="n">
         <v>899</v>
       </c>
+      <c r="BV13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3810,6 +3851,9 @@
       <c r="BU14" t="n">
         <v>909</v>
       </c>
+      <c r="BV14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4043,6 +4087,9 @@
       <c r="BU15" t="n">
         <v>909</v>
       </c>
+      <c r="BV15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4276,6 +4323,9 @@
       <c r="BU16" t="n">
         <v>909</v>
       </c>
+      <c r="BV16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4505,6 +4555,9 @@
       <c r="BU17" t="n">
         <v>949</v>
       </c>
+      <c r="BV17" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4738,6 +4791,9 @@
       <c r="BU18" t="n">
         <v>969</v>
       </c>
+      <c r="BV18" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4971,6 +5027,9 @@
       <c r="BU19" t="n">
         <v>969</v>
       </c>
+      <c r="BV19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5204,6 +5263,9 @@
       <c r="BU20" t="n">
         <v>969</v>
       </c>
+      <c r="BV20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5437,6 +5499,9 @@
       <c r="BU21" t="n">
         <v>969</v>
       </c>
+      <c r="BV21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5670,6 +5735,9 @@
       <c r="BU22" t="n">
         <v>969</v>
       </c>
+      <c r="BV22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5903,6 +5971,9 @@
       <c r="BU23" t="n">
         <v>999</v>
       </c>
+      <c r="BV23" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6136,6 +6207,9 @@
       <c r="BU24" t="n">
         <v>999</v>
       </c>
+      <c r="BV24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6367,6 +6441,9 @@
       <c r="BU25" t="n">
         <v>1039</v>
       </c>
+      <c r="BV25" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6600,6 +6677,9 @@
       <c r="BU26" t="n">
         <v>1079</v>
       </c>
+      <c r="BV26" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6833,6 +6913,9 @@
       <c r="BU27" t="n">
         <v>1079</v>
       </c>
+      <c r="BV27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7066,6 +7149,9 @@
       <c r="BU28" t="n">
         <v>1079</v>
       </c>
+      <c r="BV28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7299,6 +7385,9 @@
       <c r="BU29" t="n">
         <v>1079</v>
       </c>
+      <c r="BV29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7532,6 +7621,9 @@
       <c r="BU30" t="n">
         <v>1099</v>
       </c>
+      <c r="BV30" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7765,6 +7857,9 @@
       <c r="BU31" t="n">
         <v>1099</v>
       </c>
+      <c r="BV31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7998,6 +8093,9 @@
       <c r="BU32" t="n">
         <v>1199</v>
       </c>
+      <c r="BV32" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8231,6 +8329,9 @@
       <c r="BU33" t="n">
         <v>1219</v>
       </c>
+      <c r="BV33" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8464,6 +8565,9 @@
       <c r="BU34" t="n">
         <v>1219</v>
       </c>
+      <c r="BV34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8697,6 +8801,9 @@
       <c r="BU35" t="n">
         <v>1219</v>
       </c>
+      <c r="BV35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8930,6 +9037,9 @@
       <c r="BU36" t="n">
         <v>1219</v>
       </c>
+      <c r="BV36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9163,6 +9273,9 @@
       <c r="BU37" t="n">
         <v>1219</v>
       </c>
+      <c r="BV37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9396,6 +9509,9 @@
       <c r="BU38" t="n">
         <v>1229</v>
       </c>
+      <c r="BV38" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9629,6 +9745,9 @@
       <c r="BU39" t="n">
         <v>1249</v>
       </c>
+      <c r="BV39" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9862,6 +9981,9 @@
       <c r="BU40" t="n">
         <v>1249</v>
       </c>
+      <c r="BV40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10095,6 +10217,9 @@
       <c r="BU41" t="n">
         <v>1329</v>
       </c>
+      <c r="BV41" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10328,6 +10453,9 @@
       <c r="BU42" t="n">
         <v>1329</v>
       </c>
+      <c r="BV42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10561,6 +10689,9 @@
       <c r="BU43" t="n">
         <v>1329</v>
       </c>
+      <c r="BV43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10794,6 +10925,9 @@
       <c r="BU44" t="n">
         <v>1329</v>
       </c>
+      <c r="BV44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11027,6 +11161,9 @@
       <c r="BU45" t="n">
         <v>1329</v>
       </c>
+      <c r="BV45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11260,6 +11397,9 @@
       <c r="BU46" t="n">
         <v>1329</v>
       </c>
+      <c r="BV46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11493,6 +11633,9 @@
       <c r="BU47" t="n">
         <v>1329</v>
       </c>
+      <c r="BV47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11726,6 +11869,9 @@
       <c r="BU48" t="n">
         <v>1349</v>
       </c>
+      <c r="BV48" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11959,6 +12105,9 @@
       <c r="BU49" t="n">
         <v>1479</v>
       </c>
+      <c r="BV49" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12192,6 +12341,9 @@
       <c r="BU50" t="n">
         <v>1479</v>
       </c>
+      <c r="BV50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12425,6 +12577,9 @@
       <c r="BU51" t="n">
         <v>1479</v>
       </c>
+      <c r="BV51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12658,6 +12813,9 @@
       <c r="BU52" t="n">
         <v>1579</v>
       </c>
+      <c r="BV52" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12891,6 +13049,9 @@
       <c r="BU53" t="n">
         <v>1579</v>
       </c>
+      <c r="BV53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13124,6 +13285,9 @@
       <c r="BU54" t="n">
         <v>1579</v>
       </c>
+      <c r="BV54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13357,6 +13521,9 @@
       <c r="BU55" t="n">
         <v>1579</v>
       </c>
+      <c r="BV55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13590,6 +13757,9 @@
       <c r="BU56" t="n">
         <v>1579</v>
       </c>
+      <c r="BV56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13823,6 +13993,9 @@
       <c r="BU57" t="n">
         <v>1579</v>
       </c>
+      <c r="BV57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14056,6 +14229,9 @@
       <c r="BU58" t="n">
         <v>1579</v>
       </c>
+      <c r="BV58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14289,6 +14465,9 @@
       <c r="BU59" t="n">
         <v>1729</v>
       </c>
+      <c r="BV59" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14522,6 +14701,9 @@
       <c r="BU60" t="n">
         <v>1729</v>
       </c>
+      <c r="BV60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14755,6 +14937,9 @@
       <c r="BU61" t="n">
         <v>1729</v>
       </c>
+      <c r="BV61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14988,6 +15173,9 @@
       <c r="BU62" t="n">
         <v>1829</v>
       </c>
+      <c r="BV62" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15221,6 +15409,9 @@
       <c r="BU63" t="n">
         <v>1829</v>
       </c>
+      <c r="BV63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15454,6 +15645,9 @@
       <c r="BU64" t="n">
         <v>1829</v>
       </c>
+      <c r="BV64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15687,6 +15881,9 @@
       <c r="BU65" t="n">
         <v>1979</v>
       </c>
+      <c r="BV65" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15920,6 +16117,9 @@
       <c r="BU66" t="n">
         <v>1979</v>
       </c>
+      <c r="BV66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16153,6 +16353,9 @@
       <c r="BU67" t="n">
         <v>1979</v>
       </c>
+      <c r="BV67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16386,6 +16589,9 @@
       <c r="BU68" t="n">
         <v>2479</v>
       </c>
+      <c r="BV68" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16619,6 +16825,9 @@
       <c r="BU69" t="n">
         <v>2479</v>
       </c>
+      <c r="BV69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16850,6 +17059,9 @@
         <v>2479</v>
       </c>
       <c r="BU70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BV70" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -17021,6 +17233,7 @@
       <c r="BS71" t="inlineStr"/>
       <c r="BT71" t="inlineStr"/>
       <c r="BU71" t="inlineStr"/>
+      <c r="BV71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17252,6 +17465,7 @@
         <v>909</v>
       </c>
       <c r="BU72" t="inlineStr"/>
+      <c r="BV72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17407,6 +17621,7 @@
       <c r="BS73" t="inlineStr"/>
       <c r="BT73" t="inlineStr"/>
       <c r="BU73" t="inlineStr"/>
+      <c r="BV73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17562,6 +17777,7 @@
       <c r="BS74" t="inlineStr"/>
       <c r="BT74" t="inlineStr"/>
       <c r="BU74" t="inlineStr"/>
+      <c r="BV74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV74"/>
+  <dimension ref="A1:BW74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,6 +792,11 @@
           <t>2026-02-19 06:55:09</t>
         </is>
       </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>2026-02-19 07:46:55</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1028,6 +1033,9 @@
       <c r="BV2" t="n">
         <v>659</v>
       </c>
+      <c r="BW2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1264,6 +1272,9 @@
       <c r="BV3" t="n">
         <v>659</v>
       </c>
+      <c r="BW3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1498,6 +1509,9 @@
         <v>749</v>
       </c>
       <c r="BV4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BW4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1730,6 +1744,9 @@
       <c r="BV5" t="n">
         <v>749</v>
       </c>
+      <c r="BW5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1966,6 +1983,9 @@
       <c r="BV6" t="n">
         <v>809</v>
       </c>
+      <c r="BW6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2202,6 +2222,9 @@
       <c r="BV7" t="n">
         <v>809</v>
       </c>
+      <c r="BW7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2438,6 +2461,9 @@
       <c r="BV8" t="n">
         <v>809</v>
       </c>
+      <c r="BW8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2674,6 +2700,9 @@
       <c r="BV9" t="n">
         <v>809</v>
       </c>
+      <c r="BW9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2910,6 +2939,9 @@
       <c r="BV10" t="n">
         <v>809</v>
       </c>
+      <c r="BW10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3146,6 +3178,9 @@
       <c r="BV11" t="n">
         <v>849</v>
       </c>
+      <c r="BW11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3382,6 +3417,9 @@
       <c r="BV12" t="n">
         <v>899</v>
       </c>
+      <c r="BW12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3618,6 +3656,9 @@
       <c r="BV13" t="n">
         <v>899</v>
       </c>
+      <c r="BW13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3854,6 +3895,9 @@
       <c r="BV14" t="n">
         <v>909</v>
       </c>
+      <c r="BW14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4090,6 +4134,9 @@
       <c r="BV15" t="n">
         <v>909</v>
       </c>
+      <c r="BW15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4326,6 +4373,9 @@
       <c r="BV16" t="n">
         <v>909</v>
       </c>
+      <c r="BW16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4558,6 +4608,9 @@
       <c r="BV17" t="n">
         <v>949</v>
       </c>
+      <c r="BW17" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4794,6 +4847,9 @@
       <c r="BV18" t="n">
         <v>969</v>
       </c>
+      <c r="BW18" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5030,6 +5086,9 @@
       <c r="BV19" t="n">
         <v>969</v>
       </c>
+      <c r="BW19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5266,6 +5325,9 @@
       <c r="BV20" t="n">
         <v>969</v>
       </c>
+      <c r="BW20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5502,6 +5564,9 @@
       <c r="BV21" t="n">
         <v>969</v>
       </c>
+      <c r="BW21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5738,6 +5803,9 @@
       <c r="BV22" t="n">
         <v>969</v>
       </c>
+      <c r="BW22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5974,6 +6042,9 @@
       <c r="BV23" t="n">
         <v>999</v>
       </c>
+      <c r="BW23" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6210,6 +6281,9 @@
       <c r="BV24" t="n">
         <v>999</v>
       </c>
+      <c r="BW24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6444,6 +6518,9 @@
       <c r="BV25" t="n">
         <v>1039</v>
       </c>
+      <c r="BW25" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6680,6 +6757,9 @@
       <c r="BV26" t="n">
         <v>1079</v>
       </c>
+      <c r="BW26" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6916,6 +6996,9 @@
       <c r="BV27" t="n">
         <v>1079</v>
       </c>
+      <c r="BW27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7152,6 +7235,9 @@
       <c r="BV28" t="n">
         <v>1079</v>
       </c>
+      <c r="BW28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7388,6 +7474,9 @@
       <c r="BV29" t="n">
         <v>1079</v>
       </c>
+      <c r="BW29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7624,6 +7713,9 @@
       <c r="BV30" t="n">
         <v>1099</v>
       </c>
+      <c r="BW30" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7860,6 +7952,9 @@
       <c r="BV31" t="n">
         <v>1099</v>
       </c>
+      <c r="BW31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8096,6 +8191,9 @@
       <c r="BV32" t="n">
         <v>1199</v>
       </c>
+      <c r="BW32" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8332,6 +8430,9 @@
       <c r="BV33" t="n">
         <v>1219</v>
       </c>
+      <c r="BW33" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8568,6 +8669,9 @@
       <c r="BV34" t="n">
         <v>1219</v>
       </c>
+      <c r="BW34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8804,6 +8908,9 @@
       <c r="BV35" t="n">
         <v>1219</v>
       </c>
+      <c r="BW35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9040,6 +9147,9 @@
       <c r="BV36" t="n">
         <v>1219</v>
       </c>
+      <c r="BW36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9276,6 +9386,9 @@
       <c r="BV37" t="n">
         <v>1219</v>
       </c>
+      <c r="BW37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9512,6 +9625,9 @@
       <c r="BV38" t="n">
         <v>1229</v>
       </c>
+      <c r="BW38" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9748,6 +9864,9 @@
       <c r="BV39" t="n">
         <v>1249</v>
       </c>
+      <c r="BW39" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9984,6 +10103,9 @@
       <c r="BV40" t="n">
         <v>1249</v>
       </c>
+      <c r="BW40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10220,6 +10342,9 @@
       <c r="BV41" t="n">
         <v>1329</v>
       </c>
+      <c r="BW41" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10456,6 +10581,9 @@
       <c r="BV42" t="n">
         <v>1329</v>
       </c>
+      <c r="BW42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10692,6 +10820,9 @@
       <c r="BV43" t="n">
         <v>1329</v>
       </c>
+      <c r="BW43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10928,6 +11059,9 @@
       <c r="BV44" t="n">
         <v>1329</v>
       </c>
+      <c r="BW44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11164,6 +11298,9 @@
       <c r="BV45" t="n">
         <v>1329</v>
       </c>
+      <c r="BW45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11400,6 +11537,9 @@
       <c r="BV46" t="n">
         <v>1329</v>
       </c>
+      <c r="BW46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11636,6 +11776,9 @@
       <c r="BV47" t="n">
         <v>1329</v>
       </c>
+      <c r="BW47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11872,6 +12015,9 @@
       <c r="BV48" t="n">
         <v>1349</v>
       </c>
+      <c r="BW48" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12108,6 +12254,9 @@
       <c r="BV49" t="n">
         <v>1479</v>
       </c>
+      <c r="BW49" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12344,6 +12493,9 @@
       <c r="BV50" t="n">
         <v>1479</v>
       </c>
+      <c r="BW50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12363,7 +12515,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -12578,6 +12730,9 @@
         <v>1479</v>
       </c>
       <c r="BV51" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BW51" t="n">
         <v>1479</v>
       </c>
     </row>
@@ -12816,6 +12971,9 @@
       <c r="BV52" t="n">
         <v>1579</v>
       </c>
+      <c r="BW52" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13052,6 +13210,9 @@
       <c r="BV53" t="n">
         <v>1579</v>
       </c>
+      <c r="BW53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13288,6 +13449,9 @@
       <c r="BV54" t="n">
         <v>1579</v>
       </c>
+      <c r="BW54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13524,6 +13688,9 @@
       <c r="BV55" t="n">
         <v>1579</v>
       </c>
+      <c r="BW55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13760,6 +13927,9 @@
       <c r="BV56" t="n">
         <v>1579</v>
       </c>
+      <c r="BW56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13996,6 +14166,9 @@
       <c r="BV57" t="n">
         <v>1579</v>
       </c>
+      <c r="BW57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14232,6 +14405,9 @@
       <c r="BV58" t="n">
         <v>1579</v>
       </c>
+      <c r="BW58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14468,6 +14644,9 @@
       <c r="BV59" t="n">
         <v>1729</v>
       </c>
+      <c r="BW59" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14704,6 +14883,9 @@
       <c r="BV60" t="n">
         <v>1729</v>
       </c>
+      <c r="BW60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14940,6 +15122,9 @@
       <c r="BV61" t="n">
         <v>1729</v>
       </c>
+      <c r="BW61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15176,6 +15361,9 @@
       <c r="BV62" t="n">
         <v>1829</v>
       </c>
+      <c r="BW62" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15412,6 +15600,9 @@
       <c r="BV63" t="n">
         <v>1829</v>
       </c>
+      <c r="BW63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15648,6 +15839,9 @@
       <c r="BV64" t="n">
         <v>1829</v>
       </c>
+      <c r="BW64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15884,6 +16078,9 @@
       <c r="BV65" t="n">
         <v>1979</v>
       </c>
+      <c r="BW65" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16120,6 +16317,9 @@
       <c r="BV66" t="n">
         <v>1979</v>
       </c>
+      <c r="BW66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16356,6 +16556,9 @@
       <c r="BV67" t="n">
         <v>1979</v>
       </c>
+      <c r="BW67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16592,6 +16795,9 @@
       <c r="BV68" t="n">
         <v>2479</v>
       </c>
+      <c r="BW68" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16828,6 +17034,9 @@
       <c r="BV69" t="n">
         <v>2479</v>
       </c>
+      <c r="BW69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17062,6 +17271,9 @@
         <v>2479</v>
       </c>
       <c r="BV70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BW70" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -17234,6 +17446,7 @@
       <c r="BT71" t="inlineStr"/>
       <c r="BU71" t="inlineStr"/>
       <c r="BV71" t="inlineStr"/>
+      <c r="BW71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17466,6 +17679,7 @@
       </c>
       <c r="BU72" t="inlineStr"/>
       <c r="BV72" t="inlineStr"/>
+      <c r="BW72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17622,6 +17836,7 @@
       <c r="BT73" t="inlineStr"/>
       <c r="BU73" t="inlineStr"/>
       <c r="BV73" t="inlineStr"/>
+      <c r="BW73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17778,6 +17993,7 @@
       <c r="BT74" t="inlineStr"/>
       <c r="BU74" t="inlineStr"/>
       <c r="BV74" t="inlineStr"/>
+      <c r="BW74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW74"/>
+  <dimension ref="A1:BX74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,6 +797,11 @@
           <t>2026-02-19 07:46:55</t>
         </is>
       </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>2026-02-19 08:37:42</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1036,6 +1041,9 @@
       <c r="BW2" t="n">
         <v>659</v>
       </c>
+      <c r="BX2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1275,6 +1283,9 @@
       <c r="BW3" t="n">
         <v>659</v>
       </c>
+      <c r="BX3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1512,6 +1523,9 @@
         <v>749</v>
       </c>
       <c r="BW4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BX4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1747,6 +1761,9 @@
       <c r="BW5" t="n">
         <v>749</v>
       </c>
+      <c r="BX5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1986,6 +2003,9 @@
       <c r="BW6" t="n">
         <v>809</v>
       </c>
+      <c r="BX6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2225,6 +2245,9 @@
       <c r="BW7" t="n">
         <v>809</v>
       </c>
+      <c r="BX7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2464,6 +2487,9 @@
       <c r="BW8" t="n">
         <v>809</v>
       </c>
+      <c r="BX8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2703,6 +2729,9 @@
       <c r="BW9" t="n">
         <v>809</v>
       </c>
+      <c r="BX9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2942,6 +2971,9 @@
       <c r="BW10" t="n">
         <v>809</v>
       </c>
+      <c r="BX10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3181,6 +3213,9 @@
       <c r="BW11" t="n">
         <v>849</v>
       </c>
+      <c r="BX11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3420,6 +3455,9 @@
       <c r="BW12" t="n">
         <v>899</v>
       </c>
+      <c r="BX12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3659,6 +3697,9 @@
       <c r="BW13" t="n">
         <v>899</v>
       </c>
+      <c r="BX13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3898,6 +3939,9 @@
       <c r="BW14" t="n">
         <v>909</v>
       </c>
+      <c r="BX14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4137,6 +4181,9 @@
       <c r="BW15" t="n">
         <v>909</v>
       </c>
+      <c r="BX15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4376,6 +4423,9 @@
       <c r="BW16" t="n">
         <v>909</v>
       </c>
+      <c r="BX16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4611,6 +4661,9 @@
       <c r="BW17" t="n">
         <v>949</v>
       </c>
+      <c r="BX17" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4850,6 +4903,9 @@
       <c r="BW18" t="n">
         <v>969</v>
       </c>
+      <c r="BX18" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5089,6 +5145,9 @@
       <c r="BW19" t="n">
         <v>969</v>
       </c>
+      <c r="BX19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5328,6 +5387,9 @@
       <c r="BW20" t="n">
         <v>969</v>
       </c>
+      <c r="BX20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5567,6 +5629,9 @@
       <c r="BW21" t="n">
         <v>969</v>
       </c>
+      <c r="BX21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5806,6 +5871,9 @@
       <c r="BW22" t="n">
         <v>969</v>
       </c>
+      <c r="BX22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6045,6 +6113,9 @@
       <c r="BW23" t="n">
         <v>999</v>
       </c>
+      <c r="BX23" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6284,6 +6355,9 @@
       <c r="BW24" t="n">
         <v>999</v>
       </c>
+      <c r="BX24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6521,6 +6595,9 @@
       <c r="BW25" t="n">
         <v>1039</v>
       </c>
+      <c r="BX25" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6760,6 +6837,9 @@
       <c r="BW26" t="n">
         <v>1079</v>
       </c>
+      <c r="BX26" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6999,6 +7079,9 @@
       <c r="BW27" t="n">
         <v>1079</v>
       </c>
+      <c r="BX27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7238,6 +7321,9 @@
       <c r="BW28" t="n">
         <v>1079</v>
       </c>
+      <c r="BX28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7477,6 +7563,9 @@
       <c r="BW29" t="n">
         <v>1079</v>
       </c>
+      <c r="BX29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7716,6 +7805,9 @@
       <c r="BW30" t="n">
         <v>1099</v>
       </c>
+      <c r="BX30" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7955,6 +8047,9 @@
       <c r="BW31" t="n">
         <v>1099</v>
       </c>
+      <c r="BX31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8194,6 +8289,9 @@
       <c r="BW32" t="n">
         <v>1199</v>
       </c>
+      <c r="BX32" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8433,6 +8531,9 @@
       <c r="BW33" t="n">
         <v>1219</v>
       </c>
+      <c r="BX33" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8672,6 +8773,9 @@
       <c r="BW34" t="n">
         <v>1219</v>
       </c>
+      <c r="BX34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8911,6 +9015,9 @@
       <c r="BW35" t="n">
         <v>1219</v>
       </c>
+      <c r="BX35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9150,6 +9257,9 @@
       <c r="BW36" t="n">
         <v>1219</v>
       </c>
+      <c r="BX36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9389,6 +9499,9 @@
       <c r="BW37" t="n">
         <v>1219</v>
       </c>
+      <c r="BX37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9628,6 +9741,9 @@
       <c r="BW38" t="n">
         <v>1229</v>
       </c>
+      <c r="BX38" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9867,6 +9983,9 @@
       <c r="BW39" t="n">
         <v>1249</v>
       </c>
+      <c r="BX39" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10106,6 +10225,9 @@
       <c r="BW40" t="n">
         <v>1249</v>
       </c>
+      <c r="BX40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10345,6 +10467,9 @@
       <c r="BW41" t="n">
         <v>1329</v>
       </c>
+      <c r="BX41" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10584,6 +10709,9 @@
       <c r="BW42" t="n">
         <v>1329</v>
       </c>
+      <c r="BX42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10823,6 +10951,9 @@
       <c r="BW43" t="n">
         <v>1329</v>
       </c>
+      <c r="BX43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11062,6 +11193,9 @@
       <c r="BW44" t="n">
         <v>1329</v>
       </c>
+      <c r="BX44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11301,6 +11435,9 @@
       <c r="BW45" t="n">
         <v>1329</v>
       </c>
+      <c r="BX45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11540,6 +11677,9 @@
       <c r="BW46" t="n">
         <v>1329</v>
       </c>
+      <c r="BX46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11779,6 +11919,9 @@
       <c r="BW47" t="n">
         <v>1329</v>
       </c>
+      <c r="BX47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12018,6 +12161,9 @@
       <c r="BW48" t="n">
         <v>1349</v>
       </c>
+      <c r="BX48" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12257,6 +12403,9 @@
       <c r="BW49" t="n">
         <v>1479</v>
       </c>
+      <c r="BX49" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12496,6 +12645,9 @@
       <c r="BW50" t="n">
         <v>1479</v>
       </c>
+      <c r="BX50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12735,6 +12887,9 @@
       <c r="BW51" t="n">
         <v>1479</v>
       </c>
+      <c r="BX51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12974,6 +13129,9 @@
       <c r="BW52" t="n">
         <v>1579</v>
       </c>
+      <c r="BX52" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13213,6 +13371,9 @@
       <c r="BW53" t="n">
         <v>1579</v>
       </c>
+      <c r="BX53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13452,6 +13613,9 @@
       <c r="BW54" t="n">
         <v>1579</v>
       </c>
+      <c r="BX54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13691,6 +13855,9 @@
       <c r="BW55" t="n">
         <v>1579</v>
       </c>
+      <c r="BX55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13930,6 +14097,9 @@
       <c r="BW56" t="n">
         <v>1579</v>
       </c>
+      <c r="BX56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14169,6 +14339,9 @@
       <c r="BW57" t="n">
         <v>1579</v>
       </c>
+      <c r="BX57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14408,6 +14581,9 @@
       <c r="BW58" t="n">
         <v>1579</v>
       </c>
+      <c r="BX58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14647,6 +14823,9 @@
       <c r="BW59" t="n">
         <v>1729</v>
       </c>
+      <c r="BX59" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14886,6 +15065,9 @@
       <c r="BW60" t="n">
         <v>1729</v>
       </c>
+      <c r="BX60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15125,6 +15307,9 @@
       <c r="BW61" t="n">
         <v>1729</v>
       </c>
+      <c r="BX61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15364,6 +15549,9 @@
       <c r="BW62" t="n">
         <v>1829</v>
       </c>
+      <c r="BX62" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15603,6 +15791,9 @@
       <c r="BW63" t="n">
         <v>1829</v>
       </c>
+      <c r="BX63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15842,6 +16033,9 @@
       <c r="BW64" t="n">
         <v>1829</v>
       </c>
+      <c r="BX64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16081,6 +16275,9 @@
       <c r="BW65" t="n">
         <v>1979</v>
       </c>
+      <c r="BX65" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16320,6 +16517,9 @@
       <c r="BW66" t="n">
         <v>1979</v>
       </c>
+      <c r="BX66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16559,6 +16759,9 @@
       <c r="BW67" t="n">
         <v>1979</v>
       </c>
+      <c r="BX67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16798,6 +17001,9 @@
       <c r="BW68" t="n">
         <v>2479</v>
       </c>
+      <c r="BX68" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17037,6 +17243,9 @@
       <c r="BW69" t="n">
         <v>2479</v>
       </c>
+      <c r="BX69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17274,6 +17483,9 @@
         <v>2479</v>
       </c>
       <c r="BW70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BX70" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -17447,6 +17659,7 @@
       <c r="BU71" t="inlineStr"/>
       <c r="BV71" t="inlineStr"/>
       <c r="BW71" t="inlineStr"/>
+      <c r="BX71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17680,6 +17893,7 @@
       <c r="BU72" t="inlineStr"/>
       <c r="BV72" t="inlineStr"/>
       <c r="BW72" t="inlineStr"/>
+      <c r="BX72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17837,6 +18051,7 @@
       <c r="BU73" t="inlineStr"/>
       <c r="BV73" t="inlineStr"/>
       <c r="BW73" t="inlineStr"/>
+      <c r="BX73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17994,6 +18209,7 @@
       <c r="BU74" t="inlineStr"/>
       <c r="BV74" t="inlineStr"/>
       <c r="BW74" t="inlineStr"/>
+      <c r="BX74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX74"/>
+  <dimension ref="A1:BY74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,6 +802,11 @@
           <t>2026-02-19 08:37:42</t>
         </is>
       </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:40:04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1044,6 +1049,9 @@
       <c r="BX2" t="n">
         <v>659</v>
       </c>
+      <c r="BY2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1286,6 +1294,9 @@
       <c r="BX3" t="n">
         <v>659</v>
       </c>
+      <c r="BY3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1526,6 +1537,9 @@
         <v>749</v>
       </c>
       <c r="BX4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BY4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1764,6 +1778,9 @@
       <c r="BX5" t="n">
         <v>749</v>
       </c>
+      <c r="BY5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2006,6 +2023,9 @@
       <c r="BX6" t="n">
         <v>809</v>
       </c>
+      <c r="BY6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2248,6 +2268,9 @@
       <c r="BX7" t="n">
         <v>809</v>
       </c>
+      <c r="BY7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2490,6 +2513,9 @@
       <c r="BX8" t="n">
         <v>809</v>
       </c>
+      <c r="BY8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2732,6 +2758,9 @@
       <c r="BX9" t="n">
         <v>809</v>
       </c>
+      <c r="BY9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2974,6 +3003,9 @@
       <c r="BX10" t="n">
         <v>809</v>
       </c>
+      <c r="BY10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3216,6 +3248,9 @@
       <c r="BX11" t="n">
         <v>849</v>
       </c>
+      <c r="BY11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3458,6 +3493,9 @@
       <c r="BX12" t="n">
         <v>899</v>
       </c>
+      <c r="BY12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3700,6 +3738,9 @@
       <c r="BX13" t="n">
         <v>899</v>
       </c>
+      <c r="BY13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3942,6 +3983,9 @@
       <c r="BX14" t="n">
         <v>909</v>
       </c>
+      <c r="BY14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4184,6 +4228,9 @@
       <c r="BX15" t="n">
         <v>909</v>
       </c>
+      <c r="BY15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4426,6 +4473,9 @@
       <c r="BX16" t="n">
         <v>909</v>
       </c>
+      <c r="BY16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4664,6 +4714,9 @@
       <c r="BX17" t="n">
         <v>949</v>
       </c>
+      <c r="BY17" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4906,6 +4959,9 @@
       <c r="BX18" t="n">
         <v>969</v>
       </c>
+      <c r="BY18" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5148,6 +5204,9 @@
       <c r="BX19" t="n">
         <v>969</v>
       </c>
+      <c r="BY19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5390,6 +5449,9 @@
       <c r="BX20" t="n">
         <v>969</v>
       </c>
+      <c r="BY20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5632,6 +5694,9 @@
       <c r="BX21" t="n">
         <v>969</v>
       </c>
+      <c r="BY21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5874,6 +5939,9 @@
       <c r="BX22" t="n">
         <v>969</v>
       </c>
+      <c r="BY22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6116,6 +6184,9 @@
       <c r="BX23" t="n">
         <v>999</v>
       </c>
+      <c r="BY23" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6358,6 +6429,9 @@
       <c r="BX24" t="n">
         <v>999</v>
       </c>
+      <c r="BY24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6598,6 +6672,9 @@
       <c r="BX25" t="n">
         <v>1039</v>
       </c>
+      <c r="BY25" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6840,6 +6917,9 @@
       <c r="BX26" t="n">
         <v>1079</v>
       </c>
+      <c r="BY26" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7082,6 +7162,9 @@
       <c r="BX27" t="n">
         <v>1079</v>
       </c>
+      <c r="BY27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7324,6 +7407,9 @@
       <c r="BX28" t="n">
         <v>1079</v>
       </c>
+      <c r="BY28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7566,6 +7652,9 @@
       <c r="BX29" t="n">
         <v>1079</v>
       </c>
+      <c r="BY29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7808,6 +7897,9 @@
       <c r="BX30" t="n">
         <v>1099</v>
       </c>
+      <c r="BY30" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8050,6 +8142,9 @@
       <c r="BX31" t="n">
         <v>1099</v>
       </c>
+      <c r="BY31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8292,6 +8387,9 @@
       <c r="BX32" t="n">
         <v>1199</v>
       </c>
+      <c r="BY32" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8534,6 +8632,9 @@
       <c r="BX33" t="n">
         <v>1219</v>
       </c>
+      <c r="BY33" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8776,6 +8877,9 @@
       <c r="BX34" t="n">
         <v>1219</v>
       </c>
+      <c r="BY34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9018,6 +9122,9 @@
       <c r="BX35" t="n">
         <v>1219</v>
       </c>
+      <c r="BY35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9260,6 +9367,9 @@
       <c r="BX36" t="n">
         <v>1219</v>
       </c>
+      <c r="BY36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9502,6 +9612,9 @@
       <c r="BX37" t="n">
         <v>1219</v>
       </c>
+      <c r="BY37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9744,6 +9857,9 @@
       <c r="BX38" t="n">
         <v>1229</v>
       </c>
+      <c r="BY38" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9986,6 +10102,9 @@
       <c r="BX39" t="n">
         <v>1249</v>
       </c>
+      <c r="BY39" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10228,6 +10347,9 @@
       <c r="BX40" t="n">
         <v>1249</v>
       </c>
+      <c r="BY40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10470,6 +10592,9 @@
       <c r="BX41" t="n">
         <v>1329</v>
       </c>
+      <c r="BY41" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10712,6 +10837,9 @@
       <c r="BX42" t="n">
         <v>1329</v>
       </c>
+      <c r="BY42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10954,6 +11082,9 @@
       <c r="BX43" t="n">
         <v>1329</v>
       </c>
+      <c r="BY43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11196,6 +11327,9 @@
       <c r="BX44" t="n">
         <v>1329</v>
       </c>
+      <c r="BY44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11438,6 +11572,9 @@
       <c r="BX45" t="n">
         <v>1329</v>
       </c>
+      <c r="BY45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11680,6 +11817,9 @@
       <c r="BX46" t="n">
         <v>1329</v>
       </c>
+      <c r="BY46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11922,6 +12062,9 @@
       <c r="BX47" t="n">
         <v>1329</v>
       </c>
+      <c r="BY47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12164,6 +12307,9 @@
       <c r="BX48" t="n">
         <v>1349</v>
       </c>
+      <c r="BY48" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12406,6 +12552,9 @@
       <c r="BX49" t="n">
         <v>1479</v>
       </c>
+      <c r="BY49" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12648,6 +12797,9 @@
       <c r="BX50" t="n">
         <v>1479</v>
       </c>
+      <c r="BY50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12890,6 +13042,9 @@
       <c r="BX51" t="n">
         <v>1479</v>
       </c>
+      <c r="BY51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13132,6 +13287,9 @@
       <c r="BX52" t="n">
         <v>1579</v>
       </c>
+      <c r="BY52" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13374,6 +13532,9 @@
       <c r="BX53" t="n">
         <v>1579</v>
       </c>
+      <c r="BY53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13616,6 +13777,9 @@
       <c r="BX54" t="n">
         <v>1579</v>
       </c>
+      <c r="BY54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13858,6 +14022,9 @@
       <c r="BX55" t="n">
         <v>1579</v>
       </c>
+      <c r="BY55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14100,6 +14267,9 @@
       <c r="BX56" t="n">
         <v>1579</v>
       </c>
+      <c r="BY56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14342,6 +14512,9 @@
       <c r="BX57" t="n">
         <v>1579</v>
       </c>
+      <c r="BY57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14584,6 +14757,9 @@
       <c r="BX58" t="n">
         <v>1579</v>
       </c>
+      <c r="BY58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14826,6 +15002,9 @@
       <c r="BX59" t="n">
         <v>1729</v>
       </c>
+      <c r="BY59" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15068,6 +15247,9 @@
       <c r="BX60" t="n">
         <v>1729</v>
       </c>
+      <c r="BY60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15310,6 +15492,9 @@
       <c r="BX61" t="n">
         <v>1729</v>
       </c>
+      <c r="BY61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15552,6 +15737,9 @@
       <c r="BX62" t="n">
         <v>1829</v>
       </c>
+      <c r="BY62" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15794,6 +15982,9 @@
       <c r="BX63" t="n">
         <v>1829</v>
       </c>
+      <c r="BY63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16036,6 +16227,9 @@
       <c r="BX64" t="n">
         <v>1829</v>
       </c>
+      <c r="BY64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16278,6 +16472,9 @@
       <c r="BX65" t="n">
         <v>1979</v>
       </c>
+      <c r="BY65" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16520,6 +16717,9 @@
       <c r="BX66" t="n">
         <v>1979</v>
       </c>
+      <c r="BY66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16762,6 +16962,9 @@
       <c r="BX67" t="n">
         <v>1979</v>
       </c>
+      <c r="BY67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17004,6 +17207,9 @@
       <c r="BX68" t="n">
         <v>2479</v>
       </c>
+      <c r="BY68" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17246,6 +17452,9 @@
       <c r="BX69" t="n">
         <v>2479</v>
       </c>
+      <c r="BY69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17486,6 +17695,9 @@
         <v>2479</v>
       </c>
       <c r="BX70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BY70" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -17660,6 +17872,7 @@
       <c r="BV71" t="inlineStr"/>
       <c r="BW71" t="inlineStr"/>
       <c r="BX71" t="inlineStr"/>
+      <c r="BY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17894,6 +18107,7 @@
       <c r="BV72" t="inlineStr"/>
       <c r="BW72" t="inlineStr"/>
       <c r="BX72" t="inlineStr"/>
+      <c r="BY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18052,6 +18266,7 @@
       <c r="BV73" t="inlineStr"/>
       <c r="BW73" t="inlineStr"/>
       <c r="BX73" t="inlineStr"/>
+      <c r="BY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18210,6 +18425,7 @@
       <c r="BV74" t="inlineStr"/>
       <c r="BW74" t="inlineStr"/>
       <c r="BX74" t="inlineStr"/>
+      <c r="BY74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY74"/>
+  <dimension ref="A1:BZ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,11 @@
           <t>2026-02-19 09:40:04</t>
         </is>
       </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>2026-02-19 10:38:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1052,6 +1057,9 @@
       <c r="BY2" t="n">
         <v>659</v>
       </c>
+      <c r="BZ2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1297,6 +1305,9 @@
       <c r="BY3" t="n">
         <v>659</v>
       </c>
+      <c r="BZ3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1540,6 +1551,9 @@
         <v>749</v>
       </c>
       <c r="BY4" t="n">
+        <v>749</v>
+      </c>
+      <c r="BZ4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1781,6 +1795,9 @@
       <c r="BY5" t="n">
         <v>749</v>
       </c>
+      <c r="BZ5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2026,6 +2043,9 @@
       <c r="BY6" t="n">
         <v>809</v>
       </c>
+      <c r="BZ6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2271,6 +2291,9 @@
       <c r="BY7" t="n">
         <v>809</v>
       </c>
+      <c r="BZ7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2516,6 +2539,9 @@
       <c r="BY8" t="n">
         <v>809</v>
       </c>
+      <c r="BZ8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2761,6 +2787,9 @@
       <c r="BY9" t="n">
         <v>809</v>
       </c>
+      <c r="BZ9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3006,6 +3035,9 @@
       <c r="BY10" t="n">
         <v>809</v>
       </c>
+      <c r="BZ10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3251,6 +3283,9 @@
       <c r="BY11" t="n">
         <v>849</v>
       </c>
+      <c r="BZ11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3496,6 +3531,9 @@
       <c r="BY12" t="n">
         <v>899</v>
       </c>
+      <c r="BZ12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3741,6 +3779,9 @@
       <c r="BY13" t="n">
         <v>899</v>
       </c>
+      <c r="BZ13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3986,6 +4027,9 @@
       <c r="BY14" t="n">
         <v>909</v>
       </c>
+      <c r="BZ14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4231,6 +4275,9 @@
       <c r="BY15" t="n">
         <v>909</v>
       </c>
+      <c r="BZ15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4476,6 +4523,9 @@
       <c r="BY16" t="n">
         <v>909</v>
       </c>
+      <c r="BZ16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4717,6 +4767,9 @@
       <c r="BY17" t="n">
         <v>949</v>
       </c>
+      <c r="BZ17" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4962,6 +5015,9 @@
       <c r="BY18" t="n">
         <v>969</v>
       </c>
+      <c r="BZ18" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5207,6 +5263,9 @@
       <c r="BY19" t="n">
         <v>969</v>
       </c>
+      <c r="BZ19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5452,6 +5511,9 @@
       <c r="BY20" t="n">
         <v>969</v>
       </c>
+      <c r="BZ20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5697,6 +5759,9 @@
       <c r="BY21" t="n">
         <v>969</v>
       </c>
+      <c r="BZ21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5942,6 +6007,9 @@
       <c r="BY22" t="n">
         <v>969</v>
       </c>
+      <c r="BZ22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6187,6 +6255,9 @@
       <c r="BY23" t="n">
         <v>999</v>
       </c>
+      <c r="BZ23" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6432,6 +6503,9 @@
       <c r="BY24" t="n">
         <v>999</v>
       </c>
+      <c r="BZ24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6675,6 +6749,9 @@
       <c r="BY25" t="n">
         <v>1039</v>
       </c>
+      <c r="BZ25" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6920,6 +6997,9 @@
       <c r="BY26" t="n">
         <v>1079</v>
       </c>
+      <c r="BZ26" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7165,6 +7245,9 @@
       <c r="BY27" t="n">
         <v>1079</v>
       </c>
+      <c r="BZ27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7410,6 +7493,9 @@
       <c r="BY28" t="n">
         <v>1079</v>
       </c>
+      <c r="BZ28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7655,6 +7741,9 @@
       <c r="BY29" t="n">
         <v>1079</v>
       </c>
+      <c r="BZ29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7900,6 +7989,9 @@
       <c r="BY30" t="n">
         <v>1099</v>
       </c>
+      <c r="BZ30" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8145,6 +8237,9 @@
       <c r="BY31" t="n">
         <v>1099</v>
       </c>
+      <c r="BZ31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8390,6 +8485,9 @@
       <c r="BY32" t="n">
         <v>1199</v>
       </c>
+      <c r="BZ32" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8635,6 +8733,9 @@
       <c r="BY33" t="n">
         <v>1219</v>
       </c>
+      <c r="BZ33" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8880,6 +8981,9 @@
       <c r="BY34" t="n">
         <v>1219</v>
       </c>
+      <c r="BZ34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9125,6 +9229,9 @@
       <c r="BY35" t="n">
         <v>1219</v>
       </c>
+      <c r="BZ35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9370,6 +9477,9 @@
       <c r="BY36" t="n">
         <v>1219</v>
       </c>
+      <c r="BZ36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9615,6 +9725,9 @@
       <c r="BY37" t="n">
         <v>1219</v>
       </c>
+      <c r="BZ37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9860,6 +9973,9 @@
       <c r="BY38" t="n">
         <v>1229</v>
       </c>
+      <c r="BZ38" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10105,6 +10221,9 @@
       <c r="BY39" t="n">
         <v>1249</v>
       </c>
+      <c r="BZ39" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10350,6 +10469,9 @@
       <c r="BY40" t="n">
         <v>1249</v>
       </c>
+      <c r="BZ40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10595,6 +10717,9 @@
       <c r="BY41" t="n">
         <v>1329</v>
       </c>
+      <c r="BZ41" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10840,6 +10965,9 @@
       <c r="BY42" t="n">
         <v>1329</v>
       </c>
+      <c r="BZ42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11085,6 +11213,9 @@
       <c r="BY43" t="n">
         <v>1329</v>
       </c>
+      <c r="BZ43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11330,6 +11461,9 @@
       <c r="BY44" t="n">
         <v>1329</v>
       </c>
+      <c r="BZ44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11575,6 +11709,9 @@
       <c r="BY45" t="n">
         <v>1329</v>
       </c>
+      <c r="BZ45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11820,6 +11957,9 @@
       <c r="BY46" t="n">
         <v>1329</v>
       </c>
+      <c r="BZ46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12065,6 +12205,9 @@
       <c r="BY47" t="n">
         <v>1329</v>
       </c>
+      <c r="BZ47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12310,6 +12453,9 @@
       <c r="BY48" t="n">
         <v>1349</v>
       </c>
+      <c r="BZ48" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12336,7 +12482,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -12553,6 +12699,9 @@
         <v>1479</v>
       </c>
       <c r="BY49" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BZ49" t="n">
         <v>1479</v>
       </c>
     </row>
@@ -12581,7 +12730,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -12798,6 +12947,9 @@
         <v>1479</v>
       </c>
       <c r="BY50" t="n">
+        <v>1479</v>
+      </c>
+      <c r="BZ50" t="n">
         <v>1479</v>
       </c>
     </row>
@@ -13045,6 +13197,9 @@
       <c r="BY51" t="n">
         <v>1479</v>
       </c>
+      <c r="BZ51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13290,6 +13445,9 @@
       <c r="BY52" t="n">
         <v>1579</v>
       </c>
+      <c r="BZ52" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13535,6 +13693,9 @@
       <c r="BY53" t="n">
         <v>1579</v>
       </c>
+      <c r="BZ53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13780,6 +13941,9 @@
       <c r="BY54" t="n">
         <v>1579</v>
       </c>
+      <c r="BZ54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14025,6 +14189,9 @@
       <c r="BY55" t="n">
         <v>1579</v>
       </c>
+      <c r="BZ55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14270,6 +14437,9 @@
       <c r="BY56" t="n">
         <v>1579</v>
       </c>
+      <c r="BZ56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14515,6 +14685,9 @@
       <c r="BY57" t="n">
         <v>1579</v>
       </c>
+      <c r="BZ57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14760,6 +14933,9 @@
       <c r="BY58" t="n">
         <v>1579</v>
       </c>
+      <c r="BZ58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15005,6 +15181,9 @@
       <c r="BY59" t="n">
         <v>1729</v>
       </c>
+      <c r="BZ59" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15250,6 +15429,9 @@
       <c r="BY60" t="n">
         <v>1729</v>
       </c>
+      <c r="BZ60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15495,6 +15677,9 @@
       <c r="BY61" t="n">
         <v>1729</v>
       </c>
+      <c r="BZ61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15740,6 +15925,9 @@
       <c r="BY62" t="n">
         <v>1829</v>
       </c>
+      <c r="BZ62" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15985,6 +16173,9 @@
       <c r="BY63" t="n">
         <v>1829</v>
       </c>
+      <c r="BZ63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16230,6 +16421,9 @@
       <c r="BY64" t="n">
         <v>1829</v>
       </c>
+      <c r="BZ64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16475,6 +16669,9 @@
       <c r="BY65" t="n">
         <v>1979</v>
       </c>
+      <c r="BZ65" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16720,6 +16917,9 @@
       <c r="BY66" t="n">
         <v>1979</v>
       </c>
+      <c r="BZ66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16965,6 +17165,9 @@
       <c r="BY67" t="n">
         <v>1979</v>
       </c>
+      <c r="BZ67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17210,6 +17413,9 @@
       <c r="BY68" t="n">
         <v>2479</v>
       </c>
+      <c r="BZ68" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17455,6 +17661,9 @@
       <c r="BY69" t="n">
         <v>2479</v>
       </c>
+      <c r="BZ69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17698,6 +17907,9 @@
         <v>2479</v>
       </c>
       <c r="BY70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="BZ70" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -17873,6 +18085,7 @@
       <c r="BW71" t="inlineStr"/>
       <c r="BX71" t="inlineStr"/>
       <c r="BY71" t="inlineStr"/>
+      <c r="BZ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18108,6 +18321,7 @@
       <c r="BW72" t="inlineStr"/>
       <c r="BX72" t="inlineStr"/>
       <c r="BY72" t="inlineStr"/>
+      <c r="BZ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18267,6 +18481,7 @@
       <c r="BW73" t="inlineStr"/>
       <c r="BX73" t="inlineStr"/>
       <c r="BY73" t="inlineStr"/>
+      <c r="BZ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18426,6 +18641,7 @@
       <c r="BW74" t="inlineStr"/>
       <c r="BX74" t="inlineStr"/>
       <c r="BY74" t="inlineStr"/>
+      <c r="BZ74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ74"/>
+  <dimension ref="A1:CA74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,11 @@
           <t>2026-02-19 10:38:20</t>
         </is>
       </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>2026-02-19 11:35:25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1060,6 +1065,9 @@
       <c r="BZ2" t="n">
         <v>659</v>
       </c>
+      <c r="CA2" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1308,6 +1316,9 @@
       <c r="BZ3" t="n">
         <v>659</v>
       </c>
+      <c r="CA3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1554,6 +1565,9 @@
         <v>749</v>
       </c>
       <c r="BZ4" t="n">
+        <v>749</v>
+      </c>
+      <c r="CA4" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1798,6 +1812,9 @@
       <c r="BZ5" t="n">
         <v>749</v>
       </c>
+      <c r="CA5" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2046,6 +2063,9 @@
       <c r="BZ6" t="n">
         <v>809</v>
       </c>
+      <c r="CA6" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2294,6 +2314,9 @@
       <c r="BZ7" t="n">
         <v>809</v>
       </c>
+      <c r="CA7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2542,6 +2565,9 @@
       <c r="BZ8" t="n">
         <v>809</v>
       </c>
+      <c r="CA8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2790,6 +2816,9 @@
       <c r="BZ9" t="n">
         <v>809</v>
       </c>
+      <c r="CA9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3038,6 +3067,9 @@
       <c r="BZ10" t="n">
         <v>809</v>
       </c>
+      <c r="CA10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3286,6 +3318,9 @@
       <c r="BZ11" t="n">
         <v>849</v>
       </c>
+      <c r="CA11" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3534,6 +3569,9 @@
       <c r="BZ12" t="n">
         <v>899</v>
       </c>
+      <c r="CA12" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3782,6 +3820,9 @@
       <c r="BZ13" t="n">
         <v>899</v>
       </c>
+      <c r="CA13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4030,6 +4071,9 @@
       <c r="BZ14" t="n">
         <v>909</v>
       </c>
+      <c r="CA14" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4278,6 +4322,9 @@
       <c r="BZ15" t="n">
         <v>909</v>
       </c>
+      <c r="CA15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4526,6 +4573,9 @@
       <c r="BZ16" t="n">
         <v>909</v>
       </c>
+      <c r="CA16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4770,6 +4820,9 @@
       <c r="BZ17" t="n">
         <v>949</v>
       </c>
+      <c r="CA17" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5018,6 +5071,9 @@
       <c r="BZ18" t="n">
         <v>969</v>
       </c>
+      <c r="CA18" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5266,6 +5322,9 @@
       <c r="BZ19" t="n">
         <v>969</v>
       </c>
+      <c r="CA19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5514,6 +5573,9 @@
       <c r="BZ20" t="n">
         <v>969</v>
       </c>
+      <c r="CA20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5762,6 +5824,9 @@
       <c r="BZ21" t="n">
         <v>969</v>
       </c>
+      <c r="CA21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6010,6 +6075,9 @@
       <c r="BZ22" t="n">
         <v>969</v>
       </c>
+      <c r="CA22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6258,6 +6326,9 @@
       <c r="BZ23" t="n">
         <v>999</v>
       </c>
+      <c r="CA23" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6506,6 +6577,9 @@
       <c r="BZ24" t="n">
         <v>999</v>
       </c>
+      <c r="CA24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6752,6 +6826,9 @@
       <c r="BZ25" t="n">
         <v>1039</v>
       </c>
+      <c r="CA25" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7000,6 +7077,9 @@
       <c r="BZ26" t="n">
         <v>1079</v>
       </c>
+      <c r="CA26" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7248,6 +7328,9 @@
       <c r="BZ27" t="n">
         <v>1079</v>
       </c>
+      <c r="CA27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7496,6 +7579,9 @@
       <c r="BZ28" t="n">
         <v>1079</v>
       </c>
+      <c r="CA28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7515,7 +7601,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -7742,6 +7828,9 @@
         <v>1079</v>
       </c>
       <c r="BZ29" t="n">
+        <v>1079</v>
+      </c>
+      <c r="CA29" t="n">
         <v>1079</v>
       </c>
     </row>
@@ -7992,6 +8081,9 @@
       <c r="BZ30" t="n">
         <v>1099</v>
       </c>
+      <c r="CA30" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8240,6 +8332,9 @@
       <c r="BZ31" t="n">
         <v>1099</v>
       </c>
+      <c r="CA31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8488,6 +8583,9 @@
       <c r="BZ32" t="n">
         <v>1199</v>
       </c>
+      <c r="CA32" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8736,6 +8834,9 @@
       <c r="BZ33" t="n">
         <v>1219</v>
       </c>
+      <c r="CA33" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8984,6 +9085,9 @@
       <c r="BZ34" t="n">
         <v>1219</v>
       </c>
+      <c r="CA34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9232,6 +9336,9 @@
       <c r="BZ35" t="n">
         <v>1219</v>
       </c>
+      <c r="CA35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9480,6 +9587,9 @@
       <c r="BZ36" t="n">
         <v>1219</v>
       </c>
+      <c r="CA36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9728,6 +9838,9 @@
       <c r="BZ37" t="n">
         <v>1219</v>
       </c>
+      <c r="CA37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9976,6 +10089,9 @@
       <c r="BZ38" t="n">
         <v>1229</v>
       </c>
+      <c r="CA38" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10224,6 +10340,9 @@
       <c r="BZ39" t="n">
         <v>1249</v>
       </c>
+      <c r="CA39" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10472,6 +10591,9 @@
       <c r="BZ40" t="n">
         <v>1249</v>
       </c>
+      <c r="CA40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10720,6 +10842,9 @@
       <c r="BZ41" t="n">
         <v>1329</v>
       </c>
+      <c r="CA41" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10968,6 +11093,9 @@
       <c r="BZ42" t="n">
         <v>1329</v>
       </c>
+      <c r="CA42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11216,6 +11344,9 @@
       <c r="BZ43" t="n">
         <v>1329</v>
       </c>
+      <c r="CA43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11464,6 +11595,9 @@
       <c r="BZ44" t="n">
         <v>1329</v>
       </c>
+      <c r="CA44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11712,6 +11846,9 @@
       <c r="BZ45" t="n">
         <v>1329</v>
       </c>
+      <c r="CA45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11960,6 +12097,9 @@
       <c r="BZ46" t="n">
         <v>1329</v>
       </c>
+      <c r="CA46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12208,6 +12348,9 @@
       <c r="BZ47" t="n">
         <v>1329</v>
       </c>
+      <c r="CA47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12456,6 +12599,9 @@
       <c r="BZ48" t="n">
         <v>1349</v>
       </c>
+      <c r="CA48" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12704,6 +12850,9 @@
       <c r="BZ49" t="n">
         <v>1479</v>
       </c>
+      <c r="CA49" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12952,6 +13101,9 @@
       <c r="BZ50" t="n">
         <v>1479</v>
       </c>
+      <c r="CA50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13200,6 +13352,9 @@
       <c r="BZ51" t="n">
         <v>1479</v>
       </c>
+      <c r="CA51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13448,6 +13603,9 @@
       <c r="BZ52" t="n">
         <v>1579</v>
       </c>
+      <c r="CA52" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13696,6 +13854,9 @@
       <c r="BZ53" t="n">
         <v>1579</v>
       </c>
+      <c r="CA53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13944,6 +14105,9 @@
       <c r="BZ54" t="n">
         <v>1579</v>
       </c>
+      <c r="CA54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14192,6 +14356,9 @@
       <c r="BZ55" t="n">
         <v>1579</v>
       </c>
+      <c r="CA55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14440,6 +14607,9 @@
       <c r="BZ56" t="n">
         <v>1579</v>
       </c>
+      <c r="CA56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14688,6 +14858,9 @@
       <c r="BZ57" t="n">
         <v>1579</v>
       </c>
+      <c r="CA57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14936,6 +15109,9 @@
       <c r="BZ58" t="n">
         <v>1579</v>
       </c>
+      <c r="CA58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15184,6 +15360,9 @@
       <c r="BZ59" t="n">
         <v>1729</v>
       </c>
+      <c r="CA59" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15432,6 +15611,9 @@
       <c r="BZ60" t="n">
         <v>1729</v>
       </c>
+      <c r="CA60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15680,6 +15862,9 @@
       <c r="BZ61" t="n">
         <v>1729</v>
       </c>
+      <c r="CA61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15928,6 +16113,9 @@
       <c r="BZ62" t="n">
         <v>1829</v>
       </c>
+      <c r="CA62" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16176,6 +16364,9 @@
       <c r="BZ63" t="n">
         <v>1829</v>
       </c>
+      <c r="CA63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16424,6 +16615,9 @@
       <c r="BZ64" t="n">
         <v>1829</v>
       </c>
+      <c r="CA64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16672,6 +16866,9 @@
       <c r="BZ65" t="n">
         <v>1979</v>
       </c>
+      <c r="CA65" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16920,6 +17117,9 @@
       <c r="BZ66" t="n">
         <v>1979</v>
       </c>
+      <c r="CA66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17168,6 +17368,9 @@
       <c r="BZ67" t="n">
         <v>1979</v>
       </c>
+      <c r="CA67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17416,6 +17619,9 @@
       <c r="BZ68" t="n">
         <v>2479</v>
       </c>
+      <c r="CA68" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17664,6 +17870,9 @@
       <c r="BZ69" t="n">
         <v>2479</v>
       </c>
+      <c r="CA69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17910,6 +18119,9 @@
         <v>2479</v>
       </c>
       <c r="BZ70" t="n">
+        <v>2479</v>
+      </c>
+      <c r="CA70" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -18086,6 +18298,7 @@
       <c r="BX71" t="inlineStr"/>
       <c r="BY71" t="inlineStr"/>
       <c r="BZ71" t="inlineStr"/>
+      <c r="CA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18322,6 +18535,7 @@
       <c r="BX72" t="inlineStr"/>
       <c r="BY72" t="inlineStr"/>
       <c r="BZ72" t="inlineStr"/>
+      <c r="CA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18482,6 +18696,7 @@
       <c r="BX73" t="inlineStr"/>
       <c r="BY73" t="inlineStr"/>
       <c r="BZ73" t="inlineStr"/>
+      <c r="CA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18642,6 +18857,7 @@
       <c r="BX74" t="inlineStr"/>
       <c r="BY74" t="inlineStr"/>
       <c r="BZ74" t="inlineStr"/>
+      <c r="CA74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB74"/>
+  <dimension ref="A1:CC74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +820,11 @@
       <c r="CB1" t="inlineStr">
         <is>
           <t>2026-02-19 12:53:23</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:07:05</t>
         </is>
       </c>
     </row>
@@ -986,6 +991,9 @@
       <c r="CB2" t="n">
         <v>619</v>
       </c>
+      <c r="CC2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1240,6 +1248,9 @@
       <c r="CB3" t="n">
         <v>659</v>
       </c>
+      <c r="CC3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1494,6 +1505,9 @@
       <c r="CB4" t="n">
         <v>659</v>
       </c>
+      <c r="CC4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1513,7 +1527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (20/02/2026)</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1746,6 +1760,9 @@
         <v>749</v>
       </c>
       <c r="CB5" t="n">
+        <v>749</v>
+      </c>
+      <c r="CC5" t="n">
         <v>749</v>
       </c>
     </row>
@@ -1996,6 +2013,9 @@
       <c r="CB6" t="n">
         <v>749</v>
       </c>
+      <c r="CC6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2250,6 +2270,9 @@
       <c r="CB7" t="n">
         <v>809</v>
       </c>
+      <c r="CC7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2504,6 +2527,9 @@
       <c r="CB8" t="n">
         <v>809</v>
       </c>
+      <c r="CC8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2758,6 +2784,9 @@
       <c r="CB9" t="n">
         <v>809</v>
       </c>
+      <c r="CC9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3012,6 +3041,9 @@
       <c r="CB10" t="n">
         <v>809</v>
       </c>
+      <c r="CC10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3266,6 +3298,9 @@
       <c r="CB11" t="n">
         <v>809</v>
       </c>
+      <c r="CC11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3520,6 +3555,9 @@
       <c r="CB12" t="n">
         <v>849</v>
       </c>
+      <c r="CC12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3774,6 +3812,9 @@
       <c r="CB13" t="n">
         <v>899</v>
       </c>
+      <c r="CC13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4028,6 +4069,9 @@
       <c r="CB14" t="n">
         <v>899</v>
       </c>
+      <c r="CC14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4282,6 +4326,9 @@
       <c r="CB15" t="n">
         <v>909</v>
       </c>
+      <c r="CC15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4536,6 +4583,9 @@
       <c r="CB16" t="n">
         <v>909</v>
       </c>
+      <c r="CC16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4790,6 +4840,9 @@
       <c r="CB17" t="n">
         <v>909</v>
       </c>
+      <c r="CC17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5040,6 +5093,9 @@
       <c r="CB18" t="n">
         <v>949</v>
       </c>
+      <c r="CC18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5294,6 +5350,9 @@
       <c r="CB19" t="n">
         <v>969</v>
       </c>
+      <c r="CC19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5548,6 +5607,9 @@
       <c r="CB20" t="n">
         <v>969</v>
       </c>
+      <c r="CC20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5802,6 +5864,9 @@
       <c r="CB21" t="n">
         <v>969</v>
       </c>
+      <c r="CC21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6056,6 +6121,9 @@
       <c r="CB22" t="n">
         <v>969</v>
       </c>
+      <c r="CC22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6310,6 +6378,9 @@
       <c r="CB23" t="n">
         <v>969</v>
       </c>
+      <c r="CC23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6564,6 +6635,9 @@
       <c r="CB24" t="n">
         <v>999</v>
       </c>
+      <c r="CC24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6818,6 +6892,9 @@
       <c r="CB25" t="n">
         <v>999</v>
       </c>
+      <c r="CC25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7070,6 +7147,9 @@
       <c r="CB26" t="n">
         <v>1039</v>
       </c>
+      <c r="CC26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7324,6 +7404,9 @@
       <c r="CB27" t="n">
         <v>1079</v>
       </c>
+      <c r="CC27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7578,6 +7661,9 @@
       <c r="CB28" t="n">
         <v>1079</v>
       </c>
+      <c r="CC28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7832,6 +7918,9 @@
       <c r="CB29" t="n">
         <v>1079</v>
       </c>
+      <c r="CC29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8086,6 +8175,9 @@
       <c r="CB30" t="n">
         <v>1079</v>
       </c>
+      <c r="CC30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8340,6 +8432,9 @@
       <c r="CB31" t="n">
         <v>1099</v>
       </c>
+      <c r="CC31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8594,6 +8689,9 @@
       <c r="CB32" t="n">
         <v>1099</v>
       </c>
+      <c r="CC32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8848,6 +8946,9 @@
       <c r="CB33" t="n">
         <v>1199</v>
       </c>
+      <c r="CC33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9102,6 +9203,9 @@
       <c r="CB34" t="n">
         <v>1219</v>
       </c>
+      <c r="CC34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9356,6 +9460,9 @@
       <c r="CB35" t="n">
         <v>1219</v>
       </c>
+      <c r="CC35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9610,6 +9717,9 @@
       <c r="CB36" t="n">
         <v>1219</v>
       </c>
+      <c r="CC36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9864,6 +9974,9 @@
       <c r="CB37" t="n">
         <v>1219</v>
       </c>
+      <c r="CC37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10118,6 +10231,9 @@
       <c r="CB38" t="n">
         <v>1219</v>
       </c>
+      <c r="CC38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10372,6 +10488,9 @@
       <c r="CB39" t="n">
         <v>1229</v>
       </c>
+      <c r="CC39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10626,6 +10745,9 @@
       <c r="CB40" t="n">
         <v>1249</v>
       </c>
+      <c r="CC40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10880,6 +11002,9 @@
       <c r="CB41" t="n">
         <v>1249</v>
       </c>
+      <c r="CC41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11134,6 +11259,9 @@
       <c r="CB42" t="n">
         <v>1329</v>
       </c>
+      <c r="CC42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11388,6 +11516,9 @@
       <c r="CB43" t="n">
         <v>1329</v>
       </c>
+      <c r="CC43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11642,6 +11773,9 @@
       <c r="CB44" t="n">
         <v>1329</v>
       </c>
+      <c r="CC44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11896,6 +12030,9 @@
       <c r="CB45" t="n">
         <v>1329</v>
       </c>
+      <c r="CC45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12150,6 +12287,9 @@
       <c r="CB46" t="n">
         <v>1329</v>
       </c>
+      <c r="CC46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12404,6 +12544,9 @@
       <c r="CB47" t="n">
         <v>1329</v>
       </c>
+      <c r="CC47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12658,6 +12801,9 @@
       <c r="CB48" t="n">
         <v>1329</v>
       </c>
+      <c r="CC48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12912,6 +13058,9 @@
       <c r="CB49" t="n">
         <v>1349</v>
       </c>
+      <c r="CC49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13166,6 +13315,9 @@
       <c r="CB50" t="n">
         <v>1479</v>
       </c>
+      <c r="CC50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13420,6 +13572,9 @@
       <c r="CB51" t="n">
         <v>1479</v>
       </c>
+      <c r="CC51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13674,6 +13829,9 @@
       <c r="CB52" t="n">
         <v>1479</v>
       </c>
+      <c r="CC52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13928,6 +14086,9 @@
       <c r="CB53" t="n">
         <v>1579</v>
       </c>
+      <c r="CC53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14182,6 +14343,9 @@
       <c r="CB54" t="n">
         <v>1579</v>
       </c>
+      <c r="CC54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14436,6 +14600,9 @@
       <c r="CB55" t="n">
         <v>1579</v>
       </c>
+      <c r="CC55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14690,6 +14857,9 @@
       <c r="CB56" t="n">
         <v>1579</v>
       </c>
+      <c r="CC56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14944,6 +15114,9 @@
       <c r="CB57" t="n">
         <v>1579</v>
       </c>
+      <c r="CC57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15198,6 +15371,9 @@
       <c r="CB58" t="n">
         <v>1579</v>
       </c>
+      <c r="CC58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15452,6 +15628,9 @@
       <c r="CB59" t="n">
         <v>1579</v>
       </c>
+      <c r="CC59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15706,6 +15885,9 @@
       <c r="CB60" t="n">
         <v>1729</v>
       </c>
+      <c r="CC60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15960,6 +16142,9 @@
       <c r="CB61" t="n">
         <v>1729</v>
       </c>
+      <c r="CC61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16214,6 +16399,9 @@
       <c r="CB62" t="n">
         <v>1729</v>
       </c>
+      <c r="CC62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16468,6 +16656,9 @@
       <c r="CB63" t="n">
         <v>1829</v>
       </c>
+      <c r="CC63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16722,6 +16913,9 @@
       <c r="CB64" t="n">
         <v>1829</v>
       </c>
+      <c r="CC64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16976,6 +17170,9 @@
       <c r="CB65" t="n">
         <v>1829</v>
       </c>
+      <c r="CC65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17230,6 +17427,9 @@
       <c r="CB66" t="n">
         <v>1979</v>
       </c>
+      <c r="CC66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17484,6 +17684,9 @@
       <c r="CB67" t="n">
         <v>1979</v>
       </c>
+      <c r="CC67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17738,6 +17941,9 @@
       <c r="CB68" t="n">
         <v>1979</v>
       </c>
+      <c r="CC68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17992,6 +18198,9 @@
       <c r="CB69" t="n">
         <v>2479</v>
       </c>
+      <c r="CC69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18246,6 +18455,9 @@
       <c r="CB70" t="n">
         <v>2479</v>
       </c>
+      <c r="CC70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18498,6 +18710,9 @@
         <v>2479</v>
       </c>
       <c r="CB71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="CC71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -18676,6 +18891,7 @@
       <c r="BZ72" t="inlineStr"/>
       <c r="CA72" t="inlineStr"/>
       <c r="CB72" t="inlineStr"/>
+      <c r="CC72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18914,6 +19130,7 @@
       <c r="BZ73" t="inlineStr"/>
       <c r="CA73" t="inlineStr"/>
       <c r="CB73" t="inlineStr"/>
+      <c r="CC73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19076,6 +19293,7 @@
       <c r="BZ74" t="inlineStr"/>
       <c r="CA74" t="inlineStr"/>
       <c r="CB74" t="inlineStr"/>
+      <c r="CC74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC74"/>
+  <dimension ref="A1:CD74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,6 +825,11 @@
       <c r="CC1" t="inlineStr">
         <is>
           <t>2026-02-19 14:07:05</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:43:22</t>
         </is>
       </c>
     </row>
@@ -994,6 +999,9 @@
       <c r="CC2" t="n">
         <v>619</v>
       </c>
+      <c r="CD2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1251,6 +1259,9 @@
       <c r="CC3" t="n">
         <v>659</v>
       </c>
+      <c r="CD3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1508,6 +1519,9 @@
       <c r="CC4" t="n">
         <v>659</v>
       </c>
+      <c r="CD4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1763,6 +1777,9 @@
         <v>749</v>
       </c>
       <c r="CC5" t="n">
+        <v>749</v>
+      </c>
+      <c r="CD5" t="n">
         <v>749</v>
       </c>
     </row>
@@ -2016,6 +2033,9 @@
       <c r="CC6" t="n">
         <v>749</v>
       </c>
+      <c r="CD6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2273,6 +2293,9 @@
       <c r="CC7" t="n">
         <v>809</v>
       </c>
+      <c r="CD7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2530,6 +2553,9 @@
       <c r="CC8" t="n">
         <v>809</v>
       </c>
+      <c r="CD8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2787,6 +2813,9 @@
       <c r="CC9" t="n">
         <v>809</v>
       </c>
+      <c r="CD9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3044,6 +3073,9 @@
       <c r="CC10" t="n">
         <v>809</v>
       </c>
+      <c r="CD10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3301,6 +3333,9 @@
       <c r="CC11" t="n">
         <v>809</v>
       </c>
+      <c r="CD11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3558,6 +3593,9 @@
       <c r="CC12" t="n">
         <v>849</v>
       </c>
+      <c r="CD12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3815,6 +3853,9 @@
       <c r="CC13" t="n">
         <v>899</v>
       </c>
+      <c r="CD13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4072,6 +4113,9 @@
       <c r="CC14" t="n">
         <v>899</v>
       </c>
+      <c r="CD14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4329,6 +4373,9 @@
       <c r="CC15" t="n">
         <v>909</v>
       </c>
+      <c r="CD15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4586,6 +4633,9 @@
       <c r="CC16" t="n">
         <v>909</v>
       </c>
+      <c r="CD16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4843,6 +4893,9 @@
       <c r="CC17" t="n">
         <v>909</v>
       </c>
+      <c r="CD17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5096,6 +5149,9 @@
       <c r="CC18" t="n">
         <v>949</v>
       </c>
+      <c r="CD18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5353,6 +5409,9 @@
       <c r="CC19" t="n">
         <v>969</v>
       </c>
+      <c r="CD19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5610,6 +5669,9 @@
       <c r="CC20" t="n">
         <v>969</v>
       </c>
+      <c r="CD20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5867,6 +5929,9 @@
       <c r="CC21" t="n">
         <v>969</v>
       </c>
+      <c r="CD21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6124,6 +6189,9 @@
       <c r="CC22" t="n">
         <v>969</v>
       </c>
+      <c r="CD22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6381,6 +6449,9 @@
       <c r="CC23" t="n">
         <v>969</v>
       </c>
+      <c r="CD23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6638,6 +6709,9 @@
       <c r="CC24" t="n">
         <v>999</v>
       </c>
+      <c r="CD24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6895,6 +6969,9 @@
       <c r="CC25" t="n">
         <v>999</v>
       </c>
+      <c r="CD25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7150,6 +7227,9 @@
       <c r="CC26" t="n">
         <v>1039</v>
       </c>
+      <c r="CD26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7407,6 +7487,9 @@
       <c r="CC27" t="n">
         <v>1079</v>
       </c>
+      <c r="CD27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7664,6 +7747,9 @@
       <c r="CC28" t="n">
         <v>1079</v>
       </c>
+      <c r="CD28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7921,6 +8007,9 @@
       <c r="CC29" t="n">
         <v>1079</v>
       </c>
+      <c r="CD29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8178,6 +8267,9 @@
       <c r="CC30" t="n">
         <v>1079</v>
       </c>
+      <c r="CD30" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8435,6 +8527,9 @@
       <c r="CC31" t="n">
         <v>1099</v>
       </c>
+      <c r="CD31" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8692,6 +8787,9 @@
       <c r="CC32" t="n">
         <v>1099</v>
       </c>
+      <c r="CD32" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8949,6 +9047,9 @@
       <c r="CC33" t="n">
         <v>1199</v>
       </c>
+      <c r="CD33" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9206,6 +9307,9 @@
       <c r="CC34" t="n">
         <v>1219</v>
       </c>
+      <c r="CD34" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9463,6 +9567,9 @@
       <c r="CC35" t="n">
         <v>1219</v>
       </c>
+      <c r="CD35" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9720,6 +9827,9 @@
       <c r="CC36" t="n">
         <v>1219</v>
       </c>
+      <c r="CD36" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9977,6 +10087,9 @@
       <c r="CC37" t="n">
         <v>1219</v>
       </c>
+      <c r="CD37" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10234,6 +10347,9 @@
       <c r="CC38" t="n">
         <v>1219</v>
       </c>
+      <c r="CD38" t="n">
+        <v>1219</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10491,6 +10607,9 @@
       <c r="CC39" t="n">
         <v>1229</v>
       </c>
+      <c r="CD39" t="n">
+        <v>1229</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10748,6 +10867,9 @@
       <c r="CC40" t="n">
         <v>1249</v>
       </c>
+      <c r="CD40" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11005,6 +11127,9 @@
       <c r="CC41" t="n">
         <v>1249</v>
       </c>
+      <c r="CD41" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11262,6 +11387,9 @@
       <c r="CC42" t="n">
         <v>1329</v>
       </c>
+      <c r="CD42" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11519,6 +11647,9 @@
       <c r="CC43" t="n">
         <v>1329</v>
       </c>
+      <c r="CD43" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11776,6 +11907,9 @@
       <c r="CC44" t="n">
         <v>1329</v>
       </c>
+      <c r="CD44" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12033,6 +12167,9 @@
       <c r="CC45" t="n">
         <v>1329</v>
       </c>
+      <c r="CD45" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12290,6 +12427,9 @@
       <c r="CC46" t="n">
         <v>1329</v>
       </c>
+      <c r="CD46" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12547,6 +12687,9 @@
       <c r="CC47" t="n">
         <v>1329</v>
       </c>
+      <c r="CD47" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12804,6 +12947,9 @@
       <c r="CC48" t="n">
         <v>1329</v>
       </c>
+      <c r="CD48" t="n">
+        <v>1329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13061,6 +13207,9 @@
       <c r="CC49" t="n">
         <v>1349</v>
       </c>
+      <c r="CD49" t="n">
+        <v>1349</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13318,6 +13467,9 @@
       <c r="CC50" t="n">
         <v>1479</v>
       </c>
+      <c r="CD50" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13575,6 +13727,9 @@
       <c r="CC51" t="n">
         <v>1479</v>
       </c>
+      <c r="CD51" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13832,6 +13987,9 @@
       <c r="CC52" t="n">
         <v>1479</v>
       </c>
+      <c r="CD52" t="n">
+        <v>1479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14089,6 +14247,9 @@
       <c r="CC53" t="n">
         <v>1579</v>
       </c>
+      <c r="CD53" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14346,6 +14507,9 @@
       <c r="CC54" t="n">
         <v>1579</v>
       </c>
+      <c r="CD54" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14603,6 +14767,9 @@
       <c r="CC55" t="n">
         <v>1579</v>
       </c>
+      <c r="CD55" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14860,6 +15027,9 @@
       <c r="CC56" t="n">
         <v>1579</v>
       </c>
+      <c r="CD56" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15117,6 +15287,9 @@
       <c r="CC57" t="n">
         <v>1579</v>
       </c>
+      <c r="CD57" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15374,6 +15547,9 @@
       <c r="CC58" t="n">
         <v>1579</v>
       </c>
+      <c r="CD58" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15631,6 +15807,9 @@
       <c r="CC59" t="n">
         <v>1579</v>
       </c>
+      <c r="CD59" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15888,6 +16067,9 @@
       <c r="CC60" t="n">
         <v>1729</v>
       </c>
+      <c r="CD60" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16145,6 +16327,9 @@
       <c r="CC61" t="n">
         <v>1729</v>
       </c>
+      <c r="CD61" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16402,6 +16587,9 @@
       <c r="CC62" t="n">
         <v>1729</v>
       </c>
+      <c r="CD62" t="n">
+        <v>1729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16659,6 +16847,9 @@
       <c r="CC63" t="n">
         <v>1829</v>
       </c>
+      <c r="CD63" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16916,6 +17107,9 @@
       <c r="CC64" t="n">
         <v>1829</v>
       </c>
+      <c r="CD64" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17173,6 +17367,9 @@
       <c r="CC65" t="n">
         <v>1829</v>
       </c>
+      <c r="CD65" t="n">
+        <v>1829</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17430,6 +17627,9 @@
       <c r="CC66" t="n">
         <v>1979</v>
       </c>
+      <c r="CD66" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17687,6 +17887,9 @@
       <c r="CC67" t="n">
         <v>1979</v>
       </c>
+      <c r="CD67" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17944,6 +18147,9 @@
       <c r="CC68" t="n">
         <v>1979</v>
       </c>
+      <c r="CD68" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18201,6 +18407,9 @@
       <c r="CC69" t="n">
         <v>2479</v>
       </c>
+      <c r="CD69" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18458,6 +18667,9 @@
       <c r="CC70" t="n">
         <v>2479</v>
       </c>
+      <c r="CD70" t="n">
+        <v>2479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18713,6 +18925,9 @@
         <v>2479</v>
       </c>
       <c r="CC71" t="n">
+        <v>2479</v>
+      </c>
+      <c r="CD71" t="n">
         <v>2479</v>
       </c>
     </row>
@@ -18892,6 +19107,7 @@
       <c r="CA72" t="inlineStr"/>
       <c r="CB72" t="inlineStr"/>
       <c r="CC72" t="inlineStr"/>
+      <c r="CD72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19131,6 +19347,7 @@
       <c r="CA73" t="inlineStr"/>
       <c r="CB73" t="inlineStr"/>
       <c r="CC73" t="inlineStr"/>
+      <c r="CD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19294,6 +19511,7 @@
       <c r="CA74" t="inlineStr"/>
       <c r="CB74" t="inlineStr"/>
       <c r="CC74" t="inlineStr"/>
+      <c r="CD74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_iphone.xlsx
+++ b/datanomics/outputs/ldlc_iphone.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD74"/>
+  <dimension ref="A1:CE74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +830,11 @@
       <c r="CD1" t="inlineStr">
         <is>
           <t>2026-02-19 15:43:22</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>2026-02-19 16:45:32</t>
         </is>
       </c>
     </row>
@@ -1002,6 +1007,9 @@
       <c r="CD2" t="n">
         <v>619</v>
       </c>
+      <c r="CE2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1262,6 +1270,9 @@
       <c r="CD3" t="n">
         <v>659</v>
       </c>
+      <c r="CE3" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1522,6 +1533,9 @@
       <c r="CD4" t="n">
         <v>659</v>
       </c>
+      <c r="CE4" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1780,6 +1794,9 @@
         <v>749</v>
       </c>
       <c r="CD5" t="n">
+        <v>749</v>
+      </c>
+      <c r="CE5" t="n">
         <v>749</v>
       </c>
     </row>
@@ -2036,6 +2053,9 @@
       <c r="CD6" t="n">
         <v>749</v>
       </c>
+      <c r="CE6" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2296,6 +2316,9 @@
       <c r="CD7" t="n">
         <v>809</v>
       </c>
+      <c r="CE7" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2556,6 +2579,9 @@
       <c r="CD8" t="n">
         <v>809</v>
       </c>
+      <c r="CE8" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2816,6 +2842,9 @@
       <c r="CD9" t="n">
         <v>809</v>
       </c>
+      <c r="CE9" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3076,6 +3105,9 @@
       <c r="CD10" t="n">
         <v>809</v>
       </c>
+      <c r="CE10" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3336,6 +3368,9 @@
       <c r="CD11" t="n">
         <v>809</v>
       </c>
+      <c r="CE11" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3596,6 +3631,9 @@
       <c r="CD12" t="n">
         <v>849</v>
       </c>
+      <c r="CE12" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3856,6 +3894,9 @@
       <c r="CD13" t="n">
         <v>899</v>
       </c>
+      <c r="CE13" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4116,6 +4157,9 @@
       <c r="CD14" t="n">
         <v>899</v>
       </c>
+      <c r="CE14" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4376,6 +4420,9 @@
       <c r="CD15" t="n">
         <v>909</v>
       </c>
+      <c r="CE15" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4636,6 +4683,9 @@
       <c r="CD16" t="n">
         <v>909</v>
       </c>
+      <c r="CE16" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4896,6 +4946,9 @@
       <c r="CD17" t="n">
         <v>909</v>
       </c>
+      <c r="CE17" t="n">
+        <v>909</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5152,6 +5205,9 @@
       <c r="CD18" t="n">
         <v>949</v>
       </c>
+      <c r="CE18" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5412,6 +5468,9 @@
       <c r="CD19" t="n">
         <v>969</v>
       </c>
+      <c r="CE19" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5672,6 +5731,9 @@
       <c r="CD20" t="n">
         <v>969</v>
       </c>
+      <c r="CE20" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5932,6 +5994,9 @@
       <c r="CD21" t="n">
         <v>969</v>
       </c>
+      <c r="CE21" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6192,6 +6257,9 @@
       <c r="CD22" t="n">
         <v>969</v>
       </c>
+      <c r="CE22" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6452,6 +6520,9 @@
       <c r="CD23" t="n">
         <v>969</v>
       </c>
+      <c r="CE23" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6712,6 +6783,9 @@
       <c r="CD24" t="n">
         <v>999</v>
       </c>
+      <c r="CE24" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6972,6 +7046,9 @@
       <c r="CD25" t="n">
         <v>999</v>
       </c>
+      <c r="CE25" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7230,6 +7307,9 @@
       <c r="CD26" t="n">
         <v>1039</v>
       </c>
+      <c r="CE26" t="n">
+        <v>1039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7490,6 +7570,9 @@
       <c r="CD27" t="n">
         <v>1079</v>
       </c>
+      <c r="CE27" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7750,6 +7833,9 @@
       <c r="CD28" t="n">
         <v>1079</v>
       </c>
+      <c r="CE28" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8010,6 +8096,9 @@
       <c r="CD29" t="n">
         <v>1079</v>
       </c>
+      <c r="CE29" t="n">
+        <v>1079</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8270,6 +8359,9 @@
       <c r="CD30" t="n">
         <v>1079</v>
       </c>
+      <c r="CE30" t="n"